--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="233">
   <si>
     <t>구분</t>
   </si>
@@ -282,12 +282,6 @@
     <t>포기김치/석박지</t>
   </si>
   <si>
-    <t>단무지부추무침</t>
-  </si>
-  <si>
-    <t>981kcal</t>
-  </si>
-  <si>
     <t>네이쳐데이</t>
   </si>
   <si>
@@ -343,15 +337,6 @@
 일품</t>
   </si>
   <si>
-    <t>그린샐러드*올리브계란</t>
-  </si>
-  <si>
-    <t>고구마찜/새싹연두부</t>
-  </si>
-  <si>
-    <t>511kcal</t>
-  </si>
-  <si>
     <t>* 식품수급 상황에 따라 메뉴 및 원산지가 변경될 수 있으니 양해바랍니다.
 * 쌀 : 국내산, 배추김치(배추:국내산, 고춧가루:중국산)을 사용합니다. (식당사무실 : ☎ 070-7500-6851 )</t>
   </si>
@@ -362,36 +347,12 @@
     <t>쥐어채무침(갈치:국내산)</t>
   </si>
   <si>
-    <t>식혜</t>
-  </si>
-  <si>
-    <t>콩가루배추국</t>
-  </si>
-  <si>
-    <t>쇠고기두부탕국(소:호주산)</t>
-  </si>
-  <si>
-    <t>계란조림</t>
-  </si>
-  <si>
-    <t>슬라이스햄</t>
-  </si>
-  <si>
-    <t>매쉬드포테이토</t>
-  </si>
-  <si>
     <t>차조밥</t>
   </si>
   <si>
     <t>얼갈이된장국</t>
   </si>
   <si>
-    <t>옛날소시지전*케찹</t>
-  </si>
-  <si>
-    <t>볼어묵맛살볶음(갈치:수입산)</t>
-  </si>
-  <si>
     <t>쑥갓양파무침</t>
   </si>
   <si>
@@ -401,12 +362,6 @@
     <t>맑은우동국물</t>
   </si>
   <si>
-    <t>유부된장국</t>
-  </si>
-  <si>
-    <t>무짠지채무침</t>
-  </si>
-  <si>
     <t>그린샐러드*견과류올린구운야채</t>
   </si>
   <si>
@@ -422,536 +377,427 @@
     <t>보리밥</t>
   </si>
   <si>
-    <t>감자조림</t>
-  </si>
-  <si>
     <t>단호박구이/삶은계란</t>
   </si>
   <si>
-    <t>두유/참치마요주먹밥</t>
-  </si>
-  <si>
-    <t>510kcal</t>
-  </si>
-  <si>
-    <t>514kcal</t>
-  </si>
-  <si>
-    <t>아이스유자차</t>
-  </si>
-  <si>
-    <t>매실차</t>
-  </si>
-  <si>
-    <t>6월 24일 (화)</t>
-  </si>
-  <si>
-    <t>6월 25일 (수)</t>
-  </si>
-  <si>
-    <t>6월 26일 (목)</t>
-  </si>
-  <si>
-    <t>6월 27일 (금)</t>
-  </si>
-  <si>
-    <t>얼큰오징어무찌개</t>
-  </si>
-  <si>
-    <t>들깨순두부국</t>
-  </si>
-  <si>
-    <t>북어채콩나물국</t>
-  </si>
-  <si>
-    <t>미트볼야채볶음(돼지,닭:국내산)</t>
-  </si>
-  <si>
-    <t>꽁치김치조림</t>
-  </si>
-  <si>
-    <t>735kcal</t>
-  </si>
-  <si>
-    <t>801kcal</t>
-  </si>
-  <si>
-    <t>795kcal</t>
-  </si>
-  <si>
-    <t>805kcal</t>
-  </si>
-  <si>
-    <t>787kcal</t>
-  </si>
-  <si>
-    <t>곡물식빵,토스트식빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>곡물식빵*핫케익/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*참깨롤빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>곡물식빵*부시맥브레드/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*모닝빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>그린샐러드*애플D</t>
-  </si>
-  <si>
-    <t>아몬드콘후레이크</t>
-  </si>
-  <si>
-    <t>줄무늬감자튀김</t>
-  </si>
-  <si>
     <t>초코첵스</t>
   </si>
   <si>
-    <t>사골부대찌개*라면사리
+    <t>콩나물무침</t>
+  </si>
+  <si>
+    <t>오복채무침</t>
+  </si>
+  <si>
+    <t>1008kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*올리브참치</t>
+  </si>
+  <si>
+    <t>그린샐러드*꽃맛살</t>
+  </si>
+  <si>
+    <t>고구마찜/메추리알</t>
+  </si>
+  <si>
+    <t>유자레몬D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>야채계란말이</t>
+  </si>
+  <si>
+    <t>열무김치</t>
+  </si>
+  <si>
+    <t>979kcal</t>
+  </si>
+  <si>
+    <t>515kcal</t>
+  </si>
+  <si>
+    <t>7월 1일 (화)</t>
+  </si>
+  <si>
+    <t>7월 2일 (수)</t>
+  </si>
+  <si>
+    <t>7월 3일 (목)</t>
+  </si>
+  <si>
+    <t>7월 4일 (금)</t>
+  </si>
+  <si>
+    <t>건새우시금치된장국</t>
+  </si>
+  <si>
+    <t>김치콩나물국</t>
+  </si>
+  <si>
+    <t>꼬맹이만두국(소:호주산)</t>
+  </si>
+  <si>
+    <t>무채어묵국(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>장터국(소:호주산)</t>
+  </si>
+  <si>
+    <t>떡갈비가래떡조림(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>비엔나야채볶음</t>
+  </si>
+  <si>
+    <t>양배추진미채무침</t>
+  </si>
+  <si>
+    <t>호박맛살볶음</t>
+  </si>
+  <si>
+    <t>따뜻한연두부*절임고추간장s</t>
+  </si>
+  <si>
+    <t>석박지</t>
+  </si>
+  <si>
+    <t>726kcal</t>
+  </si>
+  <si>
+    <t>730kcal</t>
+  </si>
+  <si>
+    <t>715kcal</t>
+  </si>
+  <si>
+    <t>728kcal</t>
+  </si>
+  <si>
+    <t>744kcal</t>
+  </si>
+  <si>
+    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>곡물식빵*모닝빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*핫케익/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>그린샐러드*유자레몬D</t>
+  </si>
+  <si>
+    <t>해쉬브라운</t>
+  </si>
+  <si>
+    <t>콘후레이크</t>
+  </si>
+  <si>
+    <t>단호박범벅</t>
+  </si>
+  <si>
+    <t>감자볼튀김</t>
+  </si>
+  <si>
+    <t>제육김치두루치기*두부찜
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>뚝배기불고기버섯전골*떡만두사리
 (소:호주산)</t>
   </si>
   <si>
-    <r>
-      <t>오돈불고기*떡사리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(돼지:국내산)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>뚝배기매콤닭볶음탕</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(닭:국내산)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>철판고추장삼겹살구이</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(돼지:독일산)</t>
-    </r>
-  </si>
-  <si>
-    <t>쇠고기버섯불고기*참나물두부샐러드
-(소:호주산)</t>
-  </si>
-  <si>
-    <r>
-      <t>두부계란찜</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">들깨미역국 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">근대국 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">맑은콩나물국 </t>
-  </si>
-  <si>
-    <t>어묵김치찌개(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>비엔나브로커리볶음</t>
-  </si>
-  <si>
-    <t>모듬쌈채소&amp;포두부</t>
-  </si>
-  <si>
-    <t>탕평채</t>
-  </si>
-  <si>
-    <t>상추양파무침</t>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-  </si>
-  <si>
-    <t>도토리묵야채무침</t>
-  </si>
-  <si>
-    <t>검정깨명엽채볶음</t>
-  </si>
-  <si>
-    <t>통깨건파래볶음</t>
-  </si>
-  <si>
-    <t>988kcal</t>
-  </si>
-  <si>
-    <t>968kcal</t>
-  </si>
-  <si>
-    <t>998kcal</t>
-  </si>
-  <si>
-    <r>
-      <t>순살등심돈까스*데미S</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(돼지:국내산)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>미소라멘</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(돼지:미국산)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>불고기필라프&amp;감귤드레싱</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(소:호주산)</t>
-    </r>
-  </si>
-  <si>
-    <t>왕새우튀김오므라이스</t>
-  </si>
-  <si>
-    <t>[글루텐프리]쌀우동</t>
-  </si>
-  <si>
-    <t>검정깨밥/크림스프</t>
-  </si>
-  <si>
-    <t>새싹채소와사비롤</t>
-  </si>
-  <si>
-    <t>김쌈밥*참치소스</t>
-  </si>
-  <si>
-    <t>포테이토칩*스위트칠리S</t>
-  </si>
-  <si>
-    <t>생선까스*타르타르S</t>
-  </si>
-  <si>
-    <t>까르보나라떡볶이</t>
-  </si>
-  <si>
-    <t>미니핫도그*더블S</t>
-  </si>
-  <si>
-    <t>두부야끼</t>
-  </si>
-  <si>
-    <t>부시맥브레드*버터/무오이피클</t>
-  </si>
-  <si>
-    <t>오복채무침</t>
-  </si>
-  <si>
-    <t>오이피클*할라페뇨</t>
-  </si>
-  <si>
-    <t>1011kcal</t>
-  </si>
-  <si>
-    <t>1008kcal</t>
-  </si>
-  <si>
-    <t>1005kcal</t>
-  </si>
-  <si>
-    <t>오곡밥</t>
-  </si>
-  <si>
-    <t>시원한도토리묵사발</t>
-  </si>
-  <si>
-    <t>토마토가지찹쌀탕수</t>
-  </si>
-  <si>
-    <t>시금치들깨나물/우엉땅콩조림</t>
-  </si>
-  <si>
-    <t>638kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*구운새송이버섯과마늘</t>
-  </si>
-  <si>
-    <t>그린샐러드*올리브참치</t>
-  </si>
-  <si>
-    <t>그린샐러드*꽃맛살</t>
-  </si>
-  <si>
-    <t>고구마찜/메추리알</t>
-  </si>
-  <si>
-    <t>단호박구이/브로컬리</t>
-  </si>
-  <si>
-    <t>통감자구이/새싹연두부</t>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>두유/아몬드멸치주먹밥</t>
-  </si>
-  <si>
-    <t>505kcal</t>
-  </si>
-  <si>
-    <t>508kcal</t>
-  </si>
-  <si>
-    <t>후르트링</t>
-  </si>
-  <si>
-    <t>유자레몬D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>블루베리D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>콘마요D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>황도D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>사과배D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>열무꽁보리비빔밥*강된장소스</t>
-  </si>
-  <si>
-    <t>목살김치찌개(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>숯불제육생야채비빔밥(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>단호박영양밥</t>
-  </si>
-  <si>
-    <t>제육김치덮밥(돼자:국내산)</t>
-  </si>
-  <si>
-    <t>삼색수제비국</t>
-  </si>
-  <si>
-    <t>된장찌개</t>
-  </si>
-  <si>
-    <t>야채계란말이</t>
-  </si>
-  <si>
-    <t>콩비지부추전*절임고추간장소스</t>
-  </si>
-  <si>
-    <t>가자미카레구이</t>
-  </si>
-  <si>
-    <t>감자고로케*케찹</t>
-  </si>
-  <si>
-    <t>연두부새싹샐러드</t>
-  </si>
-  <si>
-    <t>흑임자고구마맛탕</t>
-  </si>
-  <si>
-    <t>궁중떡볶이</t>
-  </si>
-  <si>
-    <t>마카로니샐러드</t>
-  </si>
-  <si>
-    <t>검은콩조림</t>
-  </si>
-  <si>
-    <t>우엉곤약조림</t>
-  </si>
-  <si>
-    <t>오이지무침</t>
-  </si>
-  <si>
-    <t>무말랭이부추무침</t>
-  </si>
-  <si>
-    <t>열무김치</t>
-  </si>
-  <si>
-    <t>925kcal</t>
-  </si>
-  <si>
-    <t>979kcal</t>
-  </si>
-  <si>
-    <t>964cal</t>
-  </si>
-  <si>
-    <t>969kcal</t>
-  </si>
-  <si>
-    <t>두유/비엔나주먹밥</t>
-  </si>
-  <si>
-    <t>515kcal</t>
-  </si>
-  <si>
-    <t>506kcal</t>
-  </si>
-  <si>
-    <t>레몬생강차</t>
-  </si>
-  <si>
-    <t>결명자차</t>
-  </si>
-  <si>
-    <t>6월 23일 (월)</t>
+    <t>[철판]매운오삼불고기*콩나물파채
+(돼지:독일산)</t>
+  </si>
+  <si>
+    <t>[철판]뼈없는닭갈비*고구마사리
+(닭:브라질산)</t>
+  </si>
+  <si>
+    <t>흑마늘훈제삼겹보쌈*두부찜
+(돼지:미국산)</t>
+  </si>
+  <si>
+    <t>북어감자국</t>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+  </si>
+  <si>
+    <t>근대국</t>
+  </si>
+  <si>
+    <t>완자어묵새송이볶음(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>연근땅콩조림</t>
+  </si>
+  <si>
+    <t>두부계란지짐*양념장</t>
+  </si>
+  <si>
+    <t>녹두빈대떡*양파간장절임</t>
+  </si>
+  <si>
+    <t>모듬쌈채소*견과류쌈장</t>
+  </si>
+  <si>
+    <t>치커리유자청무침</t>
+  </si>
+  <si>
+    <t>오이사과흑초무침</t>
+  </si>
+  <si>
+    <t>깐마늘마늘쫑양념무침</t>
+  </si>
+  <si>
+    <t>청포묵오미자샐러드</t>
+  </si>
+  <si>
+    <t>청양풍잡채</t>
+  </si>
+  <si>
+    <t>980kcal</t>
+  </si>
+  <si>
+    <t>982kcal</t>
+  </si>
+  <si>
+    <t>996kcal</t>
+  </si>
+  <si>
+    <t>991kcal</t>
+  </si>
+  <si>
+    <t>장조림버터비빔밥
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>허브통살치킨까스*양념치킨소스
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>빠네로제스파게티</t>
+  </si>
+  <si>
+    <t>[부산밀면]시원한 사누끼밀면</t>
+  </si>
+  <si>
+    <t>파인애플함박스테이크*데미s
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>검정깨밥/콘크림스프</t>
+  </si>
+  <si>
+    <t>스파클링오렌지쥬스</t>
+  </si>
+  <si>
+    <t>충무김밥*충무식오징어무침</t>
+  </si>
+  <si>
+    <t>야채볶음밥/맑은우동국물</t>
+  </si>
+  <si>
+    <t>매콤볼만두</t>
+  </si>
+  <si>
+    <t>블루베리와플/통감자구이*사워크림</t>
+  </si>
+  <si>
+    <t>치킨텐더샐러드(닭:국내산)</t>
+  </si>
+  <si>
+    <t>고기손만두찜</t>
+  </si>
+  <si>
+    <t>칠리치즈후라이</t>
+  </si>
+  <si>
+    <t>오이양파간장절임</t>
+  </si>
+  <si>
+    <t>무비트피클</t>
+  </si>
+  <si>
+    <t>생오이피클*할라페뇨</t>
+  </si>
+  <si>
+    <t>시나몬토스트/야채피클</t>
+  </si>
+  <si>
+    <t>1010kcal</t>
+  </si>
+  <si>
+    <t>1016kcal</t>
+  </si>
+  <si>
+    <t>1019kcal</t>
+  </si>
+  <si>
+    <t>1003kcal</t>
+  </si>
+  <si>
+    <t>뿌리채소영양밥*부추양념장</t>
+  </si>
+  <si>
+    <t>옥수수애호박찹쌀전</t>
+  </si>
+  <si>
+    <t>연두부샐러드/파래김구이</t>
+  </si>
+  <si>
+    <t>653kcal</t>
+  </si>
+  <si>
+    <t>고구마찜/삶은계란</t>
+  </si>
+  <si>
+    <t>두유/현미후리가케주먹밥</t>
+  </si>
+  <si>
+    <t>532kcal</t>
+  </si>
+  <si>
+    <t>529kcal</t>
+  </si>
+  <si>
+    <t>520kcal</t>
+  </si>
+  <si>
+    <t>530kcal</t>
+  </si>
+  <si>
+    <t>과일화채</t>
+  </si>
+  <si>
+    <t>파인애플D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>애플D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>흑임자D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>가츠동[일본식돈까스덮밥]
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>뚝배기순대국*부추무침
+(돼지:미국산,국내산)</t>
+  </si>
+  <si>
+    <t>[즉석]냄비닭칼국수
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>육개장
+(소:호주산,국내산(육우))</t>
+  </si>
+  <si>
+    <t>뚝배기버섯된장찌개</t>
+  </si>
+  <si>
+    <t>미니메밀소바</t>
+  </si>
+  <si>
+    <t>쌀밥</t>
+  </si>
+  <si>
+    <t>미니열무비빔밥</t>
+  </si>
+  <si>
+    <t>고구마튀김*연근튀김</t>
+  </si>
+  <si>
+    <t>해물잡채완자전</t>
+  </si>
+  <si>
+    <t>수제고추튀김*오미산적</t>
+  </si>
+  <si>
+    <t>야채계란찜</t>
+  </si>
+  <si>
+    <t>조기구이</t>
+  </si>
+  <si>
+    <t>일식치자단무지,락교</t>
+  </si>
+  <si>
+    <t>모듬야채스틱*쌈장</t>
+  </si>
+  <si>
+    <t>무말랭이깻잎무침</t>
+  </si>
+  <si>
+    <t>감자채당근볶음</t>
+  </si>
+  <si>
+    <t>이색묵*양념장</t>
+  </si>
+  <si>
+    <t>배추겉절이김치</t>
+  </si>
+  <si>
+    <t>989kcal</t>
+  </si>
+  <si>
+    <t>976kcal</t>
+  </si>
+  <si>
+    <t>983kcal</t>
+  </si>
+  <si>
+    <t>977kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*참치키드빈</t>
+  </si>
+  <si>
+    <t>그린샐러드*오이두부</t>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(소:호주산)</t>
+  </si>
+  <si>
+    <t>522kcal</t>
+  </si>
+  <si>
+    <t>519kcal</t>
+  </si>
+  <si>
+    <t>525kcal</t>
+  </si>
+  <si>
+    <t>528kcal</t>
+  </si>
+  <si>
+    <t>526kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*견과류*오리엔탈D</t>
+  </si>
+  <si>
+    <t>그린샐러드*스위트콘*오리엔탈D</t>
+  </si>
+  <si>
+    <t>그린샐러드*콘후레이크*오리엔탈D</t>
+  </si>
+  <si>
+    <t>그린샐러드*크루통*오리엔탈D</t>
+  </si>
+  <si>
+    <t>6월 30일 (월)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +813,7 @@
     <numFmt numFmtId="179" formatCode="#\ \K\c\a\l"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,23 +1072,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1528,7 +1357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="105">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -2458,58 +2287,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2544,19 +2321,6 @@
       <left style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
       <right/>
       <top style="medium">
         <color theme="0"/>
@@ -2571,19 +2335,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2645,15 +2396,122 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0"/>
       </left>
       <right style="medium">
-        <color indexed="22"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thick">
         <color indexed="9"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2663,31 +2521,40 @@
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF00B0F0"/>
       </right>
       <top style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF00B0F0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF00B0F0"/>
       </right>
       <top/>
       <bottom/>
@@ -2695,95 +2562,19 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF00B0F0"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2925,11 +2716,14 @@
     <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2978,7 +2772,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="77" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="82" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="47" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2996,7 +2790,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3008,7 +2802,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="84" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3023,6 +2817,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="62" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3053,54 +2853,42 @@
     <xf numFmtId="0" fontId="26" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="48" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="49" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="61" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="75" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="48" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="49" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="61" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="75" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3122,15 +2910,24 @@
     <xf numFmtId="0" fontId="26" fillId="46" borderId="76" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="62" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="64" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="65" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="66" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3155,16 +2952,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="67" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="67" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="25" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="25" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="26" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="26" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="27" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="27" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,7 +2976,7 @@
     <xf numFmtId="0" fontId="28" fillId="38" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3191,194 +2988,191 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="24" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="67" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="21" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="21" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="25" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="25" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="34" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="34" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="37" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="36" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="88" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="40" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="93" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="87" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="98" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="97" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="80" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="88" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="87" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="98" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="99" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="101" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="102" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3386,37 +3180,82 @@
     <xf numFmtId="0" fontId="28" fillId="41" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="73" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="103" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="104" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="41" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3437,14 +3276,8 @@
     <xf numFmtId="0" fontId="28" fillId="41" borderId="63" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3480,6 +3313,7 @@
     <cellStyle name="쉼표 [0] 3" xfId="45"/>
     <cellStyle name="쉼표 [0] 4" xfId="46"/>
     <cellStyle name="쉼표 [0] 5" xfId="47"/>
+    <cellStyle name="쉼표 [0] 6" xfId="48"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -3520,7 +3354,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4148,7 +3982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4164,15 +3998,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="33" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -4190,24 +4024,24 @@
       <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>121</v>
+      <c r="B2" s="38"/>
+      <c r="C2" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>112</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -4226,26 +4060,26 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>124</v>
+      <c r="C3" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>117</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4264,21 +4098,21 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="74" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="10"/>
@@ -4298,22 +4132,22 @@
       <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>111</v>
+      <c r="A5" s="39"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>122</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -4332,21 +4166,21 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="71" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="F6" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="74" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="10"/>
@@ -4366,22 +4200,22 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="G7" s="79" t="s">
         <v>128</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>131</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4400,23 +4234,23 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="79" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="83" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="10"/>
@@ -4436,24 +4270,24 @@
       <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="G9" s="87" t="s">
         <v>133</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>136</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4472,22 +4306,22 @@
       <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="71" t="s">
-        <v>137</v>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>134</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -4506,21 +4340,21 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="87" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="87" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="10"/>
@@ -4540,21 +4374,21 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="87" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="73" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="10"/>
@@ -4574,22 +4408,22 @@
       <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="170"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="88" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D13" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>95</v>
-      </c>
       <c r="G13" s="92" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4608,23 +4442,23 @@
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="93" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="95" t="s">
+      <c r="F14" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="95" t="s">
         <v>60</v>
       </c>
       <c r="H14" s="10"/>
@@ -4644,26 +4478,26 @@
       <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="F15" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="G15" s="100" t="s">
         <v>143</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="101" t="s">
-        <v>145</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -4682,22 +4516,22 @@
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="102" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="E16" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="G16" s="105" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="73" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -4716,22 +4550,22 @@
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:60" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="109" t="s">
         <v>146</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="104" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="109" t="s">
-        <v>150</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -4788,22 +4622,22 @@
       <c r="BH17" s="10"/>
     </row>
     <row r="18" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="112" t="s">
         <v>151</v>
-      </c>
-      <c r="E18" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="112" t="s">
-        <v>153</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4860,22 +4694,22 @@
       <c r="BH18" s="10"/>
     </row>
     <row r="19" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="113" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="F19" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="G19" s="105" t="s">
         <v>156</v>
-      </c>
-      <c r="F19" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>158</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
@@ -4932,21 +4766,21 @@
       <c r="BH19" s="9"/>
     </row>
     <row r="20" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="117" t="s">
+      <c r="G20" s="116" t="s">
         <v>65</v>
       </c>
       <c r="H20" s="9"/>
@@ -5004,22 +4838,22 @@
       <c r="BH20" s="9"/>
     </row>
     <row r="21" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="118" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="F21" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="122" t="s">
-        <v>160</v>
+      <c r="G21" s="121" t="s">
+        <v>107</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
@@ -5075,25 +4909,25 @@
       <c r="BG21" s="9"/>
       <c r="BH21" s="9"/>
     </row>
-    <row r="22" spans="1:60" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="B22" s="45" t="s">
+    <row r="22" spans="1:60" ht="79.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39"/>
+      <c r="B22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="E22" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="E22" s="125" t="s">
+      <c r="F22" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="F22" s="126" t="s">
+      <c r="G22" s="126" t="s">
         <v>165</v>
-      </c>
-      <c r="G22" s="127" t="s">
-        <v>166</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -5150,21 +4984,21 @@
       <c r="BH22" s="10"/>
     </row>
     <row r="23" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="128" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="F23" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="129" t="s">
         <v>169</v>
       </c>
       <c r="H23" s="10"/>
@@ -5222,21 +5056,21 @@
       <c r="BH23" s="10"/>
     </row>
     <row r="24" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="132" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="133" t="s">
+      <c r="D24" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="129" t="s">
+      <c r="E24" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="131" t="s">
+      <c r="G24" s="132" t="s">
         <v>174</v>
       </c>
       <c r="H24" s="10"/>
@@ -5294,22 +5128,22 @@
       <c r="BH24" s="10"/>
     </row>
     <row r="25" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="132" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="129" t="s">
+      <c r="E25" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="134" t="s">
-        <v>66</v>
+      <c r="F25" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="132" t="s">
+        <v>178</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5366,21 +5200,21 @@
       <c r="BH25" s="10"/>
     </row>
     <row r="26" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="114" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="134" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="137" t="s">
+      <c r="F26" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="134" t="s">
+      <c r="G26" s="110" t="s">
         <v>65</v>
       </c>
       <c r="H26" s="10"/>
@@ -5438,22 +5272,22 @@
       <c r="BH26" s="10"/>
     </row>
     <row r="27" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="139" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="140" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="139" t="s">
+      <c r="D27" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="141" t="s">
-        <v>161</v>
+      <c r="E27" s="137" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="139" t="s">
+        <v>100</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -5510,17 +5344,17 @@
       <c r="BH27" s="10"/>
     </row>
     <row r="28" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="143"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="129"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="87"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -5576,15 +5410,15 @@
       <c r="BH28" s="10"/>
     </row>
     <row r="29" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="86"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="73"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -5640,15 +5474,15 @@
       <c r="BH29" s="10"/>
     </row>
     <row r="30" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="86"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="73"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5704,15 +5538,15 @@
       <c r="BH30" s="10"/>
     </row>
     <row r="31" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="73"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
       <c r="H31" s="13"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -5768,15 +5602,15 @@
       <c r="BH31" s="10"/>
     </row>
     <row r="32" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="86" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
       <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -5832,15 +5666,15 @@
       <c r="BH32" s="10"/>
     </row>
     <row r="33" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="144"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="74"/>
+      <c r="G33" s="141"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -5896,24 +5730,24 @@
       <c r="BH33" s="10"/>
     </row>
     <row r="34" spans="1:60" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="46" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="145" t="s">
-        <v>188</v>
+      <c r="F34" s="142" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>68</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="14"/>
@@ -5970,22 +5804,22 @@
       <c r="BH34" s="10"/>
     </row>
     <row r="35" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="F35" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="86" t="s">
-        <v>191</v>
+      <c r="A35" s="39"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="87" t="s">
+        <v>96</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
@@ -6042,22 +5876,22 @@
       <c r="BH35" s="10"/>
     </row>
     <row r="36" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="72" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="72" t="s">
+      <c r="E36" s="73" t="s">
         <v>73</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>72</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="14"/>
@@ -6114,22 +5948,22 @@
       <c r="BH36" s="10"/>
     </row>
     <row r="37" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="86" t="s">
-        <v>193</v>
+      <c r="A37" s="39"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="87" t="s">
+        <v>94</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="14"/>
@@ -6186,22 +6020,22 @@
       <c r="BH37" s="10"/>
     </row>
     <row r="38" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="146" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="147" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="148" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="149" t="s">
-        <v>115</v>
+      <c r="A38" s="40"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="145" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="146" t="s">
+        <v>108</v>
       </c>
       <c r="G38" s="147" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="14"/>
@@ -6258,24 +6092,22 @@
       <c r="BH38" s="10"/>
     </row>
     <row r="39" spans="1:60" ht="53.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="150" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="150" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="150" t="s">
-        <v>78</v>
-      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="150"/>
       <c r="F39" s="150" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -6332,22 +6164,22 @@
       <c r="BH39" s="10"/>
     </row>
     <row r="40" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="152" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="153" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="D40" s="153" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="153" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="153" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="154" t="s">
+        <v>77</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -6404,22 +6236,22 @@
       <c r="BH40" s="10"/>
     </row>
     <row r="41" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="154" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="154" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="154" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="154" t="s">
-        <v>196</v>
-      </c>
-      <c r="G41" s="153" t="s">
-        <v>81</v>
+      <c r="E41" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="154" t="s">
+        <v>78</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -6476,22 +6308,20 @@
       <c r="BH41" s="10"/>
     </row>
     <row r="42" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="53"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="154" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="154" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" s="154" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="154" t="s">
-        <v>200</v>
+      <c r="A42" s="50"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="152" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="152" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152" t="s">
+        <v>104</v>
       </c>
       <c r="G42" s="155" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="10"/>
@@ -6548,26 +6378,26 @@
       <c r="BH42" s="10"/>
     </row>
     <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>84</v>
+      <c r="A43" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>82</v>
       </c>
       <c r="C43" s="156" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="133" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="156" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="133" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" s="157" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="D43" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" s="159" t="s">
+        <v>201</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="10"/>
@@ -6624,22 +6454,22 @@
       <c r="BH43" s="10"/>
     </row>
     <row r="44" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="55"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="158" t="s">
-        <v>104</v>
+      <c r="A44" s="52"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="160" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="162" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="163" t="s">
+        <v>203</v>
+      </c>
+      <c r="G44" s="164" t="s">
+        <v>64</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="10"/>
@@ -6695,23 +6525,23 @@
       <c r="BG44" s="10"/>
       <c r="BH44" s="10"/>
     </row>
-    <row r="45" spans="1:60" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="55"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="85" t="s">
+    <row r="45" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="52"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="165" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="161" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="126" t="s">
         <v>209</v>
-      </c>
-      <c r="E45" s="159" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="123" t="s">
-        <v>212</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="10"/>
@@ -6768,22 +6598,22 @@
       <c r="BH45" s="10"/>
     </row>
     <row r="46" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="55"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="114" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="135" t="s">
+      <c r="A46" s="52"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="160" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="161" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="167" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="E46" s="114" t="s">
+      <c r="G46" s="164" t="s">
         <v>214</v>
-      </c>
-      <c r="F46" s="135" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46" s="158" t="s">
-        <v>216</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="10"/>
@@ -6840,22 +6670,22 @@
       <c r="BH46" s="10"/>
     </row>
     <row r="47" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="55"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="D47" s="135" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="135" t="s">
-        <v>220</v>
+      <c r="A47" s="52"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="167" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="108" t="s">
+        <v>88</v>
       </c>
       <c r="G47" s="132" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="9"/>
@@ -6912,21 +6742,17 @@
       <c r="BH47" s="10"/>
     </row>
     <row r="48" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="56"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="160" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="169"/>
+      <c r="D48" s="170" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="171"/>
+      <c r="F48" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="160" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="135" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="132" t="s">
+      <c r="G48" s="173" t="s">
         <v>51</v>
       </c>
       <c r="H48" s="22"/>
@@ -6984,22 +6810,22 @@
       <c r="BH48" s="10"/>
     </row>
     <row r="49" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="56"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="161" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="162" t="s">
-        <v>223</v>
-      </c>
-      <c r="E49" s="161" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" s="162" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="163" t="s">
-        <v>225</v>
+      <c r="A49" s="53"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="174" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="175" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="176" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="178" t="s">
+        <v>219</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -7058,24 +6884,24 @@
       <c r="BH49" s="10"/>
     </row>
     <row r="50" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="43"/>
-      <c r="B50" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="164" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="164" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="164" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="164" t="s">
-        <v>70</v>
+      <c r="A50" s="54"/>
+      <c r="B50" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="179" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="129" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="179" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="179" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="179" t="s">
+        <v>102</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -7132,22 +6958,22 @@
       <c r="BH50" s="10"/>
     </row>
     <row r="51" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="43"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="G51" s="73" t="s">
-        <v>72</v>
+      <c r="A51" s="54"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>103</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -7204,22 +7030,22 @@
       <c r="BH51" s="10"/>
     </row>
     <row r="52" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="43"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="73" t="s">
-        <v>75</v>
+      <c r="A52" s="54"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="143" t="s">
+        <v>72</v>
       </c>
       <c r="D52" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="73" t="s">
-        <v>75</v>
+      <c r="G52" s="74" t="s">
+        <v>71</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7276,22 +7102,22 @@
       <c r="BH52" s="10"/>
     </row>
     <row r="53" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="43"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="73" t="s">
-        <v>113</v>
+      <c r="A53" s="54"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="143" t="s">
+        <v>188</v>
       </c>
       <c r="D53" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="G53" s="73" t="s">
-        <v>77</v>
+        <v>222</v>
+      </c>
+      <c r="E53" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>84</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -7348,22 +7174,22 @@
       <c r="BH53" s="10"/>
     </row>
     <row r="54" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="57"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="149" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="145" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" s="145" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" s="146" t="s">
         <v>227</v>
-      </c>
-      <c r="D54" s="149" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="148" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" s="148" t="s">
-        <v>228</v>
-      </c>
-      <c r="G54" s="149" t="s">
-        <v>115</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -7420,24 +7246,24 @@
       <c r="BH54" s="10"/>
     </row>
     <row r="55" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="165" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="180" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="181" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="167" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="166" t="s">
+      <c r="E55" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="G55" s="168" t="s">
-        <v>116</v>
+      <c r="F55" s="181" t="s">
+        <v>231</v>
+      </c>
+      <c r="G55" s="183" t="s">
+        <v>228</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -7494,15 +7320,15 @@
       <c r="BH55" s="10"/>
     </row>
     <row r="56" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="169"/>
+      <c r="A56" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -8265,13 +8091,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A38"/>
+    <mergeCell ref="B15:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B34:B38"/>
@@ -8279,10 +8102,13 @@
     <mergeCell ref="A43:A54"/>
     <mergeCell ref="B43:B49"/>
     <mergeCell ref="B50:B54"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A38"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8312,7 +8138,7 @@
       </c>
       <c r="C2" s="2">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -8326,47 +8152,47 @@
       <c r="C3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-콩가루배추국
+건새우시금치된장국
 삼곡밥
-미트볼야채볶음(돼지,닭:국내산)
-포기김치
-735kcal</v>
+떡갈비가래떡조림(돼지:국내산)
+열무김치
+726kcal</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-쇠고기두부탕국(소:호주산)
+김치콩나물국
 삼곡밥
-쥐어채무침(갈치:국내산)
-포기김치
-801kcal</v>
+비엔나야채볶음
+석박지
+730kcal</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-얼큰오징어무찌개
+꼬맹이만두국(소:호주산)
 삼곡밥
-계란조림
+양배추진미채무침
 포기김치
-795kcal</v>
+715kcal</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-들깨순두부국
+무채어묵국(갈치:수입산)
 삼곡밥
-꽁치김치조림
+호박맛살볶음
 포기김치
-805kcal</v>
+728kcal</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-북어채콩나물국
+장터국(소:호주산)
 삼곡밥
-감자조림
+따뜻한연두부*절임고추간장s
 포기김치
-787kcal</v>
+744kcal</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8402,7 +8228,7 @@
 즉석해장라면/삼곡밥/김치</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8412,44 +8238,44 @@
       <c r="C5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-곡물식빵,토스트식빵/딸기잼*버터
-그린샐러드*애플D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-매쉬드포테이토</v>
+해쉬브라운</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
-곡물식빵*핫케익/딸기잼*버터
-그린샐러드*애플D
+곡물식빵*모닝빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-아몬드콘후레이크</v>
+콘후레이크</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
-토스트식빵*참깨롤빵/딸기잼*버터
-그린샐러드*애플D
+토스트식빵*핫케익/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-줄무늬감자튀김</v>
+단호박범벅</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-곡물식빵*부시맥브레드/딸기잼*버터
-그린샐러드*애플D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-슬라이스햄</v>
+감자볼튀김</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*애플D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
 초코첵스</v>
@@ -8498,62 +8324,62 @@
       <c r="C7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-사골부대찌개*라면사리
-(소:호주산)
-흑향미밥
-두부계란찜 
-감자조림
-상추양파무침
+제육김치두루치기*두부찜
+(돼지:국내산)
+보리밥
+북어감자국
+완자어묵새송이볶음(갈치:수입산)
+치커리유자청무침
 포기김치/석박지
-988kcal</v>
+980kcal</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-오돈불고기*떡사리
-(돼지:국내산)
-수수밥
-들깨미역국 
-비엔나브로커리볶음
-콩나물무침
+뚝배기불고기버섯전골*떡만두사리
+(소:호주산)
+흑향미밥
+야채계란말이
+연근땅콩조림
+오이사과흑초무침
 포기김치/석박지
-968kcal</v>
+982kcal</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-뚝배기매콤닭볶음탕
-(닭:국내산)
-기장밥
-근대국 
-볼어묵맛살볶음(갈치:수입산)
-도토리묵야채무침
+[철판]매운오삼불고기*콩나물파채
+(돼지:독일산)
+차조밥
+얼갈이된장국
+두부계란지짐*양념장
+깐마늘마늘쫑양념무침
 포기김치/석박지
-975kcal</v>
+996kcal</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-철판고추장삼겹살구이
-(돼지:독일산)
-차조밥
-맑은콩나물국 
-모듬쌈채소&amp;포두부
-검정깨명엽채볶음
+[철판]뼈없는닭갈비*고구마사리
+(닭:브라질산)
+수수밥
+들깨미역국
+녹두빈대떡*양파간장절임
+청포묵오미자샐러드
 포기김치/석박지
-998kcal</v>
+991kcal</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-쇠고기버섯불고기*참나물두부샐러드
-(소:호주산)
-보리밥
-어묵김치찌개(갈치:수입산)
-탕평채
-통깨건파래볶음
+흑마늘훈제삼겹보쌈*두부찜
+(돼지:미국산)
+기장밥
+근대국
+모듬쌈채소*견과류쌈장
+청양풍잡채
 포기김치/석박지
-968kcal</v>
+979kcal</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -8566,55 +8392,55 @@
       <c r="C8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-순살등심돈까스*데미S
+장조림버터비빔밥
 (돼지:국내산)
-검정깨밥/크림스프
-포테이토칩*스위트칠리S
-부시맥브레드*버터/무오이피클
+맑은우동국물
+매콤볼만두
+오이양파간장절임
 포기김치/석박지
-1011kcal</v>
+1010kcal</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-미소라멘
-(돼지:미국산)
-새싹채소와사비롤
-생선까스*타르타르S
-오복채무침
+허브통살치킨까스*양념치킨소스
+(닭:국내산)
+검정깨밥/콘크림스프
+블루베리와플/통감자구이*사워크림
+무비트피클
 포기김치/석박지
-1008kcal</v>
+1016kcal</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-불고기필라프&amp;감귤드레싱
-(소:호주산)
-유부된장국
-까르보나라떡볶이
-오이피클*할라페뇨
+빠네로제스파게티
+스파클링오렌지쥬스
+치킨텐더샐러드(닭:국내산)
+생오이피클*할라페뇨
 포기김치/석박지
-1011kcal</v>
+1019kcal</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-왕새우튀김오므라이스
-맑은우동국물
-미니핫도그*더블S
-무짠지채무침
+[부산밀면]시원한 사누끼밀면
+충무김밥*충무식오징어무침
+고기손만두찜
+오복채무침
 포기김치/석박지
-1005kcal</v>
+1003kcal</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-[글루텐프리]쌀우동
-김쌈밥*참치소스
-두부야끼
-단무지부추무침
+파인애플함박스테이크*데미s
+(돼지:국내산)
+야채볶음밥/맑은우동국물
+칠리치즈후라이
+시나몬토스트/야채피클
 포기김치/석박지
-998kcal</v>
+1008kcal</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -8635,12 +8461,12 @@
       <c r="E9" s="2" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
         <v>[네이쳐데이]
-오곡밥
-시원한도토리묵사발
-토마토가지찹쌀탕수
-시금치들깨나물/우엉땅콩조림
+뿌리채소영양밥*부추양념장
+얼갈이된장국
+옥수수애호박찹쌀전
+연두부샐러드/파래김구이
 포기김치/석박지
-638kcal</v>
+653kcal</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -8662,46 +8488,46 @@
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
+고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/모닝빵
-510kcal</v>
+두유/참깨롤빵
+532kcal</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/삶은계란
-야채스틱/바나나/토마토
-두유/장조림주먹밥(돼지:국내산)
-505kcal</v>
+그린샐러드*올리브참치
+단호박구이/메추리알
+야채스틱/바나나/오렌지
+두유/모닝빵
+529kcal</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
-그린샐러드*올리브참치
-고구마찜/메추리알
+그린샐러드*흑임자두부
+통감자구이/삶은계란
 야채스틱/바나나/오렌지
-두유/참깨롤빵
-511kcal</v>
+두유/떡갈비주먹밥(돼지:국내산)
+520kcal</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/브로컬리
-야채스틱/바나나/토마토
-두유/부시맥브레드
-514kcal</v>
+그린샐러드*견과류올린구운야채
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/현미후리가케주먹밥
+515kcal</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
-그린샐러드*꽃맛살
-통감자구이/새싹연두부
-야채스틱/바나나/방울토마토
-두유/아몬드멸치주먹밥
-508kcal</v>
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/삶은계란
+야채스틱/바나나/토마토
+두유/부시맥브레드
+530kcal</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -8717,42 +8543,41 @@
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 견과류
-유자레몬D/오리엔탈D</v>
+파인애플D/오리엔탈D</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-아몬드콘후레이크
-블루베리D/오리엔탈D</v>
+스위트콘,빈스
+애플D/오리엔탈D</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
-        <v>[플러스메뉴]
+        <v xml:space="preserve">[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
-그린샐러드
-스위트콘,빈스
-콘마요D/오리엔탈D</v>
+과일화채
+</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-후르트링
-황도D/오리엔탈D</v>
+크루통
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-사과배D/오리엔탈D</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+견과류
+흑임자D/오리엔탈D</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8762,57 +8587,59 @@
       <c r="C12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-열무꽁보리비빔밥*강된장소스
-삼색수제비국
-옛날소시지전*케찹
-쑥갓양파무침
-검은콩조림
+가츠동[일본식돈까스덮밥]
+(돼지:국내산)
+미니메밀소바
+고구마튀김*연근튀김
+일식치자단무지,락교
 포기김치
-925kcal</v>
+989kcal</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-목살김치찌개(돼지:국내산)
-기장밥
-야채계란말이
-연두부새싹샐러드
-우엉곤약조림
-열무김치
-979kcal</v>
+뚝배기순대국*부추무침
+(돼지:미국산,국내산)
+쌀밥
+해물잡채완자전
+모듬야채스틱*쌈장
+쥐어채무침(갈치:국내산)
+석박지
+976kcal</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-숯불제육생야채비빔밥(돼지:국내산)
-얼갈이된장국
-콩비지부추전*절임고추간장소스
-흑임자고구마맛탕
-오이지무침
-포기김치
-964cal</v>
+[즉석]냄비닭칼국수
+(닭:국내산)
+미니열무비빔밥
+수제고추튀김*오미산적
+무말랭이깻잎무침
+배추겉절이김치
+983kcal</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-단호박영양밥
-된장찌개
-가자미카레구이
-궁중떡볶이
-무말랭이부추무침
+육개장
+(소:호주산,국내산(육우))
+쌀밥
+야채계란찜
+감자채당근볶음
+쑥갓양파무침
 포기김치
-981kcal</v>
+975kcal</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-제육김치덮밥(돼자:국내산)
-유부된장국
-감자고로케*케찹
-마카로니샐러드
-오복채무침
+뚝배기버섯된장찌개
+흑향미밥
+조기구이
+이색묵*양념장
+콩나물무침
 포기김치
-969kcal</v>
+977kcal</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -8825,47 +8652,47 @@
       <c r="C13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
-그린샐러드*올리브계란
-고구마찜/새싹연두부
-야채스틱/바나나/오렌지
-두유/참치마요주먹밥
-515kcal</v>
+그린샐러드*참치키드빈
+통감자구이/메추리알
+야채스틱/바나나/토마토
+두유/현미후리가케주먹밥
+522kcal</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
+그린샐러드*오이두부
+고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/참깨롤빵
-514kcal</v>
+두유/장조림주먹밥(소:호주산)
+519kcal</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*흑임자두부
-단호박구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/메추리알
 야채스틱/바나나/토마토
-두유/떡갈비주먹밥(돼지:국내산)
-508kcal</v>
+두유/부시맥브레드
+525kcal</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
         <v>[건강도시락]
-그린샐러드*견과류올린구운야채
+그린샐러드*올리브참치
 통감자구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/비엔나주먹밥
-506kcal</v>
+야채스틱/바나나/오렌지
+두유/참깨롤빵
+528kcal</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
-야채스틱/바나나/오렌지
-두유/모닝빵
-514kcal</v>
+그린샐러드*꽃맛살
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/떡갈비주먹밥(돼지:국내산)
+526kcal</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8878,27 +8705,27 @@
       <c r="C14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!C55</f>
         <v>[플러스메뉴]
-레몬생강차</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!D55</f>
         <v>[플러스메뉴]
-매실차</v>
+그린샐러드*스위트콘*오리엔탈D</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!E55</f>
         <v>[플러스메뉴]
-식혜</v>
+그린샐러드*콘후레이크*오리엔탈D</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!F55</f>
         <v>[플러스메뉴]
-결명자차</v>
+그린샐러드*크루통*오리엔탈D</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!G55</f>
         <v>[플러스메뉴]
-아이스유자차</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
     </row>
   </sheetData>
@@ -8912,7 +8739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9008,7 +8835,7 @@
       </c>
       <c r="B2" s="5">
         <f>converter_phase1!C2</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="C2" s="7">
         <f>IF(A2="점심메뉴", TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9016,7 +8843,7 @@
       </c>
       <c r="D2" s="5">
         <f>B2</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="E2" s="7">
         <f>C2+TIME(1,30,0)</f>
@@ -9030,7 +8857,7 @@
       </c>
       <c r="H2" s="5">
         <f>B2</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="I2" s="8">
         <f>C2-TIME(0,15,0)</f>
@@ -9048,19 +8875,19 @@
       <c r="Q2" s="6" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-콩가루배추국
+건새우시금치된장국
 삼곡밥
-미트볼야채볶음(돼지,닭:국내산)
-포기김치
-735kcal
+떡갈비가래떡조림(돼지:국내산)
+열무김치
+726kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵,토스트식빵/딸기잼*버터
-그린샐러드*애플D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-매쉬드포테이토
+해쉬브라운
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9084,7 +8911,7 @@
       </c>
       <c r="B3" s="5">
         <f>B2</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴", TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9092,7 +8919,7 @@
       </c>
       <c r="D3" s="5">
         <f>B3</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -9106,7 +8933,7 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
@@ -9124,33 +8951,33 @@
       <c r="Q3" s="6" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-사골부대찌개*라면사리
-(소:호주산)
-흑향미밥
-두부계란찜 
-감자조림
-상추양파무침
+제육김치두루치기*두부찜
+(돼지:국내산)
+보리밥
+북어감자국
+완자어묵새송이볶음(갈치:수입산)
+치커리유자청무침
 포기김치/석박지
-988kcal
+980kcal
 [일품]
-순살등심돈까스*데미S
+장조림버터비빔밥
 (돼지:국내산)
-검정깨밥/크림스프
-포테이토칩*스위트칠리S
-부시맥브레드*버터/무오이피클
+맑은우동국물
+매콤볼만두
+오이양파간장절임
 포기김치/석박지
-1011kcal
+1010kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
+고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/모닝빵
-510kcal
+두유/참깨롤빵
+532kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 견과류
-유자레몬D/오리엔탈D</v>
+파인애플D/오리엔탈D</v>
       </c>
       <c r="R3" s="4" t="b">
         <v>0</v>
@@ -9172,7 +8999,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -9180,7 +9007,7 @@
       </c>
       <c r="D4" s="5">
         <f>B4</f>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
@@ -9194,7 +9021,7 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>41813</v>
+        <v>41820</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="3"/>
@@ -9212,21 +9039,21 @@
       <c r="Q4" s="6" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-열무꽁보리비빔밥*강된장소스
-삼색수제비국
-옛날소시지전*케찹
-쑥갓양파무침
-검은콩조림
+가츠동[일본식돈까스덮밥]
+(돼지:국내산)
+미니메밀소바
+고구마튀김*연근튀김
+일식치자단무지,락교
 포기김치
-925kcal
+989kcal
 [건강도시락]
-그린샐러드*올리브계란
-고구마찜/새싹연두부
-야채스틱/바나나/오렌지
-두유/참치마요주먹밥
-515kcal
+그린샐러드*참치키드빈
+통감자구이/메추리알
+야채스틱/바나나/토마토
+두유/현미후리가케주먹밥
+522kcal
 [플러스메뉴]
-레몬생강차</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="R4" s="4" t="b">
         <v>0</v>
@@ -9248,7 +9075,7 @@
       </c>
       <c r="B5" s="5">
         <f>B2+1</f>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴", TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9256,7 +9083,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -9270,7 +9097,7 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
@@ -9288,19 +9115,19 @@
       <c r="Q5" s="6" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-쇠고기두부탕국(소:호주산)
+김치콩나물국
 삼곡밥
-쥐어채무침(갈치:국내산)
-포기김치
-801kcal
+비엔나야채볶음
+석박지
+730kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*핫케익/딸기잼*버터
-그린샐러드*애플D
+곡물식빵*모닝빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-아몬드콘후레이크
+콘후레이크
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -9324,7 +9151,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="4"/>
@@ -9332,7 +9159,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="5"/>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="6"/>
@@ -9346,7 +9173,7 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="7"/>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="8"/>
@@ -9364,33 +9191,33 @@
       <c r="Q6" s="6" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-오돈불고기*떡사리
-(돼지:국내산)
-수수밥
-들깨미역국 
-비엔나브로커리볶음
-콩나물무침
+뚝배기불고기버섯전골*떡만두사리
+(소:호주산)
+흑향미밥
+야채계란말이
+연근땅콩조림
+오이사과흑초무침
 포기김치/석박지
-968kcal
+982kcal
 [일품]
-미소라멘
-(돼지:미국산)
-새싹채소와사비롤
-생선까스*타르타르S
-오복채무침
+허브통살치킨까스*양념치킨소스
+(닭:국내산)
+검정깨밥/콘크림스프
+블루베리와플/통감자구이*사워크림
+무비트피클
 포기김치/석박지
-1008kcal
+1016kcal
 [건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/삶은계란
-야채스틱/바나나/토마토
-두유/장조림주먹밥(돼지:국내산)
-505kcal
+그린샐러드*올리브참치
+단호박구이/메추리알
+야채스틱/바나나/오렌지
+두유/모닝빵
+529kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-아몬드콘후레이크
-블루베리D/오리엔탈D</v>
+스위트콘,빈스
+애플D/오리엔탈D</v>
       </c>
       <c r="R6" s="4" t="b">
         <v>0</v>
@@ -9412,7 +9239,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="9"/>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="4"/>
@@ -9420,7 +9247,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="5"/>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="6"/>
@@ -9434,7 +9261,7 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="7"/>
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="8"/>
@@ -9452,21 +9279,22 @@
       <c r="Q7" s="6" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-목살김치찌개(돼지:국내산)
-기장밥
-야채계란말이
-연두부새싹샐러드
-우엉곤약조림
-열무김치
-979kcal
+뚝배기순대국*부추무침
+(돼지:미국산,국내산)
+쌀밥
+해물잡채완자전
+모듬야채스틱*쌈장
+쥐어채무침(갈치:국내산)
+석박지
+976kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
+그린샐러드*오이두부
+고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/참깨롤빵
-514kcal
+두유/장조림주먹밥(소:호주산)
+519kcal
 [플러스메뉴]
-매실차</v>
+그린샐러드*스위트콘*오리엔탈D</v>
       </c>
       <c r="R7" s="4" t="b">
         <v>0</v>
@@ -9488,7 +9316,7 @@
       </c>
       <c r="B8" s="5">
         <f>B5+1</f>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴", TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9496,7 +9324,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -9510,7 +9338,7 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
@@ -9528,19 +9356,19 @@
       <c r="Q8" s="6" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-얼큰오징어무찌개
+꼬맹이만두국(소:호주산)
 삼곡밥
-계란조림
+양배추진미채무침
 포기김치
-795kcal
+715kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*참깨롤빵/딸기잼*버터
-그린샐러드*애플D
+토스트식빵*핫케익/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-줄무늬감자튀김
+단호박범벅
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9564,7 +9392,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="9"/>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="10"/>
@@ -9572,7 +9400,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="11"/>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="12"/>
@@ -9586,7 +9414,7 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="13"/>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="14"/>
@@ -9603,41 +9431,39 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="6" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
-        <v>[한식]
-뚝배기매콤닭볶음탕
-(닭:국내산)
-기장밥
-근대국 
-볼어묵맛살볶음(갈치:수입산)
-도토리묵야채무침
+        <v xml:space="preserve">[한식]
+[철판]매운오삼불고기*콩나물파채
+(돼지:독일산)
+차조밥
+얼갈이된장국
+두부계란지짐*양념장
+깐마늘마늘쫑양념무침
 포기김치/석박지
-975kcal
+996kcal
 [일품]
-불고기필라프&amp;감귤드레싱
-(소:호주산)
-유부된장국
-까르보나라떡볶이
-오이피클*할라페뇨
+빠네로제스파게티
+스파클링오렌지쥬스
+치킨텐더샐러드(닭:국내산)
+생오이피클*할라페뇨
 포기김치/석박지
-1011kcal
+1019kcal
 [네이쳐데이]
-오곡밥
-시원한도토리묵사발
-토마토가지찹쌀탕수
-시금치들깨나물/우엉땅콩조림
+뿌리채소영양밥*부추양념장
+얼갈이된장국
+옥수수애호박찹쌀전
+연두부샐러드/파래김구이
 포기김치/석박지
-638kcal
+653kcal
 [건강도시락]
-그린샐러드*올리브참치
-고구마찜/메추리알
+그린샐러드*흑임자두부
+통감자구이/삶은계란
 야채스틱/바나나/오렌지
-두유/참깨롤빵
-511kcal
+두유/떡갈비주먹밥(돼지:국내산)
+520kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
-그린샐러드
-스위트콘,빈스
-콘마요D/오리엔탈D</v>
+과일화채
+</v>
       </c>
       <c r="R9" s="4" t="b">
         <v>0</v>
@@ -9659,7 +9485,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="9"/>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="10"/>
@@ -9667,7 +9493,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="11"/>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="12"/>
@@ -9681,7 +9507,7 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="13"/>
-        <v>41815</v>
+        <v>41822</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="14"/>
@@ -9699,21 +9525,21 @@
       <c r="Q10" s="6" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-숯불제육생야채비빔밥(돼지:국내산)
-얼갈이된장국
-콩비지부추전*절임고추간장소스
-흑임자고구마맛탕
-오이지무침
-포기김치
-964cal
+[즉석]냄비닭칼국수
+(닭:국내산)
+미니열무비빔밥
+수제고추튀김*오미산적
+무말랭이깻잎무침
+배추겉절이김치
+983kcal
 [건강도시락]
-그린샐러드*흑임자두부
-단호박구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/메추리알
 야채스틱/바나나/토마토
-두유/떡갈비주먹밥(돼지:국내산)
-508kcal
+두유/부시맥브레드
+525kcal
 [플러스메뉴]
-식혜</v>
+그린샐러드*콘후레이크*오리엔탈D</v>
       </c>
       <c r="R10" s="4" t="b">
         <v>0</v>
@@ -9735,7 +9561,7 @@
       </c>
       <c r="B11" s="5">
         <f>B8+1</f>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="10"/>
@@ -9743,7 +9569,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="11"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="12"/>
@@ -9757,7 +9583,7 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="13"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="14"/>
@@ -9775,19 +9601,19 @@
       <c r="Q11" s="6" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-들깨순두부국
+무채어묵국(갈치:수입산)
 삼곡밥
-꽁치김치조림
+호박맛살볶음
 포기김치
-805kcal
+728kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*부시맥브레드/딸기잼*버터
-그린샐러드*애플D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-슬라이스햄
+감자볼튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -9811,7 +9637,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="9"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="10"/>
@@ -9819,7 +9645,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="11"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="12"/>
@@ -9833,7 +9659,7 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="13"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="14"/>
@@ -9851,32 +9677,32 @@
       <c r="Q12" s="6" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-철판고추장삼겹살구이
-(돼지:독일산)
-차조밥
-맑은콩나물국 
-모듬쌈채소&amp;포두부
-검정깨명엽채볶음
+[철판]뼈없는닭갈비*고구마사리
+(닭:브라질산)
+수수밥
+들깨미역국
+녹두빈대떡*양파간장절임
+청포묵오미자샐러드
 포기김치/석박지
-998kcal
+991kcal
 [일품]
-왕새우튀김오므라이스
-맑은우동국물
-미니핫도그*더블S
-무짠지채무침
+[부산밀면]시원한 사누끼밀면
+충무김밥*충무식오징어무침
+고기손만두찜
+오복채무침
 포기김치/석박지
-1005kcal
+1003kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/브로컬리
-야채스틱/바나나/토마토
-두유/부시맥브레드
-514kcal
+그린샐러드*견과류올린구운야채
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/현미후리가케주먹밥
+515kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-후르트링
-황도D/오리엔탈D</v>
+크루통
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="R12" s="4" t="b">
         <v>0</v>
@@ -9898,7 +9724,7 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="9"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="10"/>
@@ -9906,7 +9732,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="11"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="12"/>
@@ -9920,7 +9746,7 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="13"/>
-        <v>41816</v>
+        <v>41823</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="14"/>
@@ -9938,21 +9764,22 @@
       <c r="Q13" s="6" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-단호박영양밥
-된장찌개
-가자미카레구이
-궁중떡볶이
-무말랭이부추무침
+육개장
+(소:호주산,국내산(육우))
+쌀밥
+야채계란찜
+감자채당근볶음
+쑥갓양파무침
 포기김치
-981kcal
+975kcal
 [건강도시락]
-그린샐러드*견과류올린구운야채
+그린샐러드*올리브참치
 통감자구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/비엔나주먹밥
-506kcal
+야채스틱/바나나/오렌지
+두유/참깨롤빵
+528kcal
 [플러스메뉴]
-결명자차</v>
+그린샐러드*크루통*오리엔탈D</v>
       </c>
       <c r="R13" s="4" t="b">
         <v>0</v>
@@ -9974,7 +9801,7 @@
       </c>
       <c r="B14" s="5">
         <f>B11+1</f>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="10"/>
@@ -9982,7 +9809,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="11"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="12"/>
@@ -9996,7 +9823,7 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="13"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="14"/>
@@ -10014,16 +9841,16 @@
       <c r="Q14" s="6" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-북어채콩나물국
+장터국(소:호주산)
 삼곡밥
-감자조림
+따뜻한연두부*절임고추간장s
 포기김치
-787kcal
+744kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*애플D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
 초코첵스
@@ -10050,7 +9877,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="9"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="10"/>
@@ -10058,7 +9885,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="11"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="12"/>
@@ -10072,7 +9899,7 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="13"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="14"/>
@@ -10090,32 +9917,33 @@
       <c r="Q15" s="6" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-쇠고기버섯불고기*참나물두부샐러드
-(소:호주산)
-보리밥
-어묵김치찌개(갈치:수입산)
-탕평채
-통깨건파래볶음
+흑마늘훈제삼겹보쌈*두부찜
+(돼지:미국산)
+기장밥
+근대국
+모듬쌈채소*견과류쌈장
+청양풍잡채
 포기김치/석박지
-968kcal
+979kcal
 [일품]
-[글루텐프리]쌀우동
-김쌈밥*참치소스
-두부야끼
-단무지부추무침
+파인애플함박스테이크*데미s
+(돼지:국내산)
+야채볶음밥/맑은우동국물
+칠리치즈후라이
+시나몬토스트/야채피클
 포기김치/석박지
-998kcal
+1008kcal
 [건강도시락]
-그린샐러드*꽃맛살
-통감자구이/새싹연두부
-야채스틱/바나나/방울토마토
-두유/아몬드멸치주먹밥
-508kcal
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/삶은계란
+야채스틱/바나나/토마토
+두유/부시맥브레드
+530kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-사과배D/오리엔탈D</v>
+견과류
+흑임자D/오리엔탈D</v>
       </c>
       <c r="R15" s="4" t="b">
         <v>0</v>
@@ -10137,7 +9965,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="9"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="10"/>
@@ -10145,7 +9973,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="11"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="12"/>
@@ -10159,7 +9987,7 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="13"/>
-        <v>41817</v>
+        <v>41824</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="14"/>
@@ -10177,21 +10005,21 @@
       <c r="Q16" s="6" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-제육김치덮밥(돼자:국내산)
-유부된장국
-감자고로케*케찹
-마카로니샐러드
-오복채무침
+뚝배기버섯된장찌개
+흑향미밥
+조기구이
+이색묵*양념장
+콩나물무침
 포기김치
-969kcal
+977kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
-야채스틱/바나나/오렌지
-두유/모닝빵
-514kcal
+그린샐러드*꽃맛살
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/떡갈비주먹밥(돼지:국내산)
+526kcal
 [플러스메뉴]
-아이스유자차</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="R16" s="4" t="b">
         <v>0</v>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="234">
   <si>
     <t>구분</t>
   </si>
@@ -344,21 +344,9 @@
     <t>두유/떡갈비주먹밥(돼지:국내산)</t>
   </si>
   <si>
-    <t>쥐어채무침(갈치:국내산)</t>
-  </si>
-  <si>
     <t>차조밥</t>
   </si>
   <si>
-    <t>얼갈이된장국</t>
-  </si>
-  <si>
-    <t>쑥갓양파무침</t>
-  </si>
-  <si>
-    <t>975kcal</t>
-  </si>
-  <si>
     <t>맑은우동국물</t>
   </si>
   <si>
@@ -380,21 +368,12 @@
     <t>단호박구이/삶은계란</t>
   </si>
   <si>
-    <t>초코첵스</t>
-  </si>
-  <si>
     <t>콩나물무침</t>
   </si>
   <si>
     <t>오복채무침</t>
   </si>
   <si>
-    <t>1008kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*올리브참치</t>
-  </si>
-  <si>
     <t>그린샐러드*꽃맛살</t>
   </si>
   <si>
@@ -404,400 +383,451 @@
     <t>유자레몬D/오리엔탈D</t>
   </si>
   <si>
-    <t>야채계란말이</t>
-  </si>
-  <si>
-    <t>열무김치</t>
-  </si>
-  <si>
-    <t>979kcal</t>
-  </si>
-  <si>
-    <t>515kcal</t>
-  </si>
-  <si>
-    <t>7월 1일 (화)</t>
-  </si>
-  <si>
-    <t>7월 2일 (수)</t>
-  </si>
-  <si>
-    <t>7월 3일 (목)</t>
-  </si>
-  <si>
-    <t>7월 4일 (금)</t>
-  </si>
-  <si>
-    <t>건새우시금치된장국</t>
-  </si>
-  <si>
-    <t>김치콩나물국</t>
-  </si>
-  <si>
-    <t>꼬맹이만두국(소:호주산)</t>
-  </si>
-  <si>
-    <t>무채어묵국(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>장터국(소:호주산)</t>
-  </si>
-  <si>
-    <t>떡갈비가래떡조림(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>비엔나야채볶음</t>
-  </si>
-  <si>
-    <t>양배추진미채무침</t>
-  </si>
-  <si>
-    <t>호박맛살볶음</t>
-  </si>
-  <si>
-    <t>따뜻한연두부*절임고추간장s</t>
-  </si>
-  <si>
-    <t>석박지</t>
-  </si>
-  <si>
-    <t>726kcal</t>
-  </si>
-  <si>
     <t>730kcal</t>
   </si>
   <si>
-    <t>715kcal</t>
-  </si>
-  <si>
-    <t>728kcal</t>
-  </si>
-  <si>
-    <t>744kcal</t>
-  </si>
-  <si>
     <t>곡물식빵*토스트식빵/딸기잼*버터</t>
   </si>
   <si>
-    <t>곡물식빵*모닝빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*핫케익/딸기잼*버터</t>
-  </si>
-  <si>
     <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
   </si>
   <si>
     <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
   </si>
   <si>
-    <t>그린샐러드*유자레몬D</t>
-  </si>
-  <si>
-    <t>해쉬브라운</t>
-  </si>
-  <si>
-    <t>콘후레이크</t>
-  </si>
-  <si>
-    <t>단호박범벅</t>
-  </si>
-  <si>
     <t>감자볼튀김</t>
   </si>
   <si>
-    <t>제육김치두루치기*두부찜
+    <t>들깨미역국</t>
+  </si>
+  <si>
+    <t>근대국</t>
+  </si>
+  <si>
+    <t>연근땅콩조림</t>
+  </si>
+  <si>
+    <t>두부계란지짐*양념장</t>
+  </si>
+  <si>
+    <t>980kcal</t>
+  </si>
+  <si>
+    <t>982kcal</t>
+  </si>
+  <si>
+    <t>두유/현미후리가케주먹밥</t>
+  </si>
+  <si>
+    <t>흑임자D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>쌀밥</t>
+  </si>
+  <si>
+    <t>해물잡채완자전</t>
+  </si>
+  <si>
+    <t>야채계란찜</t>
+  </si>
+  <si>
+    <t>배추겉절이김치</t>
+  </si>
+  <si>
+    <t>977kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*참치키드빈</t>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(소:호주산)</t>
+  </si>
+  <si>
+    <t>그린샐러드*견과류*오리엔탈D</t>
+  </si>
+  <si>
+    <t>7월 8일 (화)</t>
+  </si>
+  <si>
+    <t>7월 9일 (수)</t>
+  </si>
+  <si>
+    <t>7월 10일 (목)</t>
+  </si>
+  <si>
+    <t>7월 11일 (금)</t>
+  </si>
+  <si>
+    <t>삼색수제비국</t>
+  </si>
+  <si>
+    <t>순두부백탕*절임고추양념장</t>
+  </si>
+  <si>
+    <t>경상도식쇠고기무국(소:호주산)</t>
+  </si>
+  <si>
+    <t>콩가루배추국</t>
+  </si>
+  <si>
+    <t>북어채감자국</t>
+  </si>
+  <si>
+    <t>메추리알어묵조림(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>꽁치무조림</t>
+  </si>
+  <si>
+    <t>열무된장나물</t>
+  </si>
+  <si>
+    <t>떡갈비야채조림(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>맛살야채볶음</t>
+  </si>
+  <si>
+    <t>764kcal</t>
+  </si>
+  <si>
+    <t>721kcal</t>
+  </si>
+  <si>
+    <t>742kcal</t>
+  </si>
+  <si>
+    <t>738kcal</t>
+  </si>
+  <si>
+    <t>곡물식빵*핫케익/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*모닝빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>그린샐러드*사우전D</t>
+  </si>
+  <si>
+    <t>웻지감자튀김</t>
+  </si>
+  <si>
+    <t>코코볼</t>
+  </si>
+  <si>
+    <t>양념막대감자튀김</t>
+  </si>
+  <si>
+    <t>슬라이스햄</t>
+  </si>
+  <si>
+    <t>도가니설렁탕*소면
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>뼈다귀해장국
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>뚝배기불고기버섯전골*떡만두사리
+    <t>깻잎파채를 올린 고추장삼겹살구이
+(돼지:독일산)</t>
+  </si>
+  <si>
+    <t>안동찜닭*넙죽당면사리
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>매콤낙지볶음*콩나물찜
+(낙지:베트남산)</t>
+  </si>
+  <si>
+    <t>시금치국</t>
+  </si>
+  <si>
+    <t>골뱅이야채무침</t>
+  </si>
+  <si>
+    <t>청양풍어묵잡채(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>비엔나조랑떡야채볶음</t>
+  </si>
+  <si>
+    <t>삼색밀전병*겨자소스</t>
+  </si>
+  <si>
+    <t>모짜렐라치즈계란말이</t>
+  </si>
+  <si>
+    <t>견과류콩조림</t>
+  </si>
+  <si>
+    <t>오이부추무침</t>
+  </si>
+  <si>
+    <t>쑥갓생두부무침</t>
+  </si>
+  <si>
+    <t>검은깨명엽채볶음</t>
+  </si>
+  <si>
+    <t>오이양파장아찌</t>
+  </si>
+  <si>
+    <t>994kcal</t>
+  </si>
+  <si>
+    <t>1006kcal</t>
+  </si>
+  <si>
+    <t>985kcal</t>
+  </si>
+  <si>
+    <t>골든블루스테이크*데미s
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>HOT!!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>]불닭마요덮밥
+(닭:국내산)</t>
+    </r>
+  </si>
+  <si>
+    <t>[팔도맛기행]미사리 초계국수
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>포크볼오므라이스
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>[글루텐프리데이]쌀비빔국수</t>
+  </si>
+  <si>
+    <t>후리가케밥/크루통스프</t>
+  </si>
+  <si>
+    <t>오이미역냉국</t>
+  </si>
+  <si>
+    <t>폭탄주먹밥</t>
+  </si>
+  <si>
+    <t>불고기삼각김밥(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>후질리샐러드파스타</t>
+  </si>
+  <si>
+    <t>아몬드크림깐쇼새우</t>
+  </si>
+  <si>
+    <t>메밀김치전병*양파간장절임</t>
+  </si>
+  <si>
+    <t>매콤순살닭강정(닭:미국산)</t>
+  </si>
+  <si>
+    <t>팽이버섯된장국/견과류단호박고구마찜</t>
+  </si>
+  <si>
+    <t>견과류고구마요거트범벅/야채피클</t>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+  </si>
+  <si>
+    <t>적채오이피클</t>
+  </si>
+  <si>
+    <t>단무지부추무침</t>
+  </si>
+  <si>
+    <t>1014kcal</t>
+  </si>
+  <si>
+    <t>997kcal</t>
+  </si>
+  <si>
+    <t>1000kcal</t>
+  </si>
+  <si>
+    <t>오곡밥</t>
+  </si>
+  <si>
+    <t>콩비지김치찌개</t>
+  </si>
+  <si>
+    <t>단호박을 곁들은 연근스테이크</t>
+  </si>
+  <si>
+    <t>새콤오이사과무침/삼색묵*양념장</t>
+  </si>
+  <si>
+    <t>684kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*견과류를올린구운야채</t>
+  </si>
+  <si>
+    <t>두유/아몬드멸치주먹밥</t>
+  </si>
+  <si>
+    <t>579kcal</t>
+  </si>
+  <si>
+    <t>564kcal</t>
+  </si>
+  <si>
+    <t>551kcal</t>
+  </si>
+  <si>
+    <t>543kcal</t>
+  </si>
+  <si>
+    <t>565kcal</t>
+  </si>
+  <si>
+    <t>씨리얼</t>
+  </si>
+  <si>
+    <t>후르츠</t>
+  </si>
+  <si>
+    <t>키위D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>사우전D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>복숭아D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>[즉석]매콤중화잡채덮밥
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>뚝배기불고기버섯전골
 (소:호주산)</t>
   </si>
   <si>
-    <t>[철판]매운오삼불고기*콩나물파채
-(돼지:독일산)</t>
-  </si>
-  <si>
-    <t>[철판]뼈없는닭갈비*고구마사리
-(닭:브라질산)</t>
-  </si>
-  <si>
-    <t>흑마늘훈제삼겹보쌈*두부찜
-(돼지:미국산)</t>
-  </si>
-  <si>
-    <t>북어감자국</t>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-  </si>
-  <si>
-    <t>근대국</t>
-  </si>
-  <si>
-    <t>완자어묵새송이볶음(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>연근땅콩조림</t>
-  </si>
-  <si>
-    <t>두부계란지짐*양념장</t>
-  </si>
-  <si>
-    <t>녹두빈대떡*양파간장절임</t>
-  </si>
-  <si>
-    <t>모듬쌈채소*견과류쌈장</t>
-  </si>
-  <si>
-    <t>치커리유자청무침</t>
-  </si>
-  <si>
-    <t>오이사과흑초무침</t>
-  </si>
-  <si>
-    <t>깐마늘마늘쫑양념무침</t>
-  </si>
-  <si>
-    <t>청포묵오미자샐러드</t>
-  </si>
-  <si>
-    <t>청양풍잡채</t>
-  </si>
-  <si>
-    <t>980kcal</t>
-  </si>
-  <si>
-    <t>982kcal</t>
-  </si>
-  <si>
-    <t>996kcal</t>
-  </si>
-  <si>
-    <t>991kcal</t>
-  </si>
-  <si>
-    <t>장조림버터비빔밥
+    <t>진한사골떡만두국
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>숯불제육간장불고기
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>허브통살치킨까스*양념치킨소스
-(닭:국내산)</t>
-  </si>
-  <si>
-    <t>빠네로제스파게티</t>
-  </si>
-  <si>
-    <t>[부산밀면]시원한 사누끼밀면</t>
-  </si>
-  <si>
-    <t>파인애플함박스테이크*데미s
+    <t>얼큰순두부찌개*계란탁
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>검정깨밥/콘크림스프</t>
-  </si>
-  <si>
-    <t>스파클링오렌지쥬스</t>
-  </si>
-  <si>
-    <t>충무김밥*충무식오징어무침</t>
-  </si>
-  <si>
-    <t>야채볶음밥/맑은우동국물</t>
-  </si>
-  <si>
-    <t>매콤볼만두</t>
-  </si>
-  <si>
-    <t>블루베리와플/통감자구이*사워크림</t>
-  </si>
-  <si>
-    <t>치킨텐더샐러드(닭:국내산)</t>
-  </si>
-  <si>
-    <t>고기손만두찜</t>
-  </si>
-  <si>
-    <t>칠리치즈후라이</t>
-  </si>
-  <si>
-    <t>오이양파간장절임</t>
-  </si>
-  <si>
-    <t>무비트피클</t>
-  </si>
-  <si>
-    <t>생오이피클*할라페뇨</t>
-  </si>
-  <si>
-    <t>시나몬토스트/야채피클</t>
-  </si>
-  <si>
-    <t>1010kcal</t>
-  </si>
-  <si>
-    <t>1016kcal</t>
-  </si>
-  <si>
-    <t>1019kcal</t>
-  </si>
-  <si>
-    <t>1003kcal</t>
-  </si>
-  <si>
-    <t>뿌리채소영양밥*부추양념장</t>
-  </si>
-  <si>
-    <t>옥수수애호박찹쌀전</t>
-  </si>
-  <si>
-    <t>연두부샐러드/파래김구이</t>
-  </si>
-  <si>
-    <t>653kcal</t>
-  </si>
-  <si>
-    <t>고구마찜/삶은계란</t>
-  </si>
-  <si>
-    <t>두유/현미후리가케주먹밥</t>
-  </si>
-  <si>
-    <t>532kcal</t>
-  </si>
-  <si>
-    <t>529kcal</t>
-  </si>
-  <si>
-    <t>520kcal</t>
-  </si>
-  <si>
-    <t>530kcal</t>
-  </si>
-  <si>
-    <t>과일화채</t>
-  </si>
-  <si>
-    <t>파인애플D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>애플D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>흑임자D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>가츠동[일본식돈까스덮밥]
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>뚝배기순대국*부추무침
-(돼지:미국산,국내산)</t>
-  </si>
-  <si>
-    <t>[즉석]냄비닭칼국수
-(닭:국내산)</t>
-  </si>
-  <si>
-    <t>육개장
-(소:호주산,국내산(육우))</t>
-  </si>
-  <si>
-    <t>뚝배기버섯된장찌개</t>
-  </si>
-  <si>
-    <t>미니메밀소바</t>
-  </si>
-  <si>
-    <t>쌀밥</t>
-  </si>
-  <si>
-    <t>미니열무비빔밥</t>
-  </si>
-  <si>
-    <t>고구마튀김*연근튀김</t>
-  </si>
-  <si>
-    <t>해물잡채완자전</t>
-  </si>
-  <si>
-    <t>수제고추튀김*오미산적</t>
-  </si>
-  <si>
-    <t>야채계란찜</t>
-  </si>
-  <si>
-    <t>조기구이</t>
-  </si>
-  <si>
-    <t>일식치자단무지,락교</t>
-  </si>
-  <si>
-    <t>모듬야채스틱*쌈장</t>
-  </si>
-  <si>
-    <t>무말랭이깻잎무침</t>
-  </si>
-  <si>
-    <t>감자채당근볶음</t>
-  </si>
-  <si>
-    <t>이색묵*양념장</t>
-  </si>
-  <si>
-    <t>배추겉절이김치</t>
-  </si>
-  <si>
-    <t>989kcal</t>
-  </si>
-  <si>
-    <t>976kcal</t>
-  </si>
-  <si>
-    <t>983kcal</t>
-  </si>
-  <si>
-    <t>977kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*참치키드빈</t>
-  </si>
-  <si>
-    <t>그린샐러드*오이두부</t>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(소:호주산)</t>
-  </si>
-  <si>
-    <t>522kcal</t>
-  </si>
-  <si>
-    <t>519kcal</t>
-  </si>
-  <si>
-    <t>525kcal</t>
-  </si>
-  <si>
-    <t>528kcal</t>
-  </si>
-  <si>
-    <t>526kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류*오리엔탈D</t>
-  </si>
-  <si>
-    <t>그린샐러드*스위트콘*오리엔탈D</t>
-  </si>
-  <si>
-    <t>그린샐러드*콘후레이크*오리엔탈D</t>
-  </si>
-  <si>
-    <t>그린샐러드*크루통*오리엔탈D</t>
-  </si>
-  <si>
-    <t>6월 30일 (월)</t>
+    <t>계란파국</t>
+  </si>
+  <si>
+    <t>현미밥</t>
+  </si>
+  <si>
+    <t>깐풍기(닭:미국산)</t>
+  </si>
+  <si>
+    <t>동태전,깻잎전(동태:러시아산)</t>
+  </si>
+  <si>
+    <t>뚝배기호박고추장찌개</t>
+  </si>
+  <si>
+    <t>삼치유자소스구이</t>
+  </si>
+  <si>
+    <t>오이맛살겨자채</t>
+  </si>
+  <si>
+    <t>브로콜리컬리플라워*초장</t>
+  </si>
+  <si>
+    <t>알감자조림</t>
+  </si>
+  <si>
+    <t>멸치고추장볶음</t>
+  </si>
+  <si>
+    <t>마늘쫑무침</t>
+  </si>
+  <si>
+    <t>통깨건파래볶음</t>
+  </si>
+  <si>
+    <t>미나리무생채</t>
+  </si>
+  <si>
+    <t>999kcal</t>
+  </si>
+  <si>
+    <t>973kcal</t>
+  </si>
+  <si>
+    <t>967kcal</t>
+  </si>
+  <si>
+    <t>957kcal</t>
+  </si>
+  <si>
+    <t>960kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*올리브계란</t>
+  </si>
+  <si>
+    <t>고구마찜/새싹연두부</t>
+  </si>
+  <si>
+    <t>두유/참치마요주먹밥</t>
+  </si>
+  <si>
+    <t>533kcal</t>
+  </si>
+  <si>
+    <t>527kcal</t>
+  </si>
+  <si>
+    <t>549kcal</t>
+  </si>
+  <si>
+    <t>550kcal</t>
+  </si>
+  <si>
+    <t>568kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*씨리얼*오리엔탈D</t>
+  </si>
+  <si>
+    <t>7월 7일 (월)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +843,7 @@
     <numFmt numFmtId="179" formatCode="#\ \K\c\a\l"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,6 +1110,15 @@
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1357,7 +1396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="103">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -2054,17 +2093,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="9"/>
       </left>
       <right style="medium">
@@ -2322,17 +2350,6 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2355,69 +2372,6 @@
       <bottom style="thick">
         <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF7919AF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF7919AF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF7919AF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF7919AF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF7919AF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF7919AF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF7919AF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF7919AF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2455,17 +2409,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="9" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
@@ -2474,43 +2417,6 @@
       <top/>
       <bottom style="medium">
         <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2529,32 +2435,86 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF00B0F0"/>
+        <color theme="0"/>
       </left>
       <right style="medium">
-        <color rgb="FF00B0F0"/>
+        <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top style="medium">
-        <color rgb="FF00B0F0"/>
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF00B0F0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="medium">
-        <color rgb="FF00B0F0"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
@@ -2562,19 +2522,122 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF00B0F0"/>
+        <color theme="0"/>
       </left>
       <right style="medium">
-        <color rgb="FF00B0F0"/>
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF00B0F0"/>
+        <color theme="7" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2719,11 +2782,14 @@
     <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2769,10 +2835,10 @@
     <xf numFmtId="0" fontId="23" fillId="47" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="77" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="47" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2790,10 +2856,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="74" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="73" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2802,7 +2868,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="80" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="79" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2817,11 +2883,110 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="65" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="62" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="48" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="49" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="60" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="74" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="54" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="56" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="57" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="58" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="59" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="75" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="61" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2830,105 +2995,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="48" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="49" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="61" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="75" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="54" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="56" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="57" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="59" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="60" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="76" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="65" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="66" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="28" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2952,22 +3018,22 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="67" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="66" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="25" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="26" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="27" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="38" borderId="29" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,7 +3042,7 @@
     <xf numFmtId="0" fontId="28" fillId="38" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2988,25 +3054,25 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="67" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="66" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="21" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="21" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="25" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="34" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="34" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="36" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="37" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="36" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="88" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3015,249 +3081,246 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="94" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="40" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="96" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="93" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="97" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="94" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="87" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="98" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="101" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="102" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="103" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="104" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="87" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="96" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="98" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="73" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="41" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3273,11 +3336,11 @@
     <xf numFmtId="179" fontId="28" fillId="41" borderId="54" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="63" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="62" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3314,6 +3377,7 @@
     <cellStyle name="쉼표 [0] 4" xfId="46"/>
     <cellStyle name="쉼표 [0] 5" xfId="47"/>
     <cellStyle name="쉼표 [0] 6" xfId="48"/>
+    <cellStyle name="쉼표 [0] 7" xfId="49"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -3354,7 +3418,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
+      <xdr:rowOff>2721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3982,7 +4046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3998,15 +4062,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="68"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -4024,24 +4088,24 @@
       <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -4060,26 +4124,26 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G3" s="74" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4098,8 +4162,8 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="72" t="s">
         <v>50</v>
       </c>
@@ -4132,22 +4196,22 @@
       <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="72" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -4166,13 +4230,13 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="72" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="E6" s="72" t="s">
         <v>51</v>
@@ -4200,22 +4264,22 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="76" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G7" s="79" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4234,7 +4298,7 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="80" t="s">
         <v>52</v>
       </c>
@@ -4270,24 +4334,24 @@
       <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="65" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E9" s="85" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4306,22 +4370,22 @@
       <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="72" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G10" s="72" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -4340,8 +4404,8 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="72" t="s">
         <v>56</v>
       </c>
@@ -4374,8 +4438,8 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="72" t="s">
         <v>57</v>
       </c>
@@ -4408,22 +4472,22 @@
       <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="88" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" s="92" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4442,20 +4506,20 @@
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="94" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="94" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="95" t="s">
@@ -4478,26 +4542,26 @@
       <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="39" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F15" s="99" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G15" s="100" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -4516,22 +4580,22 @@
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="101" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F16" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="105" t="s">
         <v>62</v>
-      </c>
-      <c r="G16" s="105" t="s">
-        <v>63</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -4550,22 +4614,22 @@
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:60" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="106" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="F17" s="108" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="G17" s="109" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -4622,22 +4686,22 @@
       <c r="BH17" s="10"/>
     </row>
     <row r="18" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="110" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="86" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>153</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4694,22 +4758,22 @@
       <c r="BH18" s="10"/>
     </row>
     <row r="19" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="110" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="105" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="113" t="s">
+        <v>159</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
@@ -4766,15 +4830,15 @@
       <c r="BH19" s="9"/>
     </row>
     <row r="20" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
-      <c r="B20" s="67"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="115" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="115" t="s">
@@ -4838,22 +4902,22 @@
       <c r="BH20" s="9"/>
     </row>
     <row r="21" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="117" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D21" s="118" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="E21" s="119" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F21" s="120" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="G21" s="121" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
@@ -4909,25 +4973,25 @@
       <c r="BG21" s="9"/>
       <c r="BH21" s="9"/>
     </row>
-    <row r="22" spans="1:60" ht="79.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="1:60" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="37"/>
+      <c r="B22" s="40" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="122" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D22" s="123" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E22" s="124" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F22" s="125" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G22" s="126" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -4984,22 +5048,22 @@
       <c r="BH22" s="10"/>
     </row>
     <row r="23" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>169</v>
       </c>
       <c r="E23" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="129" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="F23" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>171</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -5056,22 +5120,22 @@
       <c r="BH23" s="10"/>
     </row>
     <row r="24" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="130" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D24" s="131" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E24" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="108" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="F24" s="129" t="s">
+        <v>175</v>
       </c>
       <c r="G24" s="132" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5128,22 +5192,22 @@
       <c r="BH24" s="10"/>
     </row>
     <row r="25" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="133" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>178</v>
       </c>
       <c r="E25" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="108" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="F25" s="129" t="s">
+        <v>179</v>
       </c>
       <c r="G25" s="132" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5200,21 +5264,21 @@
       <c r="BH25" s="10"/>
     </row>
     <row r="26" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="134" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="110" t="s">
+      <c r="G26" s="114" t="s">
         <v>65</v>
       </c>
       <c r="H26" s="10"/>
@@ -5272,22 +5336,22 @@
       <c r="BH26" s="10"/>
     </row>
     <row r="27" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="136" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="137" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="138" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="138" t="s">
+      <c r="D27" s="139" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="139" t="s">
-        <v>100</v>
+      <c r="F27" s="141" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="142" t="s">
+        <v>115</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -5344,17 +5408,17 @@
       <c r="BH27" s="10"/>
     </row>
     <row r="28" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="123"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="143"/>
       <c r="E28" s="72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F28" s="87"/>
-      <c r="G28" s="140"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -5410,12 +5474,12 @@
       <c r="BH28" s="10"/>
     </row>
     <row r="29" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="72"/>
       <c r="E29" s="73" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="F29" s="73"/>
       <c r="G29" s="87"/>
@@ -5474,12 +5538,12 @@
       <c r="BH29" s="10"/>
     </row>
     <row r="30" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="129"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="72"/>
       <c r="E30" s="73" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F30" s="73"/>
       <c r="G30" s="87"/>
@@ -5538,12 +5602,12 @@
       <c r="BH30" s="10"/>
     </row>
     <row r="31" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="129"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="127"/>
       <c r="D31" s="72"/>
       <c r="E31" s="87" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F31" s="74"/>
       <c r="G31" s="74"/>
@@ -5602,9 +5666,9 @@
       <c r="BH31" s="10"/>
     </row>
     <row r="32" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="129"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="127"/>
       <c r="D32" s="72"/>
       <c r="E32" s="87" t="s">
         <v>65</v>
@@ -5666,15 +5730,15 @@
       <c r="BH32" s="10"/>
     </row>
     <row r="33" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="39"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="129"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="72"/>
       <c r="E33" s="87" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F33" s="74"/>
-      <c r="G33" s="141"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -5730,23 +5794,23 @@
       <c r="BH33" s="10"/>
     </row>
     <row r="34" spans="1:60" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="44" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="142" t="s">
+      <c r="C34" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="142" t="s">
+      <c r="D34" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="142" t="s">
+      <c r="F34" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="146" t="s">
         <v>68</v>
       </c>
       <c r="H34" s="17"/>
@@ -5804,22 +5868,22 @@
       <c r="BH34" s="10"/>
     </row>
     <row r="35" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="73" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="D35" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="87" t="s">
         <v>70</v>
-      </c>
-      <c r="E35" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="87" t="s">
-        <v>96</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
@@ -5876,8 +5940,8 @@
       <c r="BH35" s="10"/>
     </row>
     <row r="36" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="73" t="s">
         <v>71</v>
       </c>
@@ -5885,13 +5949,13 @@
         <v>73</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="73" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="14"/>
@@ -5948,22 +6012,22 @@
       <c r="BH36" s="10"/>
     </row>
     <row r="37" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="143" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="147" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>84</v>
-      </c>
       <c r="F37" s="74" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="G37" s="87" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="14"/>
@@ -6020,22 +6084,22 @@
       <c r="BH37" s="10"/>
     </row>
     <row r="38" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="145" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="145" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="148" t="s">
         <v>191</v>
       </c>
-      <c r="F38" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="147" t="s">
+      <c r="D38" s="149" t="s">
         <v>192</v>
+      </c>
+      <c r="E38" s="149" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="150" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="151" t="s">
+        <v>195</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="14"/>
@@ -6092,21 +6156,23 @@
       <c r="BH38" s="10"/>
     </row>
     <row r="39" spans="1:60" ht="53.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="148" t="s">
+      <c r="B39" s="45"/>
+      <c r="C39" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="149" t="s">
+      <c r="D39" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150" t="s">
+      <c r="E39" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="151" t="s">
+      <c r="F39" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="155" t="s">
         <v>76</v>
       </c>
       <c r="H39" s="14"/>
@@ -6164,21 +6230,21 @@
       <c r="BH39" s="10"/>
     </row>
     <row r="40" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="152" t="s">
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="153" t="s">
+      <c r="D40" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="153" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="153" t="s">
+      <c r="E40" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="G40" s="154" t="s">
+      <c r="F40" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="158" t="s">
         <v>77</v>
       </c>
       <c r="H40" s="14"/>
@@ -6236,21 +6302,21 @@
       <c r="BH40" s="10"/>
     </row>
     <row r="41" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="152" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="152" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="156" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="152" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="152" t="s">
+      <c r="F41" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="154" t="s">
+      <c r="G41" s="158" t="s">
         <v>78</v>
       </c>
       <c r="H41" s="14"/>
@@ -6308,20 +6374,22 @@
       <c r="BH41" s="10"/>
     </row>
     <row r="42" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="50"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="152" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="152" t="s">
-        <v>195</v>
-      </c>
-      <c r="E42" s="152"/>
-      <c r="F42" s="152" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="155" t="s">
-        <v>196</v>
+      <c r="A42" s="48"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="156" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="156" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="159" t="s">
+        <v>200</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="10"/>
@@ -6378,26 +6446,26 @@
       <c r="BH42" s="10"/>
     </row>
     <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="D43" s="157" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="158" t="s">
-        <v>200</v>
-      </c>
-      <c r="G43" s="159" t="s">
+      <c r="C43" s="160" t="s">
         <v>201</v>
+      </c>
+      <c r="D43" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="162" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="163" t="s">
+        <v>204</v>
+      </c>
+      <c r="G43" s="162" t="s">
+        <v>205</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="10"/>
@@ -6454,22 +6522,22 @@
       <c r="BH43" s="10"/>
     </row>
     <row r="44" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="52"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="160" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="161" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F44" s="163" t="s">
-        <v>203</v>
-      </c>
-      <c r="G44" s="164" t="s">
-        <v>64</v>
+      <c r="A44" s="50"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="165" t="s">
+        <v>85</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="10"/>
@@ -6526,22 +6594,22 @@
       <c r="BH44" s="10"/>
     </row>
     <row r="45" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="52"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="165" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="161" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="124" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="166" t="s">
+      <c r="A45" s="50"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="167" t="s">
         <v>208</v>
       </c>
-      <c r="G45" s="126" t="s">
+      <c r="D45" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="168" t="s">
         <v>209</v>
+      </c>
+      <c r="F45" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" s="168" t="s">
+        <v>211</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="10"/>
@@ -6598,21 +6666,21 @@
       <c r="BH45" s="10"/>
     </row>
     <row r="46" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="52"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="160" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="161" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="167" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="164" t="s">
         <v>212</v>
       </c>
-      <c r="F46" s="168" t="s">
+      <c r="D46" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="G46" s="164" t="s">
+      <c r="E46" s="170" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="165" t="s">
         <v>214</v>
       </c>
       <c r="H46" s="20"/>
@@ -6670,22 +6738,22 @@
       <c r="BH46" s="10"/>
     </row>
     <row r="47" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="52"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="170" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="167" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="166" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="132" t="s">
-        <v>98</v>
+      <c r="E47" s="170" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="172" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="170" t="s">
+        <v>218</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="9"/>
@@ -6742,14 +6810,18 @@
       <c r="BH47" s="10"/>
     </row>
     <row r="48" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="53"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="171"/>
-      <c r="F48" s="172" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="174" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="173" t="s">
@@ -6810,22 +6882,22 @@
       <c r="BH48" s="10"/>
     </row>
     <row r="49" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="53"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="175" t="s">
-        <v>217</v>
+      <c r="A49" s="51"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="175" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="142" t="s">
+        <v>220</v>
       </c>
       <c r="E49" s="176" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="177" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="178" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="F49" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" s="177" t="s">
+        <v>223</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -6884,24 +6956,24 @@
       <c r="BH49" s="10"/>
     </row>
     <row r="50" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="54"/>
-      <c r="B50" s="59" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="179" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="179" t="s">
+      <c r="C50" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="179" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="179" t="s">
-        <v>102</v>
+      <c r="E50" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="178" t="s">
+        <v>87</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -6958,22 +7030,22 @@
       <c r="BH50" s="10"/>
     </row>
     <row r="51" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="54"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="129" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="127" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="72" t="s">
-        <v>70</v>
-      </c>
       <c r="F51" s="73" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -7030,22 +7102,22 @@
       <c r="BH51" s="10"/>
     </row>
     <row r="52" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="54"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="143" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="E52" s="73" t="s">
         <v>71</v>
-      </c>
-      <c r="E52" s="73" t="s">
-        <v>72</v>
       </c>
       <c r="F52" s="73" t="s">
         <v>73</v>
       </c>
       <c r="G52" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7102,19 +7174,19 @@
       <c r="BH52" s="10"/>
     </row>
     <row r="53" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="54"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="143" t="s">
-        <v>188</v>
+      <c r="A53" s="36"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="147" t="s">
+        <v>117</v>
       </c>
       <c r="D53" s="73" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="E53" s="73" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="F53" s="73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G53" s="74" t="s">
         <v>84</v>
@@ -7174,22 +7246,22 @@
       <c r="BH53" s="10"/>
     </row>
     <row r="54" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="55"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="144" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" s="145" t="s">
-        <v>225</v>
-      </c>
-      <c r="F54" s="145" t="s">
-        <v>226</v>
-      </c>
-      <c r="G54" s="146" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="148" t="s">
         <v>227</v>
+      </c>
+      <c r="D54" s="149" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" s="149" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" s="149" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" s="150" t="s">
+        <v>231</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -7246,24 +7318,24 @@
       <c r="BH54" s="10"/>
     </row>
     <row r="55" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="180" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="181" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="182" t="s">
-        <v>230</v>
-      </c>
-      <c r="F55" s="181" t="s">
-        <v>231</v>
-      </c>
-      <c r="G55" s="183" t="s">
-        <v>228</v>
+      <c r="B55" s="59"/>
+      <c r="C55" s="179" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="181" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="182" t="s">
+        <v>118</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -7320,15 +7392,15 @@
       <c r="BH55" s="10"/>
     </row>
     <row r="56" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -8091,10 +8163,7 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A38"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B34:B38"/>
@@ -8102,13 +8171,16 @@
     <mergeCell ref="A43:A54"/>
     <mergeCell ref="B43:B49"/>
     <mergeCell ref="B50:B54"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A38"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8138,7 +8210,7 @@
       </c>
       <c r="C2" s="2">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -8152,47 +8224,47 @@
       <c r="C3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-건새우시금치된장국
+삼색수제비국
 삼곡밥
-떡갈비가래떡조림(돼지:국내산)
-열무김치
-726kcal</v>
+메추리알어묵조림(갈치:수입산)
+포기김치
+764kcal</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-김치콩나물국
+순두부백탕*절임고추양념장
 삼곡밥
-비엔나야채볶음
-석박지
+꽁치무조림
+포기김치
 730kcal</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-꼬맹이만두국(소:호주산)
+경상도식쇠고기무국(소:호주산)
 삼곡밥
-양배추진미채무침
+열무된장나물
 포기김치
-715kcal</v>
+721kcal</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-무채어묵국(갈치:수입산)
+콩가루배추국
 삼곡밥
-호박맛살볶음
+떡갈비야채조림(돼지:국내산)
 포기김치
-728kcal</v>
+742kcal</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-장터국(소:호주산)
+북어채감자국
 삼곡밥
-따뜻한연두부*절임고추간장s
+맛살야채볶음
 포기김치
-744kcal</v>
+738kcal</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8228,7 +8300,7 @@
 즉석해장라면/삼곡밥/김치</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8238,47 +8310,47 @@
       <c r="C5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*핫케익/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-해쉬브라운</v>
+감자볼튀김</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
-곡물식빵*모닝빵/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-콘후레이크</v>
+웻지감자튀김</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
-토스트식빵*핫케익/딸기잼*버터
-그린샐러드*유자레몬D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-단호박범벅</v>
+코코볼</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-감자볼튀김</v>
+양념막대감자튀김</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*유자레몬D
+토스트식빵*모닝빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-초코첵스</v>
+슬라이스햄</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8324,62 +8396,62 @@
       <c r="C7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-제육김치두루치기*두부찜
-(돼지:국내산)
-보리밥
-북어감자국
-완자어묵새송이볶음(갈치:수입산)
-치커리유자청무침
+도가니설렁탕*소면
+(소:호주산)
+흑향미밥
+해물잡채완자전
+골뱅이야채무침
+견과류콩조림
 포기김치/석박지
-980kcal</v>
+994kcal</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-뚝배기불고기버섯전골*떡만두사리
-(소:호주산)
-흑향미밥
-야채계란말이
-연근땅콩조림
-오이사과흑초무침
+뼈다귀해장국
+(돼지:국내산)
+기장밥
+야채계란찜
+청양풍어묵잡채(갈치:수입산)
+오이부추무침
 포기김치/석박지
 982kcal</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-[철판]매운오삼불고기*콩나물파채
+깻잎파채를 올린 고추장삼겹살구이
 (돼지:독일산)
-차조밥
-얼갈이된장국
-두부계란지짐*양념장
-깐마늘마늘쫑양념무침
+보리밥
+시금치국
+비엔나조랑떡야채볶음
+쑥갓생두부무침
 포기김치/석박지
-996kcal</v>
+1006kcal</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-[철판]뼈없는닭갈비*고구마사리
-(닭:브라질산)
-수수밥
+안동찜닭*넙죽당면사리
+(닭:국내산)
+차조밥
 들깨미역국
-녹두빈대떡*양파간장절임
-청포묵오미자샐러드
+삼색밀전병*겨자소스
+검은깨명엽채볶음
 포기김치/석박지
-991kcal</v>
+980kcal</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-흑마늘훈제삼겹보쌈*두부찜
-(돼지:미국산)
-기장밥
+매콤낙지볶음*콩나물찜
+(낙지:베트남산)
+수수밥
 근대국
-모듬쌈채소*견과류쌈장
-청양풍잡채
+모짜렐라치즈계란말이
+오이양파장아찌
 포기김치/석박지
-979kcal</v>
+985kcal</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -8392,55 +8464,56 @@
       <c r="C8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-장조림버터비빔밥
+골든블루스테이크*데미s
 (돼지:국내산)
-맑은우동국물
-매콤볼만두
-오이양파간장절임
+후리가케밥/크루통스프
+후질리샐러드파스타
+견과류고구마요거트범벅/야채피클
 포기김치/석박지
-1010kcal</v>
+1014kcal</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-허브통살치킨까스*양념치킨소스
+[HOT!!]불닭마요덮밥
 (닭:국내산)
-검정깨밥/콘크림스프
-블루베리와플/통감자구이*사워크림
-무비트피클
+오이미역냉국
+아몬드크림깐쇼새우
+콘샐러드
 포기김치/석박지
-1016kcal</v>
+1006kcal</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-빠네로제스파게티
-스파클링오렌지쥬스
-치킨텐더샐러드(닭:국내산)
-생오이피클*할라페뇨
+[팔도맛기행]미사리 초계국수
+(닭:국내산)
+폭탄주먹밥
+메밀김치전병*양파간장절임
+오복채무침
 포기김치/석박지
-1019kcal</v>
+997kcal</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-[부산밀면]시원한 사누끼밀면
-충무김밥*충무식오징어무침
-고기손만두찜
-오복채무침
+포크볼오므라이스
+(돼지:국내산)
+맑은우동국물
+매콤순살닭강정(닭:미국산)
+적채오이피클
 포기김치/석박지
-1003kcal</v>
+1000kcal</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-파인애플함박스테이크*데미s
-(돼지:국내산)
-야채볶음밥/맑은우동국물
-칠리치즈후라이
-시나몬토스트/야채피클
+[글루텐프리데이]쌀비빔국수
+불고기삼각김밥(돼지:국내산)
+팽이버섯된장국/견과류단호박고구마찜
+단무지부추무침
 포기김치/석박지
-1008kcal</v>
+977kcal</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -8461,12 +8534,12 @@
       <c r="E9" s="2" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
         <v>[네이쳐데이]
-뿌리채소영양밥*부추양념장
-얼갈이된장국
-옥수수애호박찹쌀전
-연두부샐러드/파래김구이
+오곡밥
+콩비지김치찌개
+단호박을 곁들은 연근스테이크
+새콤오이사과무침/삼색묵*양념장
 포기김치/석박지
-653kcal</v>
+684kcal</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -8488,46 +8561,46 @@
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/메추리알
 야채스틱/바나나/방울토마토
-두유/참깨롤빵
-532kcal</v>
+두유/모닝빵
+579kcal</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*올리브참치
-단호박구이/메추리알
+그린샐러드*견과류를올린구운야채
+단호박구이/삶은계란
 야채스틱/바나나/오렌지
-두유/모닝빵
-529kcal</v>
+두유/아몬드멸치주먹밥
+564kcal</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
 그린샐러드*흑임자두부
-통감자구이/삶은계란
-야채스틱/바나나/오렌지
-두유/떡갈비주먹밥(돼지:국내산)
-520kcal</v>
+고구마찜/메추리알
+야채스틱/바나나/토마토
+두유/참깨롤빵
+551kcal</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*견과류올린구운야채
-고구마찜/메추리알
+그린샐러드*참치키드빈
+통감자구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/현미후리가케주먹밥
-515kcal</v>
+두유/부시맥브레드
+543kcal</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-단호박구이/삶은계란
-야채스틱/바나나/토마토
-두유/부시맥브레드
-530kcal</v>
+단호박구이/메추리알
+야채스틱/바나나/방울토마토
+두유/현미후리가케주먹밥
+565kcal</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -8542,23 +8615,24 @@
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-파인애플D/오리엔탈D</v>
+씨리얼
+키위D/오리엔탈D</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-애플D/오리엔탈D</v>
+후르츠
+흑임자D/오리엔탈D</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
-        <v xml:space="preserve">[플러스메뉴]
+        <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
-과일화채
-</v>
+그린샐러드
+스위트콘,빈스
+사우전D/오리엔탈D</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
@@ -8574,7 +8648,7 @@
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 견과류
-흑임자D/오리엔탈D</v>
+복숭아D/오리엔탈D</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
@@ -8587,59 +8661,62 @@
       <c r="C12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-가츠동[일본식돈까스덮밥]
+[즉석]매콤중화잡채덮밥
 (돼지:국내산)
-미니메밀소바
-고구마튀김*연근튀김
-일식치자단무지,락교
+계란파국
+깐풍기(닭:미국산)
+오이맛살겨자채
+단무지부추무침
 포기김치
-989kcal</v>
+999kcal</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-뚝배기순대국*부추무침
-(돼지:미국산,국내산)
-쌀밥
-해물잡채완자전
-모듬야채스틱*쌈장
-쥐어채무침(갈치:국내산)
-석박지
-976kcal</v>
+뚝배기불고기버섯전골
+(소:호주산)
+현미밥
+두부계란지짐*양념장
+브로콜리컬리플라워*초장
+멸치고추장볶음
+포기김치
+973kcal</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-[즉석]냄비닭칼국수
-(닭:국내산)
-미니열무비빔밥
-수제고추튀김*오미산적
-무말랭이깻잎무침
+진한사골떡만두국
+(소:호주산)
+쌀밥
+동태전,깻잎전(동태:러시아산)
+연근땅콩조림
+마늘쫑무침
 배추겉절이김치
-983kcal</v>
+967kcal</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-육개장
-(소:호주산,국내산(육우))
-쌀밥
-야채계란찜
-감자채당근볶음
-쑥갓양파무침
+숯불제육간장불고기
+(돼지:국내산)
+기장밥
+뚝배기호박고추장찌개
+콩나물무침
+통깨건파래볶음
 포기김치
-975kcal</v>
+957kcal</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-뚝배기버섯된장찌개
-흑향미밥
-조기구이
-이색묵*양념장
-콩나물무침
+얼큰순두부찌개*계란탁
+(돼지:국내산)
+차조밥
+삼치유자소스구이
+알감자조림
+미나리무생채
 포기김치
-977kcal</v>
+960kcal</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -8652,47 +8729,47 @@
       <c r="C13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
-그린샐러드*참치키드빈
-통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/현미후리가케주먹밥
-522kcal</v>
+그린샐러드*올리브계란
+고구마찜/새싹연두부
+야채스틱/바나나/오렌지
+두유/장조림주먹밥(소:호주산)
+533kcal</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
-그린샐러드*오이두부
-고구마찜/삶은계란
-야채스틱/바나나/방울토마토
-두유/장조림주먹밥(소:호주산)
-519kcal</v>
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/메추리알
+야채스틱/바나나/토마토
+두유/부시맥브레드
+527kcal</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-525kcal</v>
+그린샐러드*꽃맛살
+단호박구이/삶은계란
+야채스틱/바나나/방울토마토
+두유/참치마요주먹밥
+549kcal</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
         <v>[건강도시락]
-그린샐러드*올리브참치
-통감자구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
 야채스틱/바나나/오렌지
-두유/참깨롤빵
-528kcal</v>
+두유/모닝빵
+550kcal</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
         <v>[건강도시락]
-그린샐러드*꽃맛살
-고구마찜/메추리알
-야채스틱/바나나/방울토마토
+그린샐러드*견과류올린구운야채
+통감자구이/삶은계란
+야채스틱/바나나/토마토
 두유/떡갈비주먹밥(돼지:국내산)
-526kcal</v>
+568kcal</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8710,17 +8787,17 @@
       <c r="D14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!D55</f>
         <v>[플러스메뉴]
-그린샐러드*스위트콘*오리엔탈D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!E55</f>
         <v>[플러스메뉴]
-그린샐러드*콘후레이크*오리엔탈D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!F55</f>
         <v>[플러스메뉴]
-그린샐러드*크루통*오리엔탈D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!G55</f>
@@ -8739,7 +8816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8835,7 +8912,7 @@
       </c>
       <c r="B2" s="5">
         <f>converter_phase1!C2</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="C2" s="7">
         <f>IF(A2="점심메뉴", TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8843,7 +8920,7 @@
       </c>
       <c r="D2" s="5">
         <f>B2</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="E2" s="7">
         <f>C2+TIME(1,30,0)</f>
@@ -8857,7 +8934,7 @@
       </c>
       <c r="H2" s="5">
         <f>B2</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="I2" s="8">
         <f>C2-TIME(0,15,0)</f>
@@ -8875,19 +8952,19 @@
       <c r="Q2" s="6" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-건새우시금치된장국
+삼색수제비국
 삼곡밥
-떡갈비가래떡조림(돼지:국내산)
-열무김치
-726kcal
+메추리알어묵조림(갈치:수입산)
+포기김치
+764kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*핫케익/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-해쉬브라운
+감자볼튀김
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -8911,7 +8988,7 @@
       </c>
       <c r="B3" s="5">
         <f>B2</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴", TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8919,7 +8996,7 @@
       </c>
       <c r="D3" s="5">
         <f>B3</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -8933,7 +9010,7 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
@@ -8951,33 +9028,33 @@
       <c r="Q3" s="6" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-제육김치두루치기*두부찜
+도가니설렁탕*소면
+(소:호주산)
+흑향미밥
+해물잡채완자전
+골뱅이야채무침
+견과류콩조림
+포기김치/석박지
+994kcal
+[일품]
+골든블루스테이크*데미s
 (돼지:국내산)
-보리밥
-북어감자국
-완자어묵새송이볶음(갈치:수입산)
-치커리유자청무침
+후리가케밥/크루통스프
+후질리샐러드파스타
+견과류고구마요거트범벅/야채피클
 포기김치/석박지
-980kcal
-[일품]
-장조림버터비빔밥
-(돼지:국내산)
-맑은우동국물
-매콤볼만두
-오이양파간장절임
-포기김치/석박지
-1010kcal
+1014kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/메추리알
 야채스틱/바나나/방울토마토
-두유/참깨롤빵
-532kcal
+두유/모닝빵
+579kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-파인애플D/오리엔탈D</v>
+씨리얼
+키위D/오리엔탈D</v>
       </c>
       <c r="R3" s="4" t="b">
         <v>0</v>
@@ -8999,7 +9076,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -9007,7 +9084,7 @@
       </c>
       <c r="D4" s="5">
         <f>B4</f>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
@@ -9021,7 +9098,7 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>41820</v>
+        <v>41827</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="3"/>
@@ -9039,19 +9116,20 @@
       <c r="Q4" s="6" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-가츠동[일본식돈까스덮밥]
+[즉석]매콤중화잡채덮밥
 (돼지:국내산)
-미니메밀소바
-고구마튀김*연근튀김
-일식치자단무지,락교
+계란파국
+깐풍기(닭:미국산)
+오이맛살겨자채
+단무지부추무침
 포기김치
-989kcal
+999kcal
 [건강도시락]
-그린샐러드*참치키드빈
-통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/현미후리가케주먹밥
-522kcal
+그린샐러드*올리브계란
+고구마찜/새싹연두부
+야채스틱/바나나/오렌지
+두유/장조림주먹밥(소:호주산)
+533kcal
 [플러스메뉴]
 그린샐러드*견과류*오리엔탈D</v>
       </c>
@@ -9075,7 +9153,7 @@
       </c>
       <c r="B5" s="5">
         <f>B2+1</f>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴", TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9083,7 +9161,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -9097,7 +9175,7 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
@@ -9115,19 +9193,19 @@
       <c r="Q5" s="6" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-김치콩나물국
+순두부백탕*절임고추양념장
 삼곡밥
-비엔나야채볶음
-석박지
+꽁치무조림
+포기김치
 730kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*모닝빵/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-콘후레이크
+웻지감자튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -9151,7 +9229,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="4"/>
@@ -9159,7 +9237,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="5"/>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="6"/>
@@ -9173,7 +9251,7 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="7"/>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="8"/>
@@ -9191,33 +9269,33 @@
       <c r="Q6" s="6" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-뚝배기불고기버섯전골*떡만두사리
-(소:호주산)
-흑향미밥
-야채계란말이
-연근땅콩조림
-오이사과흑초무침
+뼈다귀해장국
+(돼지:국내산)
+기장밥
+야채계란찜
+청양풍어묵잡채(갈치:수입산)
+오이부추무침
 포기김치/석박지
 982kcal
 [일품]
-허브통살치킨까스*양념치킨소스
+[HOT!!]불닭마요덮밥
 (닭:국내산)
-검정깨밥/콘크림스프
-블루베리와플/통감자구이*사워크림
-무비트피클
+오이미역냉국
+아몬드크림깐쇼새우
+콘샐러드
 포기김치/석박지
-1016kcal
+1006kcal
 [건강도시락]
-그린샐러드*올리브참치
-단호박구이/메추리알
+그린샐러드*견과류를올린구운야채
+단호박구이/삶은계란
 야채스틱/바나나/오렌지
-두유/모닝빵
-529kcal
+두유/아몬드멸치주먹밥
+564kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-애플D/오리엔탈D</v>
+후르츠
+흑임자D/오리엔탈D</v>
       </c>
       <c r="R6" s="4" t="b">
         <v>0</v>
@@ -9239,7 +9317,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="9"/>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="4"/>
@@ -9247,7 +9325,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="5"/>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="6"/>
@@ -9261,7 +9339,7 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="7"/>
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="8"/>
@@ -9279,22 +9357,22 @@
       <c r="Q7" s="6" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-뚝배기순대국*부추무침
-(돼지:미국산,국내산)
-쌀밥
-해물잡채완자전
-모듬야채스틱*쌈장
-쥐어채무침(갈치:국내산)
-석박지
-976kcal
+뚝배기불고기버섯전골
+(소:호주산)
+현미밥
+두부계란지짐*양념장
+브로콜리컬리플라워*초장
+멸치고추장볶음
+포기김치
+973kcal
 [건강도시락]
-그린샐러드*오이두부
-고구마찜/삶은계란
-야채스틱/바나나/방울토마토
-두유/장조림주먹밥(소:호주산)
-519kcal
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/메추리알
+야채스틱/바나나/토마토
+두유/부시맥브레드
+527kcal
 [플러스메뉴]
-그린샐러드*스위트콘*오리엔탈D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="R7" s="4" t="b">
         <v>0</v>
@@ -9316,7 +9394,7 @@
       </c>
       <c r="B8" s="5">
         <f>B5+1</f>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴", TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9324,7 +9402,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -9338,7 +9416,7 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
@@ -9356,19 +9434,19 @@
       <c r="Q8" s="6" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-꼬맹이만두국(소:호주산)
+경상도식쇠고기무국(소:호주산)
 삼곡밥
-양배추진미채무침
+열무된장나물
 포기김치
-715kcal
+721kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*핫케익/딸기잼*버터
-그린샐러드*유자레몬D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-단호박범벅
+코코볼
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9392,7 +9470,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="9"/>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="10"/>
@@ -9400,7 +9478,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="11"/>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="12"/>
@@ -9414,7 +9492,7 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="13"/>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="14"/>
@@ -9431,39 +9509,41 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="6" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
-        <v xml:space="preserve">[한식]
-[철판]매운오삼불고기*콩나물파채
+        <v>[한식]
+깻잎파채를 올린 고추장삼겹살구이
 (돼지:독일산)
-차조밥
-얼갈이된장국
-두부계란지짐*양념장
-깐마늘마늘쫑양념무침
+보리밥
+시금치국
+비엔나조랑떡야채볶음
+쑥갓생두부무침
 포기김치/석박지
-996kcal
+1006kcal
 [일품]
-빠네로제스파게티
-스파클링오렌지쥬스
-치킨텐더샐러드(닭:국내산)
-생오이피클*할라페뇨
+[팔도맛기행]미사리 초계국수
+(닭:국내산)
+폭탄주먹밥
+메밀김치전병*양파간장절임
+오복채무침
 포기김치/석박지
-1019kcal
+997kcal
 [네이쳐데이]
-뿌리채소영양밥*부추양념장
-얼갈이된장국
-옥수수애호박찹쌀전
-연두부샐러드/파래김구이
+오곡밥
+콩비지김치찌개
+단호박을 곁들은 연근스테이크
+새콤오이사과무침/삼색묵*양념장
 포기김치/석박지
-653kcal
+684kcal
 [건강도시락]
 그린샐러드*흑임자두부
-통감자구이/삶은계란
-야채스틱/바나나/오렌지
-두유/떡갈비주먹밥(돼지:국내산)
-520kcal
+고구마찜/메추리알
+야채스틱/바나나/토마토
+두유/참깨롤빵
+551kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
-과일화채
-</v>
+그린샐러드
+스위트콘,빈스
+사우전D/오리엔탈D</v>
       </c>
       <c r="R9" s="4" t="b">
         <v>0</v>
@@ -9485,7 +9565,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="9"/>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="10"/>
@@ -9493,7 +9573,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="11"/>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="12"/>
@@ -9507,7 +9587,7 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="13"/>
-        <v>41822</v>
+        <v>41829</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="14"/>
@@ -9525,21 +9605,22 @@
       <c r="Q10" s="6" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-[즉석]냄비닭칼국수
-(닭:국내산)
-미니열무비빔밥
-수제고추튀김*오미산적
-무말랭이깻잎무침
+진한사골떡만두국
+(소:호주산)
+쌀밥
+동태전,깻잎전(동태:러시아산)
+연근땅콩조림
+마늘쫑무침
 배추겉절이김치
-983kcal
+967kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-525kcal
+그린샐러드*꽃맛살
+단호박구이/삶은계란
+야채스틱/바나나/방울토마토
+두유/참치마요주먹밥
+549kcal
 [플러스메뉴]
-그린샐러드*콘후레이크*오리엔탈D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="R10" s="4" t="b">
         <v>0</v>
@@ -9561,7 +9642,7 @@
       </c>
       <c r="B11" s="5">
         <f>B8+1</f>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="10"/>
@@ -9569,7 +9650,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="11"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="12"/>
@@ -9583,7 +9664,7 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="13"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="14"/>
@@ -9601,19 +9682,19 @@
       <c r="Q11" s="6" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-무채어묵국(갈치:수입산)
+콩가루배추국
 삼곡밥
-호박맛살볶음
+떡갈비야채조림(돼지:국내산)
 포기김치
-728kcal
+742kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-감자볼튀김
+양념막대감자튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -9637,7 +9718,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="9"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="10"/>
@@ -9645,7 +9726,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="11"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="12"/>
@@ -9659,7 +9740,7 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="13"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="14"/>
@@ -9677,27 +9758,28 @@
       <c r="Q12" s="6" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-[철판]뼈없는닭갈비*고구마사리
-(닭:브라질산)
-수수밥
+안동찜닭*넙죽당면사리
+(닭:국내산)
+차조밥
 들깨미역국
-녹두빈대떡*양파간장절임
-청포묵오미자샐러드
+삼색밀전병*겨자소스
+검은깨명엽채볶음
 포기김치/석박지
-991kcal
+980kcal
 [일품]
-[부산밀면]시원한 사누끼밀면
-충무김밥*충무식오징어무침
-고기손만두찜
-오복채무침
+포크볼오므라이스
+(돼지:국내산)
+맑은우동국물
+매콤순살닭강정(닭:미국산)
+적채오이피클
 포기김치/석박지
-1003kcal
+1000kcal
 [건강도시락]
-그린샐러드*견과류올린구운야채
-고구마찜/메추리알
+그린샐러드*참치키드빈
+통감자구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/현미후리가케주먹밥
-515kcal
+두유/부시맥브레드
+543kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
@@ -9724,7 +9806,7 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="9"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="10"/>
@@ -9732,7 +9814,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="11"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="12"/>
@@ -9746,7 +9828,7 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="13"/>
-        <v>41823</v>
+        <v>41830</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="14"/>
@@ -9764,22 +9846,22 @@
       <c r="Q13" s="6" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-육개장
-(소:호주산,국내산(육우))
-쌀밥
-야채계란찜
-감자채당근볶음
-쑥갓양파무침
+숯불제육간장불고기
+(돼지:국내산)
+기장밥
+뚝배기호박고추장찌개
+콩나물무침
+통깨건파래볶음
 포기김치
-975kcal
+957kcal
 [건강도시락]
-그린샐러드*올리브참치
-통감자구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
 야채스틱/바나나/오렌지
-두유/참깨롤빵
-528kcal
+두유/모닝빵
+550kcal
 [플러스메뉴]
-그린샐러드*크루통*오리엔탈D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="R13" s="4" t="b">
         <v>0</v>
@@ -9801,7 +9883,7 @@
       </c>
       <c r="B14" s="5">
         <f>B11+1</f>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="10"/>
@@ -9809,7 +9891,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="11"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="12"/>
@@ -9823,7 +9905,7 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="13"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="14"/>
@@ -9841,19 +9923,19 @@
       <c r="Q14" s="6" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-장터국(소:호주산)
+북어채감자국
 삼곡밥
-따뜻한연두부*절임고추간장s
+맛살야채볶음
 포기김치
-744kcal
+738kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*유자레몬D
+토스트식빵*모닝빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-초코첵스
+슬라이스햄
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9877,7 +9959,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="9"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="10"/>
@@ -9885,7 +9967,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="11"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="12"/>
@@ -9899,7 +9981,7 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="13"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="14"/>
@@ -9917,33 +9999,32 @@
       <c r="Q15" s="6" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-흑마늘훈제삼겹보쌈*두부찜
-(돼지:미국산)
-기장밥
+매콤낙지볶음*콩나물찜
+(낙지:베트남산)
+수수밥
 근대국
-모듬쌈채소*견과류쌈장
-청양풍잡채
+모짜렐라치즈계란말이
+오이양파장아찌
 포기김치/석박지
-979kcal
+985kcal
 [일품]
-파인애플함박스테이크*데미s
-(돼지:국내산)
-야채볶음밥/맑은우동국물
-칠리치즈후라이
-시나몬토스트/야채피클
+[글루텐프리데이]쌀비빔국수
+불고기삼각김밥(돼지:국내산)
+팽이버섯된장국/견과류단호박고구마찜
+단무지부추무침
 포기김치/석박지
-1008kcal
+977kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-단호박구이/삶은계란
-야채스틱/바나나/토마토
-두유/부시맥브레드
-530kcal
+단호박구이/메추리알
+야채스틱/바나나/방울토마토
+두유/현미후리가케주먹밥
+565kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 견과류
-흑임자D/오리엔탈D</v>
+복숭아D/오리엔탈D</v>
       </c>
       <c r="R15" s="4" t="b">
         <v>0</v>
@@ -9965,7 +10046,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="9"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="10"/>
@@ -9973,7 +10054,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="11"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="12"/>
@@ -9987,7 +10068,7 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="13"/>
-        <v>41824</v>
+        <v>41831</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="14"/>
@@ -10005,19 +10086,20 @@
       <c r="Q16" s="6" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-뚝배기버섯된장찌개
-흑향미밥
-조기구이
-이색묵*양념장
-콩나물무침
+얼큰순두부찌개*계란탁
+(돼지:국내산)
+차조밥
+삼치유자소스구이
+알감자조림
+미나리무생채
 포기김치
-977kcal
+960kcal
 [건강도시락]
-그린샐러드*꽃맛살
-고구마찜/메추리알
-야채스틱/바나나/방울토마토
+그린샐러드*견과류올린구운야채
+통감자구이/삶은계란
+야채스틱/바나나/토마토
 두유/떡갈비주먹밥(돼지:국내산)
-526kcal
+568kcal
 [플러스메뉴]
 그린샐러드*견과류*오리엔탈D</v>
       </c>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="254">
   <si>
     <t>구분</t>
   </si>
@@ -225,625 +225,860 @@
       </rPr>
       <t>지점장 : 문민경 / 조리실장 : 박노훈 / 영양사 : 정민경</t>
     </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 15일 (화)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 16일 (수)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 17일 (목)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 18일 (금)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>아침
  07:30
 ~08:30</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치콩나물국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>사골우거지국(소:호주산,뉴질랜드산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자양파국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠고기미역국(소:호주산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>조랭이떡국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>삼곡밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채계란찜</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부양념조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새송이계란조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박맛살야채볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵양파볶음(갈치:수입산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>포기김치</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>810kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>799kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>782kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>806kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>800kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>즉석</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>즉석해장라면/삼곡밥/김치</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>일품</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*미니와플/딸기잼*버터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*키위D</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*키위D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>우유</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크램블에그</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>계란후라이</t>
-  </si>
-  <si>
-    <t>우유</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>스크램블에그</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>아몬드후레이크</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>해쉬브라운</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마샐러드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>초코첵스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자볼튀김</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>플러스메뉴</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지/김구이</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>누룽지/계란후라이</t>
-  </si>
-  <si>
-    <t>누룽지/김구이</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>점심
 11:30
 ~13:00</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기불고기버섯전골*떡사리
+(소:호주산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>깻잎채올린철판치즈닭갈비*고구마사리
+(닭:브라질산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기우사골순대국
+(돼지:국내산/소:호주산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>아삭한 숙주올린 제육불고기
+(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방반계탕
+(닭:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>수수밥</t>
-  </si>
-  <si>
-    <t>기장밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>흑향미밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑미영양닭죽(닭:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부계란지짐*양념장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무채어묵국(갈치:수입산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>동그랑땡전(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩비지김치찌개</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치전,부추전</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운감자조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>비엔나브로커리야채볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵야채무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자채햄볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬야채스틱*쌈장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리오이무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근땅콩조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무말랭이깻잎무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이지매실청무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>포기김치/석박지</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>966kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>995kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>983kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>949kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>968kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>일품</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천짜장면
+(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제王돈까스*양송이데미S
+(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>코다리냉면[북어회냉면]</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도치킨커리*강황밥*난
+(닭:브라질산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>장어덮밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우야채볶음밥/짬뽕국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정깨밥/크림스프</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>마약김밥*냉채소스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은우동국물</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부된장국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕수육(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박블루베리샐러드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>메밀왕만두찜</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제모듬꼬치구이</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채튀김</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지*양파/춘장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>적채무비트피클</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>오복채무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채피클</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>초생강,락교</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치/석박지</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1017kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>980kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>996kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>네이쳐데이</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>[여름별미]노각보리비빔밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무채된장국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부검은깨스테이크</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리연근샐러드/파래김구이</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>641kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>건강도시락</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*올리브계란</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*흑임자두부</t>
-  </si>
-  <si>
-    <t>단호박구이/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*견과류올린구운야채</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마찜/삶은계란</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/브로컬리꽃맛살</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박구이/삶은계란</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마찜/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/삶은계란</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/토마토</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>야채스틱/바나나/방울토마토</t>
-  </si>
-  <si>
-    <t>야채스틱/바나나/토마토</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>야채스틱/바나나/오렌지</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>두유/참깨롤빵</t>
-  </si>
-  <si>
-    <t>두유/모닝빵</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/견과류현미주먹밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/부시맥브레드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(소:호주산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>510kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>507kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>509kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>513kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>506kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러스메뉴</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>견과류</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>크루통</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>스위트콘,빈스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑임자D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅콩버터D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>저녁
  17:30
 ~19:00</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
     <t>한식
 or
 일품</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지갈비김치찌개
+(돼지:미국산,국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>[즉석]몽골리안해물덮밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육김치두루치기*두부찜
+(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤낙지볶음*소면사리
+(낙지:베트남산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕소세지오므라이스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니쌀국수</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>차조밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날소세지전*케찹</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬춘권튀김</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은콩나물국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨감자국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채고로케*케찹</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵야채무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜샤이무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼어묵맛살볶음(갈치:수입산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무쌈야채말이*땅콩소스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로커리땅콩샐러드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은깨명엽채볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이사과초무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무된장나물</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>생오이피클*할라페뇨</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>알타리김치</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>926kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>911kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>920kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>919kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>901kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강도시락</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*토마토카프레제</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*닭가슴살(닭:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*구운버섯과마늘</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*흑임자두부</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마찜/삶은계란</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마찜/새싹연두부</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/삶은계란</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마찜/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/오렌지</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/토마토</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/방울토마토</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/참깨롤빵</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/모닝빵</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/부시맥브레드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>511kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>517kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>510kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>508kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>513kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*견과류*오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*씨리얼*오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>* 식품수급 상황에 따라 메뉴 및 원산지가 변경될 수 있으니 양해바랍니다.
 * 쌀 : 국내산, 배추김치(배추:국내산, 고춧가루:중국산)을 사용합니다. (식당사무실 : ☎ 070-7500-6851 )</t>
-  </si>
-  <si>
-    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>차조밥</t>
-  </si>
-  <si>
-    <t>맑은우동국물</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류올린구운야채</t>
-  </si>
-  <si>
-    <t>통감자구이/메추리알</t>
-  </si>
-  <si>
-    <t>통감자구이/삶은계란</t>
-  </si>
-  <si>
-    <t>두유/부시맥브레드</t>
-  </si>
-  <si>
-    <t>보리밥</t>
-  </si>
-  <si>
-    <t>단호박구이/삶은계란</t>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-  </si>
-  <si>
-    <t>오복채무침</t>
-  </si>
-  <si>
-    <t>그린샐러드*꽃맛살</t>
-  </si>
-  <si>
-    <t>고구마찜/메추리알</t>
-  </si>
-  <si>
-    <t>유자레몬D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>730kcal</t>
-  </si>
-  <si>
-    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>감자볼튀김</t>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-  </si>
-  <si>
-    <t>근대국</t>
-  </si>
-  <si>
-    <t>연근땅콩조림</t>
-  </si>
-  <si>
-    <t>두부계란지짐*양념장</t>
-  </si>
-  <si>
-    <t>980kcal</t>
-  </si>
-  <si>
-    <t>982kcal</t>
-  </si>
-  <si>
-    <t>두유/현미후리가케주먹밥</t>
-  </si>
-  <si>
-    <t>흑임자D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>쌀밥</t>
-  </si>
-  <si>
-    <t>해물잡채완자전</t>
-  </si>
-  <si>
-    <t>야채계란찜</t>
-  </si>
-  <si>
-    <t>배추겉절이김치</t>
-  </si>
-  <si>
-    <t>977kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*참치키드빈</t>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(소:호주산)</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류*오리엔탈D</t>
-  </si>
-  <si>
-    <t>7월 8일 (화)</t>
-  </si>
-  <si>
-    <t>7월 9일 (수)</t>
-  </si>
-  <si>
-    <t>7월 10일 (목)</t>
-  </si>
-  <si>
-    <t>7월 11일 (금)</t>
-  </si>
-  <si>
-    <t>삼색수제비국</t>
-  </si>
-  <si>
-    <t>순두부백탕*절임고추양념장</t>
-  </si>
-  <si>
-    <t>경상도식쇠고기무국(소:호주산)</t>
-  </si>
-  <si>
-    <t>콩가루배추국</t>
-  </si>
-  <si>
-    <t>북어채감자국</t>
-  </si>
-  <si>
-    <t>메추리알어묵조림(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>꽁치무조림</t>
-  </si>
-  <si>
-    <t>열무된장나물</t>
-  </si>
-  <si>
-    <t>떡갈비야채조림(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>맛살야채볶음</t>
-  </si>
-  <si>
-    <t>764kcal</t>
-  </si>
-  <si>
-    <t>721kcal</t>
-  </si>
-  <si>
-    <t>742kcal</t>
-  </si>
-  <si>
-    <t>738kcal</t>
-  </si>
-  <si>
-    <t>곡물식빵*핫케익/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*모닝빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>그린샐러드*사우전D</t>
-  </si>
-  <si>
-    <t>웻지감자튀김</t>
-  </si>
-  <si>
-    <t>코코볼</t>
-  </si>
-  <si>
-    <t>양념막대감자튀김</t>
-  </si>
-  <si>
-    <t>슬라이스햄</t>
-  </si>
-  <si>
-    <t>도가니설렁탕*소면
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>뼈다귀해장국
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>깻잎파채를 올린 고추장삼겹살구이
-(돼지:독일산)</t>
-  </si>
-  <si>
-    <t>안동찜닭*넙죽당면사리
-(닭:국내산)</t>
-  </si>
-  <si>
-    <t>매콤낙지볶음*콩나물찜
-(낙지:베트남산)</t>
-  </si>
-  <si>
-    <t>시금치국</t>
-  </si>
-  <si>
-    <t>골뱅이야채무침</t>
-  </si>
-  <si>
-    <t>청양풍어묵잡채(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>비엔나조랑떡야채볶음</t>
-  </si>
-  <si>
-    <t>삼색밀전병*겨자소스</t>
-  </si>
-  <si>
-    <t>모짜렐라치즈계란말이</t>
-  </si>
-  <si>
-    <t>견과류콩조림</t>
-  </si>
-  <si>
-    <t>오이부추무침</t>
-  </si>
-  <si>
-    <t>쑥갓생두부무침</t>
-  </si>
-  <si>
-    <t>검은깨명엽채볶음</t>
-  </si>
-  <si>
-    <t>오이양파장아찌</t>
-  </si>
-  <si>
-    <t>994kcal</t>
-  </si>
-  <si>
-    <t>1006kcal</t>
-  </si>
-  <si>
-    <t>985kcal</t>
-  </si>
-  <si>
-    <t>골든블루스테이크*데미s
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>HOT!!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>]불닭마요덮밥
-(닭:국내산)</t>
-    </r>
-  </si>
-  <si>
-    <t>[팔도맛기행]미사리 초계국수
-(닭:국내산)</t>
-  </si>
-  <si>
-    <t>포크볼오므라이스
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>[글루텐프리데이]쌀비빔국수</t>
-  </si>
-  <si>
-    <t>후리가케밥/크루통스프</t>
-  </si>
-  <si>
-    <t>오이미역냉국</t>
-  </si>
-  <si>
-    <t>폭탄주먹밥</t>
-  </si>
-  <si>
-    <t>불고기삼각김밥(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>후질리샐러드파스타</t>
-  </si>
-  <si>
-    <t>아몬드크림깐쇼새우</t>
-  </si>
-  <si>
-    <t>메밀김치전병*양파간장절임</t>
-  </si>
-  <si>
-    <t>매콤순살닭강정(닭:미국산)</t>
-  </si>
-  <si>
-    <t>팽이버섯된장국/견과류단호박고구마찜</t>
-  </si>
-  <si>
-    <t>견과류고구마요거트범벅/야채피클</t>
-  </si>
-  <si>
-    <t>콘샐러드</t>
-  </si>
-  <si>
-    <t>적채오이피클</t>
-  </si>
-  <si>
-    <t>단무지부추무침</t>
-  </si>
-  <si>
-    <t>1014kcal</t>
-  </si>
-  <si>
-    <t>997kcal</t>
-  </si>
-  <si>
-    <t>1000kcal</t>
-  </si>
-  <si>
-    <t>오곡밥</t>
-  </si>
-  <si>
-    <t>콩비지김치찌개</t>
-  </si>
-  <si>
-    <t>단호박을 곁들은 연근스테이크</t>
-  </si>
-  <si>
-    <t>새콤오이사과무침/삼색묵*양념장</t>
-  </si>
-  <si>
-    <t>684kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류를올린구운야채</t>
-  </si>
-  <si>
-    <t>두유/아몬드멸치주먹밥</t>
-  </si>
-  <si>
-    <t>579kcal</t>
-  </si>
-  <si>
-    <t>564kcal</t>
-  </si>
-  <si>
-    <t>551kcal</t>
-  </si>
-  <si>
-    <t>543kcal</t>
-  </si>
-  <si>
-    <t>565kcal</t>
-  </si>
-  <si>
-    <t>씨리얼</t>
-  </si>
-  <si>
-    <t>후르츠</t>
-  </si>
-  <si>
-    <t>키위D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>사우전D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>복숭아D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>[즉석]매콤중화잡채덮밥
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>뚝배기불고기버섯전골
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>진한사골떡만두국
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>숯불제육간장불고기
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>얼큰순두부찌개*계란탁
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>계란파국</t>
-  </si>
-  <si>
-    <t>현미밥</t>
-  </si>
-  <si>
-    <t>깐풍기(닭:미국산)</t>
-  </si>
-  <si>
-    <t>동태전,깻잎전(동태:러시아산)</t>
-  </si>
-  <si>
-    <t>뚝배기호박고추장찌개</t>
-  </si>
-  <si>
-    <t>삼치유자소스구이</t>
-  </si>
-  <si>
-    <t>오이맛살겨자채</t>
-  </si>
-  <si>
-    <t>브로콜리컬리플라워*초장</t>
-  </si>
-  <si>
-    <t>알감자조림</t>
-  </si>
-  <si>
-    <t>멸치고추장볶음</t>
-  </si>
-  <si>
-    <t>마늘쫑무침</t>
-  </si>
-  <si>
-    <t>통깨건파래볶음</t>
-  </si>
-  <si>
-    <t>미나리무생채</t>
-  </si>
-  <si>
-    <t>999kcal</t>
-  </si>
-  <si>
-    <t>973kcal</t>
-  </si>
-  <si>
-    <t>967kcal</t>
-  </si>
-  <si>
-    <t>957kcal</t>
-  </si>
-  <si>
-    <t>960kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*올리브계란</t>
-  </si>
-  <si>
-    <t>고구마찜/새싹연두부</t>
-  </si>
-  <si>
-    <t>두유/참치마요주먹밥</t>
-  </si>
-  <si>
-    <t>533kcal</t>
-  </si>
-  <si>
-    <t>527kcal</t>
-  </si>
-  <si>
-    <t>549kcal</t>
-  </si>
-  <si>
-    <t>550kcal</t>
-  </si>
-  <si>
-    <t>568kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*씨리얼*오리엔탈D</t>
-  </si>
-  <si>
-    <t>7월 7일 (월)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 14일 (월)</t>
+    <phoneticPr fontId="34" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="#\ &quot;Kcal&quot;"/>
-    <numFmt numFmtId="179" formatCode="#\ \K\c\a\l"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,13 +1351,16 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="48">
@@ -2027,17 +2265,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right/>
@@ -2237,43 +2464,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="22"/>
       </left>
       <right/>
@@ -2388,15 +2578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="9" tint="-0.249977111117893"/>
       </left>
@@ -2417,34 +2598,6 @@
       <top/>
       <bottom style="medium">
         <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2474,58 +2627,10 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="7" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
         <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="22"/>
       </right>
       <top/>
       <bottom/>
@@ -2541,17 +2646,6 @@
       <top/>
       <bottom style="medium">
         <color theme="7" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2582,31 +2676,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="5" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
         <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
@@ -2626,7 +2700,116 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
       <right style="medium">
         <color theme="3" tint="-0.249977111117893"/>
       </right>
@@ -2636,6 +2819,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2785,11 +3027,11 @@
     <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2835,10 +3077,10 @@
     <xf numFmtId="0" fontId="23" fillId="47" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="77" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="47" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2856,233 +3098,212 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="69" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="29" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="36" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="37" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="73" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="79" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="65" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="48" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="49" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="33" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="60" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="74" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="53" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="54" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="56" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="57" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="58" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="59" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="75" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="61" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="34" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="34" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="66" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="27" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="29" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="66" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="45" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="53" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="61" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="65" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="21" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="25" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="26" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="27" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="34" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="65" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="36" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="21" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="25" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="34" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="37" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="88" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3094,250 +3315,244 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="94" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="96" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="86" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="97" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="76" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="40" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="98" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="98" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="99" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="101" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="102" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="102" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="102" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="103" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="104" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="104" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="87" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="41" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="45" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="54" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="41" borderId="54" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="62" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3418,7 +3633,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3778,6 +3993,452 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18049875" y="19230975"/>
+          <a:ext cx="2828925" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14649450" y="19230975"/>
+          <a:ext cx="3429000" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="32004" rIns="54864" bIns="32004" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="993300"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>New : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="993300"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>신메뉴</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>추천메뉴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1477814</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>425450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1874689</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15622439" y="19637375"/>
+          <a:ext cx="396875" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>983900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>352543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="14335125" y="7772399"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1041049</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>428743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="10582274" y="7848599"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1193450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>371593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="10734675" y="5238749"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4046,7 +4707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -4062,15 +4723,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="60" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -4088,24 +4749,24 @@
       <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>122</v>
+      <c r="B2" s="70"/>
+      <c r="C2" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -4124,26 +4785,26 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>127</v>
+      <c r="A3" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4162,22 +4823,22 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="74" t="s">
-        <v>50</v>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -4196,22 +4857,22 @@
       <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>132</v>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -4230,22 +4891,22 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>51</v>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>66</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -4264,22 +4925,22 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>136</v>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4298,24 +4959,24 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>53</v>
+      <c r="A8" s="71"/>
+      <c r="B8" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4334,24 +4995,24 @@
       <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="87" t="s">
-        <v>138</v>
+      <c r="A9" s="71"/>
+      <c r="B9" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4370,22 +5031,22 @@
       <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>139</v>
+      <c r="A10" s="71"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -4404,22 +5065,22 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>56</v>
+      <c r="A11" s="71"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>83</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -4438,22 +5099,22 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>57</v>
+      <c r="A12" s="71"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -4472,22 +5133,22 @@
       <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>143</v>
+      <c r="A13" s="80"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>91</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4506,24 +5167,24 @@
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="95" t="s">
-        <v>60</v>
+      <c r="A14" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="87"/>
+      <c r="C14" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>93</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -4542,26 +5203,26 @@
       <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="100" t="s">
-        <v>148</v>
+      <c r="C15" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="95" t="s">
+        <v>100</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -4580,22 +5241,22 @@
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="105" t="s">
-        <v>62</v>
+      <c r="A16" s="71"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>105</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -4614,22 +5275,22 @@
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:60" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="106" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="108" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="109" t="s">
-        <v>104</v>
+      <c r="A17" s="71"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>110</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -4686,22 +5347,22 @@
       <c r="BH17" s="10"/>
     </row>
     <row r="18" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="110" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="112" t="s">
-        <v>154</v>
+      <c r="A18" s="71"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="104" t="s">
+        <v>115</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -4758,22 +5419,22 @@
       <c r="BH18" s="10"/>
     </row>
     <row r="19" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="113" t="s">
-        <v>159</v>
+      <c r="A19" s="71"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>120</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
@@ -4830,23 +5491,21 @@
       <c r="BH19" s="9"/>
     </row>
     <row r="20" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="116" t="s">
-        <v>65</v>
-      </c>
+      <c r="A20" s="71"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="106"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -4902,22 +5561,22 @@
       <c r="BH20" s="9"/>
     </row>
     <row r="21" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="121" t="s">
-        <v>162</v>
+      <c r="A21" s="71"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="113" t="s">
+        <v>125</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
@@ -4974,24 +5633,24 @@
       <c r="BH21" s="9"/>
     </row>
     <row r="22" spans="1:60" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="B22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="122" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="126" t="s">
-        <v>167</v>
+      <c r="A22" s="71"/>
+      <c r="B22" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="119" t="s">
+        <v>131</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -5048,22 +5707,22 @@
       <c r="BH22" s="10"/>
     </row>
     <row r="23" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="127" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="74" t="s">
-        <v>171</v>
+      <c r="A23" s="71"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>136</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -5120,22 +5779,22 @@
       <c r="BH23" s="10"/>
     </row>
     <row r="24" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="130" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="128" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="129" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="132" t="s">
-        <v>176</v>
+      <c r="A24" s="71"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="125" t="s">
+        <v>141</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5192,22 +5851,22 @@
       <c r="BH24" s="10"/>
     </row>
     <row r="25" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="128" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="132" t="s">
-        <v>180</v>
+      <c r="A25" s="71"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="125" t="s">
+        <v>146</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5264,22 +5923,22 @@
       <c r="BH25" s="10"/>
     </row>
     <row r="26" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="137" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="114" t="s">
-        <v>65</v>
+      <c r="A26" s="71"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="105" t="s">
+        <v>147</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="9"/>
@@ -5336,22 +5995,22 @@
       <c r="BH26" s="10"/>
     </row>
     <row r="27" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="138" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="139" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="141" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="142" t="s">
-        <v>115</v>
+      <c r="A27" s="71"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="132" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="133" t="s">
+        <v>152</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -5408,17 +6067,17 @@
       <c r="BH27" s="10"/>
     </row>
     <row r="28" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="127"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="144"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -5474,15 +6133,15 @@
       <c r="BH28" s="10"/>
     </row>
     <row r="29" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="87"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -5538,15 +6197,15 @@
       <c r="BH29" s="10"/>
     </row>
     <row r="30" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="87"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -5602,15 +6261,15 @@
       <c r="BH30" s="10"/>
     </row>
     <row r="31" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="13"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -5666,15 +6325,15 @@
       <c r="BH31" s="10"/>
     </row>
     <row r="32" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -5730,15 +6389,15 @@
       <c r="BH32" s="10"/>
     </row>
     <row r="33" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="74"/>
-      <c r="G33" s="145"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -5794,24 +6453,24 @@
       <c r="BH33" s="10"/>
     </row>
     <row r="34" spans="1:60" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="146" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="146" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="146" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="146" t="s">
-        <v>68</v>
+      <c r="A34" s="71"/>
+      <c r="B34" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="14"/>
@@ -5868,22 +6527,22 @@
       <c r="BH34" s="10"/>
     </row>
     <row r="35" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="87" t="s">
-        <v>70</v>
+      <c r="A35" s="71"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
@@ -5940,22 +6599,22 @@
       <c r="BH35" s="10"/>
     </row>
     <row r="36" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="73" t="s">
-        <v>71</v>
+      <c r="A36" s="71"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="14"/>
@@ -6012,22 +6671,22 @@
       <c r="BH36" s="10"/>
     </row>
     <row r="37" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="87" t="s">
-        <v>109</v>
+      <c r="A37" s="71"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>176</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="14"/>
@@ -6084,22 +6743,22 @@
       <c r="BH37" s="10"/>
     </row>
     <row r="38" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="149" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="149" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="151" t="s">
-        <v>195</v>
+      <c r="A38" s="80"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="139" t="s">
+        <v>181</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="14"/>
@@ -6155,25 +6814,25 @@
       <c r="BG38" s="10"/>
       <c r="BH38" s="10"/>
     </row>
-    <row r="39" spans="1:60" ht="53.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="152" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="153" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="155" t="s">
-        <v>76</v>
+    <row r="39" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="141"/>
+      <c r="C39" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>183</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -6230,22 +6889,22 @@
       <c r="BH39" s="10"/>
     </row>
     <row r="40" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="156" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="157" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="157" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="157" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="158" t="s">
-        <v>77</v>
+      <c r="A40" s="142"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>184</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -6302,22 +6961,22 @@
       <c r="BH40" s="10"/>
     </row>
     <row r="41" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="156" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="156" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="158" t="s">
-        <v>78</v>
+      <c r="A41" s="142"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>186</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -6374,22 +7033,22 @@
       <c r="BH41" s="10"/>
     </row>
     <row r="42" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="48"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="156" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="156" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="156" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="159" t="s">
-        <v>200</v>
+      <c r="A42" s="144"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>193</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="10"/>
@@ -6446,26 +7105,26 @@
       <c r="BH42" s="10"/>
     </row>
     <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="160" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="161" t="s">
-        <v>202</v>
-      </c>
-      <c r="E43" s="162" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="163" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43" s="162" t="s">
-        <v>205</v>
+      <c r="A43" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="94" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>200</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="10"/>
@@ -6522,22 +7181,22 @@
       <c r="BH43" s="10"/>
     </row>
     <row r="44" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="50"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="164" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="165" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="165" t="s">
-        <v>85</v>
+      <c r="A44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="152" t="s">
+        <v>135</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="10"/>
@@ -6594,22 +7253,22 @@
       <c r="BH44" s="10"/>
     </row>
     <row r="45" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="50"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="167" t="s">
+      <c r="A45" s="149"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="154" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="D45" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="168" t="s">
+      <c r="G45" s="156" t="s">
         <v>209</v>
-      </c>
-      <c r="F45" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="G45" s="168" t="s">
-        <v>211</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="10"/>
@@ -6666,21 +7325,21 @@
       <c r="BH45" s="10"/>
     </row>
     <row r="46" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="50"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="164" t="s">
+      <c r="A46" s="149"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="F46" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="E46" s="170" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="165" t="s">
+      <c r="G46" s="156" t="s">
         <v>214</v>
       </c>
       <c r="H46" s="20"/>
@@ -6738,22 +7397,22 @@
       <c r="BH46" s="10"/>
     </row>
     <row r="47" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="50"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="171" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="166" t="s">
+      <c r="A47" s="149"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="170" t="s">
+      <c r="D47" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="172" t="s">
+      <c r="E47" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="170" t="s">
+      <c r="F47" s="151" t="s">
         <v>218</v>
+      </c>
+      <c r="G47" s="156" t="s">
+        <v>219</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="9"/>
@@ -6810,22 +7469,20 @@
       <c r="BH47" s="10"/>
     </row>
     <row r="48" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="51"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="171" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="166" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="173" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="173" t="s">
-        <v>51</v>
+      <c r="A48" s="158"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="159"/>
+      <c r="E48" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" s="160" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="129" t="s">
+        <v>216</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="9"/>
@@ -6882,22 +7539,22 @@
       <c r="BH48" s="10"/>
     </row>
     <row r="49" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="51"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="175" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="142" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" s="176" t="s">
-        <v>221</v>
-      </c>
-      <c r="F49" s="138" t="s">
+      <c r="A49" s="158"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="162" t="s">
         <v>222</v>
       </c>
-      <c r="G49" s="177" t="s">
+      <c r="D49" s="163" t="s">
         <v>223</v>
+      </c>
+      <c r="E49" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="164" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" s="165" t="s">
+        <v>226</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -6956,24 +7613,24 @@
       <c r="BH49" s="10"/>
     </row>
     <row r="50" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="36"/>
-      <c r="B50" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="178" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="178" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="178" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="178" t="s">
-        <v>87</v>
+      <c r="A50" s="89"/>
+      <c r="B50" s="166" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>229</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -7030,22 +7687,22 @@
       <c r="BH50" s="10"/>
     </row>
     <row r="51" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="36"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="127" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="74" t="s">
-        <v>89</v>
+      <c r="A51" s="89"/>
+      <c r="B51" s="167"/>
+      <c r="C51" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -7102,22 +7759,22 @@
       <c r="BH51" s="10"/>
     </row>
     <row r="52" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="36"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="147" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="74" t="s">
-        <v>72</v>
+      <c r="A52" s="89"/>
+      <c r="B52" s="167"/>
+      <c r="C52" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7174,22 +7831,22 @@
       <c r="BH52" s="10"/>
     </row>
     <row r="53" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="36"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="147" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="F53" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" s="74" t="s">
-        <v>84</v>
+      <c r="A53" s="89"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -7246,22 +7903,22 @@
       <c r="BH53" s="10"/>
     </row>
     <row r="54" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="149" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" s="149" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" s="149" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" s="150" t="s">
-        <v>231</v>
+      <c r="A54" s="168"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="F54" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="G54" s="57" t="s">
+        <v>249</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -7318,24 +7975,24 @@
       <c r="BH54" s="10"/>
     </row>
     <row r="55" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="179" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="180" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" s="181" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="180" t="s">
-        <v>232</v>
-      </c>
-      <c r="G55" s="182" t="s">
-        <v>118</v>
+      <c r="A55" s="140" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="170"/>
+      <c r="C55" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="F55" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" s="63" t="s">
+        <v>250</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -7392,15 +8049,15 @@
       <c r="BH55" s="10"/>
     </row>
     <row r="56" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
+      <c r="A56" s="171" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" s="172"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="173"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -8163,6 +8820,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A38"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
@@ -8171,16 +8838,6 @@
     <mergeCell ref="A43:A54"/>
     <mergeCell ref="B43:B49"/>
     <mergeCell ref="B50:B54"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A38"/>
-    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8210,7 +8867,7 @@
       </c>
       <c r="C2" s="2">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -8224,47 +8881,47 @@
       <c r="C3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-삼색수제비국
+김치콩나물국
 삼곡밥
-메추리알어묵조림(갈치:수입산)
+야채계란찜
 포기김치
-764kcal</v>
+810kcal</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-순두부백탕*절임고추양념장
+사골우거지국(소:호주산,뉴질랜드산)
 삼곡밥
-꽁치무조림
+두부양념조림
 포기김치
-730kcal</v>
+799kcal</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-경상도식쇠고기무국(소:호주산)
+감자양파국
 삼곡밥
-열무된장나물
+새송이계란조림
 포기김치
-721kcal</v>
+782kcal</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-콩가루배추국
+쇠고기미역국(소:호주산)
 삼곡밥
-떡갈비야채조림(돼지:국내산)
+호박맛살야채볶음
 포기김치
-742kcal</v>
+806kcal</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-북어채감자국
+조랭이떡국
 삼곡밥
-맛살야채볶음
+어묵양파볶음(갈치:수입산)
 포기김치
-738kcal</v>
+800kcal</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8310,47 +8967,47 @@
       <c r="C5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-곡물식빵*핫케익/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-감자볼튀김</v>
+아몬드후레이크</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*키위D
 우유
 계란후라이
-웻지감자튀김</v>
+해쉬브라운</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
 토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*사우전D
+그린샐러드*키위D
 우유
 스크램블에그
-코코볼</v>
+고구마샐러드</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*키위D
 우유
 계란후라이
-양념막대감자튀김</v>
+초코첵스</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-슬라이스햄</v>
+감자볼튀김</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8396,62 +9053,61 @@
       <c r="C7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-도가니설렁탕*소면
+뚝배기불고기버섯전골*떡사리
 (소:호주산)
-흑향미밥
-해물잡채완자전
-골뱅이야채무침
-견과류콩조림
+잡곡밥
+두부계란지짐*양념장
+매운감자조림
+치커리오이무침
 포기김치/석박지
-994kcal</v>
+966kcal</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-뼈다귀해장국
-(돼지:국내산)
+깻잎채올린철판치즈닭갈비*고구마사리
+(닭:브라질산)
 기장밥
-야채계란찜
-청양풍어묵잡채(갈치:수입산)
-오이부추무침
+무채어묵국(갈치:수입산)
+비엔나브로커리야채볶음
+연근땅콩조림
 포기김치/석박지
-982kcal</v>
+995kcal</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-깻잎파채를 올린 고추장삼겹살구이
-(돼지:독일산)
-보리밥
-시금치국
-비엔나조랑떡야채볶음
-쑥갓생두부무침
+뚝배기우사골순대국
+(돼지:국내산/소:호주산)
+수수밥
+동그랑땡전(돼지:국내산)
+도토리묵야채무침
+무말랭이깻잎무침
 포기김치/석박지
-1006kcal</v>
+983kcal</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-안동찜닭*넙죽당면사리
-(닭:국내산)
-차조밥
-들깨미역국
-삼색밀전병*겨자소스
-검은깨명엽채볶음
+아삭한 숙주올린 제육불고기
+(돼지:국내산)
+흑향미밥
+콩비지김치찌개
+감자채햄볶음
+오이지매실청무침
 포기김치/석박지
-980kcal</v>
+949kcal</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-매콤낙지볶음*콩나물찜
-(낙지:베트남산)
-수수밥
-근대국
-모짜렐라치즈계란말이
-오이양파장아찌
+한방반계탕
+(닭:국내산)
+흑미영양닭죽(닭:국내산)
+김치전,부추전
+모듬야채스틱*쌈장
 포기김치/석박지
-985kcal</v>
+968kcal</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="132" x14ac:dyDescent="0.3">
@@ -8464,56 +9120,55 @@
       <c r="C8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-골든블루스테이크*데미s
+사천짜장면
 (돼지:국내산)
-후리가케밥/크루통스프
-후질리샐러드파스타
-견과류고구마요거트범벅/야채피클
+새우야채볶음밥/짬뽕국
+탕수육(돼지:국내산)
+단무지*양파/춘장
 포기김치/석박지
-1014kcal</v>
+1004kcal</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-[HOT!!]불닭마요덮밥
-(닭:국내산)
-오이미역냉국
-아몬드크림깐쇼새우
-콘샐러드
+수제王돈까스*양송이데미S
+(돼지:국내산)
+검정깨밥/크림스프
+단호박블루베리샐러드
+적채무비트피클
 포기김치/석박지
-1006kcal</v>
+1017kcal</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-[팔도맛기행]미사리 초계국수
-(닭:국내산)
-폭탄주먹밥
-메밀김치전병*양파간장절임
+코다리냉면[북어회냉면]
+마약김밥*냉채소스
+메밀왕만두찜
 오복채무침
 포기김치/석박지
-997kcal</v>
+980kcal</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-포크볼오므라이스
-(돼지:국내산)
+인도치킨커리*강황밥*난
+(닭:브라질산)
 맑은우동국물
-매콤순살닭강정(닭:미국산)
-적채오이피클
+수제모듬꼬치구이
+야채피클
 포기김치/석박지
-1000kcal</v>
+1002kcal</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-[글루텐프리데이]쌀비빔국수
-불고기삼각김밥(돼지:국내산)
-팽이버섯된장국/견과류단호박고구마찜
-단무지부추무침
+장어덮밥
+유부된장국
+야채튀김
+초생강,락교
 포기김치/석박지
-977kcal</v>
+996kcal</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
@@ -8534,12 +9189,12 @@
       <c r="E9" s="2" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
         <v>[네이쳐데이]
-오곡밥
-콩비지김치찌개
-단호박을 곁들은 연근스테이크
-새콤오이사과무침/삼색묵*양념장
+[여름별미]노각보리비빔밥
+무채된장국
+두부검은깨스테이크
+치커리연근샐러드/파래김구이
 포기김치/석박지
-684kcal</v>
+641kcal</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -8561,46 +9216,46 @@
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-579kcal</v>
+고구마찜/삶은계란
+야채스틱/바나나/토마토
+두유/참깨롤빵
+510kcal</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*견과류를올린구운야채
-단호박구이/삶은계란
-야채스틱/바나나/오렌지
-두유/아몬드멸치주먹밥
-564kcal</v>
+그린샐러드*올리브계란
+통감자구이/브로컬리꽃맛살
+야채스틱/바나나/방울토마토
+두유/떡갈비주먹밥(돼지:국내산)
+507kcal</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
 그린샐러드*흑임자두부
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/참깨롤빵
-551kcal</v>
+단호박구이/삶은계란
+야채스틱/바나나/오렌지
+두유/견과류현미주먹밥
+509kcal</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*참치키드빈
-통감자구이/삶은계란
-야채스틱/바나나/방울토마토
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
+야채스틱/바나나/토마토
 두유/부시맥브레드
-543kcal</v>
+513kcal</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
+그린샐러드*견과류올린구운야채
+통감자구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/현미후리가케주먹밥
-565kcal</v>
+두유/장조림주먹밥(소:호주산)
+506kcal</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -8615,15 +9270,15 @@
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-키위D/오리엔탈D</v>
+견과류
+애플D/오리엔탈D</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-후르츠
+씨리얼
 흑임자D/오리엔탈D</v>
       </c>
       <c r="E11" s="2" t="str">
@@ -8631,23 +9286,23 @@
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+크루통
+땅콩버터D/오리엔탈D</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-유자레몬D/오리엔탈D</v>
+스위트콘,빈스
+오렌지D/오리엔탈D</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
+씨리얼
 복숭아D/오리엔탈D</v>
       </c>
     </row>
@@ -8661,62 +9316,59 @@
       <c r="C12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-[즉석]매콤중화잡채덮밥
-(돼지:국내산)
-계란파국
-깐풍기(닭:미국산)
-오이맛살겨자채
-단무지부추무침
-포기김치
-999kcal</v>
+돼지갈비김치찌개
+(돼지:미국산,국내산)
+흑향미밥
+옛날소세지전*케찹
+도토리묵야채무침
+검은깨명엽채볶음
+알타리김치
+926kcal</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-뚝배기불고기버섯전골
-(소:호주산)
-현미밥
-두부계란지짐*양념장
-브로콜리컬리플라워*초장
-멸치고추장볶음
+[즉석]몽골리안해물덮밥
+미니쌀국수
+모듬춘권튀김
+짜샤이무침
 포기김치
-973kcal</v>
+911kcal</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-진한사골떡만두국
-(소:호주산)
-쌀밥
-동태전,깻잎전(동태:러시아산)
-연근땅콩조림
-마늘쫑무침
-배추겉절이김치
-967kcal</v>
+제육김치두루치기*두부찜
+(돼지:국내산)
+차조밥
+맑은콩나물국
+볼어묵맛살볶음(갈치:수입산)
+오이사과초무침
+열무김치
+920kcal</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-숯불제육간장불고기
-(돼지:국내산)
-기장밥
-뚝배기호박고추장찌개
-콩나물무침
-통깨건파래볶음
+매콤낙지볶음*소면사리
+(낙지:베트남산)
+잡곡밥
+들깨감자국
+무쌈야채말이*땅콩소스
+열무된장나물
 포기김치
-957kcal</v>
+919kcal</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-얼큰순두부찌개*계란탁
-(돼지:국내산)
-차조밥
-삼치유자소스구이
-알감자조림
-미나리무생채
+왕소세지오므라이스
+맑은우동국물
+야채고로케*케찹
+브로커리땅콩샐러드
+생오이피클*할라페뇨
 포기김치
-960kcal</v>
+901kcal</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -8729,47 +9381,47 @@
       <c r="C13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
-그린샐러드*올리브계란
-고구마찜/새싹연두부
+그린샐러드*토마토카프레제
+통감자구이/메추리알
 야채스틱/바나나/오렌지
-두유/장조림주먹밥(소:호주산)
-533kcal</v>
+두유/장조림주먹밥(돼지:국내산)
+511kcal</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
+고구마찜/삶은계란
 야채스틱/바나나/토마토
-두유/부시맥브레드
-527kcal</v>
+두유/참깨롤빵
+517kcal</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*꽃맛살
-단호박구이/삶은계란
+그린샐러드*구운버섯과마늘
+고구마찜/새싹연두부
 야채스틱/바나나/방울토마토
-두유/참치마요주먹밥
-549kcal</v>
+두유/떡갈비주먹밥(돼지:국내산)
+510kcal</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
+그린샐러드*흑임자두부
+통감자구이/삶은계란
 야채스틱/바나나/오렌지
 두유/모닝빵
-550kcal</v>
+508kcal</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
         <v>[건강도시락]
-그린샐러드*견과류올린구운야채
-통감자구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
 야채스틱/바나나/토마토
-두유/떡갈비주먹밥(돼지:국내산)
-568kcal</v>
+두유/부시맥브레드
+513kcal</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -8816,7 +9468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8912,7 +9564,7 @@
       </c>
       <c r="B2" s="5">
         <f>converter_phase1!C2</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="C2" s="7">
         <f>IF(A2="점심메뉴", TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8920,7 +9572,7 @@
       </c>
       <c r="D2" s="5">
         <f>B2</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="E2" s="7">
         <f>C2+TIME(1,30,0)</f>
@@ -8934,7 +9586,7 @@
       </c>
       <c r="H2" s="5">
         <f>B2</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="I2" s="8">
         <f>C2-TIME(0,15,0)</f>
@@ -8952,19 +9604,19 @@
       <c r="Q2" s="6" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-삼색수제비국
+김치콩나물국
 삼곡밥
-메추리알어묵조림(갈치:수입산)
+야채계란찜
 포기김치
-764kcal
+810kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*핫케익/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-감자볼튀김
+아몬드후레이크
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -8988,7 +9640,7 @@
       </c>
       <c r="B3" s="5">
         <f>B2</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴", TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8996,7 +9648,7 @@
       </c>
       <c r="D3" s="5">
         <f>B3</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -9010,7 +9662,7 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
@@ -9028,33 +9680,33 @@
       <c r="Q3" s="6" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-도가니설렁탕*소면
+뚝배기불고기버섯전골*떡사리
 (소:호주산)
-흑향미밥
-해물잡채완자전
-골뱅이야채무침
-견과류콩조림
+잡곡밥
+두부계란지짐*양념장
+매운감자조림
+치커리오이무침
 포기김치/석박지
-994kcal
+966kcal
 [일품]
-골든블루스테이크*데미s
+사천짜장면
 (돼지:국내산)
-후리가케밥/크루통스프
-후질리샐러드파스타
-견과류고구마요거트범벅/야채피클
+새우야채볶음밥/짬뽕국
+탕수육(돼지:국내산)
+단무지*양파/춘장
 포기김치/석박지
-1014kcal
+1004kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-579kcal
+고구마찜/삶은계란
+야채스틱/바나나/토마토
+두유/참깨롤빵
+510kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-키위D/오리엔탈D</v>
+견과류
+애플D/오리엔탈D</v>
       </c>
       <c r="R3" s="4" t="b">
         <v>0</v>
@@ -9076,7 +9728,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -9084,7 +9736,7 @@
       </c>
       <c r="D4" s="5">
         <f>B4</f>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
@@ -9098,7 +9750,7 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>41827</v>
+        <v>41834</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="3"/>
@@ -9116,20 +9768,20 @@
       <c r="Q4" s="6" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-[즉석]매콤중화잡채덮밥
-(돼지:국내산)
-계란파국
-깐풍기(닭:미국산)
-오이맛살겨자채
-단무지부추무침
-포기김치
-999kcal
+돼지갈비김치찌개
+(돼지:미국산,국내산)
+흑향미밥
+옛날소세지전*케찹
+도토리묵야채무침
+검은깨명엽채볶음
+알타리김치
+926kcal
 [건강도시락]
-그린샐러드*올리브계란
-고구마찜/새싹연두부
+그린샐러드*토마토카프레제
+통감자구이/메추리알
 야채스틱/바나나/오렌지
-두유/장조림주먹밥(소:호주산)
-533kcal
+두유/장조림주먹밥(돼지:국내산)
+511kcal
 [플러스메뉴]
 그린샐러드*견과류*오리엔탈D</v>
       </c>
@@ -9153,7 +9805,7 @@
       </c>
       <c r="B5" s="5">
         <f>B2+1</f>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴", TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9161,7 +9813,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -9175,7 +9827,7 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
@@ -9193,19 +9845,19 @@
       <c r="Q5" s="6" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-순두부백탕*절임고추양념장
+사골우거지국(소:호주산,뉴질랜드산)
 삼곡밥
-꽁치무조림
+두부양념조림
 포기김치
-730kcal
+799kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*키위D
 우유
 계란후라이
-웻지감자튀김
+해쉬브라운
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -9229,7 +9881,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="4"/>
@@ -9237,7 +9889,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="6"/>
@@ -9251,7 +9903,7 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="7"/>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="8"/>
@@ -9269,32 +9921,32 @@
       <c r="Q6" s="6" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-뼈다귀해장국
+깻잎채올린철판치즈닭갈비*고구마사리
+(닭:브라질산)
+기장밥
+무채어묵국(갈치:수입산)
+비엔나브로커리야채볶음
+연근땅콩조림
+포기김치/석박지
+995kcal
+[일품]
+수제王돈까스*양송이데미S
 (돼지:국내산)
-기장밥
-야채계란찜
-청양풍어묵잡채(갈치:수입산)
-오이부추무침
+검정깨밥/크림스프
+단호박블루베리샐러드
+적채무비트피클
 포기김치/석박지
-982kcal
-[일품]
-[HOT!!]불닭마요덮밥
-(닭:국내산)
-오이미역냉국
-아몬드크림깐쇼새우
-콘샐러드
-포기김치/석박지
-1006kcal
+1017kcal
 [건강도시락]
-그린샐러드*견과류를올린구운야채
-단호박구이/삶은계란
-야채스틱/바나나/오렌지
-두유/아몬드멸치주먹밥
-564kcal
+그린샐러드*올리브계란
+통감자구이/브로컬리꽃맛살
+야채스틱/바나나/방울토마토
+두유/떡갈비주먹밥(돼지:국내산)
+507kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-후르츠
+씨리얼
 흑임자D/오리엔탈D</v>
       </c>
       <c r="R6" s="4" t="b">
@@ -9317,7 +9969,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="9"/>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="4"/>
@@ -9325,7 +9977,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="6"/>
@@ -9339,7 +9991,7 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="7"/>
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="8"/>
@@ -9357,20 +10009,18 @@
       <c r="Q7" s="6" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-뚝배기불고기버섯전골
-(소:호주산)
-현미밥
-두부계란지짐*양념장
-브로콜리컬리플라워*초장
-멸치고추장볶음
+[즉석]몽골리안해물덮밥
+미니쌀국수
+모듬춘권튀김
+짜샤이무침
 포기김치
-973kcal
+911kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
+고구마찜/삶은계란
 야채스틱/바나나/토마토
-두유/부시맥브레드
-527kcal
+두유/참깨롤빵
+517kcal
 [플러스메뉴]
 그린샐러드*씨리얼*오리엔탈D</v>
       </c>
@@ -9394,7 +10044,7 @@
       </c>
       <c r="B8" s="5">
         <f>B5+1</f>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴", TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9402,7 +10052,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -9416,7 +10066,7 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
@@ -9434,19 +10084,19 @@
       <c r="Q8" s="6" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-경상도식쇠고기무국(소:호주산)
+감자양파국
 삼곡밥
-열무된장나물
+새송이계란조림
 포기김치
-721kcal
+782kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
 토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*사우전D
+그린샐러드*키위D
 우유
 스크램블에그
-코코볼
+고구마샐러드
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9470,7 +10120,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="9"/>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="10"/>
@@ -9478,7 +10128,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="11"/>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="12"/>
@@ -9492,7 +10142,7 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="13"/>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="14"/>
@@ -9510,40 +10160,39 @@
       <c r="Q9" s="6" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
         <v>[한식]
-깻잎파채를 올린 고추장삼겹살구이
-(돼지:독일산)
-보리밥
-시금치국
-비엔나조랑떡야채볶음
-쑥갓생두부무침
+뚝배기우사골순대국
+(돼지:국내산/소:호주산)
+수수밥
+동그랑땡전(돼지:국내산)
+도토리묵야채무침
+무말랭이깻잎무침
 포기김치/석박지
-1006kcal
+983kcal
 [일품]
-[팔도맛기행]미사리 초계국수
-(닭:국내산)
-폭탄주먹밥
-메밀김치전병*양파간장절임
+코다리냉면[북어회냉면]
+마약김밥*냉채소스
+메밀왕만두찜
 오복채무침
 포기김치/석박지
-997kcal
+980kcal
 [네이쳐데이]
-오곡밥
-콩비지김치찌개
-단호박을 곁들은 연근스테이크
-새콤오이사과무침/삼색묵*양념장
+[여름별미]노각보리비빔밥
+무채된장국
+두부검은깨스테이크
+치커리연근샐러드/파래김구이
 포기김치/석박지
-684kcal
+641kcal
 [건강도시락]
 그린샐러드*흑임자두부
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/참깨롤빵
-551kcal
+단호박구이/삶은계란
+야채스틱/바나나/오렌지
+두유/견과류현미주먹밥
+509kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+크루통
+땅콩버터D/오리엔탈D</v>
       </c>
       <c r="R9" s="4" t="b">
         <v>0</v>
@@ -9565,7 +10214,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="9"/>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="10"/>
@@ -9573,7 +10222,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="11"/>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="12"/>
@@ -9587,7 +10236,7 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="13"/>
-        <v>41829</v>
+        <v>41836</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="14"/>
@@ -9605,20 +10254,20 @@
       <c r="Q10" s="6" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-진한사골떡만두국
-(소:호주산)
-쌀밥
-동태전,깻잎전(동태:러시아산)
-연근땅콩조림
-마늘쫑무침
-배추겉절이김치
-967kcal
+제육김치두루치기*두부찜
+(돼지:국내산)
+차조밥
+맑은콩나물국
+볼어묵맛살볶음(갈치:수입산)
+오이사과초무침
+열무김치
+920kcal
 [건강도시락]
-그린샐러드*꽃맛살
-단호박구이/삶은계란
+그린샐러드*구운버섯과마늘
+고구마찜/새싹연두부
 야채스틱/바나나/방울토마토
-두유/참치마요주먹밥
-549kcal
+두유/떡갈비주먹밥(돼지:국내산)
+510kcal
 [플러스메뉴]
 그린샐러드*견과류*오리엔탈D</v>
       </c>
@@ -9642,7 +10291,7 @@
       </c>
       <c r="B11" s="5">
         <f>B8+1</f>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="10"/>
@@ -9650,7 +10299,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="11"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="12"/>
@@ -9664,7 +10313,7 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="13"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="14"/>
@@ -9682,19 +10331,19 @@
       <c r="Q11" s="6" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-콩가루배추국
+쇠고기미역국(소:호주산)
 삼곡밥
-떡갈비야채조림(돼지:국내산)
+호박맛살야채볶음
 포기김치
-742kcal
+806kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*키위D
 우유
 계란후라이
-양념막대감자튀김
+초코첵스
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -9718,7 +10367,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="9"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="10"/>
@@ -9726,7 +10375,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="11"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="12"/>
@@ -9740,7 +10389,7 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="13"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="14"/>
@@ -9758,33 +10407,33 @@
       <c r="Q12" s="6" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-안동찜닭*넙죽당면사리
-(닭:국내산)
-차조밥
-들깨미역국
-삼색밀전병*겨자소스
-검은깨명엽채볶음
+아삭한 숙주올린 제육불고기
+(돼지:국내산)
+흑향미밥
+콩비지김치찌개
+감자채햄볶음
+오이지매실청무침
 포기김치/석박지
-980kcal
+949kcal
 [일품]
-포크볼오므라이스
-(돼지:국내산)
+인도치킨커리*강황밥*난
+(닭:브라질산)
 맑은우동국물
-매콤순살닭강정(닭:미국산)
-적채오이피클
+수제모듬꼬치구이
+야채피클
 포기김치/석박지
-1000kcal
+1002kcal
 [건강도시락]
-그린샐러드*참치키드빈
-통감자구이/삶은계란
-야채스틱/바나나/방울토마토
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
+야채스틱/바나나/토마토
 두유/부시맥브레드
-543kcal
+513kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-유자레몬D/오리엔탈D</v>
+스위트콘,빈스
+오렌지D/오리엔탈D</v>
       </c>
       <c r="R12" s="4" t="b">
         <v>0</v>
@@ -9806,7 +10455,7 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="9"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="10"/>
@@ -9814,7 +10463,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="11"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="12"/>
@@ -9828,7 +10477,7 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="13"/>
-        <v>41830</v>
+        <v>41837</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="14"/>
@@ -9846,20 +10495,20 @@
       <c r="Q13" s="6" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-숯불제육간장불고기
-(돼지:국내산)
-기장밥
-뚝배기호박고추장찌개
-콩나물무침
-통깨건파래볶음
+매콤낙지볶음*소면사리
+(낙지:베트남산)
+잡곡밥
+들깨감자국
+무쌈야채말이*땅콩소스
+열무된장나물
 포기김치
-957kcal
+919kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
+그린샐러드*흑임자두부
+통감자구이/삶은계란
 야채스틱/바나나/오렌지
 두유/모닝빵
-550kcal
+508kcal
 [플러스메뉴]
 그린샐러드*씨리얼*오리엔탈D</v>
       </c>
@@ -9883,7 +10532,7 @@
       </c>
       <c r="B14" s="5">
         <f>B11+1</f>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="10"/>
@@ -9891,7 +10540,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="11"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="12"/>
@@ -9905,7 +10554,7 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="14"/>
@@ -9923,19 +10572,19 @@
       <c r="Q14" s="6" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-북어채감자국
+조랭이떡국
 삼곡밥
-맛살야채볶음
+어묵양파볶음(갈치:수입산)
 포기김치
-738kcal
+800kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-슬라이스햄
+감자볼튀김
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9959,7 +10608,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="9"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="10"/>
@@ -9967,7 +10616,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="11"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="12"/>
@@ -9981,7 +10630,7 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="14"/>
@@ -9999,31 +10648,30 @@
       <c r="Q15" s="6" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-매콤낙지볶음*콩나물찜
-(낙지:베트남산)
-수수밥
-근대국
-모짜렐라치즈계란말이
-오이양파장아찌
+한방반계탕
+(닭:국내산)
+흑미영양닭죽(닭:국내산)
+김치전,부추전
+모듬야채스틱*쌈장
 포기김치/석박지
-985kcal
+968kcal
 [일품]
-[글루텐프리데이]쌀비빔국수
-불고기삼각김밥(돼지:국내산)
-팽이버섯된장국/견과류단호박고구마찜
-단무지부추무침
+장어덮밥
+유부된장국
+야채튀김
+초생강,락교
 포기김치/석박지
-977kcal
+996kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
+그린샐러드*견과류올린구운야채
+통감자구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/현미후리가케주먹밥
-565kcal
+두유/장조림주먹밥(소:호주산)
+506kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
+씨리얼
 복숭아D/오리엔탈D</v>
       </c>
       <c r="R15" s="4" t="b">
@@ -10046,7 +10694,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="9"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="10"/>
@@ -10054,7 +10702,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="11"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="12"/>
@@ -10068,7 +10716,7 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41838</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="14"/>
@@ -10086,20 +10734,19 @@
       <c r="Q16" s="6" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-얼큰순두부찌개*계란탁
-(돼지:국내산)
-차조밥
-삼치유자소스구이
-알감자조림
-미나리무생채
+왕소세지오므라이스
+맑은우동국물
+야채고로케*케찹
+브로커리땅콩샐러드
+생오이피클*할라페뇨
 포기김치
-960kcal
+901kcal
 [건강도시락]
-그린샐러드*견과류올린구운야채
-통감자구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
 야채스틱/바나나/토마토
-두유/떡갈비주먹밥(돼지:국내산)
-568kcal
+두유/부시맥브레드
+513kcal
 [플러스메뉴]
 그린샐러드*견과류*오리엔탈D</v>
       </c>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dropbox\repo\ahnapp\menu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,17 @@
   <definedNames>
     <definedName name="제목">csv_export!$A$1:$V$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="234">
   <si>
     <t>구분</t>
   </si>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>이지황</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>중간</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -157,10 +153,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>이지황</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>중간</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -170,10 +162,6 @@
   </si>
   <si>
     <t>점심메뉴</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지황</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -225,864 +213,858 @@
       </rPr>
       <t>지점장 : 문민경 / 조리실장 : 박노훈 / 영양사 : 정민경</t>
     </r>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 15일 (화)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 16일 (수)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 17일 (목)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 18일 (금)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 29일 (화)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 30일 (수)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 31일 (목)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 1일 (금)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>아침
  07:30
 ~08:30</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한식</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치콩나물국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>사골우거지국(소:호주산,뉴질랜드산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자양파국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠고기미역국(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>조랭이떡국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부김치국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰오징어무찌개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨감자국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순두부김치찌개(돼지:국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북어채콩나물국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삼곡밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채계란찜</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부양념조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>새송이계란조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박맛살야채볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵양파볶음(갈치:수입산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비야채조림(돼지:국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛살야채볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추진미채무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼어묵풋고추조림(갈치:수입산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비엔나케찹볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무김치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포기김치</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>810kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>799kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>782kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>806kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>800kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>769kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>733kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>722kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>770kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>746kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>즉석</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>즉석해장라면/삼곡밥/김치</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉석해장라면/삼곡밥/김치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일품</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*미니와플/딸기잼*버터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>곡물식빵*토스트식빵/딸기잼*버터</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스트식빵*참깨롤빵/딸기잼*버터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*모닝빵/딸기잼*버터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물식빵*미니와플/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*키위D</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*키위D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*사우전D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>우유</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>우유</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스크램블에그</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>계란후라이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크램블에그</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>아몬드후레이크</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자볼튀김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후르트링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이스햄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코코볼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>해쉬브라운</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>초코첵스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자볼튀김</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>플러스메뉴</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>누룽지/계란후라이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>누룽지/김구이</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>누룽지/계란후라이</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>점심
 11:30
 ~13:00</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기불고기버섯전골*떡사리
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤닭볶음탕*치즈떡사리
+(닭:국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기불고기전골*칼국수사리
 (소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>깻잎채올린철판치즈닭갈비*고구마사리
-(닭:브라질산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기우사골순대국
-(돼지:국내산/소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>아삭한 숙주올린 제육불고기
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깻잎채 올린 철판고추장삼겹살구이
+(돼지:독일산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설렁탕*소면사리
+(소:호주산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매실소스곁들인 제육불고기*양배추쌈
 (돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>한방반계탕
-(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>잡곡밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>기장밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>수수밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑미영양닭죽(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부계란지짐*양념장</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>무채어묵국(갈치:수입산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>동그랑땡전(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩비지김치찌개</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치전,부추전</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>매운감자조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>비엔나브로커리야채볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵야채무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채햄볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬야채스틱*쌈장</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>치커리오이무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부배추된장국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼색연근튀김*양념장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조랑떡미역국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부김치두루치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치콩나물국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날소세지전*케찹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕평채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무쌈야채말이*땅콩소스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자채파프리카볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채계란말이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은깨명엽채볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통깨건파래볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물파채무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아삭이고추된장무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>연근땅콩조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이깻잎무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이지매실청무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>포기김치/석박지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>966kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>995kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>983kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>949kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>968kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>일품</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>사천짜장면
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>997kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>981kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>999kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장조림버터비빔밥(돼지:국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨마요덮밥
+(닭:수입산,국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순살등심돈까스*데미S
 (돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제王돈까스*양송이데미S
-(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>코다리냉면[북어회냉면]</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>인도치킨커리*강황밥*난
-(닭:브라질산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>장어덮밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우야채볶음밥/짬뽕국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>검정깨밥/크림스프</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>마약김밥*냉채소스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판베이컨김치볶음밥*계란후라이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게살크림고로케오므라이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>맑은우동국물</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유부된장국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>탕수육(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박블루베리샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>메밀왕만두찜</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제모듬꼬치구이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채튀김</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지*양파/춘장</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후리가케밥/크림스프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치어묵국(갈치:중국산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽이버섯된장국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤달콤김말이튀김강정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>까르보나라떡볶이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리베리토스트/고구마요거트샐러드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채고로케*케찹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니샐러드파스타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코울슬로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오복채무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채피클</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마카로니콘샐러드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>적채무비트피클</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>오복채무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채피클</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>초생강,락교</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치/석박지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1017kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>980kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>996kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1025kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1016kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>네이쳐데이</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>[여름별미]노각보리비빔밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>무채된장국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부검은깨스테이크</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>치커리연근샐러드/파래김구이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>641kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원한도토리묵사발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오곡밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤버섯두루치기*알배기배추쌈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근비트초절이/수수부꾸미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>690kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>건강도시락</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*올리브계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*구운새송이버섯과마늘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*올리브참치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*흑임자두부</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*견과류올린구운야채</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고구마찜/삶은계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박구이/새싹연두부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/메추리알</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>통감자구이/브로컬리꽃맛살</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박구이/삶은계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마찜/메추리알</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>통감자구이/삶은계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/방울토마토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/오렌지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>야채스틱/바나나/토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/방울토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/오렌지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/모닝빵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(돼지:국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>두유/참깨롤빵</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/견과류현미주먹밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/현미잡곡주먹밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>두유/부시맥브레드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>510kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>507kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>509kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>513kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>506kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>플러스메뉴</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>548kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>530kal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>534kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>528kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>545kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨리얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>견과류</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨리얼</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>크루통</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스위트콘,빈스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자레몬D/오리엔탈D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키위D/오리엔탈D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑임자D/오리엔탈D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아D/오리엔탈D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>애플D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑임자D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅콩버터D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>저녁
  17:30
 ~19:00</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한식
 or
 일품</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지갈비김치찌개
-(돼지:미국산,국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>[즉석]몽골리안해물덮밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육김치두루치기*두부찜
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈다귀해장국*수제비사리
 (돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤낙지볶음*소면사리
-(낙지:베트남산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>왕소세지오므라이스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니쌀국수</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵은지목살김치찌개
+(돼지:국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판뼈없는닭갈비*치즈사리
+(닭:브라질산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식나스동[일본식가지덮밥]
+(돼지:국내산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠고기버섯볶음*참나묻두부냉채
+(소:호주산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>차조밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛날소세지전*케찹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬춘권튀김</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은콩나물국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨감자국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채고로케*케찹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵야채무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜샤이무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼어묵맛살볶음(갈치:수입산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>무쌈야채말이*땅콩소스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로커리땅콩샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은깨명엽채볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이사과초무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무된장나물</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>생오이피클*할라페뇨</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>알타리김치</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무김치</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>926kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>911kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>920kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>919kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>901kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강도시락</t>
-    <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*토마토카프레제</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*닭가슴살(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*구운버섯과마늘</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*흑임자두부</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>통감자구이/메추리알</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마찜/삶은계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현미밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부계란지짐*양념장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물잡채완자전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이미역냉국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타코야끼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자양파국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식잡채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로컬리,컬리플라워*초장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁중떡볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두부토마토샐러드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵야채볶음(갈치:수입산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이양파무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오징어실채볶음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리유자청무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깐마늘마늘쫑무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무말랭이부추무침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>968kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>988kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>992kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*올리브계란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*견과류올린구운야채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박구이/삶은계란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고구마찜/새싹연두부</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>통감자구이/삶은계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마찜/메추리알</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/오렌지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/방울토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/참깨롤빵</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/참치마요주먹밥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(소:호주산)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>두유/떡갈비주먹밥(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/모닝빵</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/부시맥브레드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>511kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>517kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>510kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>508kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>513kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*견과류*오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*씨리얼*오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>531kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>547kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>529kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>542kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>538kcal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*견과류*키위D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*씨리얼*키위D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>* 식품수급 상황에 따라 메뉴 및 원산지가 변경될 수 있으니 양해바랍니다.
 * 쌀 : 국내산, 배추김치(배추:국내산, 고춧가루:중국산)을 사용합니다. (식당사무실 : ☎ 070-7500-6851 )</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 14일 (월)</t>
-    <phoneticPr fontId="34" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="MDAlong"/>
+        <family val="3"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Calibri Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Calibri Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="MDAlong"/>
+        <family val="3"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Calibri Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nine2Six</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="#\ &quot;Kcal&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="167" formatCode="#\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1090,7 +1072,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1098,7 +1080,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1107,7 +1089,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1116,7 +1098,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1125,7 +1107,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1133,7 +1115,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1141,7 +1123,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1149,7 +1131,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1157,7 +1139,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1166,7 +1148,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1175,7 +1157,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1183,7 +1165,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1192,7 +1174,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1200,7 +1182,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1209,7 +1191,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1218,7 +1200,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1226,21 +1208,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1248,7 +1230,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1256,7 +1238,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1306,7 +1288,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1314,7 +1296,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1345,22 +1327,47 @@
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="MDAlong"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MDAlong"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="48">
@@ -1750,17 +1757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1778,36 +1774,6 @@
         <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1972,19 +1938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="9"/>
       </left>
@@ -1996,21 +1949,6 @@
       </top>
       <bottom style="thick">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2061,21 +1999,6 @@
       <top/>
       <bottom style="medium">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2153,30 +2076,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="9"/>
       </left>
       <right/>
@@ -2220,30 +2119,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="0"/>
@@ -2275,17 +2150,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
@@ -2296,26 +2160,6 @@
         <color theme="0" tint="-0.249977111117893"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2351,30 +2195,6 @@
       <bottom style="medium">
         <color indexed="9"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2485,17 +2305,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="9"/>
@@ -2546,15 +2355,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
@@ -2562,56 +2362,6 @@
       <bottom style="thick">
         <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2627,30 +2377,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="medium">
@@ -2659,163 +2385,6 @@
       <top/>
       <bottom style="medium">
         <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="3" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2844,6 +2413,19 @@
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
         <color indexed="22"/>
       </right>
       <top style="medium">
@@ -2854,15 +2436,322 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0"/>
       </left>
       <right style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
         <color indexed="9"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2878,8 +2767,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3012,26 +3021,54 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3077,31 +3114,31 @@
     <xf numFmtId="0" fontId="23" fillId="47" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="72" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="56" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="47" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="69" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3110,7 +3147,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="75" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3125,205 +3162,379 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="34" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="34" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="34" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="29" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="36" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="37" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="50" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="22" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="23" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="24" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="50" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="18" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="22" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="29" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="85" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="33" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="63" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="34" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="50" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="45" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="53" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="61" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="65" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="25" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="26" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="27" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="65" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="21" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="25" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="34" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="93" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3332,280 +3543,119 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="101" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="102" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="71" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="86" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="76" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="98" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="99" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="102" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="103" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="104" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="101" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+  <cellStyles count="60">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="쉼표 [0] 2" xfId="44"/>
     <cellStyle name="쉼표 [0] 3" xfId="45"/>
     <cellStyle name="쉼표 [0] 4" xfId="46"/>
     <cellStyle name="쉼표 [0] 5" xfId="47"/>
     <cellStyle name="쉼표 [0] 6" xfId="48"/>
     <cellStyle name="쉼표 [0] 7" xfId="49"/>
-    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0] 8" xfId="50"/>
     <cellStyle name="표준 2" xfId="43"/>
     <cellStyle name="표준_신메뉴(1)" xfId="42"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="51" builtinId="6"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4004,7 +4054,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4439,6 +4489,514 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18040350" y="18611850"/>
+          <a:ext cx="2828925" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2876550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1119186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="66673"/>
+          <a:ext cx="5581650" cy="1052513"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DDDDDD"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="73152" rIns="91440" bIns="73152" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="6600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY견고딕"/>
+              <a:ea typeface="HY견고딕"/>
+            </a:rPr>
+            <a:t>주 간 메 뉴 표 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14639925" y="18611850"/>
+          <a:ext cx="3429000" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="32004" rIns="54864" bIns="32004" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="993300"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>New : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="993300"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>신메뉴</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>추천메뉴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1477814</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>425450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1874689</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15612914" y="19018250"/>
+          <a:ext cx="396875" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3562350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>545750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="10077450" y="8305800"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>831500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>333493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="14173200" y="14217649"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3657600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>238243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="17792700" y="5086349"/>
+          <a:ext cx="793400" cy="460494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4485,7 +5043,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4520,7 +5078,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4697,7 +5255,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4707,31 +5265,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+    <row r="1" spans="1:22" ht="39" customHeight="1" thickBot="1">
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -4748,25 +5306,25 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:22" ht="23" thickBot="1">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="31" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>52</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -4784,27 +5342,27 @@
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:22" ht="27" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="E3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>59</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4822,23 +5380,23 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
+    <row r="4" spans="1:22" ht="22" customHeight="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -4856,23 +5414,23 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
+    <row r="5" spans="1:22" ht="22" customHeight="1">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="G5" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>65</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -4890,23 +5448,23 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+    <row r="6" spans="1:22" ht="22" customHeight="1">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -4924,23 +5482,23 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="74" t="s">
+    <row r="7" spans="1:22" ht="22" customHeight="1" thickBot="1">
+      <c r="A7" s="79"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="F7" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="G7" s="86" t="s">
         <v>69</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4958,25 +5516,25 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="78" t="s">
+    <row r="8" spans="1:22" ht="24" thickTop="1" thickBot="1">
+      <c r="A8" s="79"/>
+      <c r="B8" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>73</v>
-      </c>
       <c r="E8" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4994,25 +5552,25 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
-      <c r="B9" s="79" t="s">
+    <row r="9" spans="1:22" ht="23" customHeight="1" thickTop="1">
+      <c r="A9" s="79"/>
+      <c r="B9" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="F9" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="G9" s="42" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -5030,23 +5588,23 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
-      <c r="B10" s="79"/>
+    <row r="10" spans="1:22" ht="22" customHeight="1">
+      <c r="A10" s="79"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -5064,23 +5622,23 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
-      <c r="B11" s="79"/>
+    <row r="11" spans="1:22" ht="22" customHeight="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -5098,23 +5656,23 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="79"/>
+    <row r="12" spans="1:22" ht="22" customHeight="1">
+      <c r="A12" s="79"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -5132,23 +5690,23 @@
       <c r="U12" s="10"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="81" t="s">
+    <row r="13" spans="1:22" ht="22" customHeight="1" thickBot="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="96" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="85" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -5166,25 +5724,25 @@
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="1:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>94</v>
+    <row r="14" spans="1:22" ht="23" thickBot="1">
+      <c r="A14" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="98"/>
+      <c r="C14" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>89</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>90</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5202,27 +5760,27 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="1:22" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="89" t="s">
+    <row r="15" spans="1:22" ht="54" customHeight="1">
+      <c r="A15" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="91" t="s">
+      <c r="G15" s="62" t="s">
         <v>96</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="95" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -5240,23 +5798,23 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:22" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="96" t="s">
+    <row r="16" spans="1:22" ht="27" customHeight="1">
+      <c r="A16" s="79"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="104" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="99" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -5274,23 +5832,23 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:60" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="71"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="100" t="s">
+    <row r="17" spans="1:60" ht="53.25" customHeight="1">
+      <c r="A17" s="79"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="63" t="s">
         <v>106</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -5346,23 +5904,23 @@
       <c r="BG17" s="10"/>
       <c r="BH17" s="10"/>
     </row>
-    <row r="18" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="71"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="100" t="s">
+    <row r="18" spans="1:60" ht="27" customHeight="1">
+      <c r="A18" s="79"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="108" t="s">
         <v>111</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="104" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -5418,23 +5976,23 @@
       <c r="BG18" s="10"/>
       <c r="BH18" s="10"/>
     </row>
-    <row r="19" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="105" t="s">
+    <row r="19" spans="1:60" ht="27" customHeight="1">
+      <c r="A19" s="79"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="111" t="s">
         <v>116</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="98" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
@@ -5490,22 +6048,24 @@
       <c r="BG19" s="9"/>
       <c r="BH19" s="9"/>
     </row>
-    <row r="20" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="106"/>
+    <row r="20" spans="1:60" ht="27" customHeight="1">
+      <c r="A20" s="79"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>117</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -5560,23 +6120,23 @@
       <c r="BG20" s="9"/>
       <c r="BH20" s="9"/>
     </row>
-    <row r="21" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="109" t="s">
+    <row r="21" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A21" s="79"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="G21" s="118" t="s">
         <v>122</v>
-      </c>
-      <c r="E21" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="113" t="s">
-        <v>125</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
@@ -5632,25 +6192,25 @@
       <c r="BG21" s="9"/>
       <c r="BH21" s="9"/>
     </row>
-    <row r="22" spans="1:60" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71"/>
-      <c r="B22" s="114" t="s">
+    <row r="22" spans="1:60" ht="44">
+      <c r="A22" s="79"/>
+      <c r="B22" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="G22" s="123" t="s">
         <v>127</v>
-      </c>
-      <c r="D22" s="116" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="119" t="s">
-        <v>131</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -5706,23 +6266,23 @@
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
     </row>
-    <row r="23" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="120" t="s">
+    <row r="23" spans="1:60" ht="27" customHeight="1">
+      <c r="A23" s="79"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="128" t="s">
         <v>132</v>
-      </c>
-      <c r="D23" s="121" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -5778,23 +6338,23 @@
       <c r="BG23" s="10"/>
       <c r="BH23" s="10"/>
     </row>
-    <row r="24" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="71"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="123" t="s">
+    <row r="24" spans="1:60" ht="27" customHeight="1">
+      <c r="A24" s="79"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="130" t="s">
         <v>137</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="117" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="125" t="s">
-        <v>141</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -5850,23 +6410,23 @@
       <c r="BG24" s="10"/>
       <c r="BH24" s="10"/>
     </row>
-    <row r="25" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="126" t="s">
+    <row r="25" spans="1:60" ht="27" customHeight="1">
+      <c r="A25" s="79"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="130" t="s">
         <v>142</v>
-      </c>
-      <c r="D25" s="121" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="122" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="125" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5922,23 +6482,23 @@
       <c r="BG25" s="10"/>
       <c r="BH25" s="10"/>
     </row>
-    <row r="26" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="127" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="F26" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="105" t="s">
-        <v>147</v>
+    <row r="26" spans="1:60" ht="27" customHeight="1">
+      <c r="A26" s="79"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="135" t="s">
+        <v>117</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="9"/>
@@ -5994,23 +6554,23 @@
       <c r="BG26" s="10"/>
       <c r="BH26" s="10"/>
     </row>
-    <row r="27" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="130" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="132" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="133" t="s">
-        <v>152</v>
+    <row r="27" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A27" s="79"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="139" t="s">
+        <v>147</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -6066,18 +6626,18 @@
       <c r="BG27" s="10"/>
       <c r="BH27" s="10"/>
     </row>
-    <row r="28" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
-      <c r="B28" s="134" t="s">
-        <v>153</v>
+    <row r="28" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A28" s="79"/>
+      <c r="B28" s="140" t="s">
+        <v>148</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="135" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="136"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="142" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="51"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -6132,16 +6692,16 @@
       <c r="BG28" s="10"/>
       <c r="BH28" s="10"/>
     </row>
-    <row r="29" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="137"/>
+    <row r="29" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A29" s="79"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="49"/>
       <c r="D29" s="34"/>
       <c r="E29" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="F29" s="52"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -6196,16 +6756,16 @@
       <c r="BG29" s="10"/>
       <c r="BH29" s="10"/>
     </row>
-    <row r="30" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="137"/>
+    <row r="30" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A30" s="79"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="49"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="43"/>
+        <v>151</v>
+      </c>
+      <c r="F30" s="109"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -6260,13 +6820,13 @@
       <c r="BG30" s="10"/>
       <c r="BH30" s="10"/>
     </row>
-    <row r="31" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
-      <c r="B31" s="137"/>
+    <row r="31" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A31" s="79"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="49"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="43" t="s">
-        <v>157</v>
+      <c r="E31" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
@@ -6324,16 +6884,16 @@
       <c r="BG31" s="10"/>
       <c r="BH31" s="10"/>
     </row>
-    <row r="32" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
-      <c r="B32" s="137"/>
+    <row r="32" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A32" s="79"/>
+      <c r="B32" s="144"/>
       <c r="C32" s="49"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="43" t="s">
-        <v>120</v>
+      <c r="E32" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="G32" s="111"/>
       <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -6388,16 +6948,16 @@
       <c r="BG32" s="10"/>
       <c r="BH32" s="10"/>
     </row>
-    <row r="33" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
-      <c r="B33" s="138"/>
+    <row r="33" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A33" s="79"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="49"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="43" t="s">
-        <v>158</v>
+      <c r="E33" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="F33" s="36"/>
-      <c r="G33" s="52"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -6452,25 +7012,25 @@
       <c r="BG33" s="10"/>
       <c r="BH33" s="10"/>
     </row>
-    <row r="34" spans="1:60" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
-      <c r="B34" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>163</v>
+    <row r="34" spans="1:60" ht="27" customHeight="1" thickTop="1">
+      <c r="A34" s="79"/>
+      <c r="B34" s="146" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>155</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="14"/>
@@ -6526,23 +7086,23 @@
       <c r="BG34" s="10"/>
       <c r="BH34" s="10"/>
     </row>
-    <row r="35" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="137"/>
+    <row r="35" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A35" s="79"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="35" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>168</v>
+        <v>159</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
@@ -6598,23 +7158,23 @@
       <c r="BG35" s="10"/>
       <c r="BH35" s="10"/>
     </row>
-    <row r="36" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="137"/>
+    <row r="36" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A36" s="79"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="14"/>
@@ -6670,23 +7230,23 @@
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
     </row>
-    <row r="37" spans="1:60" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="54" t="s">
-        <v>172</v>
+    <row r="37" spans="1:60" ht="26.25" customHeight="1">
+      <c r="A37" s="79"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="14"/>
@@ -6742,23 +7302,23 @@
       <c r="BG37" s="10"/>
       <c r="BH37" s="10"/>
     </row>
-    <row r="38" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="80"/>
-      <c r="B38" s="137"/>
+    <row r="38" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A38" s="90"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="55" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F38" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="G38" s="139" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>175</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="14"/>
@@ -6814,25 +7374,25 @@
       <c r="BG38" s="10"/>
       <c r="BH38" s="10"/>
     </row>
-    <row r="39" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="141"/>
-      <c r="C39" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>183</v>
+    <row r="39" spans="1:60" ht="22" customHeight="1" thickTop="1">
+      <c r="A39" s="149" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="150"/>
+      <c r="C39" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -6888,23 +7448,23 @@
       <c r="BG39" s="10"/>
       <c r="BH39" s="10"/>
     </row>
-    <row r="40" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="142"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>184</v>
+    <row r="40" spans="1:60" ht="21" customHeight="1">
+      <c r="A40" s="151"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="61" t="s">
+        <v>177</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -6960,23 +7520,23 @@
       <c r="BG40" s="10"/>
       <c r="BH40" s="10"/>
     </row>
-    <row r="41" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="142"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>186</v>
+    <row r="41" spans="1:60" ht="21" customHeight="1">
+      <c r="A41" s="151"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>181</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -7032,23 +7592,23 @@
       <c r="BG41" s="10"/>
       <c r="BH41" s="10"/>
     </row>
-    <row r="42" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="144"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="145" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="F42" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="58" t="s">
-        <v>193</v>
+    <row r="42" spans="1:60" ht="22" customHeight="1" thickBot="1">
+      <c r="A42" s="151"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>186</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="10"/>
@@ -7104,27 +7664,27 @@
       <c r="BG42" s="10"/>
       <c r="BH42" s="10"/>
     </row>
-    <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="146" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="148" t="s">
-        <v>199</v>
-      </c>
-      <c r="G43" s="47" t="s">
-        <v>200</v>
+    <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1">
+      <c r="A43" s="154" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="155" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="156" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>193</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="10"/>
@@ -7180,23 +7740,23 @@
       <c r="BG43" s="10"/>
       <c r="BH43" s="10"/>
     </row>
-    <row r="44" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="149"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="97" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="151" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="152" t="s">
-        <v>135</v>
+    <row r="44" spans="1:60" ht="22" customHeight="1">
+      <c r="A44" s="158"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="160" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="10"/>
@@ -7252,23 +7812,23 @@
       <c r="BG44" s="10"/>
       <c r="BH44" s="10"/>
     </row>
-    <row r="45" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="149"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="101" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" s="153" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="154" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="155" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="156" t="s">
-        <v>209</v>
+    <row r="45" spans="1:60" ht="22" customHeight="1">
+      <c r="A45" s="158"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="162" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="107" t="s">
+        <v>201</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="10"/>
@@ -7324,23 +7884,23 @@
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
     </row>
-    <row r="46" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="149"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="101" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="153" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="F46" s="155" t="s">
-        <v>213</v>
-      </c>
-      <c r="G46" s="156" t="s">
-        <v>214</v>
+    <row r="46" spans="1:60" ht="22" customHeight="1">
+      <c r="A46" s="158"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="107" t="s">
+        <v>206</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="10"/>
@@ -7396,23 +7956,23 @@
       <c r="BG46" s="10"/>
       <c r="BH46" s="10"/>
     </row>
-    <row r="47" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="149"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="97" t="s">
-        <v>215</v>
-      </c>
-      <c r="D47" s="157" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="F47" s="151" t="s">
-        <v>218</v>
-      </c>
-      <c r="G47" s="156" t="s">
-        <v>219</v>
+    <row r="47" spans="1:60" ht="22" customHeight="1">
+      <c r="A47" s="158"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="160" t="s">
+        <v>209</v>
+      </c>
+      <c r="F47" s="161" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="107" t="s">
+        <v>211</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="9"/>
@@ -7468,21 +8028,23 @@
       <c r="BG47" s="10"/>
       <c r="BH47" s="10"/>
     </row>
-    <row r="48" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:60" ht="22" customHeight="1">
       <c r="A48" s="158"/>
-      <c r="B48" s="150"/>
-      <c r="C48" s="107" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="159"/>
-      <c r="E48" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" s="160" t="s">
-        <v>216</v>
-      </c>
-      <c r="G48" s="129" t="s">
-        <v>216</v>
+      <c r="B48" s="159"/>
+      <c r="C48" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="162" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="163" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="107" t="s">
+        <v>64</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="9"/>
@@ -7538,23 +8100,23 @@
       <c r="BG48" s="10"/>
       <c r="BH48" s="10"/>
     </row>
-    <row r="49" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:60" ht="22" customHeight="1" thickBot="1">
       <c r="A49" s="158"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="162" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="163" t="s">
-        <v>223</v>
-      </c>
-      <c r="E49" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" s="164" t="s">
-        <v>225</v>
-      </c>
-      <c r="G49" s="165" t="s">
-        <v>226</v>
+      <c r="B49" s="164"/>
+      <c r="C49" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" s="165" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="167" t="s">
+        <v>216</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -7612,25 +8174,25 @@
       <c r="BG49" s="10"/>
       <c r="BH49" s="10"/>
     </row>
-    <row r="50" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="89"/>
-      <c r="B50" s="166" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>230</v>
+    <row r="50" spans="1:60" ht="23" customHeight="1" thickTop="1">
+      <c r="A50" s="158"/>
+      <c r="B50" s="168" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>218</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="G50" s="60" t="s">
-        <v>229</v>
+        <v>155</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>156</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -7686,23 +8248,23 @@
       <c r="BG50" s="10"/>
       <c r="BH50" s="10"/>
     </row>
-    <row r="51" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="89"/>
-      <c r="B51" s="167"/>
+    <row r="51" spans="1:60" ht="22" customHeight="1">
+      <c r="A51" s="158"/>
+      <c r="B51" s="169"/>
       <c r="C51" s="49" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -7758,23 +8320,23 @@
       <c r="BG51" s="10"/>
       <c r="BH51" s="10"/>
     </row>
-    <row r="52" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="89"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="54" t="s">
-        <v>237</v>
+    <row r="52" spans="1:60" ht="22" customHeight="1">
+      <c r="A52" s="158"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="43" t="s">
+        <v>164</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -7830,23 +8392,23 @@
       <c r="BG52" s="10"/>
       <c r="BH52" s="10"/>
     </row>
-    <row r="53" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="89"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="54" t="s">
-        <v>240</v>
+    <row r="53" spans="1:60" ht="22" customHeight="1">
+      <c r="A53" s="158"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="43" t="s">
+        <v>221</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -7902,23 +8464,23 @@
       <c r="BG53" s="10"/>
       <c r="BH53" s="10"/>
     </row>
-    <row r="54" spans="1:60" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="168"/>
-      <c r="B54" s="169"/>
+    <row r="54" spans="1:60" ht="22" customHeight="1" thickBot="1">
+      <c r="A54" s="170"/>
+      <c r="B54" s="171"/>
       <c r="C54" s="55" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="D54" s="56" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E54" s="56" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="F54" s="56" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="G54" s="57" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -7974,25 +8536,25 @@
       <c r="BG54" s="10"/>
       <c r="BH54" s="10"/>
     </row>
-    <row r="55" spans="1:60" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" s="170"/>
-      <c r="C55" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="D55" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="E55" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="G55" s="63" t="s">
-        <v>250</v>
+    <row r="55" spans="1:60" ht="23" thickBot="1">
+      <c r="A55" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="173"/>
+      <c r="C55" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="66" t="s">
+        <v>229</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -8048,16 +8610,16 @@
       <c r="BG55" s="10"/>
       <c r="BH55" s="10"/>
     </row>
-    <row r="56" spans="1:60" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="171" t="s">
-        <v>252</v>
-      </c>
-      <c r="B56" s="172"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="172"/>
-      <c r="G56" s="173"/>
+    <row r="56" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A56" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -8112,7 +8674,7 @@
       <c r="BG56" s="10"/>
       <c r="BH56" s="10"/>
     </row>
-    <row r="57" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:60" ht="25">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
@@ -8174,7 +8736,7 @@
       <c r="BG57" s="10"/>
       <c r="BH57" s="10"/>
     </row>
-    <row r="58" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:60" ht="25">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
       <c r="C58" s="27"/>
@@ -8236,7 +8798,7 @@
       <c r="BG58" s="10"/>
       <c r="BH58" s="10"/>
     </row>
-    <row r="59" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:60" ht="25">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="27"/>
@@ -8298,7 +8860,7 @@
       <c r="BG59" s="9"/>
       <c r="BH59" s="9"/>
     </row>
-    <row r="60" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:60" ht="25">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="27"/>
@@ -8360,7 +8922,7 @@
       <c r="BG60" s="9"/>
       <c r="BH60" s="9"/>
     </row>
-    <row r="61" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:60" ht="25">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="27"/>
@@ -8422,7 +8984,7 @@
       <c r="BG61" s="9"/>
       <c r="BH61" s="9"/>
     </row>
-    <row r="62" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:60" ht="25">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="27"/>
@@ -8484,7 +9046,7 @@
       <c r="BG62" s="9"/>
       <c r="BH62" s="9"/>
     </row>
-    <row r="63" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:60" ht="25">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="27"/>
@@ -8546,7 +9108,7 @@
       <c r="BG63" s="9"/>
       <c r="BH63" s="9"/>
     </row>
-    <row r="64" spans="1:60" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:60" ht="25">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="27"/>
@@ -8608,7 +9170,7 @@
       <c r="BG64" s="9"/>
       <c r="BH64" s="9"/>
     </row>
-    <row r="65" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="25">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="27"/>
@@ -8623,7 +9185,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="25">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="28"/>
@@ -8638,7 +9200,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="25">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="30"/>
@@ -8653,7 +9215,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="25">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="30"/>
@@ -8668,7 +9230,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="25">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="30"/>
@@ -8683,7 +9245,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="25">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="30"/>
@@ -8698,7 +9260,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="25">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="13"/>
@@ -8713,7 +9275,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="25">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="10"/>
@@ -8728,7 +9290,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="25">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="10"/>
@@ -8743,7 +9305,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="25">
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="10"/>
@@ -8758,7 +9320,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="25">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="10"/>
@@ -8773,7 +9335,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="25">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="10"/>
@@ -8788,7 +9350,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="25">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="10"/>
@@ -8803,7 +9365,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
     </row>
-    <row r="78" spans="1:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="25">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="10"/>
@@ -8820,28 +9382,34 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A43:A54"/>
     <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A38"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A38"/>
+    <mergeCell ref="B15:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="A39:B42"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B50:B54"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8853,25 +9421,25 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
     <col min="4" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8881,50 +9449,50 @@
       <c r="C3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-김치콩나물국
+유부김치국
 삼곡밥
-야채계란찜
-포기김치
-810kcal</v>
+떡갈비야채조림(돼지:국내산)
+열무김치
+769kcal</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-사골우거지국(소:호주산,뉴질랜드산)
+얼큰오징어무찌개
 삼곡밥
-두부양념조림
+맛살야채볶음
 포기김치
-799kcal</v>
+733kcal</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-감자양파국
+들깨감자국
 삼곡밥
-새송이계란조림
+양배추진미채무침
 포기김치
-782kcal</v>
+722kcal</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-쇠고기미역국(소:호주산)
+순두부김치찌개(돼지:국내산)
 삼곡밥
-호박맛살야채볶음
+볼어묵풋고추조림(갈치:수입산)
 포기김치
-806kcal</v>
+770kcal</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-조랭이떡국
+북어채콩나물국
 삼곡밥
-어묵양파볶음(갈치:수입산)
+비엔나케찹볶음
 포기김치
-800kcal</v>
+746kcal</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8957,7 +9525,7 @@
 즉석해장라면/삼곡밥/김치</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="42">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8967,50 +9535,50 @@
       <c r="C5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*키위D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-아몬드후레이크</v>
+감자볼튀김</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*키위D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-해쉬브라운</v>
+후르트링</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*키위D
+토스트식빵*참깨롤빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-고구마샐러드</v>
+슬라이스햄</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-곡물식빵*미니와플/딸기잼*버터
-그린샐러드*키위D
+곡물식빵*모닝빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-초코첵스</v>
+코코볼</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*키위D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-감자볼튀김</v>
+해쉬브라운</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9020,7 +9588,7 @@
       <c r="C6" s="2" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!C14</f>
         <v>[플러스메뉴]
-누룽지/김구이</v>
+누룽지/계란후라이</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!D14</f>
@@ -9043,7 +9611,7 @@
 누룽지/김구이</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="56">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9053,64 +9621,60 @@
       <c r="C7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-뚝배기불고기버섯전골*떡사리
-(소:호주산)
-잡곡밥
-두부계란지짐*양념장
-매운감자조림
-치커리오이무침
+매콤닭볶음탕*치즈떡사리_x000D_(닭:국내산)
+흑향미밥
+두부배추된장국
+옛날소세지전*케찹
+검은깨명엽채볶음
 포기김치/석박지
-966kcal</v>
+997kcal</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-깻잎채올린철판치즈닭갈비*고구마사리
-(닭:브라질산)
-기장밥
-무채어묵국(갈치:수입산)
-비엔나브로커리야채볶음
-연근땅콩조림
+뚝배기불고기전골*칼국수사리_x000D_(소:호주산)
+수수밥
+삼색연근튀김*양념장
+탕평채
+통깨건파래볶음
 포기김치/석박지
-995kcal</v>
+1003kcal</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-뚝배기우사골순대국
-(돼지:국내산/소:호주산)
-수수밥
-동그랑땡전(돼지:국내산)
-도토리묵야채무침
-무말랭이깻잎무침
+깻잎채 올린 철판고추장삼겹살구이_x000D_(돼지:독일산)
+보리밥
+조랑떡미역국
+무쌈야채말이*땅콩소스
+콩나물파채무침
 포기김치/석박지
-983kcal</v>
+1010kcal</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-아삭한 숙주올린 제육불고기
-(돼지:국내산)
-흑향미밥
-콩비지김치찌개
-감자채햄볶음
-오이지매실청무침
+설렁탕*소면사리_x000D_(소:호주산)
+기장밥
+두부김치두루치기
+감자채파프리카볶음
+아삭이고추된장무침
 포기김치/석박지
-949kcal</v>
+981kcal</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-한방반계탕
-(닭:국내산)
-흑미영양닭죽(닭:국내산)
-김치전,부추전
-모듬야채스틱*쌈장
+매실소스곁들인 제육불고기*양배추쌈_x000D_(돼지:국내산)
+잡곡밥
+김치콩나물국
+야채계란말이
+연근땅콩조림
 포기김치/석박지
-968kcal</v>
+999kcal</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="56">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9120,58 +9684,55 @@
       <c r="C8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-사천짜장면
-(돼지:국내산)
-새우야채볶음밥/짬뽕국
-탕수육(돼지:국내산)
-단무지*양파/춘장
+장조림버터비빔밥(돼지:국내산)
+맑은우동국물
+매콤달콤김말이튀김강정
+코울슬로
 포기김치/석박지
-1004kcal</v>
+1025kcal</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-수제王돈까스*양송이데미S
-(돼지:국내산)
-검정깨밥/크림스프
-단호박블루베리샐러드
-적채무비트피클
+치킨마요덮밥_x000D_(닭:수입산,국내산)
+유부된장국
+까르보나라떡볶이
+오복채무침
 포기김치/석박지
-1017kcal</v>
+1020kcal</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-코다리냉면[북어회냉면]
-마약김밥*냉채소스
-메밀왕만두찜
-오복채무침
+순살등심돈까스*데미S_x000D_(돼지:국내산)
+후리가케밥/크림스프
+베리베리토스트/고구마요거트샐러드
+야채피클
 포기김치/석박지
-980kcal</v>
+1019kcal</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-인도치킨커리*강황밥*난
-(닭:브라질산)
-맑은우동국물
-수제모듬꼬치구이
-야채피클
+철판베이컨김치볶음밥*계란후라이
+꼬치어묵국(갈치:중국산)
+야채고로케*케찹
+마카로니콘샐러드
 포기김치/석박지
-1002kcal</v>
+1016kcal</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-장어덮밥
-유부된장국
-야채튀김
-초생강,락교
+게살크림고로케오므라이스
+팽이버섯된장국
+미니샐러드파스타
+적채무비트피클
 포기김치/석박지
-996kcal</v>
+1008kcal</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="56">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9189,12 +9750,12 @@
       <c r="E9" s="2" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
         <v>[네이쳐데이]
-[여름별미]노각보리비빔밥
-무채된장국
-두부검은깨스테이크
-치커리연근샐러드/파래김구이
+시원한도토리묵사발
+오곡밥
+매콤버섯두루치기*알배기배추쌈
+연근비트초절이/수수부꾸미
 포기김치/석박지
-641kcal</v>
+690kcal</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -9205,7 +9766,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="56">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9217,48 +9778,48 @@
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
 고구마찜/삶은계란
-야채스틱/바나나/토마토
-두유/참깨롤빵
-510kcal</v>
+야채스틱/바나나/방울토마토
+두유/모닝빵
+548kcal</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*올리브계란
-통감자구이/브로컬리꽃맛살
-야채스틱/바나나/방울토마토
-두유/떡갈비주먹밥(돼지:국내산)
-507kcal</v>
+그린샐러드*구운새송이버섯과마늘
+단호박구이/새싹연두부
+야채스틱/바나나/오렌지
+두유/장조림주먹밥(돼지:국내산)
+530kal</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
-그린샐러드*흑임자두부
-단호박구이/삶은계란
-야채스틱/바나나/오렌지
-두유/견과류현미주먹밥
-509kcal</v>
+그린샐러드*올리브참치
+통감자구이/메추리알
+야채스틱/바나나/토마토
+두유/참깨롤빵
+534kcal</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-513kcal</v>
+그린샐러드*흑임자두부
+고구마찜/삶은계란
+야채스틱/바나나/방울토마토
+두유/현미잡곡주먹밥
+528kcal</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
-그린샐러드*견과류올린구운야채
-통감자구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/장조림주먹밥(소:호주산)
-506kcal</v>
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/브로컬리꽃맛살
+야채스틱/바나나/토마토
+두유/부시맥브레드
+545kcal</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="42">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -9270,16 +9831,16 @@
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-애플D/오리엔탈D</v>
+씨리얼
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-흑임자D/오리엔탈D</v>
+견과류
+키위D/오리엔탈D</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
@@ -9287,26 +9848,26 @@
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 크루통
-땅콩버터D/오리엔탈D</v>
+흑임자D/오리엔탈D</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-오렌지D/오리엔탈D</v>
+씨리얼
+복숭아D/오리엔탈D</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-복숭아D/오리엔탈D</v>
+스위트콘,빈스
+애플D/오리엔탈D</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="56">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9316,62 +9877,60 @@
       <c r="C12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-돼지갈비김치찌개
-(돼지:미국산,국내산)
-흑향미밥
-옛날소세지전*케찹
-도토리묵야채무침
-검은깨명엽채볶음
-알타리김치
-926kcal</v>
+뼈다귀해장국*수제비사리_x000D_(돼지:국내산)
+쌀밥
+두부계란지짐*양념장
+한식잡채
+오이양파무침
+포기김치
+968kcal</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-[즉석]몽골리안해물덮밥
-미니쌀국수
-모듬춘권튀김
-짜샤이무침
-포기김치
-911kcal</v>
+묵은지목살김치찌개_x000D_(돼지:국내산)
+차조밥
+해물잡채완자전
+브로컬리,컬리플라워*초장
+오징어실채볶음
+열무김치
+988kcal</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-제육김치두루치기*두부찜
-(돼지:국내산)
-차조밥
-맑은콩나물국
-볼어묵맛살볶음(갈치:수입산)
-오이사과초무침
-열무김치
-920kcal</v>
+철판뼈없는닭갈비*치즈사리_x000D_(닭:브라질산)
+보리밥
+오이미역냉국
+궁중떡볶음
+치커리유자청무침
+포기김치
+1005kcal</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-매콤낙지볶음*소면사리
-(낙지:베트남산)
-잡곡밥
-들깨감자국
-무쌈야채말이*땅콩소스
-열무된장나물
+일식나스동[일본식가지덮밥]_x000D_(돼지:국내산)
+유부된장국
+타코야끼
+연두부토마토샐러드
+깐마늘마늘쫑무침
 포기김치
-919kcal</v>
+1001kcal</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-왕소세지오므라이스
-맑은우동국물
-야채고로케*케찹
-브로커리땅콩샐러드
-생오이피클*할라페뇨
+쇠고기버섯볶음*참나묻두부냉채_x000D_(소:호주산)
+현미밥
+감자양파국
+어묵야채볶음(갈치:수입산)
+무말랭이부추무침
 포기김치
-901kcal</v>
+992kcal</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="56">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9381,50 +9940,50 @@
       <c r="C13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
-그린샐러드*토마토카프레제
-통감자구이/메추리알
+그린샐러드*올리브계란
+단호박구이/새싹연두부
 야채스틱/바나나/오렌지
-두유/장조림주먹밥(돼지:국내산)
-511kcal</v>
+두유/참치마요주먹밥
+531kcal</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/메추리알
 야채스틱/바나나/토마토
 두유/참깨롤빵
-517kcal</v>
+547kcal</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*구운버섯과마늘
+그린샐러드*견과류올린구운야채
+단호박구이/삶은계란
+야채스틱/바나나/방울토마토
+두유/장조림주먹밥(소:호주산)
+529kcal</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
+        <v>[건강도시락]
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/메추리알
+야채스틱/바나나/오렌지
+두유/부시맥브레드
+542kcal</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
+        <v>[건강도시락]
+그린샐러드*구운새송이버섯과마늘
 고구마찜/새싹연두부
 야채스틱/바나나/방울토마토
 두유/떡갈비주먹밥(돼지:국내산)
-510kcal</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
-        <v>[건강도시락]
-그린샐러드*흑임자두부
-통감자구이/삶은계란
-야채스틱/바나나/오렌지
-두유/모닝빵
-508kcal</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
-        <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-513kcal</v>
+538kcal</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -9434,33 +9993,38 @@
       <c r="C14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!C55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!D55</f>
         <v>[플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!E55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!F55</f>
         <v>[플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!G55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9468,29 +10032,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="16.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -9558,13 +10124,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="5">
         <f>converter_phase1!C2</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="C2" s="7">
         <f>IF(A2="점심메뉴", TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9572,7 +10138,7 @@
       </c>
       <c r="D2" s="5">
         <f>B2</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="E2" s="7">
         <f>C2+TIME(1,30,0)</f>
@@ -9586,14 +10152,14 @@
       </c>
       <c r="H2" s="5">
         <f>B2</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="I2" s="8">
         <f>C2-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
+      <c r="J2" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -9604,21 +10170,21 @@
       <c r="Q2" s="6" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-김치콩나물국
+유부김치국
 삼곡밥
-야채계란찜
-포기김치
-810kcal
+떡갈비야채조림(돼지:국내산)
+열무김치
+769kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*키위D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-아몬드후레이크
+감자볼튀김
 [플러스메뉴]
-누룽지/김구이</v>
+누룽지/계란후라이</v>
       </c>
       <c r="R2" s="4" t="b">
         <v>0</v>
@@ -9627,20 +10193,20 @@
         <v>2</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="16.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5">
         <f>B2</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴", TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9648,7 +10214,7 @@
       </c>
       <c r="D3" s="5">
         <f>B3</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -9662,14 +10228,14 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>43</v>
+      <c r="J3" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -9680,33 +10246,31 @@
       <c r="Q3" s="6" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-뚝배기불고기버섯전골*떡사리
-(소:호주산)
-잡곡밥
-두부계란지짐*양념장
-매운감자조림
-치커리오이무침
+매콤닭볶음탕*치즈떡사리_x000D_(닭:국내산)
+흑향미밥
+두부배추된장국
+옛날소세지전*케찹
+검은깨명엽채볶음
 포기김치/석박지
-966kcal
+997kcal
 [일품]
-사천짜장면
-(돼지:국내산)
-새우야채볶음밥/짬뽕국
-탕수육(돼지:국내산)
-단무지*양파/춘장
+장조림버터비빔밥(돼지:국내산)
+맑은우동국물
+매콤달콤김말이튀김강정
+코울슬로
 포기김치/석박지
-1004kcal
+1025kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
 고구마찜/삶은계란
-야채스틱/바나나/토마토
-두유/참깨롤빵
-510kcal
+야채스틱/바나나/방울토마토
+두유/모닝빵
+548kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-애플D/오리엔탈D</v>
+씨리얼
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="R3" s="4" t="b">
         <v>0</v>
@@ -9715,20 +10279,20 @@
         <v>2</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="16.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5">
         <f>B2</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -9736,7 +10300,7 @@
       </c>
       <c r="D4" s="5">
         <f>B4</f>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
@@ -9750,14 +10314,14 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>41834</v>
+        <v>41848</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="3"/>
         <v>0.71875</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>39</v>
+      <c r="J4" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -9768,22 +10332,21 @@
       <c r="Q4" s="6" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-돼지갈비김치찌개
-(돼지:미국산,국내산)
-흑향미밥
-옛날소세지전*케찹
-도토리묵야채무침
-검은깨명엽채볶음
-알타리김치
-926kcal
+뼈다귀해장국*수제비사리_x000D_(돼지:국내산)
+쌀밥
+두부계란지짐*양념장
+한식잡채
+오이양파무침
+포기김치
+968kcal
 [건강도시락]
-그린샐러드*토마토카프레제
-통감자구이/메추리알
+그린샐러드*올리브계란
+단호박구이/새싹연두부
 야채스틱/바나나/오렌지
-두유/장조림주먹밥(돼지:국내산)
-511kcal
+두유/참치마요주먹밥
+531kcal
 [플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="R4" s="4" t="b">
         <v>0</v>
@@ -9792,20 +10355,20 @@
         <v>2</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="5">
         <f>B2+1</f>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴", TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9813,7 +10376,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -9827,14 +10390,14 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>39</v>
+      <c r="J5" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -9845,19 +10408,19 @@
       <c r="Q5" s="6" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-사골우거지국(소:호주산,뉴질랜드산)
+얼큰오징어무찌개
 삼곡밥
-두부양념조림
+맛살야채볶음
 포기김치
-799kcal
+733kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*키위D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-해쉬브라운
+후르트링
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -9868,20 +10431,20 @@
         <v>2</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="16.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="4"/>
@@ -9889,7 +10452,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="5"/>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="6"/>
@@ -9903,14 +10466,14 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="7"/>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="8"/>
         <v>0.46875</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
+      <c r="J6" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -9921,33 +10484,31 @@
       <c r="Q6" s="6" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-깻잎채올린철판치즈닭갈비*고구마사리
-(닭:브라질산)
-기장밥
-무채어묵국(갈치:수입산)
-비엔나브로커리야채볶음
-연근땅콩조림
+뚝배기불고기전골*칼국수사리_x000D_(소:호주산)
+수수밥
+삼색연근튀김*양념장
+탕평채
+통깨건파래볶음
 포기김치/석박지
-995kcal
+1003kcal
 [일품]
-수제王돈까스*양송이데미S
-(돼지:국내산)
-검정깨밥/크림스프
-단호박블루베리샐러드
-적채무비트피클
+치킨마요덮밥_x000D_(닭:수입산,국내산)
+유부된장국
+까르보나라떡볶이
+오복채무침
 포기김치/석박지
-1017kcal
+1020kcal
 [건강도시락]
-그린샐러드*올리브계란
-통감자구이/브로컬리꽃맛살
-야채스틱/바나나/방울토마토
-두유/떡갈비주먹밥(돼지:국내산)
-507kcal
+그린샐러드*구운새송이버섯과마늘
+단호박구이/새싹연두부
+야채스틱/바나나/오렌지
+두유/장조림주먹밥(돼지:국내산)
+530kal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-흑임자D/오리엔탈D</v>
+견과류
+키위D/오리엔탈D</v>
       </c>
       <c r="R6" s="4" t="b">
         <v>0</v>
@@ -9956,20 +10517,20 @@
         <v>2</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="16.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="9"/>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="4"/>
@@ -9977,7 +10538,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="5"/>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="6"/>
@@ -9991,14 +10552,14 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="7"/>
-        <v>41835</v>
+        <v>41849</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="8"/>
         <v>0.71875</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
+      <c r="J7" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -10009,20 +10570,21 @@
       <c r="Q7" s="6" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-[즉석]몽골리안해물덮밥
-미니쌀국수
-모듬춘권튀김
-짜샤이무침
-포기김치
-911kcal
+묵은지목살김치찌개_x000D_(돼지:국내산)
+차조밥
+해물잡채완자전
+브로컬리,컬리플라워*초장
+오징어실채볶음
+열무김치
+988kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/메추리알
 야채스틱/바나나/토마토
 두유/참깨롤빵
-517kcal
+547kcal
 [플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="R7" s="4" t="b">
         <v>0</v>
@@ -10031,20 +10593,20 @@
         <v>2</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5">
         <f>B5+1</f>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴", TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10052,7 +10614,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -10066,14 +10628,14 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>39</v>
+      <c r="J8" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -10084,19 +10646,19 @@
       <c r="Q8" s="6" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-감자양파국
+들깨감자국
 삼곡밥
-새송이계란조림
+양배추진미채무침
 포기김치
-782kcal
+722kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*키위D
+토스트식빵*참깨롤빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-고구마샐러드
+슬라이스햄
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -10107,20 +10669,20 @@
         <v>2</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="9"/>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="10"/>
@@ -10128,7 +10690,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="11"/>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="12"/>
@@ -10142,14 +10704,14 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="13"/>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>39</v>
+      <c r="J9" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -10160,39 +10722,38 @@
       <c r="Q9" s="6" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
         <v>[한식]
-뚝배기우사골순대국
-(돼지:국내산/소:호주산)
-수수밥
-동그랑땡전(돼지:국내산)
-도토리묵야채무침
-무말랭이깻잎무침
+깻잎채 올린 철판고추장삼겹살구이_x000D_(돼지:독일산)
+보리밥
+조랑떡미역국
+무쌈야채말이*땅콩소스
+콩나물파채무침
 포기김치/석박지
-983kcal
+1010kcal
 [일품]
-코다리냉면[북어회냉면]
-마약김밥*냉채소스
-메밀왕만두찜
-오복채무침
+순살등심돈까스*데미S_x000D_(돼지:국내산)
+후리가케밥/크림스프
+베리베리토스트/고구마요거트샐러드
+야채피클
 포기김치/석박지
-980kcal
+1019kcal
 [네이쳐데이]
-[여름별미]노각보리비빔밥
-무채된장국
-두부검은깨스테이크
-치커리연근샐러드/파래김구이
+시원한도토리묵사발
+오곡밥
+매콤버섯두루치기*알배기배추쌈
+연근비트초절이/수수부꾸미
 포기김치/석박지
-641kcal
+690kcal
 [건강도시락]
-그린샐러드*흑임자두부
-단호박구이/삶은계란
-야채스틱/바나나/오렌지
-두유/견과류현미주먹밥
-509kcal
+그린샐러드*올리브참치
+통감자구이/메추리알
+야채스틱/바나나/토마토
+두유/참깨롤빵
+534kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 크루통
-땅콩버터D/오리엔탈D</v>
+흑임자D/오리엔탈D</v>
       </c>
       <c r="R9" s="4" t="b">
         <v>0</v>
@@ -10201,20 +10762,20 @@
         <v>2</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="9"/>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="10"/>
@@ -10222,7 +10783,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="11"/>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="12"/>
@@ -10236,14 +10797,14 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="13"/>
-        <v>41836</v>
+        <v>41850</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>39</v>
+      <c r="J10" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -10254,22 +10815,21 @@
       <c r="Q10" s="6" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-제육김치두루치기*두부찜
-(돼지:국내산)
-차조밥
-맑은콩나물국
-볼어묵맛살볶음(갈치:수입산)
-오이사과초무침
-열무김치
-920kcal
+철판뼈없는닭갈비*치즈사리_x000D_(닭:브라질산)
+보리밥
+오이미역냉국
+궁중떡볶음
+치커리유자청무침
+포기김치
+1005kcal
 [건강도시락]
-그린샐러드*구운버섯과마늘
-고구마찜/새싹연두부
+그린샐러드*견과류올린구운야채
+단호박구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/떡갈비주먹밥(돼지:국내산)
-510kcal
+두유/장조림주먹밥(소:호주산)
+529kcal
 [플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="R10" s="4" t="b">
         <v>0</v>
@@ -10278,20 +10838,20 @@
         <v>2</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="5">
         <f>B8+1</f>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="10"/>
@@ -10299,7 +10859,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="11"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="12"/>
@@ -10313,14 +10873,14 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="13"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="14"/>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
+      <c r="J11" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -10331,19 +10891,19 @@
       <c r="Q11" s="6" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-쇠고기미역국(소:호주산)
+순두부김치찌개(돼지:국내산)
 삼곡밥
-호박맛살야채볶음
+볼어묵풋고추조림(갈치:수입산)
 포기김치
-806kcal
+770kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*미니와플/딸기잼*버터
-그린샐러드*키위D
+곡물식빵*모닝빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-초코첵스
+코코볼
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -10354,20 +10914,20 @@
         <v>2</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="9"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="10"/>
@@ -10375,7 +10935,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="11"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="12"/>
@@ -10389,14 +10949,14 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="13"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>39</v>
+      <c r="J12" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -10407,33 +10967,31 @@
       <c r="Q12" s="6" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-아삭한 숙주올린 제육불고기
-(돼지:국내산)
-흑향미밥
-콩비지김치찌개
-감자채햄볶음
-오이지매실청무침
+설렁탕*소면사리_x000D_(소:호주산)
+기장밥
+두부김치두루치기
+감자채파프리카볶음
+아삭이고추된장무침
 포기김치/석박지
-949kcal
+981kcal
 [일품]
-인도치킨커리*강황밥*난
-(닭:브라질산)
-맑은우동국물
-수제모듬꼬치구이
-야채피클
+철판베이컨김치볶음밥*계란후라이
+꼬치어묵국(갈치:중국산)
+야채고로케*케찹
+마카로니콘샐러드
 포기김치/석박지
-1002kcal
+1016kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-513kcal
+그린샐러드*흑임자두부
+고구마찜/삶은계란
+야채스틱/바나나/방울토마토
+두유/현미잡곡주먹밥
+528kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-오렌지D/오리엔탈D</v>
+씨리얼
+복숭아D/오리엔탈D</v>
       </c>
       <c r="R12" s="4" t="b">
         <v>0</v>
@@ -10442,20 +11000,20 @@
         <v>2</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="9"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="10"/>
@@ -10463,7 +11021,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="11"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="12"/>
@@ -10477,14 +11035,14 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="13"/>
-        <v>41837</v>
+        <v>41851</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>39</v>
+      <c r="J13" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -10495,22 +11053,21 @@
       <c r="Q13" s="6" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-매콤낙지볶음*소면사리
-(낙지:베트남산)
-잡곡밥
-들깨감자국
-무쌈야채말이*땅콩소스
-열무된장나물
+일식나스동[일본식가지덮밥]_x000D_(돼지:국내산)
+유부된장국
+타코야끼
+연두부토마토샐러드
+깐마늘마늘쫑무침
 포기김치
-919kcal
+1001kcal
 [건강도시락]
-그린샐러드*흑임자두부
-통감자구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/메추리알
 야채스틱/바나나/오렌지
-두유/모닝빵
-508kcal
+두유/부시맥브레드
+542kcal
 [플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="R13" s="4" t="b">
         <v>0</v>
@@ -10519,20 +11076,20 @@
         <v>2</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="5">
         <f>B11+1</f>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="10"/>
@@ -10540,7 +11097,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="11"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="12"/>
@@ -10554,14 +11111,14 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="13"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="14"/>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>39</v>
+      <c r="J14" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -10572,19 +11129,19 @@
       <c r="Q14" s="6" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-조랭이떡국
+북어채콩나물국
 삼곡밥
-어묵양파볶음(갈치:수입산)
+비엔나케찹볶음
 포기김치
-800kcal
+746kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*키위D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-감자볼튀김
+해쉬브라운
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -10595,20 +11152,20 @@
         <v>2</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="9"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="10"/>
@@ -10616,7 +11173,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="11"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="12"/>
@@ -10630,14 +11187,14 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="13"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>39</v>
+      <c r="J15" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -10648,31 +11205,31 @@
       <c r="Q15" s="6" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-한방반계탕
-(닭:국내산)
-흑미영양닭죽(닭:국내산)
-김치전,부추전
-모듬야채스틱*쌈장
+매실소스곁들인 제육불고기*양배추쌈_x000D_(돼지:국내산)
+잡곡밥
+김치콩나물국
+야채계란말이
+연근땅콩조림
 포기김치/석박지
-968kcal
+999kcal
 [일품]
-장어덮밥
-유부된장국
-야채튀김
-초생강,락교
+게살크림고로케오므라이스
+팽이버섯된장국
+미니샐러드파스타
+적채무비트피클
 포기김치/석박지
-996kcal
+1008kcal
 [건강도시락]
-그린샐러드*견과류올린구운야채
-통감자구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/장조림주먹밥(소:호주산)
-506kcal
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/브로컬리꽃맛살
+야채스틱/바나나/토마토
+두유/부시맥브레드
+545kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-복숭아D/오리엔탈D</v>
+스위트콘,빈스
+애플D/오리엔탈D</v>
       </c>
       <c r="R15" s="4" t="b">
         <v>0</v>
@@ -10681,20 +11238,20 @@
         <v>2</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="9"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="10"/>
@@ -10702,7 +11259,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="11"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="12"/>
@@ -10716,14 +11273,14 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="13"/>
-        <v>41838</v>
+        <v>41852</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>39</v>
+      <c r="J16" s="174" t="s">
+        <v>233</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -10734,21 +11291,21 @@
       <c r="Q16" s="6" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-왕소세지오므라이스
-맑은우동국물
-야채고로케*케찹
-브로커리땅콩샐러드
-생오이피클*할라페뇨
+쇠고기버섯볶음*참나묻두부냉채_x000D_(소:호주산)
+현미밥
+감자양파국
+어묵야채볶음(갈치:수입산)
+무말랭이부추무침
 포기김치
-901kcal
+992kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-513kcal
+그린샐러드*구운새송이버섯과마늘
+고구마찜/새싹연두부
+야채스틱/바나나/방울토마토
+두유/떡갈비주먹밥(돼지:국내산)
+538kcal
 [플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="R16" s="4" t="b">
         <v>0</v>
@@ -10757,16 +11314,21 @@
         <v>2</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\repo\ahnapp\menu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="10800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="제목">csv_export!$A$1:$V$16</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="246">
   <si>
     <t>구분</t>
   </si>
@@ -179,6 +184,9 @@
   <si>
     <t>conv.date</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nine2Six</t>
   </si>
   <si>
     <r>
@@ -213,858 +221,840 @@
       </rPr>
       <t>지점장 : 문민경 / 조리실장 : 박노훈 / 영양사 : 정민경</t>
     </r>
-  </si>
-  <si>
-    <t>7월 29일 (화)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 30일 (수)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월 31일 (목)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 1일 (금)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 5일 (화)</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 6일 (수)</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 7일 (목)</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 8일 (금)</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>아침
  07:30
 ~08:30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>한식</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부김치국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰오징어무찌개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨감자국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순두부김치찌개(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북어채콩나물국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠고기두부탕국(소:호주산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨감자수제비국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩비지찌개(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬맹이만두국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은순두부국*절임고추양념장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>삼곡밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡갈비야채조림(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛살야채볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추진미채무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼어묵풋고추조림(갈치:수입산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비엔나케찹볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무김치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념깻잎무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸치풋고추볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>해물잡채완자전</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무말랭이무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새송이계란조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>포기김치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>786kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>769kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>733kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>722kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>770kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>746kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>781kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>762kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>즉석</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>즉석해장라면/삼곡밥/김치</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>즉석해장라면/삼곡밥/김치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>일품</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물식빵*미니와플/딸기잼*버터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>곡물식빵*토스트식빵/딸기잼*버터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토스트식빵*참깨롤빵/딸기잼*버터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물식빵*모닝빵/딸기잼*버터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*미니크로와상/딸기잼*버터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*사우전D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스트식빵*곡물식빵/딸기잼*버터</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>우유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>스크램블에그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>계란후라이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자볼튀김</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>후르트링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라이스햄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코코볼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해쉬브라운</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>양념감자튀김</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>초코첵스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄무늬감자튀김</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마샐러드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄구이</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>플러스메뉴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>누룽지/계란후라이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>누룽지/김구이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>점심
 11:30
 ~13:00</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤닭볶음탕*치즈떡사리
-(닭:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚝배기불고기전골*칼국수사리
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판쭈삼불고기*콩나물찜
+(돼지:독일산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>철판숯불치즈닭갈비*고구마사리
+(닭:브라질산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육김치두루치기*두부찜
+(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>육개장
+(소:호주산,국내산(육우))</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤돈갈비떡찜*단호박구이
+(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>차조밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>시금치된장국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이미역냉국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박감자된장국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬숙회*초장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무채어묵국(갈치:수입산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두부참깨소스샐러드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>비엔나브로커리볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>어묵채파프리카볶음(갈치:수입산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>도토리묵김치무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부계란지짐*양념장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박맛살야채볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리오이무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>비름나물무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과류콩조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>참나물오이유자무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치/석박지</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>986kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>995kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>990kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>[팔도맛기행]경상남도 진주 육전냉면
 (소:호주산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>깻잎채 올린 철판고추장삼겹살구이
-(돼지:독일산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설렁탕*소면사리
-(소:호주산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매실소스곁들인 제육불고기*양배추쌈
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블치즈햄버거스테이크*양송이데미S
 (돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수수밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보리밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기장밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부배추된장국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼색연근튀김*양념장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조랑떡미역국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부김치두루치기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치콩나물국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>옛날소세지전*케찹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탕평채</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무쌈야채말이*땅콩소스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자채파프리카볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채계란말이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은깨명엽채볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통깨건파래볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물파채무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아삭이고추된장무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연근땅콩조림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치/석박지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>997kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>981kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>999kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장조림버터비빔밥(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨마요덮밥
-(닭:수입산,국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순살등심돈까스*데미S
-(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판베이컨김치볶음밥*계란후라이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게살크림고로케오므라이스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은우동국물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부된장국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>후리가케밥/크림스프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치어묵국(갈치:중국산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>시원한 냉모밀녹차면</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>강황두부카레라이스</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>[글루텐프리데이] 미트소스스파게티</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀밥/육수(소:호주산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정깨밥/크림스프</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈김밥1/2/후리가케밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>팽이버섯된장국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤달콤김말이튀김강정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>까르보나라떡볶이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리베리토스트/고구마요거트샐러드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채고로케*케찹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니샐러드파스타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코울슬로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>트로피카나/토마토카프레제샐러드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼색감자만두찜</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>모닝빵샌드위치/막대감자튀김</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선까스*타르타르S</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿀고구마닭강정(닭:수입산,국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀로만든초코링도너츠</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>오복채무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>무오이피클</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지부추무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이양파간장절임</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>야채피클</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마카로니콘샐러드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적채무비트피클</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1025kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1019kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1016kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1008kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>988kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>네이쳐데이</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>시원한도토리묵사발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오곡밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤버섯두루치기*알배기배추쌈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연근비트초절이/수수부꾸미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>690kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽁보리밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새콤한 가지냉국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운야채 곁들인 수수햄버그</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬버섯파프리카볶음/오이지무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>686kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>건강도시락</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*구운새송이버섯과마늘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*올리브참치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*참치키드빈</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*견과류올린구운채소</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*흑임자두부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>고구마찜/삶은계란</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박구이/새싹연두부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통감자구이/메추리알</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통감자구이/브로컬리꽃맛살</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박구이/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>야채스틱/바나나/방울토마토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>야채스틱/바나나/오렌지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>야채스틱/바나나/토마토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>두유/모닝빵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/부시맥브레드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/참깨롤빵</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>두유/장조림주먹밥(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/참깨롤빵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/현미잡곡주먹밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/부시맥브레드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>548kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>530kal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>534kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>528kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>545kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>539kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>540kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>535kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>529kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>531kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>견과류</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>씨리얼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>견과류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>크루통</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>스위트콘,빈스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유자레몬D/오리엔탈D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키위D/오리엔탈D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>흑임자D/오리엔탈D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아D/오리엔탈D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애플D/오리엔탈D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>파인애플D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고요거트D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>사우전D/오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>저녁
  17:30
 ~19:00</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>한식
 or
 일품</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈다귀해장국*수제비사리
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동찜닭*넙적당면사리
+(닭:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼큰순두부찌개*계란탁
 (돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>묵은지목살김치찌개
-(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판뼈없는닭갈비*치즈사리
-(닭:브라질산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식나스동[일본식가지덮밥]
-(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠고기버섯볶음*참나묻두부냉채
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤오징어볶음*소면사리</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>[즉석]냄비닭칼국수
+(닭:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>열무보리비빔밥*볶음고추장
 (소:호주산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>차조밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>쌀밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차조밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현미밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부계란지짐*양념장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물잡채완자전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이미역냉국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타코야끼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자양파국</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식잡채</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로컬리,컬리플라워*초장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁중떡볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연두부토마토샐러드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵야채볶음(갈치:수입산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이양파무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오징어실채볶음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>치커리유자청무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼갈이된장국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>조기구이</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은콩나물국</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우동그랑땡전</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제고추튀김,오미산적</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄계란전*케찹</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>청양풍잡채</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채계란말이</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듬야채스틱*견과류쌈장</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>매운감자조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>새콤오이사과초무침</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>깐마늘마늘쫑무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이부추무침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>968kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>988kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>992kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>연근땅콩조림</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통깨건파래볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은깨명엽채볶음</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기김치</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>973kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>980kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>969kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>964kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강도시락</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*올리브계란</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*견과류올린구운야채</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박구이/삶은계란</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마찜/새싹연두부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/참치마요주먹밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(소:호주산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>531kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>547kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>529kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>542kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>538kcal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*견과류*키위D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*씨리얼*키위D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*흑임자두부</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*닭가슴살(닭:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*참치키드빈</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박구이/브로컬리꽃맛살</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마찜/삶은계란</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박구이/메추리알</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/토마토</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/방울토마토</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/오렌지</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(소:국내산)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/모닝빵</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/부시맥브레드</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/비엔나주먹밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/현미잡곡주먹밥</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>520kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>530kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>537kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>539kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>524kcal</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러스메뉴</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*견과류*오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*씨리얼*오리엔탈D</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>* 식품수급 상황에 따라 메뉴 및 원산지가 변경될 수 있으니 양해바랍니다.
 * 쌀 : 국내산, 배추김치(배추:국내산, 고춧가루:중국산)을 사용합니다. (식당사무실 : ☎ 070-7500-6851 )</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="MDAlong"/>
-        <family val="3"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Calibri Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> 28</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">일 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Calibri Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="MDAlong"/>
-        <family val="3"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Calibri Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Nine2Six</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 4일 (월)</t>
+    <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="166" formatCode="0_ "/>
-    <numFmt numFmtId="167" formatCode="#\ &quot;Kcal&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="#\ &quot;Kcal&quot;"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1072,7 +1062,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1080,7 +1070,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1089,7 +1079,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1098,7 +1088,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1107,7 +1097,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1115,7 +1105,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1123,7 +1113,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1131,7 +1121,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1139,7 +1129,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1148,7 +1138,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1157,7 +1147,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1165,7 +1155,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1174,7 +1164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1182,7 +1172,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1191,7 +1181,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1200,7 +1190,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1208,21 +1198,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1230,7 +1220,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1238,7 +1228,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1288,7 +1278,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1296,7 +1286,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1327,7 +1317,7 @@
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1336,7 +1326,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1345,29 +1335,28 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="MDAlong"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="MDAlong"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="48">
@@ -1641,7 +1630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="105">
+  <borders count="102">
     <border>
       <left/>
       <right/>
@@ -2392,26 +2381,6 @@
       <left style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
       <right style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
@@ -2495,169 +2464,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="5" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
@@ -2671,34 +2477,10 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </right>
-      <top style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="5" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
         <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
       </right>
       <top/>
       <bottom/>
@@ -2719,43 +2501,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="3" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="0"/>
       </left>
       <right style="medium">
@@ -2765,19 +2510,6 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2805,17 +2537,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="2" tint="-0.499984740745262"/>
       </left>
@@ -2824,19 +2545,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2865,11 +2573,249 @@
     </border>
     <border>
       <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
         <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="9"/>
@@ -2877,18 +2823,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
       <right style="medium">
         <color indexed="9"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3021,28 +2967,27 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3068,7 +3013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3123,7 +3068,7 @@
     <xf numFmtId="0" fontId="28" fillId="47" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3162,13 +3107,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="34" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="34" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3210,9 +3155,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3222,42 +3164,42 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="69" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3267,8 +3209,80 @@
     <xf numFmtId="0" fontId="28" fillId="41" borderId="37" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3279,341 +3293,261 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="50" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="22" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="23" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="24" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="50" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="50" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="18" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="22" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="23" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="24" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="29" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="50" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="18" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="29" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="81" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="42" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="85" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="33" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="63" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="34" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="78" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="79" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="33" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="73" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="92" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="94" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="96" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="63" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="78" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="99" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="69" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="101" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="102" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="71" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="60">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="59">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표 [0] 2" xfId="44"/>
     <cellStyle name="쉼표 [0] 3" xfId="45"/>
     <cellStyle name="쉼표 [0] 4" xfId="46"/>
@@ -3621,41 +3555,27 @@
     <cellStyle name="쉼표 [0] 6" xfId="48"/>
     <cellStyle name="쉼표 [0] 7" xfId="49"/>
     <cellStyle name="쉼표 [0] 8" xfId="50"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="43"/>
     <cellStyle name="표준_신메뉴(1)" xfId="42"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="51" builtinId="6"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="하이퍼링크" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="57" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4054,7 +3974,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4548,68 +4468,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2876550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1119186</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="AutoShape 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="66673"/>
-          <a:ext cx="5581650" cy="1052513"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="DDDDDD"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="73152" rIns="91440" bIns="73152" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="6600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY견고딕"/>
-              <a:ea typeface="HY견고딕"/>
-            </a:rPr>
-            <a:t>주 간 메 뉴 표 </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>55</xdr:row>
@@ -4997,6 +4855,589 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18049875" y="19230975"/>
+          <a:ext cx="2828925" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2876550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1119186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="66673"/>
+          <a:ext cx="5591175" cy="1052513"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DDDDDD"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="73152" rIns="91440" bIns="73152" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="6600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY견고딕"/>
+              <a:ea typeface="HY견고딕"/>
+            </a:rPr>
+            <a:t>주 간 메 뉴 표 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14649450" y="19230975"/>
+          <a:ext cx="3429000" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="32004" rIns="54864" bIns="32004" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="993300"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>New : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="993300"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>신메뉴</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="HY엽서M"/>
+              <a:ea typeface="HY엽서M"/>
+            </a:rPr>
+            <a:t>추천메뉴</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1477814</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>425450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1874689</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15622439" y="19637375"/>
+          <a:ext cx="396875" cy="269875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="18202275" y="8810625"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3638550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>621950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>238245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="6353175" y="7658101"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="2686049" y="7639051"/>
+          <a:ext cx="783875" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1002949</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>295395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20848690">
+          <a:off x="2924174" y="5162551"/>
+          <a:ext cx="793400" cy="466844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>New</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5255,7 +5696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5269,27 +5710,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="A1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -5306,25 +5747,25 @@
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
     </row>
-    <row r="2" spans="1:22" ht="23" thickBot="1">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:22" ht="27" thickBot="1">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="31" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -5342,27 +5783,27 @@
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22" ht="27" customHeight="1">
-      <c r="A3" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="78" t="s">
+    <row r="3" spans="1:22" ht="27" customHeight="1" thickBot="1">
+      <c r="A3" s="96" t="s">
         <v>51</v>
       </c>
+      <c r="B3" s="107" t="s">
+        <v>52</v>
+      </c>
       <c r="C3" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="35" t="s">
         <v>55</v>
       </c>
+      <c r="F3" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="G3" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -5380,23 +5821,23 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:22" ht="22" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
+    <row r="4" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A4" s="96"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -5414,23 +5855,23 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="22" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
+    <row r="5" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A5" s="96"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="81" t="s">
         <v>60</v>
       </c>
+      <c r="E5" s="67" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -5448,11 +5889,11 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="1:22" ht="22" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
+    <row r="6" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A6" s="96"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>64</v>
@@ -5482,22 +5923,22 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="22" customHeight="1" thickBot="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83" t="s">
+    <row r="7" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A7" s="96"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="111" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="10"/>
@@ -5516,9 +5957,9 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="24" thickTop="1" thickBot="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="87" t="s">
+    <row r="8" spans="1:22" ht="27.75" thickTop="1" thickBot="1">
+      <c r="A8" s="96"/>
+      <c r="B8" s="68" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="37" t="s">
@@ -5552,9 +5993,9 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
     </row>
-    <row r="9" spans="1:22" ht="23" customHeight="1" thickTop="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="88" t="s">
+    <row r="9" spans="1:22" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="96"/>
+      <c r="B9" s="112" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -5588,9 +6029,9 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:22" ht="22" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="89"/>
+    <row r="10" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A10" s="96"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="34" t="s">
         <v>79</v>
       </c>
@@ -5622,9 +6063,9 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:22" ht="22" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="89"/>
+    <row r="11" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A11" s="96"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="34" t="s">
         <v>80</v>
       </c>
@@ -5656,9 +6097,9 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:22" ht="22" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="89"/>
+    <row r="12" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A12" s="96"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="34" t="s">
         <v>81</v>
       </c>
@@ -5690,22 +6131,22 @@
       <c r="U12" s="10"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:22" ht="22" customHeight="1" thickBot="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92" t="s">
+    <row r="13" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="117" t="s">
         <v>87</v>
       </c>
       <c r="H13" s="10"/>
@@ -5724,15 +6165,15 @@
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
     </row>
-    <row r="14" spans="1:22" ht="23" thickBot="1">
-      <c r="A14" s="97" t="s">
+    <row r="14" spans="1:22" ht="27" thickBot="1">
+      <c r="A14" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="45" t="s">
+      <c r="B14" s="119"/>
+      <c r="C14" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="44" t="s">
@@ -5741,7 +6182,7 @@
       <c r="F14" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="10"/>
@@ -5760,26 +6201,26 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="1:22" ht="54" customHeight="1">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:22" ht="54" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="75" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="10"/>
@@ -5798,22 +6239,22 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
     </row>
-    <row r="16" spans="1:22" ht="27" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102" t="s">
+    <row r="16" spans="1:22" ht="27" customHeight="1" thickBot="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="123" t="s">
         <v>101</v>
       </c>
       <c r="H16" s="10"/>
@@ -5832,22 +6273,22 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
     </row>
-    <row r="17" spans="1:60" ht="53.25" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="106" t="s">
+    <row r="17" spans="1:60" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A17" s="96"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="123" t="s">
         <v>106</v>
       </c>
       <c r="H17" s="10"/>
@@ -5904,22 +6345,22 @@
       <c r="BG17" s="10"/>
       <c r="BH17" s="10"/>
     </row>
-    <row r="18" spans="1:60" ht="27" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="110" t="s">
+    <row r="18" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A18" s="96"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="126" t="s">
         <v>111</v>
       </c>
       <c r="H18" s="10"/>
@@ -5976,22 +6417,22 @@
       <c r="BG18" s="10"/>
       <c r="BH18" s="10"/>
     </row>
-    <row r="19" spans="1:60" ht="27" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="110" t="s">
+    <row r="19" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A19" s="96"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="111" t="s">
+      <c r="G19" s="77" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="9"/>
@@ -6048,22 +6489,22 @@
       <c r="BG19" s="9"/>
       <c r="BH19" s="9"/>
     </row>
-    <row r="20" spans="1:60" ht="27" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="110" t="s">
+    <row r="20" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A20" s="96"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="77" t="s">
         <v>117</v>
       </c>
       <c r="H20" s="9"/>
@@ -6121,21 +6562,21 @@
       <c r="BH20" s="9"/>
     </row>
     <row r="21" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="114" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="116" t="s">
+      <c r="E21" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="117" t="s">
+      <c r="F21" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="118" t="s">
+      <c r="G21" s="132" t="s">
         <v>122</v>
       </c>
       <c r="H21" s="9"/>
@@ -6192,24 +6633,24 @@
       <c r="BG21" s="9"/>
       <c r="BH21" s="9"/>
     </row>
-    <row r="22" spans="1:60" ht="44">
-      <c r="A22" s="79"/>
-      <c r="B22" s="119" t="s">
+    <row r="22" spans="1:60" ht="79.5" thickBot="1">
+      <c r="A22" s="96"/>
+      <c r="B22" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="121" t="s">
+      <c r="D22" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="122" t="s">
+      <c r="F22" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="123" t="s">
+      <c r="G22" s="79" t="s">
         <v>127</v>
       </c>
       <c r="H22" s="10"/>
@@ -6266,22 +6707,22 @@
       <c r="BG22" s="10"/>
       <c r="BH22" s="10"/>
     </row>
-    <row r="23" spans="1:60" ht="27" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="125" t="s">
+    <row r="23" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A23" s="96"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="127" t="s">
+      <c r="E23" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="128" t="s">
+      <c r="G23" s="76" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="10"/>
@@ -6338,22 +6779,22 @@
       <c r="BG23" s="10"/>
       <c r="BH23" s="10"/>
     </row>
-    <row r="24" spans="1:60" ht="27" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="129" t="s">
+    <row r="24" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A24" s="96"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="140" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="127" t="s">
+      <c r="E24" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="130" t="s">
+      <c r="G24" s="76" t="s">
         <v>137</v>
       </c>
       <c r="H24" s="10"/>
@@ -6410,22 +6851,22 @@
       <c r="BG24" s="10"/>
       <c r="BH24" s="10"/>
     </row>
-    <row r="25" spans="1:60" ht="27" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="131" t="s">
+    <row r="25" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A25" s="96"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="130" t="s">
+      <c r="G25" s="76" t="s">
         <v>142</v>
       </c>
       <c r="H25" s="10"/>
@@ -6482,22 +6923,22 @@
       <c r="BG25" s="10"/>
       <c r="BH25" s="10"/>
     </row>
-    <row r="26" spans="1:60" ht="27" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="132" t="s">
+    <row r="26" spans="1:60" ht="27" customHeight="1" thickBot="1">
+      <c r="A26" s="96"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="112" t="s">
+      <c r="E26" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="134" t="s">
+      <c r="F26" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="135" t="s">
+      <c r="G26" s="73" t="s">
         <v>117</v>
       </c>
       <c r="H26" s="10"/>
@@ -6555,21 +6996,21 @@
       <c r="BH26" s="10"/>
     </row>
     <row r="27" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="146" t="s">
         <v>145</v>
       </c>
       <c r="F27" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="139" t="s">
+      <c r="G27" s="147" t="s">
         <v>147</v>
       </c>
       <c r="H27" s="9"/>
@@ -6627,17 +7068,17 @@
       <c r="BH27" s="10"/>
     </row>
     <row r="28" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="140" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="142" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="143"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="137"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -6693,14 +7134,14 @@
       <c r="BH28" s="10"/>
     </row>
     <row r="29" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="34"/>
       <c r="E29" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="36"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
@@ -6757,15 +7198,15 @@
       <c r="BH29" s="10"/>
     </row>
     <row r="30" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="109"/>
-      <c r="G30" s="141"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -6821,9 +7262,9 @@
       <c r="BH30" s="10"/>
     </row>
     <row r="31" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="49"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="34"/>
       <c r="E31" s="42" t="s">
         <v>152</v>
@@ -6885,15 +7326,15 @@
       <c r="BH31" s="10"/>
     </row>
     <row r="32" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="34"/>
       <c r="E32" s="42" t="s">
         <v>117</v>
       </c>
       <c r="F32" s="36"/>
-      <c r="G32" s="111"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -6949,15 +7390,15 @@
       <c r="BH32" s="10"/>
     </row>
     <row r="33" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="34"/>
       <c r="E33" s="42" t="s">
         <v>153</v>
       </c>
       <c r="F33" s="36"/>
-      <c r="G33" s="53"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -7013,24 +7454,24 @@
       <c r="BH33" s="10"/>
     </row>
     <row r="34" spans="1:60" ht="27" customHeight="1" thickTop="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="146" t="s">
+      <c r="A34" s="96"/>
+      <c r="B34" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="53" t="s">
         <v>158</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>155</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="14"/>
@@ -7087,8 +7528,8 @@
       <c r="BH34" s="10"/>
     </row>
     <row r="35" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="147"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="35" t="s">
         <v>159</v>
       </c>
@@ -7099,10 +7540,10 @@
         <v>161</v>
       </c>
       <c r="F35" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="42" t="s">
         <v>159</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>162</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
@@ -7159,22 +7600,22 @@
       <c r="BH35" s="10"/>
     </row>
     <row r="36" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="147"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="E36" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="35" t="s">
-        <v>165</v>
-      </c>
       <c r="F36" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="14"/>
@@ -7231,22 +7672,22 @@
       <c r="BH36" s="10"/>
     </row>
     <row r="37" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A37" s="79"/>
-      <c r="B37" s="147"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="E37" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="F37" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="G37" s="48" t="s">
         <v>169</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>170</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="14"/>
@@ -7303,22 +7744,22 @@
       <c r="BH37" s="10"/>
     </row>
     <row r="38" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A38" s="90"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="55" t="s">
+      <c r="A38" s="97"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="E38" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="F38" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="F38" s="57" t="s">
+      <c r="G38" s="57" t="s">
         <v>174</v>
-      </c>
-      <c r="G38" s="58" t="s">
-        <v>175</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="14"/>
@@ -7374,25 +7815,25 @@
       <c r="BG38" s="10"/>
       <c r="BH38" s="10"/>
     </row>
-    <row r="39" spans="1:60" ht="22" customHeight="1" thickTop="1">
-      <c r="A39" s="149" t="s">
+    <row r="39" spans="1:60" ht="21.95" customHeight="1" thickTop="1">
+      <c r="A39" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="150"/>
-      <c r="C39" s="59" t="s">
-        <v>176</v>
+      <c r="B39" s="149"/>
+      <c r="C39" s="58" t="s">
+        <v>175</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -7449,22 +7890,22 @@
       <c r="BH39" s="10"/>
     </row>
     <row r="40" spans="1:60" ht="21" customHeight="1">
-      <c r="A40" s="151"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="61" t="s">
-        <v>177</v>
+      <c r="A40" s="150"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>176</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -7521,22 +7962,22 @@
       <c r="BH40" s="10"/>
     </row>
     <row r="41" spans="1:60" ht="21" customHeight="1">
-      <c r="A41" s="151"/>
-      <c r="B41" s="152"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="E41" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="F41" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="59" t="s">
         <v>180</v>
-      </c>
-      <c r="F41" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>181</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -7592,23 +8033,23 @@
       <c r="BG41" s="10"/>
       <c r="BH41" s="10"/>
     </row>
-    <row r="42" spans="1:60" ht="22" customHeight="1" thickBot="1">
-      <c r="A42" s="151"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="60" t="s">
+    <row r="42" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A42" s="152"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="153" t="s">
+      <c r="E42" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="F42" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="G42" s="59" t="s">
         <v>185</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>186</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="10"/>
@@ -7664,27 +8105,27 @@
       <c r="BG42" s="10"/>
       <c r="BH42" s="10"/>
     </row>
-    <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1">
-      <c r="A43" s="154" t="s">
+    <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A43" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="155" t="s">
+      <c r="C43" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="D43" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="D43" s="62" t="s">
+      <c r="E43" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="E43" s="156" t="s">
+      <c r="F43" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="157" t="s">
+      <c r="G43" s="46" t="s">
         <v>192</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>193</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="10"/>
@@ -7740,23 +8181,23 @@
       <c r="BG43" s="10"/>
       <c r="BH43" s="10"/>
     </row>
-    <row r="44" spans="1:60" ht="22" customHeight="1">
-      <c r="A44" s="158"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="63" t="s">
+    <row r="44" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A44" s="155"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="E44" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="160" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="161" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="48" t="s">
+      <c r="F44" s="157" t="s">
         <v>196</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>197</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="10"/>
@@ -7812,23 +8253,23 @@
       <c r="BG44" s="10"/>
       <c r="BH44" s="10"/>
     </row>
-    <row r="45" spans="1:60" ht="22" customHeight="1">
-      <c r="A45" s="158"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="108" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="108" t="s">
+    <row r="45" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A45" s="155"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="162" t="s">
+      <c r="D45" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="F45" s="163" t="s">
+      <c r="E45" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="F45" s="158" t="s">
         <v>201</v>
+      </c>
+      <c r="G45" s="70" t="s">
+        <v>202</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="10"/>
@@ -7884,23 +8325,23 @@
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
     </row>
-    <row r="46" spans="1:60" ht="22" customHeight="1">
-      <c r="A46" s="158"/>
-      <c r="B46" s="159"/>
-      <c r="C46" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="108" t="s">
+    <row r="46" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A46" s="155"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="E46" s="160" t="s">
+      <c r="D46" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F46" s="161" t="s">
+      <c r="E46" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="107" t="s">
+      <c r="F46" s="157" t="s">
         <v>206</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>207</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="10"/>
@@ -7956,23 +8397,23 @@
       <c r="BG46" s="10"/>
       <c r="BH46" s="10"/>
     </row>
-    <row r="47" spans="1:60" ht="22" customHeight="1">
-      <c r="A47" s="158"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="63" t="s">
+    <row r="47" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A47" s="155"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="160" t="s">
+      <c r="D47" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="161" t="s">
+      <c r="E47" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="107" t="s">
+      <c r="F47" s="157" t="s">
         <v>211</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>212</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="9"/>
@@ -8028,23 +8469,23 @@
       <c r="BG47" s="10"/>
       <c r="BH47" s="10"/>
     </row>
-    <row r="48" spans="1:60" ht="22" customHeight="1">
-      <c r="A48" s="158"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="162" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="163" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="107" t="s">
-        <v>64</v>
+    <row r="48" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A48" s="88"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>213</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="9"/>
@@ -8100,23 +8541,23 @@
       <c r="BG48" s="10"/>
       <c r="BH48" s="10"/>
     </row>
-    <row r="49" spans="1:60" ht="22" customHeight="1" thickBot="1">
-      <c r="A49" s="158"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="E49" s="165" t="s">
+    <row r="49" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A49" s="88"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="166" t="s">
+      <c r="D49" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="G49" s="167" t="s">
+      <c r="E49" s="161" t="s">
         <v>216</v>
+      </c>
+      <c r="F49" s="162" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="163" t="s">
+        <v>218</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -8174,25 +8615,25 @@
       <c r="BG49" s="10"/>
       <c r="BH49" s="10"/>
     </row>
-    <row r="50" spans="1:60" ht="23" customHeight="1" thickTop="1">
-      <c r="A50" s="158"/>
-      <c r="B50" s="168" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="64" t="s">
-        <v>156</v>
+    <row r="50" spans="1:60" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A50" s="95"/>
+      <c r="B50" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -8248,23 +8689,23 @@
       <c r="BG50" s="10"/>
       <c r="BH50" s="10"/>
     </row>
-    <row r="51" spans="1:60" ht="22" customHeight="1">
-      <c r="A51" s="158"/>
-      <c r="B51" s="169"/>
-      <c r="C51" s="49" t="s">
-        <v>160</v>
+    <row r="51" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A51" s="95"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="48" t="s">
+        <v>224</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -8320,23 +8761,23 @@
       <c r="BG51" s="10"/>
       <c r="BH51" s="10"/>
     </row>
-    <row r="52" spans="1:60" ht="22" customHeight="1">
-      <c r="A52" s="158"/>
-      <c r="B52" s="169"/>
+    <row r="52" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A52" s="95"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="43" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -8392,23 +8833,23 @@
       <c r="BG52" s="10"/>
       <c r="BH52" s="10"/>
     </row>
-    <row r="53" spans="1:60" ht="22" customHeight="1">
-      <c r="A53" s="158"/>
-      <c r="B53" s="169"/>
+    <row r="53" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A53" s="95"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="43" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -8464,23 +8905,23 @@
       <c r="BG53" s="10"/>
       <c r="BH53" s="10"/>
     </row>
-    <row r="54" spans="1:60" ht="22" customHeight="1" thickBot="1">
-      <c r="A54" s="170"/>
-      <c r="B54" s="171"/>
-      <c r="C54" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="F54" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" s="57" t="s">
-        <v>228</v>
+    <row r="54" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="G54" s="56" t="s">
+        <v>240</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -8536,25 +8977,25 @@
       <c r="BG54" s="10"/>
       <c r="BH54" s="10"/>
     </row>
-    <row r="55" spans="1:60" ht="23" thickBot="1">
-      <c r="A55" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="173"/>
-      <c r="C55" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="E55" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="G55" s="66" t="s">
-        <v>229</v>
+    <row r="55" spans="1:60" ht="27" thickBot="1">
+      <c r="A55" s="148" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="166"/>
+      <c r="C55" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" s="65" t="s">
+        <v>242</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -8611,15 +9052,15 @@
       <c r="BH55" s="10"/>
     </row>
     <row r="56" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A56" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
+      <c r="A56" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="91"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="92"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -8674,7 +9115,7 @@
       <c r="BG56" s="10"/>
       <c r="BH56" s="10"/>
     </row>
-    <row r="57" spans="1:60" ht="25">
+    <row r="57" spans="1:60" ht="26.25">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
@@ -8736,7 +9177,7 @@
       <c r="BG57" s="10"/>
       <c r="BH57" s="10"/>
     </row>
-    <row r="58" spans="1:60" ht="25">
+    <row r="58" spans="1:60" ht="26.25">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
       <c r="C58" s="27"/>
@@ -8798,7 +9239,7 @@
       <c r="BG58" s="10"/>
       <c r="BH58" s="10"/>
     </row>
-    <row r="59" spans="1:60" ht="25">
+    <row r="59" spans="1:60" ht="26.25">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="27"/>
@@ -8860,7 +9301,7 @@
       <c r="BG59" s="9"/>
       <c r="BH59" s="9"/>
     </row>
-    <row r="60" spans="1:60" ht="25">
+    <row r="60" spans="1:60" ht="26.25">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="27"/>
@@ -8922,7 +9363,7 @@
       <c r="BG60" s="9"/>
       <c r="BH60" s="9"/>
     </row>
-    <row r="61" spans="1:60" ht="25">
+    <row r="61" spans="1:60" ht="26.25">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="27"/>
@@ -8984,7 +9425,7 @@
       <c r="BG61" s="9"/>
       <c r="BH61" s="9"/>
     </row>
-    <row r="62" spans="1:60" ht="25">
+    <row r="62" spans="1:60" ht="26.25">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="27"/>
@@ -9046,7 +9487,7 @@
       <c r="BG62" s="9"/>
       <c r="BH62" s="9"/>
     </row>
-    <row r="63" spans="1:60" ht="25">
+    <row r="63" spans="1:60" ht="26.25">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="27"/>
@@ -9108,7 +9549,7 @@
       <c r="BG63" s="9"/>
       <c r="BH63" s="9"/>
     </row>
-    <row r="64" spans="1:60" ht="25">
+    <row r="64" spans="1:60" ht="26.25">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="27"/>
@@ -9170,7 +9611,7 @@
       <c r="BG64" s="9"/>
       <c r="BH64" s="9"/>
     </row>
-    <row r="65" spans="1:13" ht="25">
+    <row r="65" spans="1:13" ht="26.25">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="27"/>
@@ -9185,7 +9626,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="1:13" ht="25">
+    <row r="66" spans="1:13" ht="26.25">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="28"/>
@@ -9200,7 +9641,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="1:13" ht="25">
+    <row r="67" spans="1:13" ht="26.25">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="30"/>
@@ -9215,7 +9656,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="1:13" ht="25">
+    <row r="68" spans="1:13" ht="26.25">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="30"/>
@@ -9230,7 +9671,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="1:13" ht="25">
+    <row r="69" spans="1:13" ht="26.25">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="30"/>
@@ -9245,7 +9686,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="1:13" ht="25">
+    <row r="70" spans="1:13" ht="26.25">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="30"/>
@@ -9260,7 +9701,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="1:13" ht="25">
+    <row r="71" spans="1:13" ht="26.25">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="13"/>
@@ -9275,7 +9716,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="1:13" ht="25">
+    <row r="72" spans="1:13" ht="26.25">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="10"/>
@@ -9290,7 +9731,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="1:13" ht="25">
+    <row r="73" spans="1:13" ht="26.25">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="10"/>
@@ -9305,7 +9746,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="1:13" ht="25">
+    <row r="74" spans="1:13" ht="26.25">
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="10"/>
@@ -9320,7 +9761,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="1:13" ht="25">
+    <row r="75" spans="1:13" ht="26.25">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="10"/>
@@ -9335,7 +9776,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="1:13" ht="25">
+    <row r="76" spans="1:13" ht="26.25">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="10"/>
@@ -9350,7 +9791,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="1:13" ht="25">
+    <row r="77" spans="1:13" ht="26.25">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="10"/>
@@ -9365,7 +9806,7 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
     </row>
-    <row r="78" spans="1:13" ht="25">
+    <row r="78" spans="1:13" ht="26.25">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="10"/>
@@ -9382,24 +9823,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A39:B42"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:A38"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B38"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:A38"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A39:B42"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9421,10 +9862,10 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="2" customWidth="1"/>
     <col min="4" max="7" width="32.5" customWidth="1"/>
   </cols>
@@ -9435,11 +9876,11 @@
       </c>
       <c r="C2" s="2">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="28">
+    <row r="3" spans="1:7" ht="99">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9449,50 +9890,50 @@
       <c r="C3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-유부김치국
+쇠고기두부탕국(소:호주산)
 삼곡밥
-떡갈비야채조림(돼지:국내산)
-열무김치
-769kcal</v>
+양념깻잎무침
+포기김치
+786kcal</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-얼큰오징어무찌개
+들깨감자수제비국
 삼곡밥
-맛살야채볶음
+멸치풋고추볶음
 포기김치
-733kcal</v>
+769kcal</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-들깨감자국
+콩비지찌개(돼지:국내산)
 삼곡밥
-양배추진미채무침
+해물잡채완자전
 포기김치
-722kcal</v>
+770kcal</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-순두부김치찌개(돼지:국내산)
+꼬맹이만두국
 삼곡밥
-볼어묵풋고추조림(갈치:수입산)
+무말랭이무침
 포기김치
-770kcal</v>
+781kcal</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-북어채콩나물국
+맑은순두부국*절임고추양념장
 삼곡밥
-비엔나케찹볶음
+새송이계란조림
 포기김치
-746kcal</v>
+762kcal</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="33">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9525,7 +9966,7 @@
 즉석해장라면/삼곡밥/김치</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42">
+    <row r="5" spans="1:7" ht="115.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9535,50 +9976,50 @@
       <c r="C5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-곡물식빵*미니와플/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 스크램블에그
-감자볼튀김</v>
+양념감자튀김</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
 곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*사우전D
+그린샐러드*오리엔탈D
 우유
 계란후라이
-후르트링</v>
+초코첵스</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
-토스트식빵*참깨롤빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*미니크로와상/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 스크램블에그
-슬라이스햄</v>
+줄무늬감자튀김</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-곡물식빵*모닝빵/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 계란후라이
-코코볼</v>
+고구마샐러드</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*곡물식빵/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 스크램블에그
-해쉬브라운</v>
+햄구이</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="33">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9611,7 +10052,7 @@
 누룽지/김구이</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="56">
+    <row r="7" spans="1:7" ht="148.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9621,60 +10062,65 @@
       <c r="C7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-매콤닭볶음탕*치즈떡사리_x000D_(닭:국내산)
-흑향미밥
-두부배추된장국
-옛날소세지전*케찹
-검은깨명엽채볶음
+철판쭈삼불고기*콩나물찜
+(돼지:독일산)
+기장밥
+시금치된장국
+연두부참깨소스샐러드
+호박맛살야채볶음
 포기김치/석박지
-997kcal</v>
+986kcal</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-뚝배기불고기전골*칼국수사리_x000D_(소:호주산)
-수수밥
-삼색연근튀김*양념장
-탕평채
-통깨건파래볶음
+철판숯불치즈닭갈비*고구마사리
+(닭:브라질산)
+흑향미밥
+오이미역냉국
+비엔나브로커리볶음
+치커리오이무침
 포기김치/석박지
-1003kcal</v>
+1019kcal</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-깻잎채 올린 철판고추장삼겹살구이_x000D_(돼지:독일산)
-보리밥
-조랑떡미역국
-무쌈야채말이*땅콩소스
-콩나물파채무침
+제육김치두루치기*두부찜
+(돼지:국내산)
+잡곡밥
+호박감자된장국
+어묵채파프리카볶음(갈치:수입산)
+비름나물무침
 포기김치/석박지
-1010kcal</v>
+1005kcal</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-설렁탕*소면사리_x000D_(소:호주산)
-기장밥
-두부김치두루치기
-감자채파프리카볶음
-아삭이고추된장무침
+육개장
+(소:호주산,국내산(육우))
+수수밥
+모듬숙회*초장
+도토리묵김치무침
+견과류콩조림
 포기김치/석박지
-981kcal</v>
+995kcal</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-매실소스곁들인 제육불고기*양배추쌈_x000D_(돼지:국내산)
-잡곡밥
-김치콩나물국
-야채계란말이
-연근땅콩조림
+매콤돈갈비떡찜*단호박구이
+(돼지:국내산)
+차조밥
+무채어묵국(갈치:수입산)
+두부계란지짐*양념장
+참나물오이유자무침
 포기김치/석박지
-999kcal</v>
+990kcal</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="56">
+    <row r="8" spans="1:7" ht="115.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9684,55 +10130,57 @@
       <c r="C8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-장조림버터비빔밥(돼지:국내산)
-맑은우동국물
-매콤달콤김말이튀김강정
-코울슬로
+[팔도맛기행]경상남도 진주 육전냉면
+(소:호주산)
+쌀밥/육수(소:호주산)
+삼색감자만두찜
+오복채무침
 포기김치/석박지
-1025kcal</v>
+1000kcal</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-치킨마요덮밥_x000D_(닭:수입산,국내산)
-유부된장국
-까르보나라떡볶이
-오복채무침
+더블치즈햄버거스테이크*양송이데미S
+(돼지:국내산)
+검정깨밥/크림스프
+모닝빵샌드위치/막대감자튀김
+무오이피클
 포기김치/석박지
-1020kcal</v>
+1022kcal</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-순살등심돈까스*데미S_x000D_(돼지:국내산)
-후리가케밥/크림스프
-베리베리토스트/고구마요거트샐러드
-야채피클
+시원한 냉모밀녹차면
+치즈김밥1/2/후리가케밥
+생선까스*타르타르S
+단무지부추무침
 포기김치/석박지
-1019kcal</v>
+1011kcal</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-철판베이컨김치볶음밥*계란후라이
-꼬치어묵국(갈치:중국산)
-야채고로케*케찹
-마카로니콘샐러드
+강황두부카레라이스
+팽이버섯된장국
+꿀고구마닭강정(닭:수입산,국내산)
+오이양파간장절임
 포기김치/석박지
-1016kcal</v>
+1004kcal</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-게살크림고로케오므라이스
-팽이버섯된장국
-미니샐러드파스타
-적채무비트피클
+[글루텐프리데이] 미트소스스파게티
+트로피카나/토마토카프레제샐러드
+쌀로만든초코링도너츠
+야채피클
 포기김치/석박지
-1008kcal</v>
+988kcal</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="56">
+    <row r="9" spans="1:7" ht="115.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9750,12 +10198,12 @@
       <c r="E9" s="2" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
         <v>[네이쳐데이]
-시원한도토리묵사발
-오곡밥
-매콤버섯두루치기*알배기배추쌈
-연근비트초절이/수수부꾸미
+꽁보리밥
+새콤한 가지냉국
+구운야채 곁들인 수수햄버그
+모듬버섯파프리카볶음/오이지무침
 포기김치/석박지
-690kcal</v>
+686kcal</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -9766,7 +10214,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="56">
+    <row r="10" spans="1:7" ht="99">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9777,49 +10225,49 @@
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/메추리알
 야채스틱/바나나/방울토마토
 두유/모닝빵
-548kcal</v>
+539kcal</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/새싹연두부
+그린샐러드*참치키드빈
+고구마찜/삶은계란
 야채스틱/바나나/오렌지
-두유/장조림주먹밥(돼지:국내산)
-530kal</v>
+두유/부시맥브레드
+540kcal</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
-그린샐러드*올리브참치
-통감자구이/메추리알
+그린샐러드*견과류올린구운채소
+단호박구이/메추리알
 야채스틱/바나나/토마토
-두유/참깨롤빵
-534kcal</v>
+두유/떡갈비주먹밥(돼지:국내산)
+535kcal</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*흑임자두부
+그린샐러드*닭가슴살(닭:국내산)
 고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/현미잡곡주먹밥
-528kcal</v>
+두유/참깨롤빵
+529kcal</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/브로컬리꽃맛살
+그린샐러드*흑임자두부
+통감자구이/메추리알
 야채스틱/바나나/토마토
-두유/부시맥브레드
-545kcal</v>
+두유/장조림주먹밥(돼지:국내산)
+531kcal</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42">
+    <row r="11" spans="1:7" ht="82.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -9831,16 +10279,16 @@
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-유자레몬D/오리엔탈D</v>
+견과류
+오렌지D/오리엔탈D</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-키위D/오리엔탈D</v>
+씨리얼
+흑임자D/오리엔탈D</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
@@ -9848,15 +10296,15 @@
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 크루통
-흑임자D/오리엔탈D</v>
+파인애플D/오리엔탈D</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-복숭아D/오리엔탈D</v>
+견과류
+망고요거트D/오리엔탈D</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
@@ -9864,10 +10312,10 @@
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 스위트콘,빈스
-애플D/오리엔탈D</v>
+사우전D/오리엔탈D</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="56">
+    <row r="12" spans="1:7" ht="148.5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9877,60 +10325,64 @@
       <c r="C12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-뼈다귀해장국*수제비사리_x000D_(돼지:국내산)
-쌀밥
-두부계란지짐*양념장
-한식잡채
-오이양파무침
+안동찜닭*넙적당면사리
+(닭:국내산)
+차조밥
+들깨미역국
+햄계란전*케찹
+새콤오이사과초무침
 포기김치
-968kcal</v>
+973kcal</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-묵은지목살김치찌개_x000D_(돼지:국내산)
-차조밥
-해물잡채완자전
-브로컬리,컬리플라워*초장
-오징어실채볶음
-열무김치
-988kcal</v>
+얼큰순두부찌개*계란탁
+(돼지:국내산)
+잡곡밥
+조기구이
+청양풍잡채
+깐마늘마늘쫑무침
+포기김치
+980kcal</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-철판뼈없는닭갈비*치즈사리_x000D_(닭:브라질산)
-보리밥
-오이미역냉국
-궁중떡볶음
-치커리유자청무침
+매콤오징어볶음*소면사리
+흑향미밥
+맑은콩나물국
+야채계란말이
+연근땅콩조림
 포기김치
-1005kcal</v>
+969kcal</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-일식나스동[일본식가지덮밥]_x000D_(돼지:국내산)
-유부된장국
-타코야끼
-연두부토마토샐러드
-깐마늘마늘쫑무침
+[즉석]냄비닭칼국수
+(닭:국내산)
+쌀밥
+새우동그랑땡전
+모듬야채스틱*견과류쌈장
+통깨건파래볶음
 포기김치
-1001kcal</v>
+1004kcal</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-쇠고기버섯볶음*참나묻두부냉채_x000D_(소:호주산)
-현미밥
-감자양파국
-어묵야채볶음(갈치:수입산)
-무말랭이부추무침
+열무보리비빔밥*볶음고추장
+(소:호주산)
+얼갈이된장국
+수제고추튀김,오미산적
+매운감자조림
+검은깨명엽채볶음
 포기김치
-992kcal</v>
+964kcal</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="56">
+    <row r="13" spans="1:7" ht="99">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9941,49 +10393,49 @@
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
 그린샐러드*올리브계란
-단호박구이/새싹연두부
-야채스틱/바나나/오렌지
-두유/참치마요주먹밥
-531kcal</v>
+단호박구이/브로컬리꽃맛살
+야채스틱/바나나/토마토
+두유/장조림주먹밥(소:국내산)
+520kcal</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
+그린샐러드*흑임자두부
 통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/참깨롤빵
-547kcal</v>
+야채스틱/바나나/방울토마토
+두유/모닝빵
+530kcal</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*견과류올린구운야채
-단호박구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/장조림주먹밥(소:호주산)
-529kcal</v>
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/삶은계란
+야채스틱/바나나/오렌지
+두유/부시맥브레드
+537kcal</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/오렌지
-두유/부시맥브레드
-542kcal</v>
+그린샐러드*참치키드빈
+단호박구이/메추리알
+야채스틱/바나나/토마토
+두유/비엔나주먹밥
+539kcal</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
         <v>[건강도시락]
-그린샐러드*구운새송이버섯과마늘
-고구마찜/새싹연두부
-야채스틱/바나나/방울토마토
-두유/떡갈비주먹밥(돼지:국내산)
-538kcal</v>
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/삶은계란
+야채스틱/바나나/오렌지
+두유/현미잡곡주먹밥
+524kcal</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28">
+    <row r="14" spans="1:7" ht="33">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -9993,27 +10445,27 @@
       <c r="C14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!C55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*키위D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!D55</f>
         <v>[플러스메뉴]
-그린샐러드*씨리얼*키위D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!E55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*키위D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!F55</f>
         <v>[플러스메뉴]
-그린샐러드*씨리얼*키위D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="G14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!G55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*키위D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
     </row>
   </sheetData>
@@ -10036,24 +10488,24 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" customHeight="1">
@@ -10130,7 +10582,7 @@
       </c>
       <c r="B2" s="5">
         <f>converter_phase1!C2</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="C2" s="7">
         <f>IF(A2="점심메뉴", TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10138,7 +10590,7 @@
       </c>
       <c r="D2" s="5">
         <f>B2</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="E2" s="7">
         <f>C2+TIME(1,30,0)</f>
@@ -10152,14 +10604,14 @@
       </c>
       <c r="H2" s="5">
         <f>B2</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="I2" s="8">
         <f>C2-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J2" s="174" t="s">
-        <v>233</v>
+      <c r="J2" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -10170,19 +10622,19 @@
       <c r="Q2" s="6" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-유부김치국
+쇠고기두부탕국(소:호주산)
 삼곡밥
-떡갈비야채조림(돼지:국내산)
-열무김치
-769kcal
+양념깻잎무침
+포기김치
+786kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*미니와플/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 스크램블에그
-감자볼튀김
+양념감자튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -10206,7 +10658,7 @@
       </c>
       <c r="B3" s="5">
         <f>B2</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴", TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10214,7 +10666,7 @@
       </c>
       <c r="D3" s="5">
         <f>B3</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -10228,14 +10680,14 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
-      <c r="J3" s="174" t="s">
-        <v>233</v>
+      <c r="J3" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -10246,31 +10698,33 @@
       <c r="Q3" s="6" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-매콤닭볶음탕*치즈떡사리_x000D_(닭:국내산)
-흑향미밥
-두부배추된장국
-옛날소세지전*케찹
-검은깨명엽채볶음
+철판쭈삼불고기*콩나물찜
+(돼지:독일산)
+기장밥
+시금치된장국
+연두부참깨소스샐러드
+호박맛살야채볶음
 포기김치/석박지
-997kcal
+986kcal
 [일품]
-장조림버터비빔밥(돼지:국내산)
-맑은우동국물
-매콤달콤김말이튀김강정
-코울슬로
+[팔도맛기행]경상남도 진주 육전냉면
+(소:호주산)
+쌀밥/육수(소:호주산)
+삼색감자만두찜
+오복채무침
 포기김치/석박지
-1025kcal
+1000kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/메추리알
 야채스틱/바나나/방울토마토
 두유/모닝빵
-548kcal
+539kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-유자레몬D/오리엔탈D</v>
+견과류
+오렌지D/오리엔탈D</v>
       </c>
       <c r="R3" s="4" t="b">
         <v>0</v>
@@ -10292,7 +10746,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -10300,7 +10754,7 @@
       </c>
       <c r="D4" s="5">
         <f>B4</f>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
@@ -10314,14 +10768,14 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>41848</v>
+        <v>41855</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="3"/>
         <v>0.71875</v>
       </c>
-      <c r="J4" s="174" t="s">
-        <v>233</v>
+      <c r="J4" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -10332,21 +10786,22 @@
       <c r="Q4" s="6" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-뼈다귀해장국*수제비사리_x000D_(돼지:국내산)
-쌀밥
-두부계란지짐*양념장
-한식잡채
-오이양파무침
+안동찜닭*넙적당면사리
+(닭:국내산)
+차조밥
+들깨미역국
+햄계란전*케찹
+새콤오이사과초무침
 포기김치
-968kcal
+973kcal
 [건강도시락]
 그린샐러드*올리브계란
-단호박구이/새싹연두부
-야채스틱/바나나/오렌지
-두유/참치마요주먹밥
-531kcal
+단호박구이/브로컬리꽃맛살
+야채스틱/바나나/토마토
+두유/장조림주먹밥(소:국내산)
+520kcal
 [플러스메뉴]
-그린샐러드*견과류*키위D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="R4" s="4" t="b">
         <v>0</v>
@@ -10368,7 +10823,7 @@
       </c>
       <c r="B5" s="5">
         <f>B2+1</f>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴", TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10376,7 +10831,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -10390,14 +10845,14 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J5" s="174" t="s">
-        <v>233</v>
+      <c r="J5" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -10408,19 +10863,19 @@
       <c r="Q5" s="6" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-얼큰오징어무찌개
+들깨감자수제비국
 삼곡밥
-맛살야채볶음
+멸치풋고추볶음
 포기김치
-733kcal
+769kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
 곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*사우전D
+그린샐러드*오리엔탈D
 우유
 계란후라이
-후르트링
+초코첵스
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -10444,7 +10899,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="4"/>
@@ -10452,7 +10907,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="5"/>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="6"/>
@@ -10466,14 +10921,14 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="7"/>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="8"/>
         <v>0.46875</v>
       </c>
-      <c r="J6" s="174" t="s">
-        <v>233</v>
+      <c r="J6" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -10484,31 +10939,33 @@
       <c r="Q6" s="6" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-뚝배기불고기전골*칼국수사리_x000D_(소:호주산)
-수수밥
-삼색연근튀김*양념장
-탕평채
-통깨건파래볶음
+철판숯불치즈닭갈비*고구마사리
+(닭:브라질산)
+흑향미밥
+오이미역냉국
+비엔나브로커리볶음
+치커리오이무침
 포기김치/석박지
-1003kcal
+1019kcal
 [일품]
-치킨마요덮밥_x000D_(닭:수입산,국내산)
-유부된장국
-까르보나라떡볶이
-오복채무침
+더블치즈햄버거스테이크*양송이데미S
+(돼지:국내산)
+검정깨밥/크림스프
+모닝빵샌드위치/막대감자튀김
+무오이피클
 포기김치/석박지
-1020kcal
+1022kcal
 [건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/새싹연두부
+그린샐러드*참치키드빈
+고구마찜/삶은계란
 야채스틱/바나나/오렌지
-두유/장조림주먹밥(돼지:국내산)
-530kal
+두유/부시맥브레드
+540kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-키위D/오리엔탈D</v>
+씨리얼
+흑임자D/오리엔탈D</v>
       </c>
       <c r="R6" s="4" t="b">
         <v>0</v>
@@ -10530,7 +10987,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="9"/>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="4"/>
@@ -10538,7 +10995,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="5"/>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="6"/>
@@ -10552,14 +11009,14 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="7"/>
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="8"/>
         <v>0.71875</v>
       </c>
-      <c r="J7" s="174" t="s">
-        <v>233</v>
+      <c r="J7" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -10570,21 +11027,22 @@
       <c r="Q7" s="6" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-묵은지목살김치찌개_x000D_(돼지:국내산)
-차조밥
-해물잡채완자전
-브로컬리,컬리플라워*초장
-오징어실채볶음
-열무김치
-988kcal
+얼큰순두부찌개*계란탁
+(돼지:국내산)
+잡곡밥
+조기구이
+청양풍잡채
+깐마늘마늘쫑무침
+포기김치
+980kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
+그린샐러드*흑임자두부
 통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/참깨롤빵
-547kcal
+야채스틱/바나나/방울토마토
+두유/모닝빵
+530kcal
 [플러스메뉴]
-그린샐러드*씨리얼*키위D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="R7" s="4" t="b">
         <v>0</v>
@@ -10606,7 +11064,7 @@
       </c>
       <c r="B8" s="5">
         <f>B5+1</f>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴", TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10614,7 +11072,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -10628,14 +11086,14 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J8" s="174" t="s">
-        <v>233</v>
+      <c r="J8" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -10646,19 +11104,19 @@
       <c r="Q8" s="6" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-들깨감자국
+콩비지찌개(돼지:국내산)
 삼곡밥
-양배추진미채무침
+해물잡채완자전
 포기김치
-722kcal
+770kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*참깨롤빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*미니크로와상/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 스크램블에그
-슬라이스햄
+줄무늬감자튀김
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -10682,7 +11140,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="9"/>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="10"/>
@@ -10690,7 +11148,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="11"/>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="12"/>
@@ -10704,14 +11162,14 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="13"/>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J9" s="174" t="s">
-        <v>233</v>
+      <c r="J9" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -10722,38 +11180,39 @@
       <c r="Q9" s="6" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
         <v>[한식]
-깻잎채 올린 철판고추장삼겹살구이_x000D_(돼지:독일산)
-보리밥
-조랑떡미역국
-무쌈야채말이*땅콩소스
-콩나물파채무침
+제육김치두루치기*두부찜
+(돼지:국내산)
+잡곡밥
+호박감자된장국
+어묵채파프리카볶음(갈치:수입산)
+비름나물무침
 포기김치/석박지
-1010kcal
+1005kcal
 [일품]
-순살등심돈까스*데미S_x000D_(돼지:국내산)
-후리가케밥/크림스프
-베리베리토스트/고구마요거트샐러드
-야채피클
+시원한 냉모밀녹차면
+치즈김밥1/2/후리가케밥
+생선까스*타르타르S
+단무지부추무침
 포기김치/석박지
-1019kcal
+1011kcal
 [네이쳐데이]
-시원한도토리묵사발
-오곡밥
-매콤버섯두루치기*알배기배추쌈
-연근비트초절이/수수부꾸미
+꽁보리밥
+새콤한 가지냉국
+구운야채 곁들인 수수햄버그
+모듬버섯파프리카볶음/오이지무침
 포기김치/석박지
-690kcal
+686kcal
 [건강도시락]
-그린샐러드*올리브참치
-통감자구이/메추리알
+그린샐러드*견과류올린구운채소
+단호박구이/메추리알
 야채스틱/바나나/토마토
-두유/참깨롤빵
-534kcal
+두유/떡갈비주먹밥(돼지:국내산)
+535kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 크루통
-흑임자D/오리엔탈D</v>
+파인애플D/오리엔탈D</v>
       </c>
       <c r="R9" s="4" t="b">
         <v>0</v>
@@ -10775,7 +11234,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="9"/>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="10"/>
@@ -10783,7 +11242,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="11"/>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="12"/>
@@ -10797,14 +11256,14 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="13"/>
-        <v>41850</v>
+        <v>41857</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J10" s="174" t="s">
-        <v>233</v>
+      <c r="J10" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -10815,21 +11274,21 @@
       <c r="Q10" s="6" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-철판뼈없는닭갈비*치즈사리_x000D_(닭:브라질산)
-보리밥
-오이미역냉국
-궁중떡볶음
-치커리유자청무침
+매콤오징어볶음*소면사리
+흑향미밥
+맑은콩나물국
+야채계란말이
+연근땅콩조림
 포기김치
-1005kcal
+969kcal
 [건강도시락]
-그린샐러드*견과류올린구운야채
-단호박구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/장조림주먹밥(소:호주산)
-529kcal
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/삶은계란
+야채스틱/바나나/오렌지
+두유/부시맥브레드
+537kcal
 [플러스메뉴]
-그린샐러드*견과류*키위D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="R10" s="4" t="b">
         <v>0</v>
@@ -10851,7 +11310,7 @@
       </c>
       <c r="B11" s="5">
         <f>B8+1</f>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="10"/>
@@ -10859,7 +11318,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="11"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="12"/>
@@ -10873,14 +11332,14 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="13"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="14"/>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J11" s="174" t="s">
-        <v>233</v>
+      <c r="J11" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -10891,19 +11350,19 @@
       <c r="Q11" s="6" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-순두부김치찌개(돼지:국내산)
+꼬맹이만두국
 삼곡밥
-볼어묵풋고추조림(갈치:수입산)
+무말랭이무침
 포기김치
-770kcal
+781kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*모닝빵/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 계란후라이
-코코볼
+고구마샐러드
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -10927,7 +11386,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="9"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="10"/>
@@ -10935,7 +11394,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="11"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="12"/>
@@ -10949,14 +11408,14 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="13"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J12" s="174" t="s">
-        <v>233</v>
+      <c r="J12" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -10967,31 +11426,32 @@
       <c r="Q12" s="6" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-설렁탕*소면사리_x000D_(소:호주산)
-기장밥
-두부김치두루치기
-감자채파프리카볶음
-아삭이고추된장무침
+육개장
+(소:호주산,국내산(육우))
+수수밥
+모듬숙회*초장
+도토리묵김치무침
+견과류콩조림
 포기김치/석박지
-981kcal
+995kcal
 [일품]
-철판베이컨김치볶음밥*계란후라이
-꼬치어묵국(갈치:중국산)
-야채고로케*케찹
-마카로니콘샐러드
+강황두부카레라이스
+팽이버섯된장국
+꿀고구마닭강정(닭:수입산,국내산)
+오이양파간장절임
 포기김치/석박지
-1016kcal
+1004kcal
 [건강도시락]
-그린샐러드*흑임자두부
+그린샐러드*닭가슴살(닭:국내산)
 고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/현미잡곡주먹밥
-528kcal
+두유/참깨롤빵
+529kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-복숭아D/오리엔탈D</v>
+견과류
+망고요거트D/오리엔탈D</v>
       </c>
       <c r="R12" s="4" t="b">
         <v>0</v>
@@ -11013,7 +11473,7 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="9"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="10"/>
@@ -11021,7 +11481,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="11"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="12"/>
@@ -11035,14 +11495,14 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="13"/>
-        <v>41851</v>
+        <v>41858</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J13" s="174" t="s">
-        <v>233</v>
+      <c r="J13" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -11053,21 +11513,22 @@
       <c r="Q13" s="6" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-일식나스동[일본식가지덮밥]_x000D_(돼지:국내산)
-유부된장국
-타코야끼
-연두부토마토샐러드
-깐마늘마늘쫑무침
+[즉석]냄비닭칼국수
+(닭:국내산)
+쌀밥
+새우동그랑땡전
+모듬야채스틱*견과류쌈장
+통깨건파래볶음
 포기김치
-1001kcal
+1004kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/오렌지
-두유/부시맥브레드
-542kcal
+그린샐러드*참치키드빈
+단호박구이/메추리알
+야채스틱/바나나/토마토
+두유/비엔나주먹밥
+539kcal
 [플러스메뉴]
-그린샐러드*씨리얼*키위D</v>
+그린샐러드*씨리얼*오리엔탈D</v>
       </c>
       <c r="R13" s="4" t="b">
         <v>0</v>
@@ -11089,7 +11550,7 @@
       </c>
       <c r="B14" s="5">
         <f>B11+1</f>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="10"/>
@@ -11097,7 +11558,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="11"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="12"/>
@@ -11111,14 +11572,14 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="13"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="14"/>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J14" s="174" t="s">
-        <v>233</v>
+      <c r="J14" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -11129,19 +11590,19 @@
       <c r="Q14" s="6" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-북어채콩나물국
+맑은순두부국*절임고추양념장
 삼곡밥
-비엔나케찹볶음
+새송이계란조림
 포기김치
-746kcal
+762kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*곡물식빵/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 스크램블에그
-해쉬브라운
+햄구이
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -11165,7 +11626,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="9"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="10"/>
@@ -11173,7 +11634,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="11"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="12"/>
@@ -11187,14 +11648,14 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="13"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J15" s="174" t="s">
-        <v>233</v>
+      <c r="J15" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -11205,31 +11666,32 @@
       <c r="Q15" s="6" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-매실소스곁들인 제육불고기*양배추쌈_x000D_(돼지:국내산)
-잡곡밥
-김치콩나물국
-야채계란말이
-연근땅콩조림
+매콤돈갈비떡찜*단호박구이
+(돼지:국내산)
+차조밥
+무채어묵국(갈치:수입산)
+두부계란지짐*양념장
+참나물오이유자무침
 포기김치/석박지
-999kcal
+990kcal
 [일품]
-게살크림고로케오므라이스
-팽이버섯된장국
-미니샐러드파스타
-적채무비트피클
+[글루텐프리데이] 미트소스스파게티
+트로피카나/토마토카프레제샐러드
+쌀로만든초코링도너츠
+야채피클
 포기김치/석박지
-1008kcal
+988kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/브로컬리꽃맛살
+그린샐러드*흑임자두부
+통감자구이/메추리알
 야채스틱/바나나/토마토
-두유/부시맥브레드
-545kcal
+두유/장조림주먹밥(돼지:국내산)
+531kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 스위트콘,빈스
-애플D/오리엔탈D</v>
+사우전D/오리엔탈D</v>
       </c>
       <c r="R15" s="4" t="b">
         <v>0</v>
@@ -11251,7 +11713,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="9"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="10"/>
@@ -11259,7 +11721,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="11"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="12"/>
@@ -11273,14 +11735,14 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="13"/>
-        <v>41852</v>
+        <v>41859</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J16" s="174" t="s">
-        <v>233</v>
+      <c r="J16" s="87" t="s">
+        <v>45</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -11291,21 +11753,22 @@
       <c r="Q16" s="6" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-쇠고기버섯볶음*참나묻두부냉채_x000D_(소:호주산)
-현미밥
-감자양파국
-어묵야채볶음(갈치:수입산)
-무말랭이부추무침
+열무보리비빔밥*볶음고추장
+(소:호주산)
+얼갈이된장국
+수제고추튀김,오미산적
+매운감자조림
+검은깨명엽채볶음
 포기김치
-992kcal
+964kcal
 [건강도시락]
-그린샐러드*구운새송이버섯과마늘
-고구마찜/새싹연두부
-야채스틱/바나나/방울토마토
-두유/떡갈비주먹밥(돼지:국내산)
-538kcal
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/삶은계란
+야채스틱/바나나/오렌지
+두유/현미잡곡주먹밥
+524kcal
 [플러스메뉴]
-그린샐러드*견과류*키위D</v>
+그린샐러드*견과류*오리엔탈D</v>
       </c>
       <c r="R16" s="4" t="b">
         <v>0</v>
@@ -11324,7 +11787,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,16 @@
     <definedName name="제목">csv_export!$A$1:$V$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="192">
   <si>
     <t>구분</t>
   </si>
   <si>
     <t>한식</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
   <si>
     <t>[한식]</t>
@@ -221,836 +213,488 @@
       </rPr>
       <t>지점장 : 문민경 / 조리실장 : 박노훈 / 영양사 : 정민경</t>
     </r>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 5일 (화)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 6일 (수)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 7일 (목)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 8일 (금)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 12일 (화)</t>
+  </si>
+  <si>
+    <t>8월 13일 (수)</t>
+  </si>
+  <si>
+    <t>8월 14일 (목)</t>
+  </si>
+  <si>
+    <t>8월 15일 (금)</t>
   </si>
   <si>
     <t>아침
  07:30
 ~08:30</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇠고기두부탕국(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨감자수제비국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩비지찌개(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬맹이만두국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은순두부국*절임고추양념장</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>속풀이해장국(소:호주산)</t>
+  </si>
+  <si>
+    <t>건새우시금치국</t>
+  </si>
+  <si>
+    <t>경상도식쇠고기무국(소:호주산)</t>
+  </si>
+  <si>
+    <t>북어채감자국</t>
   </si>
   <si>
     <t>삼곡밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>양념깻잎무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>멸치풋고추볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>해물잡채완자전</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>무말랭이무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>새송이계란조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부계란지짐*양념장</t>
+  </si>
+  <si>
+    <t>볼어묵야채볶음(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>청경채나물</t>
+  </si>
+  <si>
+    <t>호박새우젓볶음</t>
   </si>
   <si>
     <t>포기김치</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>786kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>769kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>770kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>781kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>762kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>즉석</t>
-    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>즉석해장라면/삼곡밥/김치</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉석해장라면/삼곡밥/김치</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>일품</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>곡물식빵*미니크로와상/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*미니참깨롤빵/딸기잼*버터</t>
   </si>
   <si>
     <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡물식빵*미니크로와상/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>토스트식빵*곡물식빵/딸기잼*버터</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*키위D</t>
   </si>
   <si>
     <t>우유</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>스크램블에그</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>계란후라이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>후르트링</t>
   </si>
   <si>
     <t>양념감자튀김</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>초코첵스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>줄무늬감자튀김</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>햄구이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자볼튀김</t>
   </si>
   <si>
     <t>플러스메뉴</t>
-    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>누룽지/계란후라이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>누룽지/김구이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>점심
 11:30
 ~13:00</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판쭈삼불고기*콩나물찜
-(돼지:독일산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>철판숯불치즈닭갈비*고구마사리
-(닭:브라질산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육김치두루치기*두부찜
+  </si>
+  <si>
+    <t>흑마늘삼겹보쌈*두부찜*절임배추SET
+(돼지:미국산)</t>
+  </si>
+  <si>
+    <t>쇠고기만두버섯전골
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>뚝배기심슨탕*라면사리
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>봉추찜닭*모짜렐라치즈사리
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>수수밥</t>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+  </si>
+  <si>
+    <t>쌀밥/버터밥</t>
+  </si>
+  <si>
+    <t>기장밥</t>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+  </si>
+  <si>
+    <t>야채계란말이</t>
+  </si>
+  <si>
+    <t>고기완자전(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>얼갈이된장국</t>
+  </si>
+  <si>
+    <t>감자풋고추조림</t>
+  </si>
+  <si>
+    <t>참나물들깨겉절이</t>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+  </si>
+  <si>
+    <t>맛살야채볶음</t>
+  </si>
+  <si>
+    <t>치커리파인소스무침</t>
+  </si>
+  <si>
+    <t>쥐어채무침(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>연근땅콩조림</t>
+  </si>
+  <si>
+    <t>쑥갓두부무침</t>
+  </si>
+  <si>
+    <t>포기김치/석박지</t>
+  </si>
+  <si>
+    <t>순살등심돈까스*데미s
 (돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>육개장
-(소:호주산,국내산(육우))</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤돈갈비떡찜*단호박구이
+  </si>
+  <si>
+    <t>팟타이[베트남식볶음쌀국수]</t>
+  </si>
+  <si>
+    <t>치킨마요덮밥
+(닭:수입산,국내산)</t>
+  </si>
+  <si>
+    <t>옛날짜장면
 (돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>기장밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>수수밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>차조밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>시금치된장국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이미역냉국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박감자된장국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬숙회*초장</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>무채어묵국(갈치:수입산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>연두부참깨소스샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>비엔나브로커리볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵채파프리카볶음(갈치:수입산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>도토리묵김치무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두부계란지짐*양념장</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박맛살야채볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>치커리오이무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>비름나물무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>견과류콩조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>참나물오이유자무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치/석박지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>986kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1019kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>995kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>990kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>[팔도맛기행]경상남도 진주 육전냉면
-(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블치즈햄버거스테이크*양송이데미S
-(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>시원한 냉모밀녹차면</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>강황두부카레라이스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>[글루텐프리데이] 미트소스스파게티</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀밥/육수(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>검정깨밥/크림스프</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈김밥1/2/후리가케밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정깨밥/당근크림스프</t>
+  </si>
+  <si>
+    <t>미니카오팟꿍[새우볶음밥]/쌀국수육수</t>
   </si>
   <si>
     <t>팽이버섯된장국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>트로피카나/토마토카프레제샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼색감자만두찜</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>모닝빵샌드위치/막대감자튀김</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>생선까스*타르타르S</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿀고구마닭강정(닭:수입산,국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀로만든초코링도너츠</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채볶음밥/계란파국</t>
+  </si>
+  <si>
+    <t>카라멜생크림와플/줄무늬감자튀김</t>
+  </si>
+  <si>
+    <t>모듬춘권튀김</t>
+  </si>
+  <si>
+    <t>고구마퀘사디아*사워크림,구아카몰</t>
+  </si>
+  <si>
+    <t>칠리깐쇼새우</t>
+  </si>
+  <si>
+    <t>적채무비트피클</t>
+  </si>
+  <si>
+    <t>짜샤이무침</t>
   </si>
   <si>
     <t>오복채무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>무오이피클</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>단무지부추무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>오이양파간장절임</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채피클</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1022kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1011kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>988kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>단무지&amp;양파*춘장</t>
   </si>
   <si>
     <t>네이쳐데이</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽁보리밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>새콤한 가지냉국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운야채 곁들인 수수햄버그</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬버섯파프리카볶음/오이지무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>686kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부곤약비빔국수</t>
+  </si>
+  <si>
+    <t>호박두부스테이크*양송이데미S</t>
+  </si>
+  <si>
+    <t>연근흑임자샐러드/흑미찐빵</t>
   </si>
   <si>
     <t>건강도시락</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린샐러드*올리브계란</t>
   </si>
   <si>
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*참치키드빈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*견과류올린구운채소</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*흑임자두부</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>통감자구이/메추리알</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마찜/삶은계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박구이/메추리알</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>통감자구이/브로커리꽃맛살</t>
+  </si>
+  <si>
+    <t>단호박구이/삶은계란</t>
+  </si>
+  <si>
+    <t>고구마찜/메추리알</t>
+  </si>
+  <si>
+    <t>통감자구이/삶은계란</t>
+  </si>
+  <si>
+    <t>야채스틱/바나나/레드글로브</t>
+  </si>
+  <si>
+    <t>야채스틱/바나나/오렌지</t>
   </si>
   <si>
     <t>야채스틱/바나나/방울토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/오렌지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
   </si>
   <si>
     <t>두유/모닝빵</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>두유/흑미멸치땡초주먹밥</t>
   </si>
   <si>
     <t>두유/부시맥브레드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/참깨롤빵</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>539kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>540kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>535kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>529kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>531kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>견과류</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위트콘,빈스</t>
+  </si>
+  <si>
+    <t>크루통</t>
   </si>
   <si>
     <t>씨리얼</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>크루통</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>스위트콘,빈스</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>유자레몬D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>파인애플D/오리엔탈D</t>
   </si>
   <si>
     <t>흑임자D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>파인애플D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>망고요거트D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>사우전D/오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅콩버터D/오리엔탈D</t>
   </si>
   <si>
     <t>저녁
  17:30
 ~19:00</t>
-    <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>한식
 or
 일품</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동찜닭*넙적당면사리
-(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼큰순두부찌개*계란탁
+  </si>
+  <si>
+    <t>설렁탕*소면사리
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>아삭한 숙주올린 제육불고기
 (돼지:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>매콤오징어볶음*소면사리</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>[즉석]냄비닭칼국수
-(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>열무보리비빔밥*볶음고추장
-(소:호주산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>차조밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕새우튀김오므라이스</t>
+  </si>
+  <si>
+    <t>얼큰한육개장칼국수
+(소:호주산,국내산(육우))</t>
+  </si>
+  <si>
+    <t>쌀밥</t>
   </si>
   <si>
     <t>잡곡밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼갈이된장국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>조기구이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>맑은콩나물국</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우동그랑땡전</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제고추튀김,오미산적</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>햄계란전*케찹</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>청양풍잡채</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채계란말이</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>모듬야채스틱*견과류쌈장</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>매운감자조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>새콤오이사과초무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>맑은우동국물</t>
+  </si>
+  <si>
+    <t>섭산적구이(돼지:국내산)*부추무침</t>
+  </si>
+  <si>
+    <t>두부김치국</t>
+  </si>
+  <si>
+    <t>야채고로케*케찹</t>
+  </si>
+  <si>
+    <t>만두찜*초간장</t>
+  </si>
+  <si>
+    <t>오이도라지무침</t>
+  </si>
+  <si>
+    <t>비엔나브로커리볶음</t>
+  </si>
+  <si>
+    <t>미니샐러드파스타</t>
+  </si>
+  <si>
+    <t>어묵야채볶음(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>검은콩조림</t>
   </si>
   <si>
     <t>깐마늘마늘쫑무침</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>연근땅콩조림</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>통깨건파래볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은깨명엽채볶음</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>포기김치</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>973kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>980kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>969kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>964kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강도시락</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*올리브계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*흑임자두부</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*닭가슴살(닭:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린샐러드*참치키드빈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박구이/브로컬리꽃맛살</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>통감자구이/메추리알</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>고구마찜/삶은계란</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박구이/메추리알</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>생오이피클*할라페뇨</t>
+  </si>
+  <si>
+    <t>무말랭이깻잎무침</t>
+  </si>
+  <si>
+    <t>알타리김치</t>
+  </si>
+  <si>
+    <t>배추겉절이김치</t>
+  </si>
+  <si>
+    <t>그린샐러드*견과류올린구운야채</t>
+  </si>
+  <si>
+    <t>그린샐러드*올리브참치</t>
+  </si>
+  <si>
+    <t>그린샐러드*토마토카프레제</t>
+  </si>
+  <si>
+    <t>통감자구이/새싹연두부</t>
   </si>
   <si>
     <t>야채스틱/바나나/토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/방울토마토</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>야채스틱/바나나/오렌지</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/장조림주먹밥(소:국내산)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/모닝빵</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/부시맥브레드</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/비엔나주먹밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>두유/현미잡곡주먹밥</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>520kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>530kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>537kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>539kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>524kcal</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>플러스메뉴</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>야채스틱/바나나/새싹연두부</t>
+  </si>
+  <si>
+    <t>두유/참깨롤빵</t>
+  </si>
+  <si>
+    <t>두유/장조림주먹밥(소:호주산)</t>
   </si>
   <si>
     <t>그린샐러드*견과류*오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>그린샐러드*씨리얼*오리엔탈D</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>* 식품수급 상황에 따라 메뉴 및 원산지가 변경될 수 있으니 양해바랍니다.
 * 쌀 : 국내산, 배추김치(배추:국내산, 고춧가루:중국산)을 사용합니다. (식당사무실 : ☎ 070-7500-6851 )</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월 4일 (월)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 11일 (월)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광복절(光復節)은 1945년 8월 15일, 제2차 세계 대전에서 일본이 연합군에 패하여 항복하게 되어 한반도가 일제의 일제 강점기에서 해방된 날을 기념하는 날이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 광복은 문자 그대로는 “빛을 되찾음”을 의미하고 국권을 되찾았다는 뜻으로 쓰인다. 특히 대한민국에서는 1948년 8월 15일의 대한민국의 건국을 기념하는 날이기도 하다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울 필동에 위치한 한국의 집에서 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1945년 8월 15일, 아침에 여운형이 총독부로부터 치안권과 행정권을 이양받았다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>from 위키피디아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ko.wikipedia.org/wiki/광복절</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>광복절인 오늘은</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도 천안시 동남구 목천읍 삼방로 95(남화리 230)에 있는 독립기념관(獨立紀念館)을 방문해 보시는것은 어떠신가요?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1982년 일본의 역사교과서 왜곡에 대응하며, 국민모금을 통하여 1987년 개관했다. 2012년 기준 83명의 임직원이 근무하고 있다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ko.wikipedia.org/wiki/독립기념관_(대한민국)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국기게양하세요~</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="#\ &quot;Kcal&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="#\ &quot;Kcal&quot;"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,18 +990,6 @@
       <name val="MDAlong"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="48">
     <fill>
@@ -1630,7 +1262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="102">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -2334,15 +1966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color theme="0" tint="-0.249977111117893"/>
@@ -2351,17 +1974,6 @@
       <bottom style="thick">
         <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2441,17 +2053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="9"/>
       </left>
@@ -2464,43 +2065,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="5" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="0"/>
       </left>
       <right style="medium">
@@ -2509,65 +2073,6 @@
       <top/>
       <bottom style="medium">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2642,50 +2147,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="medium">
@@ -2694,28 +2155,6 @@
       <top/>
       <bottom style="medium">
         <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="9" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2755,34 +2194,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="9"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2795,19 +2210,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2833,8 +2235,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3012,8 +2451,14 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3068,7 +2513,7 @@
     <xf numFmtId="0" fontId="28" fillId="47" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3107,13 +2552,25 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="69" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="34" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3125,6 +2582,24 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="50" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="22" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="23" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="24" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="38" borderId="51" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3146,62 +2621,134 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="50" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="18" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="22" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="29" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="82" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="61" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="61" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="61" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="74" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="83" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="84" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="62" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="40" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="41" borderId="41" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="68" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="43" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3209,314 +2756,119 @@
     <xf numFmtId="0" fontId="28" fillId="41" borderId="37" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="70" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="67" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="70" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="71" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="72" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="73" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="73" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="73" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="36" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="37" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="38" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="32" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="75" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="71" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="76" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="46" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="55" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="42" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="72" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="77" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="78" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="79" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="74" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="45" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="76" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="80" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="81" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="60" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="50" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="23" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="24" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="50" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="18" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="29" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="85" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="78" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="79" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="33" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="73" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="87" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="90" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="91" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="95" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="63" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="78" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="99" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="69" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -3555,6 +2907,7 @@
     <cellStyle name="쉼표 [0] 6" xfId="48"/>
     <cellStyle name="쉼표 [0] 7" xfId="49"/>
     <cellStyle name="쉼표 [0] 8" xfId="50"/>
+    <cellStyle name="쉼표 [0] 9" xfId="59"/>
     <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="54" builtinId="9" hidden="1"/>
@@ -3576,6 +2929,7 @@
     <cellStyle name="하이퍼링크" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="60" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3588,1857 +2942,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18068925" y="19507200"/>
-          <a:ext cx="2828925" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>790575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 6"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14782800" y="19507200"/>
-          <a:ext cx="3314700" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="32004" rIns="54864" bIns="32004" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>New : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>신메뉴</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>추천메뉴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1477814</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>425450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1874689</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>695325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15755789" y="19913600"/>
-          <a:ext cx="396875" cy="269875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1231551</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>390644</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="18411826" y="14611350"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>831501</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>333494</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="10506076" y="7705725"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18049875" y="19230975"/>
-          <a:ext cx="2828925" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>790575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="직사각형 6"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14649450" y="19230975"/>
-          <a:ext cx="3429000" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="32004" rIns="54864" bIns="32004" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>New : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>신메뉴</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>추천메뉴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1477814</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>425450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1874689</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>695325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="모서리가 둥근 직사각형 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15622439" y="19637375"/>
-          <a:ext cx="396875" cy="269875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>983900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>352543</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="14335125" y="7772399"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1041049</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>428743</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="10582274" y="7848599"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>304799</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1193450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>371593</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="10734675" y="5238749"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18040350" y="18611850"/>
-          <a:ext cx="2828925" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>790575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="직사각형 6"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14639925" y="18611850"/>
-          <a:ext cx="3429000" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="32004" rIns="54864" bIns="32004" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>New : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>신메뉴</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>추천메뉴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1477814</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>425450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1874689</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>695325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15612914" y="19018250"/>
-          <a:ext cx="396875" cy="269875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3562350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>545750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>162044</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="10077450" y="8305800"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>831500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>333493</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="14173200" y="14217649"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3657600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>238243</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="17792700" y="5086349"/>
-          <a:ext cx="793400" cy="460494"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18049875" y="19230975"/>
-          <a:ext cx="2828925" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2876550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1119186</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="AutoShape 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="66673"/>
-          <a:ext cx="5591175" cy="1052513"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="DDDDDD"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="73152" rIns="91440" bIns="73152" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="6600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY견고딕"/>
-              <a:ea typeface="HY견고딕"/>
-            </a:rPr>
-            <a:t>주 간 메 뉴 표 </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>790575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="직사각형 6"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14649450" y="19230975"/>
-          <a:ext cx="3429000" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="54864" tIns="32004" rIns="54864" bIns="32004" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>New : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="993300"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>신메뉴</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>           </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:latin typeface="HY엽서M"/>
-              <a:ea typeface="HY엽서M"/>
-            </a:rPr>
-            <a:t>추천메뉴</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1477814</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>425450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1874689</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>695325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15622439" y="19637375"/>
-          <a:ext cx="396875" cy="269875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1041050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66794</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="18202275" y="8810625"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3638550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>621950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>238245</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextBox 26"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="6353175" y="7658101"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>755299</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>219195</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="TextBox 27"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="2686049" y="7639051"/>
-          <a:ext cx="783875" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1002949</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>295395</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="20848690">
-          <a:off x="2924174" y="5162551"/>
-          <a:ext cx="793400" cy="466844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="나눔고딕 ExtraBold" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5706,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5722,15 +3225,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" customHeight="1" thickBot="1">
-      <c r="A1" s="101"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -5748,24 +3251,24 @@
       <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22" ht="27" thickBot="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="37" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -5784,26 +3287,26 @@
       <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="D3" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="E3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="F3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>57</v>
+      <c r="G3" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -5822,22 +3325,22 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>58</v>
+      <c r="A4" s="104"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>182</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -5856,22 +3359,22 @@
       <c r="V4" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>63</v>
+      <c r="G5" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -5890,22 +3393,22 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>64</v>
+      <c r="A6" s="104"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>186</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -5924,23 +3427,13 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="108" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A7" s="104"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -5958,24 +3451,24 @@
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>72</v>
+      <c r="A8" s="104"/>
+      <c r="B8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -5994,25 +3487,23 @@
       <c r="V8" s="10"/>
     </row>
     <row r="9" spans="1:22" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>78</v>
-      </c>
+      <c r="A9" s="104"/>
+      <c r="B9" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="52"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -6030,23 +3521,21 @@
       <c r="V9" s="10"/>
     </row>
     <row r="10" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>79</v>
-      </c>
+      <c r="A10" s="104"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="38"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -6064,23 +3553,21 @@
       <c r="V10" s="10"/>
     </row>
     <row r="11" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A11" s="96"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>80</v>
-      </c>
+      <c r="A11" s="104"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="53"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -6098,23 +3585,21 @@
       <c r="V11" s="10"/>
     </row>
     <row r="12" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>81</v>
-      </c>
+      <c r="A12" s="104"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="39"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -6132,23 +3617,21 @@
       <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>87</v>
-      </c>
+      <c r="A13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="58"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -6166,25 +3649,23 @@
       <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" ht="27" thickBot="1">
-      <c r="A14" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>90</v>
-      </c>
+      <c r="A14" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="59"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -6202,26 +3683,26 @@
       <c r="V14" s="10"/>
     </row>
     <row r="15" spans="1:22" ht="54" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="120" t="s">
+      <c r="A15" s="113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>96</v>
+      <c r="C15" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -6240,22 +3721,22 @@
       <c r="V15" s="10"/>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1" thickBot="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="122" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="123" t="s">
-        <v>101</v>
+      <c r="A16" s="104"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -6274,22 +3755,22 @@
       <c r="V16" s="10"/>
     </row>
     <row r="17" spans="1:60" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="124" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="123" t="s">
-        <v>106</v>
+      <c r="A17" s="104"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -6346,22 +3827,22 @@
       <c r="BH17" s="10"/>
     </row>
     <row r="18" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="124" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="126" t="s">
-        <v>111</v>
+      <c r="A18" s="104"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -6418,22 +3899,22 @@
       <c r="BH18" s="10"/>
     </row>
     <row r="19" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="77" t="s">
-        <v>116</v>
+      <c r="A19" s="104"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="135" t="s">
+        <v>190</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
@@ -6490,23 +3971,21 @@
       <c r="BH19" s="9"/>
     </row>
     <row r="20" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="77" t="s">
-        <v>117</v>
-      </c>
+      <c r="A20" s="104"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="67"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -6562,23 +4041,13 @@
       <c r="BH20" s="9"/>
     </row>
     <row r="21" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="132" t="s">
-        <v>122</v>
-      </c>
+      <c r="A21" s="104"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -6633,26 +4102,24 @@
       <c r="BG21" s="9"/>
       <c r="BH21" s="9"/>
     </row>
-    <row r="22" spans="1:60" ht="79.5" thickBot="1">
-      <c r="A22" s="96"/>
-      <c r="B22" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="135" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="136" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>127</v>
-      </c>
+    <row r="22" spans="1:60" ht="53.25" thickBot="1">
+      <c r="A22" s="104"/>
+      <c r="B22" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="74"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -6708,23 +4175,21 @@
       <c r="BH22" s="10"/>
     </row>
     <row r="23" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="96"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="138" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="76" t="s">
-        <v>132</v>
-      </c>
+      <c r="A23" s="104"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="76"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -6780,23 +4245,21 @@
       <c r="BH23" s="10"/>
     </row>
     <row r="24" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="139" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="140" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="76" t="s">
-        <v>137</v>
-      </c>
+      <c r="A24" s="104"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="76"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -6852,23 +4315,21 @@
       <c r="BH24" s="10"/>
     </row>
     <row r="25" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="140" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>142</v>
-      </c>
+      <c r="A25" s="104"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="76"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -6924,23 +4385,21 @@
       <c r="BH25" s="10"/>
     </row>
     <row r="26" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A26" s="96"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="141" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="142" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>117</v>
-      </c>
+      <c r="A26" s="104"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="67"/>
       <c r="H26" s="10"/>
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
@@ -6996,23 +4455,13 @@
       <c r="BH26" s="10"/>
     </row>
     <row r="27" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A27" s="96"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="146" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="147" t="s">
-        <v>147</v>
-      </c>
+      <c r="A27" s="104"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
@@ -7068,17 +4517,17 @@
       <c r="BH27" s="10"/>
     </row>
     <row r="28" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A28" s="96"/>
-      <c r="B28" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="137"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="85"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="13"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -7134,15 +4583,15 @@
       <c r="BH28" s="10"/>
     </row>
     <row r="29" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="36"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -7198,15 +4647,15 @@
       <c r="BH29" s="10"/>
     </row>
     <row r="30" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A30" s="96"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="79"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="66"/>
+      <c r="G30" s="78"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -7262,15 +4711,15 @@
       <c r="BH30" s="10"/>
     </row>
     <row r="31" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A31" s="96"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="13"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -7326,15 +4775,15 @@
       <c r="BH31" s="10"/>
     </row>
     <row r="32" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A32" s="96"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="73"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="13"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -7390,15 +4839,13 @@
       <c r="BH32" s="10"/>
     </row>
     <row r="33" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="52"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="86"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -7454,25 +4901,23 @@
       <c r="BH33" s="10"/>
     </row>
     <row r="34" spans="1:60" ht="27" customHeight="1" thickTop="1">
-      <c r="A34" s="96"/>
-      <c r="B34" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>158</v>
-      </c>
+      <c r="A34" s="104"/>
+      <c r="B34" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="87"/>
       <c r="H34" s="17"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -7528,23 +4973,21 @@
       <c r="BH34" s="10"/>
     </row>
     <row r="35" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A35" s="96"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>159</v>
-      </c>
+      <c r="A35" s="104"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="52"/>
       <c r="H35" s="17"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -7600,23 +5043,21 @@
       <c r="BH35" s="10"/>
     </row>
     <row r="36" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>164</v>
-      </c>
+      <c r="A36" s="104"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="39"/>
       <c r="H36" s="17"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -7672,23 +5113,21 @@
       <c r="BH36" s="10"/>
     </row>
     <row r="37" spans="1:60" ht="26.25" customHeight="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>169</v>
-      </c>
+      <c r="A37" s="104"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="75"/>
       <c r="H37" s="17"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -7744,23 +5183,13 @@
       <c r="BH37" s="10"/>
     </row>
     <row r="38" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G38" s="57" t="s">
-        <v>174</v>
-      </c>
+      <c r="A38" s="105"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="17"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -7816,25 +5245,23 @@
       <c r="BH38" s="10"/>
     </row>
     <row r="39" spans="1:60" ht="21.95" customHeight="1" thickTop="1">
-      <c r="A39" s="148" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>175</v>
-      </c>
+      <c r="A39" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="120"/>
+      <c r="C39" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="93"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -7890,23 +5317,21 @@
       <c r="BH39" s="10"/>
     </row>
     <row r="40" spans="1:60" ht="21" customHeight="1">
-      <c r="A40" s="150"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>176</v>
-      </c>
+      <c r="A40" s="121"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="94" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="95"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -7962,23 +5387,21 @@
       <c r="BH40" s="10"/>
     </row>
     <row r="41" spans="1:60" ht="21" customHeight="1">
-      <c r="A41" s="150"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>180</v>
-      </c>
+      <c r="A41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="94"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -8034,23 +5457,21 @@
       <c r="BH41" s="10"/>
     </row>
     <row r="42" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A42" s="152"/>
-      <c r="B42" s="151"/>
-      <c r="C42" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="F42" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>185</v>
-      </c>
+      <c r="A42" s="123"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="94"/>
       <c r="H42" s="14"/>
       <c r="I42" s="10"/>
       <c r="J42" s="14"/>
@@ -8106,26 +5527,26 @@
       <c r="BH42" s="10"/>
     </row>
     <row r="43" spans="1:60" ht="54" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A43" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="153" t="s">
-        <v>187</v>
+      <c r="A43" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="128" t="s">
+        <v>147</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" s="154" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>192</v>
+        <v>149</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="10"/>
@@ -8182,22 +5603,22 @@
       <c r="BH43" s="10"/>
     </row>
     <row r="44" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A44" s="155"/>
-      <c r="B44" s="156"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="129"/>
       <c r="C44" s="62" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="F44" s="157" t="s">
-        <v>196</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>197</v>
+        <v>153</v>
+      </c>
+      <c r="E44" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="10"/>
@@ -8254,22 +5675,22 @@
       <c r="BH44" s="10"/>
     </row>
     <row r="45" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A45" s="155"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="F45" s="158" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="70" t="s">
-        <v>202</v>
+      <c r="A45" s="125"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="10"/>
@@ -8326,22 +5747,22 @@
       <c r="BH45" s="10"/>
     </row>
     <row r="46" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A46" s="155"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="157" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" s="70" t="s">
-        <v>207</v>
+      <c r="A46" s="125"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="135" t="s">
+        <v>186</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="10"/>
@@ -8398,23 +5819,21 @@
       <c r="BH46" s="10"/>
     </row>
     <row r="47" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A47" s="155"/>
-      <c r="B47" s="156"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="129"/>
       <c r="C47" s="62" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" s="157" t="s">
-        <v>211</v>
-      </c>
-      <c r="G47" s="70" t="s">
-        <v>212</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="65"/>
       <c r="H47" s="20"/>
       <c r="I47" s="9"/>
       <c r="J47" s="14"/>
@@ -8470,23 +5889,21 @@
       <c r="BH47" s="10"/>
     </row>
     <row r="48" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="156"/>
+      <c r="A48" s="126"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="E48" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="158" t="s">
-        <v>213</v>
-      </c>
-      <c r="G48" s="70" t="s">
-        <v>213</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="65"/>
       <c r="H48" s="22"/>
       <c r="I48" s="9"/>
       <c r="J48" s="14"/>
@@ -8542,29 +5959,17 @@
       <c r="BH48" s="10"/>
     </row>
     <row r="49" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="160" t="s">
-        <v>214</v>
-      </c>
-      <c r="D49" s="160" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" s="161" t="s">
-        <v>216</v>
-      </c>
-      <c r="F49" s="162" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="163" t="s">
-        <v>218</v>
-      </c>
+      <c r="A49" s="126"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -8616,25 +6021,23 @@
       <c r="BH49" s="10"/>
     </row>
     <row r="50" spans="1:60" ht="23.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A50" s="95"/>
-      <c r="B50" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="G50" s="63" t="s">
-        <v>222</v>
-      </c>
+      <c r="A50" s="113"/>
+      <c r="B50" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="97" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="97"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -8690,23 +6093,21 @@
       <c r="BH50" s="10"/>
     </row>
     <row r="51" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A51" s="95"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>226</v>
-      </c>
+      <c r="A51" s="113"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="40"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -8762,23 +6163,21 @@
       <c r="BH51" s="10"/>
     </row>
     <row r="52" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G52" s="36" t="s">
-        <v>230</v>
-      </c>
+      <c r="A52" s="113"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="40"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -8834,23 +6233,21 @@
       <c r="BH52" s="10"/>
     </row>
     <row r="53" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>235</v>
-      </c>
+      <c r="A53" s="113"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="40"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -8906,23 +6303,13 @@
       <c r="BH53" s="10"/>
     </row>
     <row r="54" spans="1:60" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A54" s="164"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" s="56" t="s">
-        <v>240</v>
-      </c>
+      <c r="A54" s="127"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -8978,25 +6365,23 @@
       <c r="BH54" s="10"/>
     </row>
     <row r="55" spans="1:60" ht="27" thickBot="1">
-      <c r="A55" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="166"/>
-      <c r="C55" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="F55" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="G55" s="65" t="s">
-        <v>242</v>
-      </c>
+      <c r="A55" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="134"/>
+      <c r="C55" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="99"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -9052,15 +6437,15 @@
       <c r="BH55" s="10"/>
     </row>
     <row r="56" spans="1:60" ht="27" customHeight="1" thickBot="1">
-      <c r="A56" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="92"/>
+      <c r="A56" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="110"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -9823,34 +7208,33 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A39:B42"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="B43:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:A38"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A39:B42"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G46" r:id="rId2"/>
+    <hyperlink ref="G19" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9859,7 +7243,7 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -9872,73 +7256,73 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="99">
+    <row r="3" spans="1:7" ht="192.75" customHeight="1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
-        <v>[한식]
-쇠고기두부탕국(소:호주산)
+        <v xml:space="preserve">[한식]
+속풀이해장국(소:호주산)
 삼곡밥
-양념깻잎무침
+두부계란지짐*양념장
 포기김치
-786kcal</v>
+</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
-        <v>[한식]
-들깨감자수제비국
+        <v xml:space="preserve">[한식]
+건새우시금치국
 삼곡밥
-멸치풋고추볶음
+볼어묵야채볶음(갈치:수입산)
 포기김치
-769kcal</v>
+</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
-        <v>[한식]
-콩비지찌개(돼지:국내산)
+        <v xml:space="preserve">[한식]
+경상도식쇠고기무국(소:호주산)
 삼곡밥
-해물잡채완자전
+청경채나물
 포기김치
-770kcal</v>
+</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
-        <v>[한식]
-꼬맹이만두국
+        <v xml:space="preserve">[한식]
+북어채감자국
 삼곡밥
-무말랭이무침
+호박새우젓볶음
 포기김치
-781kcal</v>
+</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
-        <v>[한식]
-맑은순두부국*절임고추양념장
-삼곡밥
-새송이계란조림
-포기김치
-762kcal</v>
+        <v xml:space="preserve">[한식]
+광복절(光復節)은 1945년 8월 15일, 제2차 세계 대전에서 일본이 연합군에 패하여 항복하게 되어 한반도가 일제의 일제 강점기에서 해방된 날을 기념하는 날이다.
+ 광복은 문자 그대로는 “빛을 되찾음”을 의미하고 국권을 되찾았다는 뜻으로 쓰인다. 특히 대한민국에서는 1948년 8월 15일의 대한민국의 건국을 기념하는 날이기도 하다.
+from 위키피디아
+http://ko.wikipedia.org/wiki/광복절
+</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!C8</f>
@@ -9963,68 +7347,64 @@
       <c r="G4" s="2" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!G8</f>
         <v>[즉석]
-즉석해장라면/삼곡밥/김치</v>
+국기게양하세요~</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="115.5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-양념감자튀김</v>
+후르트링</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*미니크로와상/딸기잼*버터
+그린샐러드*키위D
 우유
 계란후라이
-초코첵스</v>
+양념감자튀김</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
-곡물식빵*미니크로와상/딸기잼*버터
-그린샐러드*오리엔탈D
+토스트식빵*미니참깨롤빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-줄무늬감자튀김</v>
+햄구이</v>
       </c>
       <c r="F5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
 토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*오리엔탈D
+그린샐러드*키위D
 우유
 계란후라이
-고구마샐러드</v>
+감자볼튀김</v>
       </c>
       <c r="G5" s="2" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
-        <v>[일품]
-토스트식빵*곡물식빵/딸기잼*버터
-그린샐러드*오리엔탈D
-우유
-스크램블에그
-햄구이</v>
+        <v xml:space="preserve">[일품]
+</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!C14</f>
@@ -10048,144 +7428,138 @@
       </c>
       <c r="G6" s="2" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!G14</f>
-        <v>[플러스메뉴]
-누룽지/김구이</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="148.5">
+        <v xml:space="preserve">[플러스메뉴]
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="214.5" customHeight="1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
-        <v>[한식]
-철판쭈삼불고기*콩나물찜
-(돼지:독일산)
-기장밥
-시금치된장국
-연두부참깨소스샐러드
-호박맛살야채볶음
+        <v xml:space="preserve">[한식]
+흑마늘삼겹보쌈*두부찜*절임배추SET
+(돼지:미국산)
+수수밥
+들깨미역국
+감자풋고추조림
+치커리파인소스무침
 포기김치/석박지
-986kcal</v>
+</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
-        <v>[한식]
-철판숯불치즈닭갈비*고구마사리
-(닭:브라질산)
+        <v xml:space="preserve">[한식]
+쇠고기만두버섯전골
+(소:호주산)
 흑향미밥
-오이미역냉국
-비엔나브로커리볶음
-치커리오이무침
+야채계란말이
+참나물들깨겉절이
+쥐어채무침(갈치:수입산)
 포기김치/석박지
-1019kcal</v>
+</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
-        <v>[한식]
-제육김치두루치기*두부찜
-(돼지:국내산)
-잡곡밥
-호박감자된장국
-어묵채파프리카볶음(갈치:수입산)
-비름나물무침
+        <v xml:space="preserve">[한식]
+뚝배기심슨탕*라면사리
+(소:호주산)
+쌀밥/버터밥
+고기완자전(돼지:국내산)
+콩나물무침
+연근땅콩조림
 포기김치/석박지
-1005kcal</v>
+</v>
       </c>
       <c r="F7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
-        <v>[한식]
-육개장
-(소:호주산,국내산(육우))
-수수밥
-모듬숙회*초장
-도토리묵김치무침
-견과류콩조림
+        <v xml:space="preserve">[한식]
+봉추찜닭*모짜렐라치즈사리
+(닭:국내산)
+기장밥
+얼갈이된장국
+맛살야채볶음
+쑥갓두부무침
 포기김치/석박지
-995kcal</v>
+</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
-        <v>[한식]
-매콤돈갈비떡찜*단호박구이
-(돼지:국내산)
-차조밥
-무채어묵국(갈치:수입산)
-두부계란지짐*양념장
-참나물오이유자무침
-포기김치/석박지
-990kcal</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="115.5">
+        <v xml:space="preserve">[한식]
+광복절인 오늘은
+충청남도 천안시 동남구 목천읍 삼방로 95(남화리 230)에 있는 독립기념관(獨立紀念館)을 방문해 보시는것은 어떠신가요?
+1982년 일본의 역사교과서 왜곡에 대응하며, 국민모금을 통하여 1987년 개관했다. 2012년 기준 83명의 임직원이 근무하고 있다.
+from 위키피디아
+http://ko.wikipedia.org/wiki/독립기념관_(대한민국)
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="132">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
-        <v>[일품]
-[팔도맛기행]경상남도 진주 육전냉면
-(소:호주산)
-쌀밥/육수(소:호주산)
-삼색감자만두찜
+        <v xml:space="preserve">[일품]
+순살등심돈까스*데미s
+(돼지:국내산)
+검정깨밥/당근크림스프
+카라멜생크림와플/줄무늬감자튀김
+적채무비트피클
+포기김치/석박지
+</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
+        <v xml:space="preserve">[일품]
+팟타이[베트남식볶음쌀국수]
+미니카오팟꿍[새우볶음밥]/쌀국수육수
+모듬춘권튀김
+짜샤이무침
+포기김치/석박지
+</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
+        <v xml:space="preserve">[일품]
+치킨마요덮밥
+(닭:수입산,국내산)
+팽이버섯된장국
+고구마퀘사디아*사워크림,구아카몰
 오복채무침
 포기김치/석박지
-1000kcal</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
-        <v>[일품]
-더블치즈햄버거스테이크*양송이데미S
-(돼지:국내산)
-검정깨밥/크림스프
-모닝빵샌드위치/막대감자튀김
-무오이피클
-포기김치/석박지
-1022kcal</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
-        <v>[일품]
-시원한 냉모밀녹차면
-치즈김밥1/2/후리가케밥
-생선까스*타르타르S
-단무지부추무침
-포기김치/석박지
-1011kcal</v>
+</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
-        <v>[일품]
-강황두부카레라이스
-팽이버섯된장국
-꿀고구마닭강정(닭:수입산,국내산)
-오이양파간장절임
+        <v xml:space="preserve">[일품]
+옛날짜장면
+(돼지:국내산)
+야채볶음밥/계란파국
+칠리깐쇼새우
+단무지&amp;양파*춘장
 포기김치/석박지
-1004kcal</v>
+</v>
       </c>
       <c r="G8" s="2" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
-        <v>[일품]
-[글루텐프리데이] 미트소스스파게티
-트로피카나/토마토카프레제샐러드
-쌀로만든초코링도너츠
-야채피클
-포기김치/석박지
-988kcal</v>
+        <v xml:space="preserve">[일품]
+</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="115.5">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>IF(input!C28="","",$B9&amp;CHAR(10)&amp;input!C28&amp;CHAR(10)&amp;input!C29&amp;CHAR(10)&amp;input!C30&amp;CHAR(10)&amp;input!C31&amp;CHAR(10)&amp;input!C32&amp;CHAR(10)&amp;input!C33)</f>
@@ -10197,13 +7571,13 @@
       </c>
       <c r="E9" s="2" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
-        <v>[네이쳐데이]
-꽁보리밥
-새콤한 가지냉국
-구운야채 곁들인 수수햄버그
-모듬버섯파프리카볶음/오이지무침
+        <v xml:space="preserve">[네이쳐데이]
+두부곤약비빔국수
+팽이버섯된장국
+호박두부스테이크*양송이데미S
+연근흑임자샐러드/흑미찐빵
 포기김치/석박지
-686kcal</v>
+</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -10216,63 +7590,59 @@
     </row>
     <row r="10" spans="1:7" ht="99">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
-        <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-539kcal</v>
+        <v xml:space="preserve">[건강도시락]
+그린샐러드*올리브계란
+통감자구이/브로커리꽃맛살
+야채스틱/바나나/레드글로브
+두유/떡갈비주먹밥(돼지:국내산)
+</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
-        <v>[건강도시락]
-그린샐러드*참치키드빈
-고구마찜/삶은계란
+        <v xml:space="preserve">[건강도시락]
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/삶은계란
 야채스틱/바나나/오렌지
-두유/부시맥브레드
-540kcal</v>
+두유/모닝빵
+</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
-        <v>[건강도시락]
-그린샐러드*견과류올린구운채소
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/떡갈비주먹밥(돼지:국내산)
-535kcal</v>
+        <v xml:space="preserve">[건강도시락]
+그린샐러드*흑임자두부
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/흑미멸치땡초주먹밥
+</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
-        <v>[건강도시락]
+        <v xml:space="preserve">[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/참깨롤빵
-529kcal</v>
+두유/부시맥브레드
+</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
-        <v>[건강도시락]
-그린샐러드*흑임자두부
-통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/장조림주먹밥(돼지:국내산)
-531kcal</v>
+        <v xml:space="preserve">[건강도시락]
+</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!C39&amp;CHAR(10)&amp;input!C40&amp;CHAR(10)&amp;input!C41&amp;CHAR(10)&amp;input!C42</f>
@@ -10280,15 +7650,15 @@
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 견과류
-오렌지D/오리엔탈D</v>
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-흑임자D/오리엔탈D</v>
+스위트콘,빈스
+파인애플D/오리엔탈D</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
@@ -10296,151 +7666,141 @@
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 크루통
-파인애플D/오리엔탈D</v>
+흑임자D/오리엔탈D</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-망고요거트D/오리엔탈D</v>
+씨리얼
+땅콩버터D/오리엔탈D</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
-        <v>[플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+        <v xml:space="preserve">[플러스메뉴]
+</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="148.5">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
-        <v>[한식or일품]
-안동찜닭*넙적당면사리
-(닭:국내산)
-차조밥
-들깨미역국
-햄계란전*케찹
-새콤오이사과초무침
-포기김치
-973kcal</v>
+        <v xml:space="preserve">[한식or일품]
+설렁탕*소면사리
+(소:호주산)
+쌀밥
+섭산적구이(돼지:국내산)*부추무침
+오이도라지무침
+검은콩조림
+알타리김치
+</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
-        <v>[한식or일품]
-얼큰순두부찌개*계란탁
+        <v xml:space="preserve">[한식or일품]
+아삭한 숙주올린 제육불고기
 (돼지:국내산)
 잡곡밥
-조기구이
-청양풍잡채
+두부김치국
+비엔나브로커리볶음
 깐마늘마늘쫑무침
 포기김치
-980kcal</v>
+</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
-        <v>[한식or일품]
-매콤오징어볶음*소면사리
-흑향미밥
-맑은콩나물국
-야채계란말이
-연근땅콩조림
+        <v xml:space="preserve">[한식or일품]
+왕새우튀김오므라이스
+맑은우동국물
+야채고로케*케찹
+미니샐러드파스타
+생오이피클*할라페뇨
 포기김치
-969kcal</v>
+</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
-        <v>[한식or일품]
-[즉석]냄비닭칼국수
-(닭:국내산)
+        <v xml:space="preserve">[한식or일품]
+얼큰한육개장칼국수
+(소:호주산,국내산(육우))
 쌀밥
-새우동그랑땡전
-모듬야채스틱*견과류쌈장
-통깨건파래볶음
-포기김치
-1004kcal</v>
+만두찜*초간장
+어묵야채볶음(갈치:수입산)
+무말랭이깻잎무침
+배추겉절이김치
+</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
-        <v>[한식or일품]
-열무보리비빔밥*볶음고추장
-(소:호주산)
-얼갈이된장국
-수제고추튀김,오미산적
-매운감자조림
-검은깨명엽채볶음
-포기김치
-964kcal</v>
+        <v xml:space="preserve">[한식or일품]
+서울 필동에 위치한 한국의 집에서 
+1945년 8월 15일, 아침에 여운형이 총독부로부터 치안권과 행정권을 이양받았다.
+from 위키피디아
+http://ko.wikipedia.org/wiki/광복절
+</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
-        <v>[건강도시락]
-그린샐러드*올리브계란
-단호박구이/브로컬리꽃맛살
-야채스틱/바나나/토마토
-두유/장조림주먹밥(소:국내산)
-520kcal</v>
+        <v xml:space="preserve">[건강도시락]
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
+야채스틱/바나나/오렌지
+두유/참깨롤빵
+</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
-        <v>[건강도시락]
-그린샐러드*흑임자두부
-통감자구이/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-530kcal</v>
+        <v xml:space="preserve">[건강도시락]
+그린샐러드*견과류올린구운야채
+통감자구이/새싹연두부
+야채스틱/바나나/레드글로브
+두유/장조림주먹밥(소:호주산)
+</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
-        <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
-야채스틱/바나나/오렌지
-두유/부시맥브레드
-537kcal</v>
+        <v xml:space="preserve">[건강도시락]
+그린샐러드*올리브참치
+단호박구이/삶은계란
+야채스틱/바나나/토마토
+두유/모닝빵
+</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
-        <v>[건강도시락]
-그린샐러드*참치키드빈
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/비엔나주먹밥
-539kcal</v>
+        <v xml:space="preserve">[건강도시락]
+그린샐러드*토마토카프레제
+고구마찜/메추리알
+야채스틱/바나나/새싹연두부
+두유/떡갈비주먹밥(돼지:국내산)
+</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
-        <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
-야채스틱/바나나/오렌지
-두유/현미잡곡주먹밥
-524kcal</v>
+        <v xml:space="preserve">[건강도시락]
+</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!C55</f>
@@ -10464,8 +7824,8 @@
       </c>
       <c r="G14" s="2" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!G55</f>
-        <v>[플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+        <v xml:space="preserve">[플러스메뉴]
+</v>
       </c>
     </row>
   </sheetData>
@@ -10484,8 +7844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
@@ -10510,79 +7870,79 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <f>converter_phase1!C2</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="C2" s="7">
         <f>IF(A2="점심메뉴", TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10590,7 +7950,7 @@
       </c>
       <c r="D2" s="5">
         <f>B2</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="E2" s="7">
         <f>C2+TIME(1,30,0)</f>
@@ -10604,14 +7964,14 @@
       </c>
       <c r="H2" s="5">
         <f>B2</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="I2" s="8">
         <f>C2-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J2" s="87" t="s">
-        <v>45</v>
+      <c r="J2" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -10622,19 +7982,18 @@
       <c r="Q2" s="6" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-쇠고기두부탕국(소:호주산)
+속풀이해장국(소:호주산)
 삼곡밥
-양념깻잎무침
+두부계란지짐*양념장
 포기김치
-786kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-양념감자튀김
+후르트링
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -10645,20 +8004,20 @@
         <v>2</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5">
         <f>B2</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴", TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10666,7 +8025,7 @@
       </c>
       <c r="D3" s="5">
         <f>B3</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="E3" s="7">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -10680,14 +8039,14 @@
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
-      <c r="J3" s="87" t="s">
-        <v>45</v>
+      <c r="J3" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -10698,33 +8057,30 @@
       <c r="Q3" s="6" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-철판쭈삼불고기*콩나물찜
-(돼지:독일산)
-기장밥
-시금치된장국
-연두부참깨소스샐러드
-호박맛살야채볶음
+흑마늘삼겹보쌈*두부찜*절임배추SET
+(돼지:미국산)
+수수밥
+들깨미역국
+감자풋고추조림
+치커리파인소스무침
 포기김치/석박지
-986kcal
 [일품]
-[팔도맛기행]경상남도 진주 육전냉면
-(소:호주산)
-쌀밥/육수(소:호주산)
-삼색감자만두찜
-오복채무침
+순살등심돈까스*데미s
+(돼지:국내산)
+검정깨밥/당근크림스프
+카라멜생크림와플/줄무늬감자튀김
+적채무비트피클
 포기김치/석박지
-1000kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-539kcal
+그린샐러드*올리브계란
+통감자구이/브로커리꽃맛살
+야채스틱/바나나/레드글로브
+두유/떡갈비주먹밥(돼지:국내산)
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 견과류
-오렌지D/오리엔탈D</v>
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="R3" s="4" t="b">
         <v>0</v>
@@ -10733,20 +8089,20 @@
         <v>2</v>
       </c>
       <c r="T3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5">
         <f>B2</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="0"/>
@@ -10754,7 +8110,7 @@
       </c>
       <c r="D4" s="5">
         <f>B4</f>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="1"/>
@@ -10768,14 +8124,14 @@
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>41855</v>
+        <v>41862</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="3"/>
         <v>0.71875</v>
       </c>
-      <c r="J4" s="87" t="s">
-        <v>45</v>
+      <c r="J4" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -10786,20 +8142,18 @@
       <c r="Q4" s="6" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-안동찜닭*넙적당면사리
-(닭:국내산)
-차조밥
-들깨미역국
-햄계란전*케찹
-새콤오이사과초무침
-포기김치
-973kcal
+설렁탕*소면사리
+(소:호주산)
+쌀밥
+섭산적구이(돼지:국내산)*부추무침
+오이도라지무침
+검은콩조림
+알타리김치
 [건강도시락]
-그린샐러드*올리브계란
-단호박구이/브로컬리꽃맛살
-야채스틱/바나나/토마토
-두유/장조림주먹밥(소:국내산)
-520kcal
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
+야채스틱/바나나/오렌지
+두유/참깨롤빵
 [플러스메뉴]
 그린샐러드*견과류*오리엔탈D</v>
       </c>
@@ -10810,20 +8164,20 @@
         <v>2</v>
       </c>
       <c r="T4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <f>B2+1</f>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴", TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -10831,7 +8185,7 @@
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -10845,14 +8199,14 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J5" s="87" t="s">
-        <v>45</v>
+      <c r="J5" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -10863,19 +8217,18 @@
       <c r="Q5" s="6" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-들깨감자수제비국
+건새우시금치국
 삼곡밥
-멸치풋고추볶음
+볼어묵야채볶음(갈치:수입산)
 포기김치
-769kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*미니크로와상/딸기잼*버터
+그린샐러드*키위D
 우유
 계란후라이
-초코첵스
+양념감자튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -10886,20 +8239,20 @@
         <v>2</v>
       </c>
       <c r="T5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="4"/>
@@ -10907,7 +8260,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" si="5"/>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="6"/>
@@ -10921,14 +8274,14 @@
       </c>
       <c r="H6" s="5">
         <f t="shared" si="7"/>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="8"/>
         <v>0.46875</v>
       </c>
-      <c r="J6" s="87" t="s">
-        <v>45</v>
+      <c r="J6" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -10939,33 +8292,29 @@
       <c r="Q6" s="6" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-철판숯불치즈닭갈비*고구마사리
-(닭:브라질산)
+쇠고기만두버섯전골
+(소:호주산)
 흑향미밥
-오이미역냉국
-비엔나브로커리볶음
-치커리오이무침
+야채계란말이
+참나물들깨겉절이
+쥐어채무침(갈치:수입산)
 포기김치/석박지
-1019kcal
 [일품]
-더블치즈햄버거스테이크*양송이데미S
-(돼지:국내산)
-검정깨밥/크림스프
-모닝빵샌드위치/막대감자튀김
-무오이피클
+팟타이[베트남식볶음쌀국수]
+미니카오팟꿍[새우볶음밥]/쌀국수육수
+모듬춘권튀김
+짜샤이무침
 포기김치/석박지
-1022kcal
 [건강도시락]
-그린샐러드*참치키드빈
-고구마찜/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/삶은계란
 야채스틱/바나나/오렌지
-두유/부시맥브레드
-540kcal
+두유/모닝빵
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-흑임자D/오리엔탈D</v>
+스위트콘,빈스
+파인애플D/오리엔탈D</v>
       </c>
       <c r="R6" s="4" t="b">
         <v>0</v>
@@ -10974,20 +8323,20 @@
         <v>2</v>
       </c>
       <c r="T6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="9"/>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="4"/>
@@ -10995,7 +8344,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" si="5"/>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="6"/>
@@ -11009,14 +8358,14 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="7"/>
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="8"/>
         <v>0.71875</v>
       </c>
-      <c r="J7" s="87" t="s">
-        <v>45</v>
+      <c r="J7" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -11027,20 +8376,18 @@
       <c r="Q7" s="6" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-얼큰순두부찌개*계란탁
+아삭한 숙주올린 제육불고기
 (돼지:국내산)
 잡곡밥
-조기구이
-청양풍잡채
+두부김치국
+비엔나브로커리볶음
 깐마늘마늘쫑무침
 포기김치
-980kcal
 [건강도시락]
-그린샐러드*흑임자두부
-통감자구이/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-530kcal
+그린샐러드*견과류올린구운야채
+통감자구이/새싹연두부
+야채스틱/바나나/레드글로브
+두유/장조림주먹밥(소:호주산)
 [플러스메뉴]
 그린샐러드*씨리얼*오리엔탈D</v>
       </c>
@@ -11051,20 +8398,20 @@
         <v>2</v>
       </c>
       <c r="T7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <f>B5+1</f>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴", TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -11072,7 +8419,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -11086,14 +8433,14 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J8" s="87" t="s">
-        <v>45</v>
+      <c r="J8" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -11104,19 +8451,18 @@
       <c r="Q8" s="6" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-콩비지찌개(돼지:국내산)
+경상도식쇠고기무국(소:호주산)
 삼곡밥
-해물잡채완자전
+청경채나물
 포기김치
-770kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*미니크로와상/딸기잼*버터
-그린샐러드*오리엔탈D
+토스트식빵*미니참깨롤빵/딸기잼*버터
+그린샐러드*키위D
 우유
 스크램블에그
-줄무늬감자튀김
+햄구이
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -11127,20 +8473,20 @@
         <v>2</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="9"/>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="10"/>
@@ -11148,7 +8494,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="11"/>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="12"/>
@@ -11162,14 +8508,14 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" si="13"/>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J9" s="87" t="s">
-        <v>45</v>
+      <c r="J9" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -11180,39 +8526,36 @@
       <c r="Q9" s="6" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
         <v>[한식]
-제육김치두루치기*두부찜
-(돼지:국내산)
-잡곡밥
-호박감자된장국
-어묵채파프리카볶음(갈치:수입산)
-비름나물무침
+뚝배기심슨탕*라면사리
+(소:호주산)
+쌀밥/버터밥
+고기완자전(돼지:국내산)
+콩나물무침
+연근땅콩조림
 포기김치/석박지
-1005kcal
 [일품]
-시원한 냉모밀녹차면
-치즈김밥1/2/후리가케밥
-생선까스*타르타르S
-단무지부추무침
+치킨마요덮밥
+(닭:수입산,국내산)
+팽이버섯된장국
+고구마퀘사디아*사워크림,구아카몰
+오복채무침
 포기김치/석박지
-1011kcal
 [네이쳐데이]
-꽁보리밥
-새콤한 가지냉국
-구운야채 곁들인 수수햄버그
-모듬버섯파프리카볶음/오이지무침
+두부곤약비빔국수
+팽이버섯된장국
+호박두부스테이크*양송이데미S
+연근흑임자샐러드/흑미찐빵
 포기김치/석박지
-686kcal
 [건강도시락]
-그린샐러드*견과류올린구운채소
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/떡갈비주먹밥(돼지:국내산)
-535kcal
+그린샐러드*흑임자두부
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/흑미멸치땡초주먹밥
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
 크루통
-파인애플D/오리엔탈D</v>
+흑임자D/오리엔탈D</v>
       </c>
       <c r="R9" s="4" t="b">
         <v>0</v>
@@ -11221,20 +8564,20 @@
         <v>2</v>
       </c>
       <c r="T9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="9"/>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="10"/>
@@ -11242,7 +8585,7 @@
       </c>
       <c r="D10" s="5">
         <f t="shared" si="11"/>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="12"/>
@@ -11256,14 +8599,14 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" si="13"/>
-        <v>41857</v>
+        <v>41864</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J10" s="87" t="s">
-        <v>45</v>
+      <c r="J10" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -11274,19 +8617,17 @@
       <c r="Q10" s="6" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-매콤오징어볶음*소면사리
-흑향미밥
-맑은콩나물국
-야채계란말이
-연근땅콩조림
+왕새우튀김오므라이스
+맑은우동국물
+야채고로케*케찹
+미니샐러드파스타
+생오이피클*할라페뇨
 포기김치
-969kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
-야채스틱/바나나/오렌지
-두유/부시맥브레드
-537kcal
+그린샐러드*올리브참치
+단호박구이/삶은계란
+야채스틱/바나나/토마토
+두유/모닝빵
 [플러스메뉴]
 그린샐러드*견과류*오리엔탈D</v>
       </c>
@@ -11297,20 +8638,20 @@
         <v>2</v>
       </c>
       <c r="T10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5">
         <f>B8+1</f>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="10"/>
@@ -11318,7 +8659,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" si="11"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="12"/>
@@ -11332,14 +8673,14 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="13"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="14"/>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J11" s="87" t="s">
-        <v>45</v>
+      <c r="J11" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -11350,19 +8691,18 @@
       <c r="Q11" s="6" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-꼬맹이만두국
+북어채감자국
 삼곡밥
-무말랭이무침
+호박새우젓볶음
 포기김치
-781kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
 토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*오리엔탈D
+그린샐러드*키위D
 우유
 계란후라이
-고구마샐러드
+감자볼튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -11373,20 +8713,20 @@
         <v>2</v>
       </c>
       <c r="T11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="16.5" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="9"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="10"/>
@@ -11394,7 +8734,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" si="11"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="12"/>
@@ -11408,14 +8748,14 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="13"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J12" s="87" t="s">
-        <v>45</v>
+      <c r="J12" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -11426,32 +8766,30 @@
       <c r="Q12" s="6" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-육개장
-(소:호주산,국내산(육우))
-수수밥
-모듬숙회*초장
-도토리묵김치무침
-견과류콩조림
+봉추찜닭*모짜렐라치즈사리
+(닭:국내산)
+기장밥
+얼갈이된장국
+맛살야채볶음
+쑥갓두부무침
 포기김치/석박지
-995kcal
 [일품]
-강황두부카레라이스
-팽이버섯된장국
-꿀고구마닭강정(닭:수입산,국내산)
-오이양파간장절임
+옛날짜장면
+(돼지:국내산)
+야채볶음밥/계란파국
+칠리깐쇼새우
+단무지&amp;양파*춘장
 포기김치/석박지
-1004kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+통감자구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/참깨롤빵
-529kcal
+두유/부시맥브레드
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-망고요거트D/오리엔탈D</v>
+씨리얼
+땅콩버터D/오리엔탈D</v>
       </c>
       <c r="R12" s="4" t="b">
         <v>0</v>
@@ -11460,20 +8798,20 @@
         <v>2</v>
       </c>
       <c r="T12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" ht="16.5" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="9"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="10"/>
@@ -11481,7 +8819,7 @@
       </c>
       <c r="D13" s="5">
         <f t="shared" si="11"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="12"/>
@@ -11495,14 +8833,14 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" si="13"/>
-        <v>41858</v>
+        <v>41865</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J13" s="87" t="s">
-        <v>45</v>
+      <c r="J13" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -11513,20 +8851,18 @@
       <c r="Q13" s="6" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-[즉석]냄비닭칼국수
-(닭:국내산)
+얼큰한육개장칼국수
+(소:호주산,국내산(육우))
 쌀밥
-새우동그랑땡전
-모듬야채스틱*견과류쌈장
-통깨건파래볶음
-포기김치
-1004kcal
+만두찜*초간장
+어묵야채볶음(갈치:수입산)
+무말랭이깻잎무침
+배추겉절이김치
 [건강도시락]
-그린샐러드*참치키드빈
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/비엔나주먹밥
-539kcal
+그린샐러드*토마토카프레제
+고구마찜/메추리알
+야채스틱/바나나/새싹연두부
+두유/떡갈비주먹밥(돼지:국내산)
 [플러스메뉴]
 그린샐러드*씨리얼*오리엔탈D</v>
       </c>
@@ -11537,20 +8873,20 @@
         <v>2</v>
       </c>
       <c r="T13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5">
         <f>B11+1</f>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="10"/>
@@ -11558,7 +8894,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" si="11"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="12"/>
@@ -11572,14 +8908,14 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" si="13"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="14"/>
         <v>0.30208333333333331</v>
       </c>
-      <c r="J14" s="87" t="s">
-        <v>45</v>
+      <c r="J14" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -11589,22 +8925,16 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="6" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
-        <v>[한식]
-맑은순두부국*절임고추양념장
-삼곡밥
-새송이계란조림
-포기김치
-762kcal
+        <v xml:space="preserve">[한식]
+광복절(光復節)은 1945년 8월 15일, 제2차 세계 대전에서 일본이 연합군에 패하여 항복하게 되어 한반도가 일제의 일제 강점기에서 해방된 날을 기념하는 날이다.
+ 광복은 문자 그대로는 “빛을 되찾음”을 의미하고 국권을 되찾았다는 뜻으로 쓰인다. 특히 대한민국에서는 1948년 8월 15일의 대한민국의 건국을 기념하는 날이기도 하다.
+from 위키피디아
+http://ko.wikipedia.org/wiki/광복절
 [즉석]
-즉석해장라면/삼곡밥/김치
+국기게양하세요~
 [일품]
-토스트식빵*곡물식빵/딸기잼*버터
-그린샐러드*오리엔탈D
-우유
-스크램블에그
-햄구이
 [플러스메뉴]
-누룽지/김구이</v>
+</v>
       </c>
       <c r="R14" s="4" t="b">
         <v>0</v>
@@ -11613,20 +8943,20 @@
         <v>2</v>
       </c>
       <c r="T14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="16.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="9"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="10"/>
@@ -11634,7 +8964,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="11"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="12"/>
@@ -11648,14 +8978,14 @@
       </c>
       <c r="H15" s="5">
         <f t="shared" si="13"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="14"/>
         <v>0.46875</v>
       </c>
-      <c r="J15" s="87" t="s">
-        <v>45</v>
+      <c r="J15" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -11665,33 +8995,16 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="6" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
-        <v>[한식]
-매콤돈갈비떡찜*단호박구이
-(돼지:국내산)
-차조밥
-무채어묵국(갈치:수입산)
-두부계란지짐*양념장
-참나물오이유자무침
-포기김치/석박지
-990kcal
+        <v xml:space="preserve">[한식]
+광복절인 오늘은
+충청남도 천안시 동남구 목천읍 삼방로 95(남화리 230)에 있는 독립기념관(獨立紀念館)을 방문해 보시는것은 어떠신가요?
+1982년 일본의 역사교과서 왜곡에 대응하며, 국민모금을 통하여 1987년 개관했다. 2012년 기준 83명의 임직원이 근무하고 있다.
+from 위키피디아
+http://ko.wikipedia.org/wiki/독립기념관_(대한민국)
 [일품]
-[글루텐프리데이] 미트소스스파게티
-트로피카나/토마토카프레제샐러드
-쌀로만든초코링도너츠
-야채피클
-포기김치/석박지
-988kcal
 [건강도시락]
-그린샐러드*흑임자두부
-통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/장조림주먹밥(돼지:국내산)
-531kcal
 [플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+</v>
       </c>
       <c r="R15" s="4" t="b">
         <v>0</v>
@@ -11700,20 +9013,20 @@
         <v>2</v>
       </c>
       <c r="T15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="16.5" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="9"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="10"/>
@@ -11721,7 +9034,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" si="11"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="12"/>
@@ -11735,14 +9048,14 @@
       </c>
       <c r="H16" s="5">
         <f t="shared" si="13"/>
-        <v>41859</v>
+        <v>41866</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="14"/>
         <v>0.71875</v>
       </c>
-      <c r="J16" s="87" t="s">
-        <v>45</v>
+      <c r="J16" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -11752,23 +9065,14 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="6" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
-        <v>[한식or일품]
-열무보리비빔밥*볶음고추장
-(소:호주산)
-얼갈이된장국
-수제고추튀김,오미산적
-매운감자조림
-검은깨명엽채볶음
-포기김치
-964kcal
+        <v xml:space="preserve">[한식or일품]
+서울 필동에 위치한 한국의 집에서 
+1945년 8월 15일, 아침에 여운형이 총독부로부터 치안권과 행정권을 이양받았다.
+from 위키피디아
+http://ko.wikipedia.org/wiki/광복절
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
-야채스틱/바나나/오렌지
-두유/현미잡곡주먹밥
-524kcal
 [플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+</v>
       </c>
       <c r="R16" s="4" t="b">
         <v>0</v>
@@ -11777,10 +9081,10 @@
         <v>2</v>
       </c>
       <c r="T16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="V16" s="4"/>
     </row>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13245" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <r>
       <rPr>
@@ -59,19 +59,19 @@
     <t>구분</t>
   </si>
   <si>
-    <t>8월 18일 (월)</t>
-  </si>
-  <si>
-    <t>8월 19일 (화)</t>
-  </si>
-  <si>
-    <t>8월 20일 (수)</t>
-  </si>
-  <si>
-    <t>8월 21일 (목)</t>
-  </si>
-  <si>
-    <t>8월 22일 (금)</t>
+    <t>8월 25일 (월)</t>
+  </si>
+  <si>
+    <t>8월 26일 (화)</t>
+  </si>
+  <si>
+    <t>8월 27일 (수)</t>
+  </si>
+  <si>
+    <t>8월 28일 (목)</t>
+  </si>
+  <si>
+    <t>8월 29일 (금)</t>
   </si>
   <si>
     <t>아침
@@ -82,55 +82,55 @@
     <t>한식</t>
   </si>
   <si>
-    <t>사골우거지국(소:호주산,뉴질랜드산)</t>
-  </si>
-  <si>
-    <t>조랑떡미역국</t>
-  </si>
-  <si>
-    <t>호박감자고추장찌개</t>
+    <t>북어채콩나물국</t>
   </si>
   <si>
     <t>콩가루배추국</t>
   </si>
   <si>
-    <t>쇠고기두부탕국(소:호주산)</t>
+    <t>장터국(소:호주산)</t>
+  </si>
+  <si>
+    <t>들깨수제비국</t>
+  </si>
+  <si>
+    <t>콩비지찌개(돼지:국내산)</t>
   </si>
   <si>
     <t>삼곡밥</t>
   </si>
   <si>
-    <t>두부양념조림</t>
-  </si>
-  <si>
-    <t>메추리알어묵조림(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>멸치풋고추조림</t>
-  </si>
-  <si>
-    <t>해물떡편완자전</t>
-  </si>
-  <si>
-    <t>양념깻잎무침</t>
+    <t>미트볼야채조림(돼지:국내산,닭:국내산)</t>
+  </si>
+  <si>
+    <t>꽁치무조림</t>
+  </si>
+  <si>
+    <t>두부계란지짐*양념장</t>
+  </si>
+  <si>
+    <t>맛살야채볶음</t>
+  </si>
+  <si>
+    <t>알감자조림</t>
   </si>
   <si>
     <t>포기김치</t>
   </si>
   <si>
-    <t>871kcal</t>
-  </si>
-  <si>
-    <t>869kcal</t>
-  </si>
-  <si>
-    <t>880kcal</t>
-  </si>
-  <si>
-    <t>874kcal</t>
-  </si>
-  <si>
-    <t>877kcal</t>
+    <t>849kcal</t>
+  </si>
+  <si>
+    <t>878kcal</t>
+  </si>
+  <si>
+    <t>856kcal</t>
+  </si>
+  <si>
+    <t>864kcal</t>
+  </si>
+  <si>
+    <t>861kcal</t>
   </si>
   <si>
     <t>즉석</t>
@@ -142,22 +142,22 @@
     <t>일품</t>
   </si>
   <si>
+    <t>곡물식빵*미니와플/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*모닝빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
+  </si>
+  <si>
     <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
   </si>
   <si>
-    <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*미니와플/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*모닝빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>그린샐러드*오리엔탈D</t>
+    <t>그린샐러드*사우전D</t>
   </si>
   <si>
     <t>우유</t>
@@ -169,19 +169,19 @@
     <t>계란후라이</t>
   </si>
   <si>
+    <t>후르트링</t>
+  </si>
+  <si>
+    <t>양념웻지감자튀김</t>
+  </si>
+  <si>
     <t>슬라이스햄</t>
   </si>
   <si>
-    <t>미니해쉬브라운</t>
-  </si>
-  <si>
-    <t>단호박샐러드</t>
-  </si>
-  <si>
-    <t>줄무늬감자튀김</t>
-  </si>
-  <si>
-    <t>초코첵스</t>
+    <t>코코볼</t>
+  </si>
+  <si>
+    <t>감자볼튀김</t>
   </si>
   <si>
     <t>플러스메뉴</t>
@@ -198,193 +198,194 @@
 ~13:00</t>
   </si>
   <si>
-    <t>뚝배기오징어불고기전골
+    <t>육개장
+(소:호주산,국내산(육우))</t>
+  </si>
+  <si>
+    <t>뚝배기우사골순대국
+(돼지:국내산,소:호주산)</t>
+  </si>
+  <si>
+    <t>[철판]매콤오삼불고기*콩나물파채
+(돼지:독일산)</t>
+  </si>
+  <si>
+    <t>뚝배기버섯불고기*꼬맹이만두사리
 (소:호주산)</t>
   </si>
   <si>
-    <t>뼈다귀해장국
+    <t>오리주물럭*모듬쌈SET
+(오리:국내산)</t>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+  </si>
+  <si>
+    <t>기장밥</t>
+  </si>
+  <si>
+    <t>수수밥</t>
+  </si>
+  <si>
+    <t>차조밥</t>
+  </si>
+  <si>
+    <t>쌀밥</t>
+  </si>
+  <si>
+    <t>가자미카레구이</t>
+  </si>
+  <si>
+    <t>모듬숙회*초장</t>
+  </si>
+  <si>
+    <t>근대국</t>
+  </si>
+  <si>
+    <t>비엔나케찹볶음</t>
+  </si>
+  <si>
+    <t>얼갈이된장국</t>
+  </si>
+  <si>
+    <t>열무된장나물</t>
+  </si>
+  <si>
+    <t>풋고추장떡</t>
+  </si>
+  <si>
+    <t>감자곤약조림</t>
+  </si>
+  <si>
+    <t>탕평채</t>
+  </si>
+  <si>
+    <t>모듬버섯잡채</t>
+  </si>
+  <si>
+    <t>견과류콩조림</t>
+  </si>
+  <si>
+    <t>검은깨명엽채무침</t>
+  </si>
+  <si>
+    <t>참나물오이유자무침</t>
+  </si>
+  <si>
+    <t>아삭이고추된장무침</t>
+  </si>
+  <si>
+    <t>무말랭이깻잎무침</t>
+  </si>
+  <si>
+    <t>포기김치/석박지</t>
+  </si>
+  <si>
+    <t>983kcal</t>
+  </si>
+  <si>
+    <t>990kcal</t>
+  </si>
+  <si>
+    <t>1001kcal</t>
+  </si>
+  <si>
+    <t>988kcal</t>
+  </si>
+  <si>
+    <t>993kcal</t>
+  </si>
+  <si>
+    <t>일식커리덮밥*멘치까스토핑
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>양지탕
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>제육마늘불고기*두부찜*양배추쌈SET
+    <t>포크볼토마토파스타
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>철판뼈없는닭갈비*고구마*치즈떡사리
-(닭:브라질산)</t>
-  </si>
-  <si>
-    <t>기장밥</t>
-  </si>
-  <si>
-    <t>쌀밥</t>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-  </si>
-  <si>
-    <t>수수밥</t>
-  </si>
-  <si>
-    <t>김계란말이</t>
-  </si>
-  <si>
-    <t>옛날소시지전*케찹</t>
-  </si>
-  <si>
-    <t>떡고기산적구이(돼지:국내산),오미산적</t>
-  </si>
-  <si>
-    <t>시금치국</t>
-  </si>
-  <si>
-    <t>들깨미역국</t>
-  </si>
-  <si>
-    <t>우엉땅콩조림</t>
-  </si>
-  <si>
-    <t>도토리묵&amp;올방개묵*양념장</t>
-  </si>
-  <si>
-    <t>감자채당근볶음</t>
-  </si>
-  <si>
-    <t>어묵채파프리카볶음(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>삼색연근튀김*양념장</t>
-  </si>
-  <si>
-    <t>무말랭이깻잎무침</t>
-  </si>
-  <si>
-    <t>치커리오이무침</t>
-  </si>
-  <si>
-    <t>청경채쑥갓무침</t>
-  </si>
-  <si>
-    <t>콩나물무침</t>
-  </si>
-  <si>
-    <t>매실청오이지무침</t>
-  </si>
-  <si>
-    <t>포기김치/석박지</t>
-  </si>
-  <si>
-    <t>995kcal</t>
-  </si>
-  <si>
-    <t>1004kcal</t>
-  </si>
-  <si>
-    <t>986kcal</t>
-  </si>
-  <si>
-    <t>992kcal</t>
-  </si>
-  <si>
-    <t>1003kcal</t>
-  </si>
-  <si>
-    <t>스팸김치볶음덮밥</t>
-  </si>
-  <si>
-    <t>먹물크림파스타*마늘바게트</t>
-  </si>
-  <si>
-    <t>수제함박스테이크*양송이데미S
+    <t>장조림버터비빔밥
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>왕소세지오므라이스*더블S</t>
-  </si>
-  <si>
-    <t>[글루텐프리]잔치쌀국수</t>
-  </si>
-  <si>
-    <t>유부된장국</t>
-  </si>
-  <si>
-    <t>한입주먹밥크로켓(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>후리가케밥/브로컬리스프</t>
+    <t>허브통살치킨까스*양념치킨s
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>매콤육감쫄면
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>미소시루</t>
+  </si>
+  <si>
+    <t>웰치스포도</t>
   </si>
   <si>
     <t>맑은우동국물</t>
   </si>
   <si>
-    <t>참치김밥1/2/추가밥</t>
-  </si>
-  <si>
-    <t>매콤떡볶이(갈치:수입산)*김말이튀김</t>
-  </si>
-  <si>
-    <t>스프라이트/스위트베리베리피자</t>
-  </si>
-  <si>
-    <t>블루베리식빵튀김/푸질리샐러드파스타</t>
-  </si>
-  <si>
-    <t>치즈감자고로케*케찹</t>
-  </si>
-  <si>
-    <t>견과류고구마떡맛탕</t>
-  </si>
-  <si>
-    <t>마카로니후르츠샐러드</t>
-  </si>
-  <si>
-    <t>야채피클</t>
+    <t>검정깨밥/옥수수스프</t>
+  </si>
+  <si>
+    <t>마약김밥*냉채소스/탕파국</t>
+  </si>
+  <si>
+    <t>단호박블루베리샐러드</t>
+  </si>
+  <si>
+    <t>까르보나라치킨(닭:미국산)</t>
+  </si>
+  <si>
+    <t>매콤불만두</t>
+  </si>
+  <si>
+    <t>바베큐소시지구이*칠리s,머스타드s</t>
+  </si>
+  <si>
+    <t>오복채무침</t>
   </si>
   <si>
     <t>생오이피클*할라페뇨</t>
   </si>
   <si>
-    <t>브로커리땅콩샐러드</t>
-  </si>
-  <si>
-    <t>단무지부추무침</t>
-  </si>
-  <si>
-    <t>1018kcal</t>
-  </si>
-  <si>
-    <t>1006kcal</t>
-  </si>
-  <si>
-    <t>1016kcal</t>
-  </si>
-  <si>
-    <t>1008kcal</t>
-  </si>
-  <si>
-    <t>899kcal</t>
+    <t>코울슬로</t>
+  </si>
+  <si>
+    <t>인절미토스트/야채피클</t>
+  </si>
+  <si>
+    <t>단무지무침</t>
+  </si>
+  <si>
+    <t>1007kcal</t>
+  </si>
+  <si>
+    <t>1010kcal</t>
+  </si>
+  <si>
+    <t>1021kcal</t>
+  </si>
+  <si>
+    <t>1020kcal</t>
+  </si>
+  <si>
+    <t>991kcal</t>
   </si>
   <si>
     <t>네이쳐데이</t>
   </si>
   <si>
-    <t>영양부추강된장비빔밥</t>
-  </si>
-  <si>
-    <t>들깨배추국</t>
-  </si>
-  <si>
-    <t>메밀야채쌈*냉채소스</t>
-  </si>
-  <si>
-    <t>무지개묵말랭이볶음/청경채쑥갓무침</t>
-  </si>
-  <si>
-    <t>684kcal</t>
+    <t>곤드레밥*들기름양념장</t>
+  </si>
+  <si>
+    <t>새송이버섯탕수</t>
+  </si>
+  <si>
+    <t>삼색나물/파래김구이</t>
+  </si>
+  <si>
+    <t>732kcal</t>
   </si>
   <si>
     <t>건강도시락</t>
@@ -393,28 +394,28 @@
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
   </si>
   <si>
-    <t>그린샐러드*참치키드빈</t>
-  </si>
-  <si>
-    <t>그린샐러드*올리브계란</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류올린구운야채</t>
-  </si>
-  <si>
-    <t>단호박구이/메추리알</t>
-  </si>
-  <si>
-    <t>통감자구이/브로컬리꽃맛살</t>
-  </si>
-  <si>
-    <t>고구마찜/새싹연두부</t>
+    <t>그린샐러드*새우브로컬리꽃맛살</t>
+  </si>
+  <si>
+    <t>그린샐러드*흑임자두부</t>
+  </si>
+  <si>
+    <t>그린샐러드*구운새송이버섯과마늘</t>
+  </si>
+  <si>
+    <t>고구마찜/삶은계란</t>
   </si>
   <si>
     <t>통감자구이/메추리알</t>
   </si>
   <si>
-    <t>고구마찜/삶은계란</t>
+    <t>단호박구이/삶은계란</t>
+  </si>
+  <si>
+    <t>고구마찜/브로컬리꽃맛살</t>
+  </si>
+  <si>
+    <t>단호박구이/새싹연두부</t>
   </si>
   <si>
     <t>야채스틱/바나나/방울토마토</t>
@@ -426,34 +427,34 @@
     <t>야채스틱/바나나/토마토</t>
   </si>
   <si>
+    <t>두유/모닝빵</t>
+  </si>
+  <si>
+    <t>두유/쇠고기장조림주먹밥(소:호주산)</t>
+  </si>
+  <si>
+    <t>두유/참깨롤빵</t>
+  </si>
+  <si>
+    <t>두유/참치마요주먹밥</t>
+  </si>
+  <si>
     <t>두유/부시맥브레드</t>
   </si>
   <si>
-    <t>두유/쇠고기장조림주먹밥(소:호주산)</t>
-  </si>
-  <si>
-    <t>두유/참깨롤빵</t>
-  </si>
-  <si>
-    <t>두유/참치마요주먹밥</t>
-  </si>
-  <si>
-    <t>두유/현미잡곡주먹밥</t>
-  </si>
-  <si>
-    <t>520kcal</t>
+    <t>503kcal</t>
+  </si>
+  <si>
+    <t>514kcal</t>
   </si>
   <si>
     <t>510kcal</t>
   </si>
   <si>
-    <t>513kcal</t>
-  </si>
-  <si>
     <t>509kcal</t>
   </si>
   <si>
-    <t>511kcal</t>
+    <t>508kcal</t>
   </si>
   <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
@@ -462,34 +463,34 @@
     <t>그린샐러드</t>
   </si>
   <si>
+    <t>스위트콘,빈스</t>
+  </si>
+  <si>
+    <t>크루통</t>
+  </si>
+  <si>
+    <t>아몬드후레이크</t>
+  </si>
+  <si>
     <t>견과류</t>
   </si>
   <si>
-    <t>스위트콘,빈스</t>
-  </si>
-  <si>
-    <t>코코볼</t>
-  </si>
-  <si>
-    <t>크루통</t>
-  </si>
-  <si>
-    <t>후르트링</t>
-  </si>
-  <si>
-    <t>키위D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>사우전D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>망고요거트D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>흑임자D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>복숭아D/오리엔탈D</t>
+    <t>초코첵스</t>
+  </si>
+  <si>
+    <t>후르츠요거트D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>콘마요네즈D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>포도D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>아몬드D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>사과배D/오리엔탈D</t>
   </si>
   <si>
     <t>저녁
@@ -502,128 +503,135 @@
 일품</t>
   </si>
   <si>
-    <t>깻잎채 올린 철판고추장삼겹살구이
-(돼지:독일산)</t>
-  </si>
-  <si>
-    <t>철판 비프할라페뇨볶음밥*스위트칠리S
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>단호박콩국수</t>
-  </si>
-  <si>
-    <t>목살묵은지김치찌개
+    <t>얼큰한 동태알탕
+(동태:러시아산,명태곤이:러시아산,
+명태알:미국산)</t>
+  </si>
+  <si>
+    <t>짜장소스 곁들인 베이컨새우볶음밥</t>
+  </si>
+  <si>
+    <t>봉추찜닭*찹쌀누룽지토핑
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>차돌박이된장찌개
+(소:미국산)</t>
+  </si>
+  <si>
+    <t>숯불제육간장불고기*두부찜
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>가츠동[일본식돈까스덮밥]
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>충무김밥*충무식오징어무침</t>
+    <t>계란파국</t>
   </si>
   <si>
     <t>잡곡밥</t>
   </si>
   <si>
-    <t>미니메밀소바</t>
-  </si>
-  <si>
-    <t>근대국</t>
-  </si>
-  <si>
-    <t>참치브리또*사워크림</t>
-  </si>
-  <si>
-    <t>고기만두찜</t>
-  </si>
-  <si>
-    <t>꽁치한마리구이*와사비양념장</t>
-  </si>
-  <si>
-    <t>고구마튀김*야채튀김</t>
-  </si>
-  <si>
-    <t>청양풍버섯잡채</t>
-  </si>
-  <si>
-    <t>웨지감자튀김</t>
-  </si>
-  <si>
-    <t>오복채무침</t>
-  </si>
-  <si>
-    <t>탕평채</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일식치자단무지,락교 </t>
-  </si>
-  <si>
-    <t>열무나물</t>
-  </si>
-  <si>
-    <t>적채무비트피클</t>
-  </si>
-  <si>
-    <t>견과류콩조림</t>
+    <t>맛살야채계란말이</t>
+  </si>
+  <si>
+    <t>매콤깐풍기(닭:미국산)</t>
+  </si>
+  <si>
+    <t>무채어묵국(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>해물부추동그랑땡전</t>
+  </si>
+  <si>
+    <t>미역국</t>
+  </si>
+  <si>
+    <t>궁중떡볶이</t>
+  </si>
+  <si>
+    <t>오이맛살겨자냉채</t>
+  </si>
+  <si>
+    <t>햄계란전*케찹</t>
+  </si>
+  <si>
+    <t>콩나물들깨무침</t>
+  </si>
+  <si>
+    <t>부들어묵볶음</t>
+  </si>
+  <si>
+    <t>깐마늘마늘쫑무침</t>
+  </si>
+  <si>
+    <t>단무지부추무침</t>
+  </si>
+  <si>
+    <t>멸치풋고추볶음</t>
+  </si>
+  <si>
+    <t>쥐어채무침(갈치:국내산)</t>
+  </si>
+  <si>
+    <t>치커리사과무침</t>
   </si>
   <si>
     <t>알타리김치</t>
   </si>
   <si>
-    <t>1005kcal</t>
-  </si>
-  <si>
-    <t>993kcal</t>
+    <t>열무김치</t>
+  </si>
+  <si>
+    <t>985kcal</t>
+  </si>
+  <si>
+    <t>1002kcal</t>
+  </si>
+  <si>
+    <t>994kcal</t>
   </si>
   <si>
     <t>989kcal</t>
   </si>
   <si>
-    <t>999kcal</t>
-  </si>
-  <si>
-    <t>1013kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*베이컨파프리카</t>
-  </si>
-  <si>
-    <t>그린샐러드*구운새송이버섯과마늘</t>
-  </si>
-  <si>
-    <t>그린샐러드*흑임자두부</t>
-  </si>
-  <si>
-    <t>단호박구이/새싹연두부</t>
-  </si>
-  <si>
-    <t>단호박구이/삶은계란</t>
-  </si>
-  <si>
-    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>두유/현미멸치주먹밥</t>
-  </si>
-  <si>
-    <t>두유/모닝빵</t>
-  </si>
-  <si>
-    <t>522kcal</t>
+    <t>그린샐러드*해산물샐러드</t>
+  </si>
+  <si>
+    <t>그린샐러드*올리브계란</t>
+  </si>
+  <si>
+    <t>그린샐러드*참치키드빈</t>
+  </si>
+  <si>
+    <t>통감자구이/브로컬리꽃맛살</t>
+  </si>
+  <si>
+    <t>고구마찜/메추리알</t>
+  </si>
+  <si>
+    <t>야채스틱/바나나/오렌지/두유</t>
+  </si>
+  <si>
+    <t>두유/현미후리가케주먹밥</t>
+  </si>
+  <si>
+    <t>떡갈비주먹밥(돼지:국내산,닭:국내산)</t>
+  </si>
+  <si>
+    <t>513kcal</t>
+  </si>
+  <si>
+    <t>518kcal</t>
   </si>
   <si>
     <t>504kcal</t>
   </si>
   <si>
-    <t>514kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류*오리엔탈D</t>
-  </si>
-  <si>
-    <t>그린샐러드*씨리얼*오리엔탈D</t>
+    <t>511kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*견과류*키위D</t>
+  </si>
+  <si>
+    <t>그린샐러드*씨리얼*키위D</t>
   </si>
   <si>
     <t>* 식품수급 상황에 따라 메뉴 및 원산지가 변경될 수 있으니 양해바랍니다.
@@ -753,14 +761,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="#\ &quot;Kcal&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="#\ &quot;Kcal&quot;"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -850,13 +858,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="9"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -864,14 +865,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="60"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -887,15 +889,82 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="62"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="25"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -909,32 +978,9 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="25"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -943,44 +989,6 @@
       <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -1079,7 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,25 +1105,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,18 +1141,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="80">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1493,9 +1501,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="9"/>
       </top>
@@ -1504,13 +1510,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="22"/>
+        <color indexed="25"/>
       </left>
       <right style="medium">
-        <color indexed="22"/>
+        <color indexed="25"/>
       </right>
       <top style="medium">
-        <color indexed="9"/>
+        <color indexed="25"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1530,6 +1536,17 @@
       </left>
       <right style="medium">
         <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="25"/>
+      </left>
+      <right style="medium">
+        <color indexed="25"/>
       </right>
       <top/>
       <bottom/>
@@ -1563,67 +1580,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="25"/>
-      </left>
-      <right style="medium">
-        <color indexed="25"/>
-      </right>
-      <top style="medium">
-        <color indexed="25"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="57"/>
-      </left>
-      <right style="medium">
-        <color indexed="57"/>
-      </right>
-      <top style="medium">
-        <color indexed="57"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="25"/>
-      </left>
-      <right style="medium">
-        <color indexed="25"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="57"/>
-      </left>
-      <right style="medium">
-        <color indexed="57"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1646,14 +1602,49 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="57"/>
+        <color indexed="51"/>
       </left>
       <right style="medium">
-        <color indexed="57"/>
+        <color indexed="51"/>
+      </right>
+      <top style="medium">
+        <color indexed="51"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="51"/>
+      </left>
+      <right style="medium">
+        <color indexed="51"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="51"/>
+      </left>
+      <right style="medium">
+        <color indexed="51"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="57"/>
+        <color indexed="51"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1831,6 +1822,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top style="medium">
+        <color indexed="53"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="22"/>
       </left>
@@ -1858,6 +1873,17 @@
       </left>
       <right style="medium">
         <color indexed="62"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
       </right>
       <top/>
       <bottom/>
@@ -1897,6 +1923,30 @@
       <top/>
       <bottom style="medium">
         <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="53"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,6 +2041,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -2006,37 +2065,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2052,6 +2085,15 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2082,18 +2124,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2102,188 +2152,188 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="80" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="76" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
@@ -2299,7 +2349,7 @@
     <xf numFmtId="35" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
@@ -2329,7 +2379,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2338,16 +2388,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2365,13 +2415,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="15" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="15" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,19 +2445,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2452,126 +2502,123 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="33" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="30" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="34" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="36" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="32" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="30" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="33" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="44" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="47" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2584,146 +2631,155 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="49" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="51" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="50" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="54" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="55" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="54" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="57" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="58" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="59" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="61" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="63" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="32" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="64" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="39" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="65" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="62" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="39" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="34" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="66" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="63" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="67" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="45" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="64" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="68" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="65" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1"/>
-    <cellStyle name="60% - 강조색1" xfId="2"/>
+    <cellStyle name="60% - 강조색1" xfId="1"/>
+    <cellStyle name="하이퍼링크" xfId="2"/>
     <cellStyle name="60% - 강조색2" xfId="3"/>
     <cellStyle name="60% - 강조색3" xfId="4"/>
     <cellStyle name="60% - 강조색4" xfId="5"/>
@@ -2732,8 +2788,8 @@
     <cellStyle name="연결된 셀" xfId="8"/>
     <cellStyle name="나쁨" xfId="9"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
-    <cellStyle name="출력" xfId="11"/>
-    <cellStyle name="Currency[0]" xfId="12" builtinId="7"/>
+    <cellStyle name="Currency[0]" xfId="11" builtinId="7"/>
+    <cellStyle name="출력" xfId="12"/>
     <cellStyle name="제목" xfId="13"/>
     <cellStyle name="좋음" xfId="14"/>
     <cellStyle name="계산" xfId="15"/>
@@ -2766,21 +2822,21 @@
     <cellStyle name="쉼표 [0] 5" xfId="42"/>
     <cellStyle name="쉼표 [0] 6" xfId="43"/>
     <cellStyle name="쉼표 [0] 7" xfId="44"/>
-    <cellStyle name="표준 2" xfId="45"/>
-    <cellStyle name="쉼표 [0] 8" xfId="46"/>
+    <cellStyle name="쉼표 [0] 8" xfId="45"/>
+    <cellStyle name="표준 2" xfId="46"/>
     <cellStyle name="쉼표 [0] 9" xfId="47"/>
     <cellStyle name="표준" xfId="48"/>
     <cellStyle name="Comma[0]" xfId="49" builtinId="6"/>
-    <cellStyle name="20% - 강조색1" xfId="50"/>
-    <cellStyle name="설명 텍스트" xfId="51"/>
+    <cellStyle name="설명 텍스트" xfId="50"/>
+    <cellStyle name="20% - 강조색1" xfId="51"/>
     <cellStyle name="20% - 강조색2" xfId="52"/>
-    <cellStyle name="입력" xfId="53"/>
+    <cellStyle name="20% - 강조색3" xfId="53"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="54"/>
-    <cellStyle name="20% - 강조색3" xfId="55"/>
+    <cellStyle name="입력" xfId="55"/>
     <cellStyle name="20% - 강조색4" xfId="56"/>
     <cellStyle name="20% - 강조색5" xfId="57"/>
-    <cellStyle name="20% - 강조색6" xfId="58"/>
-    <cellStyle name="보통" xfId="59"/>
+    <cellStyle name="보통" xfId="58"/>
+    <cellStyle name="20% - 강조색6" xfId="59"/>
     <cellStyle name="표준_신메뉴(1)" xfId="60"/>
   </cellStyles>
 </styleSheet>
@@ -3091,11 +3147,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -3121,7 +3177,7 @@
   <sheetPr/>
   <dimension ref="A1:BH78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3151,16 +3207,16 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
     </row>
     <row r="2" ht="20.25" spans="1:22">
       <c r="A2" s="16" t="s">
@@ -3187,16 +3243,16 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:22">
       <c r="A3" s="22" t="s">
@@ -3499,7 +3555,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="101"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -3528,7 +3584,7 @@
         <v>37</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -3544,7 +3600,7 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="140"/>
+      <c r="V12" s="142"/>
     </row>
     <row r="13" ht="21.95" customHeight="1" spans="1:22">
       <c r="A13" s="36"/>
@@ -3597,7 +3653,7 @@
       <c r="F14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="45" t="s">
         <v>44</v>
       </c>
       <c r="H14" s="15"/>
@@ -3645,7 +3701,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="101"/>
+      <c r="O15" s="100"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
@@ -3669,8 +3725,8 @@
       <c r="F16" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="53" t="s">
-        <v>14</v>
+      <c r="G16" s="57" t="s">
+        <v>56</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -3691,20 +3747,20 @@
     <row r="17" ht="53.25" customHeight="1" spans="1:60">
       <c r="A17" s="22"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="E17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="F17" s="61" t="s">
         <v>60</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>61</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -3763,20 +3819,20 @@
     <row r="18" ht="27" customHeight="1" spans="1:60">
       <c r="A18" s="22"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="D18" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="35" t="s">
         <v>65</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -3835,238 +3891,238 @@
     <row r="19" ht="27" customHeight="1" spans="1:60">
       <c r="A19" s="22"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="62" t="s">
+      <c r="C19" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="D19" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="F19" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="63"/>
+      <c r="G19" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="66"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
-      <c r="AN19" s="63"/>
-      <c r="AO19" s="63"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="63"/>
-      <c r="AU19" s="63"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="66"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="66"/>
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="66"/>
+      <c r="BH19" s="66"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:60">
       <c r="A20" s="22"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="63"/>
+      <c r="C20" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="66"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
-      <c r="AN20" s="63"/>
-      <c r="AO20" s="63"/>
-      <c r="AP20" s="63"/>
-      <c r="AQ20" s="63"/>
-      <c r="AR20" s="63"/>
-      <c r="AS20" s="63"/>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="63"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="63"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="63"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="63"/>
-      <c r="BH20" s="63"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="66"/>
+      <c r="BA20" s="66"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:60">
       <c r="A21" s="22"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="67" t="s">
+      <c r="C21" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="D21" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="E21" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="70" t="s">
+      <c r="F21" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="63"/>
+      <c r="G21" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="66"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="142"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="144"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63"/>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="63"/>
-      <c r="AN21" s="63"/>
-      <c r="AO21" s="63"/>
-      <c r="AP21" s="63"/>
-      <c r="AQ21" s="63"/>
-      <c r="AR21" s="63"/>
-      <c r="AS21" s="63"/>
-      <c r="AT21" s="63"/>
-      <c r="AU21" s="63"/>
-      <c r="AV21" s="63"/>
-      <c r="AW21" s="63"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="63"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="63"/>
-      <c r="BC21" s="63"/>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="63"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="63"/>
-      <c r="BH21" s="63"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
     </row>
     <row r="22" ht="59.25" spans="1:60">
       <c r="A22" s="22"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="D22" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="E22" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="F22" s="78" t="s">
         <v>81</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>82</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -4124,21 +4180,21 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:60">
       <c r="A23" s="22"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="76" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="D23" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="E23" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="F23" s="24" t="s">
         <v>86</v>
+      </c>
+      <c r="G23" s="80" t="s">
+        <v>87</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -4196,20 +4252,20 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:60">
       <c r="A24" s="22"/>
-      <c r="B24" s="71"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="D24" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="E24" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="F24" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="80" t="s">
         <v>91</v>
       </c>
       <c r="H24" s="15"/>
@@ -4268,20 +4324,20 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:60">
       <c r="A25" s="22"/>
-      <c r="B25" s="71"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="80" t="s">
         <v>96</v>
       </c>
       <c r="H25" s="15"/>
@@ -4340,24 +4396,24 @@
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:60">
       <c r="A26" s="22"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="82" t="s">
-        <v>71</v>
+      <c r="B26" s="74"/>
+      <c r="C26" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>72</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="63"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -4412,11 +4468,11 @@
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:60">
       <c r="A27" s="22"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="83" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="85" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -4425,11 +4481,11 @@
       <c r="F27" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -4437,7 +4493,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="101"/>
+      <c r="Q27" s="100"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
@@ -4488,12 +4544,12 @@
         <v>102</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="87" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
+      <c r="G28" s="78"/>
       <c r="H28" s="35"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -4550,13 +4606,13 @@
     </row>
     <row r="29" ht="26.25" customHeight="1" spans="1:60">
       <c r="A29" s="22"/>
-      <c r="B29" s="90"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="25"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="91"/>
+        <v>59</v>
+      </c>
+      <c r="F29" s="90"/>
       <c r="G29" s="24"/>
       <c r="H29" s="35"/>
       <c r="I29" s="15"/>
@@ -4614,14 +4670,14 @@
     </row>
     <row r="30" ht="26.25" customHeight="1" spans="1:60">
       <c r="A30" s="22"/>
-      <c r="B30" s="90"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="25"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="56"/>
+        <v>104</v>
+      </c>
+      <c r="F30" s="91"/>
+      <c r="G30" s="77"/>
       <c r="H30" s="35"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -4678,11 +4734,11 @@
     </row>
     <row r="31" ht="26.25" customHeight="1" spans="1:60">
       <c r="A31" s="22"/>
-      <c r="B31" s="90"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="25"/>
       <c r="D31" s="24"/>
       <c r="E31" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -4742,14 +4798,14 @@
     </row>
     <row r="32" ht="26.25" customHeight="1" spans="1:60">
       <c r="A32" s="22"/>
-      <c r="B32" s="90"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="25"/>
       <c r="D32" s="24"/>
       <c r="E32" s="25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="57"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="35"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -4806,14 +4862,14 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:60">
       <c r="A33" s="22"/>
-      <c r="B33" s="93"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="25"/>
       <c r="D33" s="24"/>
       <c r="E33" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="94"/>
+      <c r="G33" s="93"/>
       <c r="H33" s="35"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -4871,26 +4927,26 @@
     <row r="34" ht="27" customHeight="1" spans="1:60">
       <c r="A34" s="22"/>
       <c r="B34" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="D34" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="E34" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="G34" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="96"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -4944,25 +5000,25 @@
     </row>
     <row r="35" ht="26.25" customHeight="1" spans="1:60">
       <c r="A35" s="22"/>
-      <c r="B35" s="90"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="E35" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="F35" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="G35" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="96"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -5016,25 +5072,25 @@
     </row>
     <row r="36" ht="26.25" customHeight="1" spans="1:60">
       <c r="A36" s="22"/>
-      <c r="B36" s="90"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="E36" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="F36" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="96"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -5088,27 +5144,27 @@
     </row>
     <row r="37" ht="26.25" customHeight="1" spans="1:60">
       <c r="A37" s="22"/>
-      <c r="B37" s="90"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="F37" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="G37" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="96"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="143"/>
+      <c r="L37" s="145"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
@@ -5160,27 +5216,27 @@
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:60">
       <c r="A38" s="36"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="97" t="s">
+      <c r="B38" s="89"/>
+      <c r="C38" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="E38" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="97" t="s">
+      <c r="F38" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="97" t="s">
+      <c r="G38" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="96"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
       <c r="K38" s="15"/>
-      <c r="L38" s="143"/>
+      <c r="L38" s="145"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
@@ -5231,28 +5287,28 @@
       <c r="BH38" s="15"/>
     </row>
     <row r="39" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100" t="s">
-        <v>131</v>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99" t="s">
+        <v>130</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
+        <v>130</v>
+      </c>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -5305,26 +5361,26 @@
       <c r="BH39" s="15"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:60">
-      <c r="A40" s="102"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -5377,26 +5433,26 @@
       <c r="BH40" s="15"/>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:60">
-      <c r="A41" s="102"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="105" t="s">
+      <c r="A41" s="101"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="105" t="s">
+      <c r="E41" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="105" t="s">
+      <c r="F41" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="104" t="s">
+      <c r="G41" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -5449,26 +5505,26 @@
       <c r="BH41" s="15"/>
     </row>
     <row r="42" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A42" s="106"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="107" t="s">
+      <c r="A42" s="105"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="107" t="s">
+      <c r="E42" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="F42" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="104" t="s">
+      <c r="G42" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="101"/>
+      <c r="H42" s="100"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="101"/>
+      <c r="J42" s="100"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -5521,31 +5577,31 @@
       <c r="BH42" s="15"/>
     </row>
     <row r="43" ht="54" customHeight="1" spans="1:60">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="C43" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="D43" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="E43" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="110" t="s">
+      <c r="F43" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="G43" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="112"/>
+      <c r="H43" s="113"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
@@ -5597,26 +5653,26 @@
       <c r="BH43" s="15"/>
     </row>
     <row r="44" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="53" t="s">
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="115" t="s">
+      <c r="F44" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="H44" s="116"/>
+      <c r="H44" s="118"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="101"/>
+      <c r="J44" s="100"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
@@ -5669,26 +5725,26 @@
       <c r="BH44" s="15"/>
     </row>
     <row r="45" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="26" t="s">
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="F45" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="117" t="s">
+      <c r="G45" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="F45" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" s="119"/>
+      <c r="H45" s="122"/>
       <c r="I45" s="15"/>
-      <c r="J45" s="101"/>
+      <c r="J45" s="100"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -5741,26 +5797,26 @@
       <c r="BH45" s="15"/>
     </row>
     <row r="46" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A46" s="113"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="53" t="s">
+      <c r="A46" s="114"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="F46" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="120" t="s">
+      <c r="G46" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46" s="116"/>
+      <c r="H46" s="118"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="101"/>
+      <c r="J46" s="100"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
@@ -5813,26 +5869,26 @@
       <c r="BH46" s="15"/>
     </row>
     <row r="47" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="26" t="s">
+      <c r="A47" s="114"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="F47" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="E47" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="56" t="s">
+      <c r="G47" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="116"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="101"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="100"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -5885,22 +5941,26 @@
       <c r="BH47" s="15"/>
     </row>
     <row r="48" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A48" s="121"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="26" t="s">
+      <c r="A48" s="123"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="E48" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="117"/>
-      <c r="F48" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="101"/>
+      <c r="F48" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="124"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="100"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
@@ -5953,26 +6013,26 @@
       <c r="BH48" s="15"/>
     </row>
     <row r="49" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A49" s="121"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="125" t="s">
+      <c r="A49" s="123"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="126" t="s">
+      <c r="D49" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="127" t="s">
+      <c r="E49" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="G49" s="124" t="s">
+      <c r="F49" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -6026,27 +6086,27 @@
     </row>
     <row r="50" ht="23.1" customHeight="1" spans="1:60">
       <c r="A50" s="46"/>
-      <c r="B50" s="128" t="s">
+      <c r="B50" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -6100,21 +6160,21 @@
     </row>
     <row r="51" ht="21.95" customHeight="1" spans="1:60">
       <c r="A51" s="46"/>
-      <c r="B51" s="129"/>
+      <c r="B51" s="131"/>
       <c r="C51" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="F51" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="G51" s="24" t="s">
         <v>176</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>116</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -6172,21 +6232,21 @@
     </row>
     <row r="52" ht="21.95" customHeight="1" spans="1:60">
       <c r="A52" s="46"/>
-      <c r="B52" s="129"/>
+      <c r="B52" s="131"/>
       <c r="C52" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E52" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="24" t="s">
-        <v>118</v>
-      </c>
       <c r="G52" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -6244,21 +6304,21 @@
     </row>
     <row r="53" ht="21.95" customHeight="1" spans="1:60">
       <c r="A53" s="46"/>
-      <c r="B53" s="129"/>
+      <c r="B53" s="131"/>
       <c r="C53" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="E53" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -6315,22 +6375,22 @@
       <c r="BH53" s="15"/>
     </row>
     <row r="54" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A54" s="130"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="97" t="s">
+      <c r="A54" s="132"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="D54" s="97" t="s">
+      <c r="D54" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="E54" s="97" t="s">
+      <c r="E54" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="97" t="s">
-        <v>128</v>
+      <c r="F54" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" s="96" t="s">
+        <v>183</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -6387,24 +6447,24 @@
       <c r="BH54" s="15"/>
     </row>
     <row r="55" ht="20.25" spans="1:60">
-      <c r="A55" s="98" t="s">
+      <c r="A55" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="103"/>
-      <c r="C55" s="132" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="133" t="s">
+      <c r="B55" s="102"/>
+      <c r="C55" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="133" t="s">
+      <c r="D55" s="135" t="s">
+        <v>185</v>
+      </c>
+      <c r="E55" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="133" t="s">
-        <v>183</v>
+      <c r="F55" s="135" t="s">
+        <v>185</v>
+      </c>
+      <c r="G55" s="135" t="s">
+        <v>184</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -6461,15 +6521,15 @@
       <c r="BH55" s="15"/>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:60">
-      <c r="A56" s="134" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="136"/>
+      <c r="A56" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="138"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -6525,13 +6585,13 @@
       <c r="BH56" s="15"/>
     </row>
     <row r="57" ht="24" spans="1:60">
-      <c r="A57" s="137"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="139"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="141"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="140"/>
+      <c r="G57" s="142"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6587,10 +6647,10 @@
       <c r="BH57" s="15"/>
     </row>
     <row r="58" ht="24" spans="1:60">
-      <c r="A58" s="138"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
+      <c r="A58" s="140"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -6649,10 +6709,10 @@
       <c r="BH58" s="15"/>
     </row>
     <row r="59" ht="24" spans="1:60">
-      <c r="A59" s="138"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
+      <c r="A59" s="140"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -6662,59 +6722,59 @@
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="63"/>
-      <c r="V59" s="63"/>
-      <c r="W59" s="63"/>
-      <c r="X59" s="63"/>
-      <c r="Y59" s="63"/>
-      <c r="Z59" s="63"/>
-      <c r="AA59" s="63"/>
-      <c r="AB59" s="63"/>
-      <c r="AC59" s="63"/>
-      <c r="AD59" s="63"/>
-      <c r="AE59" s="63"/>
-      <c r="AF59" s="63"/>
-      <c r="AG59" s="63"/>
-      <c r="AH59" s="63"/>
-      <c r="AI59" s="63"/>
-      <c r="AJ59" s="63"/>
-      <c r="AK59" s="63"/>
-      <c r="AL59" s="63"/>
-      <c r="AM59" s="63"/>
-      <c r="AN59" s="63"/>
-      <c r="AO59" s="63"/>
-      <c r="AP59" s="63"/>
-      <c r="AQ59" s="63"/>
-      <c r="AR59" s="63"/>
-      <c r="AS59" s="63"/>
-      <c r="AT59" s="63"/>
-      <c r="AU59" s="63"/>
-      <c r="AV59" s="63"/>
-      <c r="AW59" s="63"/>
-      <c r="AX59" s="63"/>
-      <c r="AY59" s="63"/>
-      <c r="AZ59" s="63"/>
-      <c r="BA59" s="63"/>
-      <c r="BB59" s="63"/>
-      <c r="BC59" s="63"/>
-      <c r="BD59" s="63"/>
-      <c r="BE59" s="63"/>
-      <c r="BF59" s="63"/>
-      <c r="BG59" s="63"/>
-      <c r="BH59" s="63"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="66"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="66"/>
+      <c r="Z59" s="66"/>
+      <c r="AA59" s="66"/>
+      <c r="AB59" s="66"/>
+      <c r="AC59" s="66"/>
+      <c r="AD59" s="66"/>
+      <c r="AE59" s="66"/>
+      <c r="AF59" s="66"/>
+      <c r="AG59" s="66"/>
+      <c r="AH59" s="66"/>
+      <c r="AI59" s="66"/>
+      <c r="AJ59" s="66"/>
+      <c r="AK59" s="66"/>
+      <c r="AL59" s="66"/>
+      <c r="AM59" s="66"/>
+      <c r="AN59" s="66"/>
+      <c r="AO59" s="66"/>
+      <c r="AP59" s="66"/>
+      <c r="AQ59" s="66"/>
+      <c r="AR59" s="66"/>
+      <c r="AS59" s="66"/>
+      <c r="AT59" s="66"/>
+      <c r="AU59" s="66"/>
+      <c r="AV59" s="66"/>
+      <c r="AW59" s="66"/>
+      <c r="AX59" s="66"/>
+      <c r="AY59" s="66"/>
+      <c r="AZ59" s="66"/>
+      <c r="BA59" s="66"/>
+      <c r="BB59" s="66"/>
+      <c r="BC59" s="66"/>
+      <c r="BD59" s="66"/>
+      <c r="BE59" s="66"/>
+      <c r="BF59" s="66"/>
+      <c r="BG59" s="66"/>
+      <c r="BH59" s="66"/>
     </row>
     <row r="60" ht="24" spans="1:60">
-      <c r="A60" s="138"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
+      <c r="A60" s="140"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -6724,59 +6784,59 @@
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="63"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="63"/>
-      <c r="V60" s="63"/>
-      <c r="W60" s="63"/>
-      <c r="X60" s="63"/>
-      <c r="Y60" s="63"/>
-      <c r="Z60" s="63"/>
-      <c r="AA60" s="63"/>
-      <c r="AB60" s="63"/>
-      <c r="AC60" s="63"/>
-      <c r="AD60" s="63"/>
-      <c r="AE60" s="63"/>
-      <c r="AF60" s="63"/>
-      <c r="AG60" s="63"/>
-      <c r="AH60" s="63"/>
-      <c r="AI60" s="63"/>
-      <c r="AJ60" s="63"/>
-      <c r="AK60" s="63"/>
-      <c r="AL60" s="63"/>
-      <c r="AM60" s="63"/>
-      <c r="AN60" s="63"/>
-      <c r="AO60" s="63"/>
-      <c r="AP60" s="63"/>
-      <c r="AQ60" s="63"/>
-      <c r="AR60" s="63"/>
-      <c r="AS60" s="63"/>
-      <c r="AT60" s="63"/>
-      <c r="AU60" s="63"/>
-      <c r="AV60" s="63"/>
-      <c r="AW60" s="63"/>
-      <c r="AX60" s="63"/>
-      <c r="AY60" s="63"/>
-      <c r="AZ60" s="63"/>
-      <c r="BA60" s="63"/>
-      <c r="BB60" s="63"/>
-      <c r="BC60" s="63"/>
-      <c r="BD60" s="63"/>
-      <c r="BE60" s="63"/>
-      <c r="BF60" s="63"/>
-      <c r="BG60" s="63"/>
-      <c r="BH60" s="63"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="66"/>
+      <c r="V60" s="66"/>
+      <c r="W60" s="66"/>
+      <c r="X60" s="66"/>
+      <c r="Y60" s="66"/>
+      <c r="Z60" s="66"/>
+      <c r="AA60" s="66"/>
+      <c r="AB60" s="66"/>
+      <c r="AC60" s="66"/>
+      <c r="AD60" s="66"/>
+      <c r="AE60" s="66"/>
+      <c r="AF60" s="66"/>
+      <c r="AG60" s="66"/>
+      <c r="AH60" s="66"/>
+      <c r="AI60" s="66"/>
+      <c r="AJ60" s="66"/>
+      <c r="AK60" s="66"/>
+      <c r="AL60" s="66"/>
+      <c r="AM60" s="66"/>
+      <c r="AN60" s="66"/>
+      <c r="AO60" s="66"/>
+      <c r="AP60" s="66"/>
+      <c r="AQ60" s="66"/>
+      <c r="AR60" s="66"/>
+      <c r="AS60" s="66"/>
+      <c r="AT60" s="66"/>
+      <c r="AU60" s="66"/>
+      <c r="AV60" s="66"/>
+      <c r="AW60" s="66"/>
+      <c r="AX60" s="66"/>
+      <c r="AY60" s="66"/>
+      <c r="AZ60" s="66"/>
+      <c r="BA60" s="66"/>
+      <c r="BB60" s="66"/>
+      <c r="BC60" s="66"/>
+      <c r="BD60" s="66"/>
+      <c r="BE60" s="66"/>
+      <c r="BF60" s="66"/>
+      <c r="BG60" s="66"/>
+      <c r="BH60" s="66"/>
     </row>
     <row r="61" ht="24" spans="1:60">
-      <c r="A61" s="138"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -6786,59 +6846,59 @@
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="63"/>
-      <c r="W61" s="63"/>
-      <c r="X61" s="63"/>
-      <c r="Y61" s="63"/>
-      <c r="Z61" s="63"/>
-      <c r="AA61" s="63"/>
-      <c r="AB61" s="63"/>
-      <c r="AC61" s="63"/>
-      <c r="AD61" s="63"/>
-      <c r="AE61" s="63"/>
-      <c r="AF61" s="63"/>
-      <c r="AG61" s="63"/>
-      <c r="AH61" s="63"/>
-      <c r="AI61" s="63"/>
-      <c r="AJ61" s="63"/>
-      <c r="AK61" s="63"/>
-      <c r="AL61" s="63"/>
-      <c r="AM61" s="63"/>
-      <c r="AN61" s="63"/>
-      <c r="AO61" s="63"/>
-      <c r="AP61" s="63"/>
-      <c r="AQ61" s="63"/>
-      <c r="AR61" s="63"/>
-      <c r="AS61" s="63"/>
-      <c r="AT61" s="63"/>
-      <c r="AU61" s="63"/>
-      <c r="AV61" s="63"/>
-      <c r="AW61" s="63"/>
-      <c r="AX61" s="63"/>
-      <c r="AY61" s="63"/>
-      <c r="AZ61" s="63"/>
-      <c r="BA61" s="63"/>
-      <c r="BB61" s="63"/>
-      <c r="BC61" s="63"/>
-      <c r="BD61" s="63"/>
-      <c r="BE61" s="63"/>
-      <c r="BF61" s="63"/>
-      <c r="BG61" s="63"/>
-      <c r="BH61" s="63"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="66"/>
+      <c r="U61" s="66"/>
+      <c r="V61" s="66"/>
+      <c r="W61" s="66"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="66"/>
+      <c r="Z61" s="66"/>
+      <c r="AA61" s="66"/>
+      <c r="AB61" s="66"/>
+      <c r="AC61" s="66"/>
+      <c r="AD61" s="66"/>
+      <c r="AE61" s="66"/>
+      <c r="AF61" s="66"/>
+      <c r="AG61" s="66"/>
+      <c r="AH61" s="66"/>
+      <c r="AI61" s="66"/>
+      <c r="AJ61" s="66"/>
+      <c r="AK61" s="66"/>
+      <c r="AL61" s="66"/>
+      <c r="AM61" s="66"/>
+      <c r="AN61" s="66"/>
+      <c r="AO61" s="66"/>
+      <c r="AP61" s="66"/>
+      <c r="AQ61" s="66"/>
+      <c r="AR61" s="66"/>
+      <c r="AS61" s="66"/>
+      <c r="AT61" s="66"/>
+      <c r="AU61" s="66"/>
+      <c r="AV61" s="66"/>
+      <c r="AW61" s="66"/>
+      <c r="AX61" s="66"/>
+      <c r="AY61" s="66"/>
+      <c r="AZ61" s="66"/>
+      <c r="BA61" s="66"/>
+      <c r="BB61" s="66"/>
+      <c r="BC61" s="66"/>
+      <c r="BD61" s="66"/>
+      <c r="BE61" s="66"/>
+      <c r="BF61" s="66"/>
+      <c r="BG61" s="66"/>
+      <c r="BH61" s="66"/>
     </row>
     <row r="62" ht="24" spans="1:60">
-      <c r="A62" s="138"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -6848,59 +6908,59 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="63"/>
-      <c r="T62" s="63"/>
-      <c r="U62" s="63"/>
-      <c r="V62" s="63"/>
-      <c r="W62" s="63"/>
-      <c r="X62" s="63"/>
-      <c r="Y62" s="63"/>
-      <c r="Z62" s="63"/>
-      <c r="AA62" s="63"/>
-      <c r="AB62" s="63"/>
-      <c r="AC62" s="63"/>
-      <c r="AD62" s="63"/>
-      <c r="AE62" s="63"/>
-      <c r="AF62" s="63"/>
-      <c r="AG62" s="63"/>
-      <c r="AH62" s="63"/>
-      <c r="AI62" s="63"/>
-      <c r="AJ62" s="63"/>
-      <c r="AK62" s="63"/>
-      <c r="AL62" s="63"/>
-      <c r="AM62" s="63"/>
-      <c r="AN62" s="63"/>
-      <c r="AO62" s="63"/>
-      <c r="AP62" s="63"/>
-      <c r="AQ62" s="63"/>
-      <c r="AR62" s="63"/>
-      <c r="AS62" s="63"/>
-      <c r="AT62" s="63"/>
-      <c r="AU62" s="63"/>
-      <c r="AV62" s="63"/>
-      <c r="AW62" s="63"/>
-      <c r="AX62" s="63"/>
-      <c r="AY62" s="63"/>
-      <c r="AZ62" s="63"/>
-      <c r="BA62" s="63"/>
-      <c r="BB62" s="63"/>
-      <c r="BC62" s="63"/>
-      <c r="BD62" s="63"/>
-      <c r="BE62" s="63"/>
-      <c r="BF62" s="63"/>
-      <c r="BG62" s="63"/>
-      <c r="BH62" s="63"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="66"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="66"/>
+      <c r="T62" s="66"/>
+      <c r="U62" s="66"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="66"/>
+      <c r="Z62" s="66"/>
+      <c r="AA62" s="66"/>
+      <c r="AB62" s="66"/>
+      <c r="AC62" s="66"/>
+      <c r="AD62" s="66"/>
+      <c r="AE62" s="66"/>
+      <c r="AF62" s="66"/>
+      <c r="AG62" s="66"/>
+      <c r="AH62" s="66"/>
+      <c r="AI62" s="66"/>
+      <c r="AJ62" s="66"/>
+      <c r="AK62" s="66"/>
+      <c r="AL62" s="66"/>
+      <c r="AM62" s="66"/>
+      <c r="AN62" s="66"/>
+      <c r="AO62" s="66"/>
+      <c r="AP62" s="66"/>
+      <c r="AQ62" s="66"/>
+      <c r="AR62" s="66"/>
+      <c r="AS62" s="66"/>
+      <c r="AT62" s="66"/>
+      <c r="AU62" s="66"/>
+      <c r="AV62" s="66"/>
+      <c r="AW62" s="66"/>
+      <c r="AX62" s="66"/>
+      <c r="AY62" s="66"/>
+      <c r="AZ62" s="66"/>
+      <c r="BA62" s="66"/>
+      <c r="BB62" s="66"/>
+      <c r="BC62" s="66"/>
+      <c r="BD62" s="66"/>
+      <c r="BE62" s="66"/>
+      <c r="BF62" s="66"/>
+      <c r="BG62" s="66"/>
+      <c r="BH62" s="66"/>
     </row>
     <row r="63" ht="24" spans="1:60">
-      <c r="A63" s="138"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
+      <c r="A63" s="140"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -6910,59 +6970,59 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="63"/>
-      <c r="U63" s="63"/>
-      <c r="V63" s="63"/>
-      <c r="W63" s="63"/>
-      <c r="X63" s="63"/>
-      <c r="Y63" s="63"/>
-      <c r="Z63" s="63"/>
-      <c r="AA63" s="63"/>
-      <c r="AB63" s="63"/>
-      <c r="AC63" s="63"/>
-      <c r="AD63" s="63"/>
-      <c r="AE63" s="63"/>
-      <c r="AF63" s="63"/>
-      <c r="AG63" s="63"/>
-      <c r="AH63" s="63"/>
-      <c r="AI63" s="63"/>
-      <c r="AJ63" s="63"/>
-      <c r="AK63" s="63"/>
-      <c r="AL63" s="63"/>
-      <c r="AM63" s="63"/>
-      <c r="AN63" s="63"/>
-      <c r="AO63" s="63"/>
-      <c r="AP63" s="63"/>
-      <c r="AQ63" s="63"/>
-      <c r="AR63" s="63"/>
-      <c r="AS63" s="63"/>
-      <c r="AT63" s="63"/>
-      <c r="AU63" s="63"/>
-      <c r="AV63" s="63"/>
-      <c r="AW63" s="63"/>
-      <c r="AX63" s="63"/>
-      <c r="AY63" s="63"/>
-      <c r="AZ63" s="63"/>
-      <c r="BA63" s="63"/>
-      <c r="BB63" s="63"/>
-      <c r="BC63" s="63"/>
-      <c r="BD63" s="63"/>
-      <c r="BE63" s="63"/>
-      <c r="BF63" s="63"/>
-      <c r="BG63" s="63"/>
-      <c r="BH63" s="63"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="66"/>
+      <c r="Q63" s="66"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="66"/>
+      <c r="T63" s="66"/>
+      <c r="U63" s="66"/>
+      <c r="V63" s="66"/>
+      <c r="W63" s="66"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="66"/>
+      <c r="Z63" s="66"/>
+      <c r="AA63" s="66"/>
+      <c r="AB63" s="66"/>
+      <c r="AC63" s="66"/>
+      <c r="AD63" s="66"/>
+      <c r="AE63" s="66"/>
+      <c r="AF63" s="66"/>
+      <c r="AG63" s="66"/>
+      <c r="AH63" s="66"/>
+      <c r="AI63" s="66"/>
+      <c r="AJ63" s="66"/>
+      <c r="AK63" s="66"/>
+      <c r="AL63" s="66"/>
+      <c r="AM63" s="66"/>
+      <c r="AN63" s="66"/>
+      <c r="AO63" s="66"/>
+      <c r="AP63" s="66"/>
+      <c r="AQ63" s="66"/>
+      <c r="AR63" s="66"/>
+      <c r="AS63" s="66"/>
+      <c r="AT63" s="66"/>
+      <c r="AU63" s="66"/>
+      <c r="AV63" s="66"/>
+      <c r="AW63" s="66"/>
+      <c r="AX63" s="66"/>
+      <c r="AY63" s="66"/>
+      <c r="AZ63" s="66"/>
+      <c r="BA63" s="66"/>
+      <c r="BB63" s="66"/>
+      <c r="BC63" s="66"/>
+      <c r="BD63" s="66"/>
+      <c r="BE63" s="66"/>
+      <c r="BF63" s="66"/>
+      <c r="BG63" s="66"/>
+      <c r="BH63" s="66"/>
     </row>
     <row r="64" ht="24" spans="1:60">
-      <c r="A64" s="138"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -6972,59 +7032,59 @@
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="63"/>
-      <c r="V64" s="63"/>
-      <c r="W64" s="63"/>
-      <c r="X64" s="63"/>
-      <c r="Y64" s="63"/>
-      <c r="Z64" s="63"/>
-      <c r="AA64" s="63"/>
-      <c r="AB64" s="63"/>
-      <c r="AC64" s="63"/>
-      <c r="AD64" s="63"/>
-      <c r="AE64" s="63"/>
-      <c r="AF64" s="63"/>
-      <c r="AG64" s="63"/>
-      <c r="AH64" s="63"/>
-      <c r="AI64" s="63"/>
-      <c r="AJ64" s="63"/>
-      <c r="AK64" s="63"/>
-      <c r="AL64" s="63"/>
-      <c r="AM64" s="63"/>
-      <c r="AN64" s="63"/>
-      <c r="AO64" s="63"/>
-      <c r="AP64" s="63"/>
-      <c r="AQ64" s="63"/>
-      <c r="AR64" s="63"/>
-      <c r="AS64" s="63"/>
-      <c r="AT64" s="63"/>
-      <c r="AU64" s="63"/>
-      <c r="AV64" s="63"/>
-      <c r="AW64" s="63"/>
-      <c r="AX64" s="63"/>
-      <c r="AY64" s="63"/>
-      <c r="AZ64" s="63"/>
-      <c r="BA64" s="63"/>
-      <c r="BB64" s="63"/>
-      <c r="BC64" s="63"/>
-      <c r="BD64" s="63"/>
-      <c r="BE64" s="63"/>
-      <c r="BF64" s="63"/>
-      <c r="BG64" s="63"/>
-      <c r="BH64" s="63"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="66"/>
+      <c r="AB64" s="66"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="66"/>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="66"/>
+      <c r="AI64" s="66"/>
+      <c r="AJ64" s="66"/>
+      <c r="AK64" s="66"/>
+      <c r="AL64" s="66"/>
+      <c r="AM64" s="66"/>
+      <c r="AN64" s="66"/>
+      <c r="AO64" s="66"/>
+      <c r="AP64" s="66"/>
+      <c r="AQ64" s="66"/>
+      <c r="AR64" s="66"/>
+      <c r="AS64" s="66"/>
+      <c r="AT64" s="66"/>
+      <c r="AU64" s="66"/>
+      <c r="AV64" s="66"/>
+      <c r="AW64" s="66"/>
+      <c r="AX64" s="66"/>
+      <c r="AY64" s="66"/>
+      <c r="AZ64" s="66"/>
+      <c r="BA64" s="66"/>
+      <c r="BB64" s="66"/>
+      <c r="BC64" s="66"/>
+      <c r="BD64" s="66"/>
+      <c r="BE64" s="66"/>
+      <c r="BF64" s="66"/>
+      <c r="BG64" s="66"/>
+      <c r="BH64" s="66"/>
     </row>
     <row r="65" ht="24" spans="1:13">
-      <c r="A65" s="138"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -7036,10 +7096,10 @@
       <c r="M65" s="15"/>
     </row>
     <row r="66" ht="24" spans="1:13">
-      <c r="A66" s="138"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="144"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="146"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -7051,9 +7111,9 @@
       <c r="M66" s="15"/>
     </row>
     <row r="67" ht="24" spans="1:13">
-      <c r="A67" s="138"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="139"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="141"/>
       <c r="D67" s="35"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -7066,10 +7126,10 @@
       <c r="M67" s="15"/>
     </row>
     <row r="68" ht="24" spans="1:13">
-      <c r="A68" s="138"/>
-      <c r="B68" s="138"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="139"/>
+      <c r="A68" s="140"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -7081,10 +7141,10 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" ht="24" spans="1:13">
-      <c r="A69" s="138"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="139"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -7096,10 +7156,10 @@
       <c r="M69" s="15"/>
     </row>
     <row r="70" ht="24" spans="1:13">
-      <c r="A70" s="138"/>
-      <c r="B70" s="138"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="139"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -7111,8 +7171,8 @@
       <c r="M70" s="15"/>
     </row>
     <row r="71" ht="24" spans="1:13">
-      <c r="A71" s="138"/>
-      <c r="B71" s="138"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="140"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="15"/>
@@ -7126,8 +7186,8 @@
       <c r="M71" s="15"/>
     </row>
     <row r="72" ht="24" spans="1:13">
-      <c r="A72" s="138"/>
-      <c r="B72" s="138"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -7141,8 +7201,8 @@
       <c r="M72" s="15"/>
     </row>
     <row r="73" ht="24" spans="1:13">
-      <c r="A73" s="138"/>
-      <c r="B73" s="138"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -7156,8 +7216,8 @@
       <c r="M73" s="15"/>
     </row>
     <row r="74" ht="24" spans="1:13">
-      <c r="A74" s="138"/>
-      <c r="B74" s="138"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="140"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -7171,8 +7231,8 @@
       <c r="M74" s="15"/>
     </row>
     <row r="75" ht="24" spans="1:13">
-      <c r="A75" s="138"/>
-      <c r="B75" s="138"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="140"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -7186,8 +7246,8 @@
       <c r="M75" s="15"/>
     </row>
     <row r="76" ht="24" spans="1:13">
-      <c r="A76" s="138"/>
-      <c r="B76" s="138"/>
+      <c r="A76" s="140"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -7201,8 +7261,8 @@
       <c r="M76" s="15"/>
     </row>
     <row r="77" ht="24" spans="1:13">
-      <c r="A77" s="138"/>
-      <c r="B77" s="138"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="140"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -7216,8 +7276,8 @@
       <c r="M77" s="15"/>
     </row>
     <row r="78" ht="24" spans="1:13">
-      <c r="A78" s="138"/>
-      <c r="B78" s="138"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="140"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -7278,73 +7338,73 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" s="8">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" ht="192.75" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-사골우거지국(소:호주산,뉴질랜드산)
+북어채콩나물국
 삼곡밥
-두부양념조림
+미트볼야채조림(돼지:국내산,닭:국내산)
 포기김치
-871kcal</v>
+849kcal</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-조랑떡미역국
+콩가루배추국
 삼곡밥
-메추리알어묵조림(갈치:수입산)
+꽁치무조림
 포기김치
-869kcal</v>
+878kcal</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-호박감자고추장찌개
+장터국(소:호주산)
 삼곡밥
-멸치풋고추조림
+두부계란지짐*양념장
 포기김치
-880kcal</v>
+856kcal</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-콩가루배추국
+들깨수제비국
 삼곡밥
-해물떡편완자전
+맛살야채볶음
 포기김치
-874kcal</v>
+864kcal</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-쇠고기두부탕국(소:호주산)
+콩비지찌개(돼지:국내산)
 삼곡밥
-양념깻잎무침
+알감자조림
 포기김치
-877kcal</v>
+861kcal</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:7">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!C8</f>
@@ -7374,63 +7434,63 @@
     </row>
     <row r="5" ht="90" spans="1:7">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*사우전D
+우유
+스크램블에그
+후르트링</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
+        <v>[일품]
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*사우전D
+우유
+계란후라이
+양념웻지감자튀김</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
+        <v>[일품]
+토스트식빵*모닝빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
 슬라이스햄</v>
       </c>
-      <c r="D5" s="8" t="str">
-        <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
-        <v>[일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*오리엔탈D
-우유
-계란후라이
-미니해쉬브라운</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
-        <v>[일품]
-토스트식빵*미니와플/딸기잼*버터
-그린샐러드*오리엔탈D
-우유
-스크램블에그
-단호박샐러드</v>
-      </c>
       <c r="F5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-줄무늬감자튀김</v>
+코코볼</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*오리엔탈D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*사우전D
 우유
-스크램블에그
-초코첵스</v>
+계란후라이
+감자볼튀김</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!C14</f>
@@ -7460,137 +7520,141 @@
     </row>
     <row r="7" ht="214.5" customHeight="1" spans="1:7">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-뚝배기오징어불고기전골
-(소:호주산)
-기장밥
-김계란말이
-우엉땅콩조림
-무말랭이깻잎무침
+육개장
+(소:호주산,국내산(육우))
+흑향미밥
+가자미카레구이
+열무된장나물
+견과류콩조림
 포기김치/석박지
-995kcal</v>
+983kcal</v>
       </c>
       <c r="D7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-뼈다귀해장국
-(돼지:국내산)
-쌀밥
-옛날소시지전*케찹
-도토리묵&amp;올방개묵*양념장
-치커리오이무침
+뚝배기우사골순대국
+(돼지:국내산,소:호주산)
+기장밥
+모듬숙회*초장
+풋고추장떡
+검은깨명엽채무침
 포기김치/석박지
-1004kcal</v>
+990kcal</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-양지탕
-(소:호주산)
-흑향미밥
-떡고기산적구이(돼지:국내산),오미산적
-감자채당근볶음
-청경채쑥갓무침
+[철판]매콤오삼불고기*콩나물파채
+(돼지:독일산)
+수수밥
+근대국
+감자곤약조림
+참나물오이유자무침
 포기김치/석박지
-986kcal</v>
+1001kcal</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-제육마늘불고기*두부찜*양배추쌈SET
-(돼지:국내산)
-수수밥
-시금치국
-어묵채파프리카볶음(갈치:수입산)
-콩나물무침
+뚝배기버섯불고기*꼬맹이만두사리
+(소:호주산)
+차조밥
+비엔나케찹볶음
+탕평채
+아삭이고추된장무침
 포기김치/석박지
-992kcal</v>
+988kcal</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-철판뼈없는닭갈비*고구마*치즈떡사리
-(닭:브라질산)
-삼곡밥
-들깨미역국
-삼색연근튀김*양념장
-매실청오이지무침
+오리주물럭*모듬쌈SET
+(오리:국내산)
+쌀밥
+얼갈이된장국
+모듬버섯잡채
+무말랭이깻잎무침
 포기김치/석박지
-1003kcal</v>
+993kcal</v>
       </c>
     </row>
     <row r="8" ht="120" spans="1:7">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-스팸김치볶음덮밥
-유부된장국
-매콤떡볶이(갈치:수입산)*김말이튀김
-마카로니후르츠샐러드
+일식커리덮밥*멘치까스토핑
+(돼지:국내산)
+미소시루
+단호박블루베리샐러드
+오복채무침
 포기김치/석박지
-1018kcal</v>
+1007kcal</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-먹물크림파스타*마늘바게트
-한입주먹밥크로켓(돼지:국내산)
-스프라이트/스위트베리베리피자
-야채피클
+포크볼토마토파스타
+(돼지:국내산)
+웰치스포도
+까르보나라치킨(닭:미국산)
+생오이피클*할라페뇨
 포기김치/석박지
-1006kcal</v>
+1010kcal</v>
       </c>
       <c r="E8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-수제함박스테이크*양송이데미S
+장조림버터비빔밥
 (돼지:국내산)
-후리가케밥/브로컬리스프
-블루베리식빵튀김/푸질리샐러드파스타
-생오이피클*할라페뇨
+맑은우동국물
+매콤불만두
+코울슬로
 포기김치/석박지
-1016kcal</v>
+1021kcal</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-왕소세지오므라이스*더블S
-맑은우동국물
-치즈감자고로케*케찹
-브로커리땅콩샐러드
+허브통살치킨까스*양념치킨s
+(닭:국내산)
+검정깨밥/옥수수스프
+양념웻지감자튀김
+인절미토스트/야채피클
 포기김치/석박지
-1008kcal</v>
+1020kcal</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-[글루텐프리]잔치쌀국수
-참치김밥1/2/추가밥
-견과류고구마떡맛탕
-단무지부추무침
+매콤육감쫄면
+(돼지:국내산)
+마약김밥*냉채소스/탕파국
+바베큐소시지구이*칠리s,머스타드s
+단무지무침
 포기김치/석박지
-899kcal</v>
+991kcal</v>
       </c>
     </row>
     <row r="9" ht="105" spans="1:7">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>IF(input!C28="","",$B9&amp;CHAR(10)&amp;input!C28&amp;CHAR(10)&amp;input!C29&amp;CHAR(10)&amp;input!C30&amp;CHAR(10)&amp;input!C31&amp;CHAR(10)&amp;input!C32&amp;CHAR(10)&amp;input!C33)</f>
@@ -7603,12 +7667,12 @@
       <c r="E9" s="8" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
         <v>[네이쳐데이]
-영양부추강된장비빔밥
-들깨배추국
-메밀야채쌈*냉채소스
-무지개묵말랭이볶음/청경채쑥갓무침
+곤드레밥*들기름양념장
+근대국
+새송이버섯탕수
+삼색나물/파래김구이
 포기김치/석박지
-684kcal</v>
+732kcal</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -7621,254 +7685,257 @@
     </row>
     <row r="10" ht="90" spans="1:7">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
+고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/부시맥브레드
-520kcal</v>
+두유/모닝빵
+503kcal</v>
       </c>
       <c r="D10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*참치키드빈
-통감자구이/브로컬리꽃맛살
+그린샐러드*새우브로컬리꽃맛살
+통감자구이/메추리알
 야채스틱/바나나/오렌지
 두유/쇠고기장조림주먹밥(소:호주산)
-510kcal</v>
+514kcal</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
-그린샐러드*올리브계란
-고구마찜/새싹연두부
-야채스틱/바나나/방울토마토
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/삶은계란
+야채스틱/바나나/토마토
 두유/참깨롤빵
-513kcal</v>
+510kcal</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*견과류올린구운야채
-통감자구이/메추리알
-야채스틱/바나나/토마토
+그린샐러드*흑임자두부
+고구마찜/브로컬리꽃맛살
+야채스틱/바나나/방울토마토
 두유/참치마요주먹밥
 509kcal</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+그린샐러드*구운새송이버섯과마늘
+단호박구이/새싹연두부
 야채스틱/바나나/오렌지
-두유/현미잡곡주먹밥
-511kcal</v>
+두유/부시맥브레드
+508kcal</v>
       </c>
     </row>
     <row r="11" ht="75" spans="1:7">
       <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
         <v>192</v>
-      </c>
-      <c r="B11" t="s">
-        <v>191</v>
       </c>
       <c r="C11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!C39&amp;CHAR(10)&amp;input!C40&amp;CHAR(10)&amp;input!C41&amp;CHAR(10)&amp;input!C42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-키위D/오리엔탈D</v>
+스위트콘,빈스
+후르츠요거트D/오리엔탈D</v>
       </c>
       <c r="D11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+크루통
+콘마요네즈D/오리엔탈D</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-코코볼
-망고요거트D/오리엔탈D</v>
+아몬드후레이크
+포도D/오리엔탈D</v>
       </c>
       <c r="F11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-흑임자D/오리엔탈D</v>
+견과류
+아몬드D/오리엔탈D</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-후르트링
-복숭아D/오리엔탈D</v>
+초코첵스
+사과배D/오리엔탈D</v>
       </c>
     </row>
     <row r="12" ht="135" spans="1:7">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-깻잎채 올린 철판고추장삼겹살구이
-(돼지:독일산)
+얼큰한 동태알탕
+(동태:러시아산,명태곤이:러시아산,
+명태알:미국산)
 쌀밥
-근대국
-청양풍버섯잡채
-열무나물
-포기김치
-1005kcal</v>
+맛살야채계란말이
+궁중떡볶이
+깐마늘마늘쫑무침
+알타리김치
+985kcal</v>
       </c>
       <c r="D12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-철판 비프할라페뇨볶음밥*스위트칠리S
-(소:호주산)
-유부된장국
-참치브리또*사워크림
-웨지감자튀김
-적채무비트피클
+짜장소스 곁들인 베이컨새우볶음밥
+계란파국
+매콤깐풍기(닭:미국산)
+오이맛살겨자냉채
+단무지부추무침
 포기김치
-993kcal</v>
+1002kcal</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-단호박콩국수
-충무김밥*충무식오징어무침
-고기만두찜
-오복채무침
+봉추찜닭*찹쌀누룽지토핑
+(닭:국내산)
+기장밥
+무채어묵국(갈치:수입산)
+햄계란전*케찹
+멸치풋고추볶음
 포기김치
-989kcal</v>
+994kcal</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-목살묵은지김치찌개
-(돼지:국내산)
-잡곡밥
-꽁치한마리구이*와사비양념장
-탕평채
-견과류콩조림
-알타리김치
-999kcal</v>
+차돌박이된장찌개
+(소:미국산)
+흑향미밥
+해물부추동그랑땡전
+콩나물들깨무침
+쥐어채무침(갈치:국내산)
+열무김치
+991kcal</v>
       </c>
       <c r="G12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-가츠동[일본식돈까스덮밥]
+숯불제육간장불고기*두부찜
 (돼지:국내산)
-미니메밀소바
-고구마튀김*야채튀김
-일식치자단무지,락교 
+잡곡밥
+미역국
+부들어묵볶음
+치커리사과무침
 포기김치
-1013kcal</v>
+989kcal</v>
       </c>
     </row>
     <row r="13" ht="90" spans="1:7">
       <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
         <v>195</v>
-      </c>
-      <c r="B13" t="s">
-        <v>194</v>
       </c>
       <c r="C13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
-그린샐러드*베이컨파프리카
-고구마찜/삶은계란
-야채스틱/바나나/오렌지
-두유/떡갈비주먹밥(돼지:국내산)
-522kcal</v>
+그린샐러드*해산물샐러드
+단호박구이/새싹연두부
+야채스틱/바나나/토마토
+두유/현미후리가케주먹밥
+513kcal</v>
       </c>
       <c r="D13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/새싹연두부
-야채스틱/바나나/토마토
-두유/현미멸치주먹밥
-504kcal</v>
+그린샐러드*흑임자두부
+고구마찜/삶은계란
+야채스틱/바나나/방울토마토
+두유/부시맥브레드
+518kcal</v>
       </c>
       <c r="E13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
+그린샐러드*올리브계란
 통감자구이/브로컬리꽃맛살
-야채스틱/바나나/오렌지
-두유/부시맥브레드
-514kcal</v>
+야채스틱/바나나/오렌지/두유
+떡갈비주먹밥(돼지:국내산,닭:국내산)
+504kcal</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
         <v>[건강도시락]
-그린샐러드*흑임자두부
+그린샐러드*참치키드빈
 단호박구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/참깨롤빵
-513kcal</v>
+야채스틱/바나나/토마토
+두유/모닝빵
+510kcal</v>
       </c>
       <c r="G13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
         <v>[건강도시락]
-그린샐러드*올리브계란
-통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/모닝빵
-513kcal</v>
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/쇠고기장조림주먹밥(소:호주산)
+511kcal</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:7">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!C55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="D14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!D55</f>
         <v>[플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="E14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!E55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="F14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!F55</f>
         <v>[플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="G14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!G55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
     </row>
   </sheetData>
@@ -7883,7 +7950,7 @@
   <sheetPr/>
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -7909,79 +7976,79 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" s="3">
         <f>converter_phase1!C2</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="C2" s="4">
         <f>IF(A2="점심메뉴",TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -7989,7 +8056,7 @@
       </c>
       <c r="D2" s="3">
         <f>B2</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="E2" s="4">
         <f>C2+TIME(1,30,0)</f>
@@ -8003,14 +8070,14 @@
       </c>
       <c r="H2" s="3">
         <f>B2</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="I2" s="5">
         <f>C2-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -8021,19 +8088,19 @@
       <c r="Q2" s="7" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-사골우거지국(소:호주산,뉴질랜드산)
+북어채콩나물국
 삼곡밥
-두부양념조림
+미트볼야채조림(돼지:국내산,닭:국내산)
 포기김치
-871kcal
+849kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-슬라이스햄
+후르트링
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -8044,20 +8111,20 @@
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3">
         <f>B2</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴",TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8065,7 +8132,7 @@
       </c>
       <c r="D3" s="3">
         <f>B3</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -8079,14 +8146,14 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -8097,32 +8164,33 @@
       <c r="Q3" s="7" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-뚝배기오징어불고기전골
-(소:호주산)
-기장밥
-김계란말이
-우엉땅콩조림
-무말랭이깻잎무침
+육개장
+(소:호주산,국내산(육우))
+흑향미밥
+가자미카레구이
+열무된장나물
+견과류콩조림
 포기김치/석박지
-995kcal
+983kcal
 [일품]
-스팸김치볶음덮밥
-유부된장국
-매콤떡볶이(갈치:수입산)*김말이튀김
-마카로니후르츠샐러드
+일식커리덮밥*멘치까스토핑
+(돼지:국내산)
+미소시루
+단호박블루베리샐러드
+오복채무침
 포기김치/석박지
-1018kcal
+1007kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-단호박구이/메추리알
+고구마찜/삶은계란
 야채스틱/바나나/방울토마토
-두유/부시맥브레드
-520kcal
+두유/모닝빵
+503kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-키위D/오리엔탈D</v>
+스위트콘,빈스
+후르츠요거트D/오리엔탈D</v>
       </c>
       <c r="R3" s="2" t="b">
         <v>0</v>
@@ -8131,20 +8199,20 @@
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" s="3">
         <f>B2</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="C4" s="4">
         <f>IF(A4="점심메뉴",TIME(11,30,0),IF(A4="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8152,7 +8220,7 @@
       </c>
       <c r="D4" s="3">
         <f>B4</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="E4" s="4">
         <f>C4+TIME(1,30,0)</f>
@@ -8166,14 +8234,14 @@
       </c>
       <c r="H4" s="3">
         <f>B4</f>
-        <v>41869</v>
+        <v>41876</v>
       </c>
       <c r="I4" s="5">
         <f>C4-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -8184,22 +8252,23 @@
       <c r="Q4" s="7" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-깻잎채 올린 철판고추장삼겹살구이
-(돼지:독일산)
+얼큰한 동태알탕
+(동태:러시아산,명태곤이:러시아산,
+명태알:미국산)
 쌀밥
-근대국
-청양풍버섯잡채
-열무나물
-포기김치
-1005kcal
+맛살야채계란말이
+궁중떡볶이
+깐마늘마늘쫑무침
+알타리김치
+985kcal
 [건강도시락]
-그린샐러드*베이컨파프리카
-고구마찜/삶은계란
-야채스틱/바나나/오렌지
-두유/떡갈비주먹밥(돼지:국내산)
-522kcal
+그린샐러드*해산물샐러드
+단호박구이/새싹연두부
+야채스틱/바나나/토마토
+두유/현미후리가케주먹밥
+513kcal
 [플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="R4" s="2" t="b">
         <v>0</v>
@@ -8208,20 +8277,20 @@
         <v>2</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3">
         <f>B2+1</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴",TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8229,7 +8298,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -8243,14 +8312,14 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -8261,19 +8330,19 @@
       <c r="Q5" s="7" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-조랑떡미역국
+콩가루배추국
 삼곡밥
-메추리알어묵조림(갈치:수입산)
+꽁치무조림
 포기김치
-869kcal
+878kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*토스트식빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-미니해쉬브라운
+양념웻지감자튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -8284,20 +8353,20 @@
         <v>2</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C6" s="4">
         <f>IF(A6="점심메뉴",TIME(11,30,0),IF(A6="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8305,7 +8374,7 @@
       </c>
       <c r="D6" s="3">
         <f>B6</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="E6" s="4">
         <f>C6+TIME(1,30,0)</f>
@@ -8319,14 +8388,14 @@
       </c>
       <c r="H6" s="3">
         <f>B6</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="I6" s="5">
         <f>C6-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -8337,32 +8406,33 @@
       <c r="Q6" s="7" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-뼈다귀해장국
+뚝배기우사골순대국
+(돼지:국내산,소:호주산)
+기장밥
+모듬숙회*초장
+풋고추장떡
+검은깨명엽채무침
+포기김치/석박지
+990kcal
+[일품]
+포크볼토마토파스타
 (돼지:국내산)
-쌀밥
-옛날소시지전*케찹
-도토리묵&amp;올방개묵*양념장
-치커리오이무침
+웰치스포도
+까르보나라치킨(닭:미국산)
+생오이피클*할라페뇨
 포기김치/석박지
-1004kcal
-[일품]
-먹물크림파스타*마늘바게트
-한입주먹밥크로켓(돼지:국내산)
-스프라이트/스위트베리베리피자
-야채피클
-포기김치/석박지
-1006kcal
+1010kcal
 [건강도시락]
-그린샐러드*참치키드빈
-통감자구이/브로컬리꽃맛살
+그린샐러드*새우브로컬리꽃맛살
+통감자구이/메추리알
 야채스틱/바나나/오렌지
 두유/쇠고기장조림주먹밥(소:호주산)
-510kcal
+514kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+크루통
+콘마요네즈D/오리엔탈D</v>
       </c>
       <c r="R6" s="2" t="b">
         <v>0</v>
@@ -8371,20 +8441,20 @@
         <v>2</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B7" s="3">
         <f>B4+1</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C7" s="4">
         <f>IF(A7="점심메뉴",TIME(11,30,0),IF(A7="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8392,7 +8462,7 @@
       </c>
       <c r="D7" s="3">
         <f>B7</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="E7" s="4">
         <f>C7+TIME(1,30,0)</f>
@@ -8406,14 +8476,14 @@
       </c>
       <c r="H7" s="3">
         <f>B7</f>
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="I7" s="5">
         <f>C7-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -8424,22 +8494,21 @@
       <c r="Q7" s="7" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-철판 비프할라페뇨볶음밥*스위트칠리S
-(소:호주산)
-유부된장국
-참치브리또*사워크림
-웨지감자튀김
-적채무비트피클
+짜장소스 곁들인 베이컨새우볶음밥
+계란파국
+매콤깐풍기(닭:미국산)
+오이맛살겨자냉채
+단무지부추무침
 포기김치
-993kcal
+1002kcal
 [건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/새싹연두부
-야채스틱/바나나/토마토
-두유/현미멸치주먹밥
-504kcal
+그린샐러드*흑임자두부
+고구마찜/삶은계란
+야채스틱/바나나/방울토마토
+두유/부시맥브레드
+518kcal
 [플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="R7" s="2" t="b">
         <v>0</v>
@@ -8448,20 +8517,20 @@
         <v>2</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B8" s="3">
         <f>B5+1</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴",TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8469,7 +8538,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -8483,14 +8552,14 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -8501,19 +8570,19 @@
       <c r="Q8" s="7" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-호박감자고추장찌개
+장터국(소:호주산)
 삼곡밥
-멸치풋고추조림
+두부계란지짐*양념장
 포기김치
-880kcal
+856kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*미니와플/딸기잼*버터
-그린샐러드*오리엔탈D
+토스트식빵*모닝빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 스크램블에그
-단호박샐러드
+슬라이스햄
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -8524,20 +8593,20 @@
         <v>2</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V8" s="2"/>
     </row>
     <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B9" s="3">
         <f>B6+1</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="C9" s="4">
         <f>IF(A9="점심메뉴",TIME(11,30,0),IF(A9="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8545,7 +8614,7 @@
       </c>
       <c r="D9" s="3">
         <f>B9</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="E9" s="4">
         <f>C9+TIME(1,30,0)</f>
@@ -8559,14 +8628,14 @@
       </c>
       <c r="H9" s="3">
         <f>B9</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="I9" s="5">
         <f>C9-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -8577,40 +8646,40 @@
       <c r="Q9" s="7" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
         <v>[한식]
-양지탕
-(소:호주산)
-흑향미밥
-떡고기산적구이(돼지:국내산),오미산적
-감자채당근볶음
-청경채쑥갓무침
+[철판]매콤오삼불고기*콩나물파채
+(돼지:독일산)
+수수밥
+근대국
+감자곤약조림
+참나물오이유자무침
 포기김치/석박지
-986kcal
+1001kcal
 [일품]
-수제함박스테이크*양송이데미S
+장조림버터비빔밥
 (돼지:국내산)
-후리가케밥/브로컬리스프
-블루베리식빵튀김/푸질리샐러드파스타
-생오이피클*할라페뇨
+맑은우동국물
+매콤불만두
+코울슬로
 포기김치/석박지
-1016kcal
+1021kcal
 [네이쳐데이]
-영양부추강된장비빔밥
-들깨배추국
-메밀야채쌈*냉채소스
-무지개묵말랭이볶음/청경채쑥갓무침
+곤드레밥*들기름양념장
+근대국
+새송이버섯탕수
+삼색나물/파래김구이
 포기김치/석박지
-684kcal
+732kcal
 [건강도시락]
-그린샐러드*올리브계란
-고구마찜/새싹연두부
-야채스틱/바나나/방울토마토
+그린샐러드*닭가슴살(닭:국내산)
+단호박구이/삶은계란
+야채스틱/바나나/토마토
 두유/참깨롤빵
-513kcal
+510kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-코코볼
-망고요거트D/오리엔탈D</v>
+아몬드후레이크
+포도D/오리엔탈D</v>
       </c>
       <c r="R9" s="2" t="b">
         <v>0</v>
@@ -8619,20 +8688,20 @@
         <v>2</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" s="3">
         <f>B7+1</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="C10" s="4">
         <f>IF(A10="점심메뉴",TIME(11,30,0),IF(A10="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8640,7 +8709,7 @@
       </c>
       <c r="D10" s="3">
         <f>B10</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="E10" s="4">
         <f>C10+TIME(1,30,0)</f>
@@ -8654,14 +8723,14 @@
       </c>
       <c r="H10" s="3">
         <f>B10</f>
-        <v>41871</v>
+        <v>41878</v>
       </c>
       <c r="I10" s="5">
         <f>C10-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -8672,20 +8741,22 @@
       <c r="Q10" s="7" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-단호박콩국수
-충무김밥*충무식오징어무침
-고기만두찜
-오복채무침
+봉추찜닭*찹쌀누룽지토핑
+(닭:국내산)
+기장밥
+무채어묵국(갈치:수입산)
+햄계란전*케찹
+멸치풋고추볶음
 포기김치
-989kcal
+994kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
+그린샐러드*올리브계란
 통감자구이/브로컬리꽃맛살
-야채스틱/바나나/오렌지
-두유/부시맥브레드
-514kcal
+야채스틱/바나나/오렌지/두유
+떡갈비주먹밥(돼지:국내산,닭:국내산)
+504kcal
 [플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="R10" s="2" t="b">
         <v>0</v>
@@ -8694,20 +8765,20 @@
         <v>2</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V10" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B11" s="3">
         <f>B8+1</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="C11" s="4">
         <f>IF(A11="점심메뉴",TIME(11,30,0),IF(A11="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8715,7 +8786,7 @@
       </c>
       <c r="D11" s="3">
         <f>B11</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="E11" s="4">
         <f>C11+TIME(1,30,0)</f>
@@ -8729,14 +8800,14 @@
       </c>
       <c r="H11" s="3">
         <f>B11</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="I11" s="5">
         <f>C11-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -8747,19 +8818,19 @@
       <c r="Q11" s="7" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-콩가루배추국
+들깨수제비국
 삼곡밥
-해물떡편완자전
+맛살야채볶음
 포기김치
-874kcal
+864kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*오리엔탈D
+곡물식빵*참깨롤빵/딸기잼*버터
+그린샐러드*사우전D
 우유
 계란후라이
-줄무늬감자튀김
+코코볼
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -8770,20 +8841,20 @@
         <v>2</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B12" s="3">
         <f>B9+1</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="C12" s="4">
         <f>IF(A12="점심메뉴",TIME(11,30,0),IF(A12="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8791,7 +8862,7 @@
       </c>
       <c r="D12" s="3">
         <f>B12</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="E12" s="4">
         <f>C12+TIME(1,30,0)</f>
@@ -8805,14 +8876,14 @@
       </c>
       <c r="H12" s="3">
         <f>B12</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="I12" s="5">
         <f>C12-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -8823,32 +8894,33 @@
       <c r="Q12" s="7" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-제육마늘불고기*두부찜*양배추쌈SET
-(돼지:국내산)
-수수밥
-시금치국
-어묵채파프리카볶음(갈치:수입산)
-콩나물무침
+뚝배기버섯불고기*꼬맹이만두사리
+(소:호주산)
+차조밥
+비엔나케찹볶음
+탕평채
+아삭이고추된장무침
 포기김치/석박지
-992kcal
+988kcal
 [일품]
-왕소세지오므라이스*더블S
-맑은우동국물
-치즈감자고로케*케찹
-브로커리땅콩샐러드
+허브통살치킨까스*양념치킨s
+(닭:국내산)
+검정깨밥/옥수수스프
+양념웻지감자튀김
+인절미토스트/야채피클
 포기김치/석박지
-1008kcal
+1020kcal
 [건강도시락]
-그린샐러드*견과류올린구운야채
-통감자구이/메추리알
-야채스틱/바나나/토마토
+그린샐러드*흑임자두부
+고구마찜/브로컬리꽃맛살
+야채스틱/바나나/방울토마토
 두유/참치마요주먹밥
 509kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-흑임자D/오리엔탈D</v>
+견과류
+아몬드D/오리엔탈D</v>
       </c>
       <c r="R12" s="2" t="b">
         <v>0</v>
@@ -8857,20 +8929,20 @@
         <v>2</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V12" s="2"/>
     </row>
     <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B13" s="3">
         <f>B10+1</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="C13" s="4">
         <f>IF(A13="점심메뉴",TIME(11,30,0),IF(A13="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8878,7 +8950,7 @@
       </c>
       <c r="D13" s="3">
         <f>B13</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="E13" s="4">
         <f>C13+TIME(1,30,0)</f>
@@ -8892,14 +8964,14 @@
       </c>
       <c r="H13" s="3">
         <f>B13</f>
-        <v>41872</v>
+        <v>41879</v>
       </c>
       <c r="I13" s="5">
         <f>C13-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -8910,22 +8982,22 @@
       <c r="Q13" s="7" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-목살묵은지김치찌개
-(돼지:국내산)
-잡곡밥
-꽁치한마리구이*와사비양념장
-탕평채
-견과류콩조림
-알타리김치
-999kcal
+차돌박이된장찌개
+(소:미국산)
+흑향미밥
+해물부추동그랑땡전
+콩나물들깨무침
+쥐어채무침(갈치:국내산)
+열무김치
+991kcal
 [건강도시락]
-그린샐러드*흑임자두부
+그린샐러드*참치키드빈
 단호박구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/참깨롤빵
-513kcal
+야채스틱/바나나/토마토
+두유/모닝빵
+510kcal
 [플러스메뉴]
-그린샐러드*씨리얼*오리엔탈D</v>
+그린샐러드*씨리얼*키위D</v>
       </c>
       <c r="R13" s="2" t="b">
         <v>0</v>
@@ -8934,20 +9006,20 @@
         <v>2</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V13" s="2"/>
     </row>
     <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B14" s="3">
         <f>B11+1</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="C14" s="4">
         <f>IF(A14="점심메뉴",TIME(11,30,0),IF(A14="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8955,7 +9027,7 @@
       </c>
       <c r="D14" s="3">
         <f>B14</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="E14" s="4">
         <f>C14+TIME(1,30,0)</f>
@@ -8969,14 +9041,14 @@
       </c>
       <c r="H14" s="3">
         <f>B14</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="I14" s="5">
         <f>C14-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -8987,19 +9059,19 @@
       <c r="Q14" s="7" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-쇠고기두부탕국(소:호주산)
+콩비지찌개(돼지:국내산)
 삼곡밥
-양념깻잎무침
+알감자조림
 포기김치
-877kcal
+861kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*오리엔탈D
+토스트식빵*부시맥브레드/딸기잼*버터
+그린샐러드*사우전D
 우유
-스크램블에그
-초코첵스
+계란후라이
+감자볼튀김
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9010,20 +9082,20 @@
         <v>2</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V14" s="2"/>
     </row>
     <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B15" s="3">
         <f>B12+1</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="C15" s="4">
         <f>IF(A15="점심메뉴",TIME(11,30,0),IF(A15="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9031,7 +9103,7 @@
       </c>
       <c r="D15" s="3">
         <f>B15</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="E15" s="4">
         <f>C15+TIME(1,30,0)</f>
@@ -9045,14 +9117,14 @@
       </c>
       <c r="H15" s="3">
         <f>B15</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="I15" s="5">
         <f>C15-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -9063,32 +9135,33 @@
       <c r="Q15" s="7" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-철판뼈없는닭갈비*고구마*치즈떡사리
-(닭:브라질산)
-삼곡밥
-들깨미역국
-삼색연근튀김*양념장
-매실청오이지무침
+오리주물럭*모듬쌈SET
+(오리:국내산)
+쌀밥
+얼갈이된장국
+모듬버섯잡채
+무말랭이깻잎무침
 포기김치/석박지
-1003kcal
+993kcal
 [일품]
-[글루텐프리]잔치쌀국수
-참치김밥1/2/추가밥
-견과류고구마떡맛탕
-단무지부추무침
+매콤육감쫄면
+(돼지:국내산)
+마약김밥*냉채소스/탕파국
+바베큐소시지구이*칠리s,머스타드s
+단무지무침
 포기김치/석박지
-899kcal
+991kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+그린샐러드*구운새송이버섯과마늘
+단호박구이/새싹연두부
 야채스틱/바나나/오렌지
-두유/현미잡곡주먹밥
-511kcal
+두유/부시맥브레드
+508kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-후르트링
-복숭아D/오리엔탈D</v>
+초코첵스
+사과배D/오리엔탈D</v>
       </c>
       <c r="R15" s="2" t="b">
         <v>0</v>
@@ -9097,20 +9170,20 @@
         <v>2</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V15" s="2"/>
     </row>
     <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B16" s="3">
         <f>B13+1</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="C16" s="4">
         <f>IF(A16="점심메뉴",TIME(11,30,0),IF(A16="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9118,7 +9191,7 @@
       </c>
       <c r="D16" s="3">
         <f>B16</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="E16" s="4">
         <f>C16+TIME(1,30,0)</f>
@@ -9132,14 +9205,14 @@
       </c>
       <c r="H16" s="3">
         <f>B16</f>
-        <v>41873</v>
+        <v>41880</v>
       </c>
       <c r="I16" s="5">
         <f>C16-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -9150,21 +9223,22 @@
       <c r="Q16" s="7" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-가츠동[일본식돈까스덮밥]
+숯불제육간장불고기*두부찜
 (돼지:국내산)
-미니메밀소바
-고구마튀김*야채튀김
-일식치자단무지,락교 
+잡곡밥
+미역국
+부들어묵볶음
+치커리사과무침
 포기김치
-1013kcal
+989kcal
 [건강도시락]
-그린샐러드*올리브계란
-통감자구이/메추리알
-야채스틱/바나나/토마토
-두유/모닝빵
-513kcal
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/메추리알
+야채스틱/바나나/방울토마토
+두유/쇠고기장조림주먹밥(소:호주산)
+511kcal
 [플러스메뉴]
-그린샐러드*견과류*오리엔탈D</v>
+그린샐러드*견과류*키위D</v>
       </c>
       <c r="R16" s="2" t="b">
         <v>0</v>
@@ -9173,10 +9247,10 @@
         <v>2</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="V16" s="2"/>
     </row>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13245"/>
+    <workbookView windowWidth="20920" windowHeight="12280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <definedName name="제목">csv_export!$A$1:$V$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
   <si>
     <r>
       <rPr>
@@ -59,19 +58,81 @@
     <t>구분</t>
   </si>
   <si>
-    <t>8월 25일 (월)</t>
-  </si>
-  <si>
-    <t>8월 26일 (화)</t>
-  </si>
-  <si>
-    <t>8월 27일 (수)</t>
-  </si>
-  <si>
-    <t>8월 28일 (목)</t>
-  </si>
-  <si>
-    <t>8월 29일 (금)</t>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="方正书宋_GBK"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="方正书宋_GBK"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="方正书宋_GBK"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>9월 2일 (화)</t>
+  </si>
+  <si>
+    <t>9월 3일 (수)</t>
+  </si>
+  <si>
+    <t>9월 4일 (목)</t>
+  </si>
+  <si>
+    <t>9월 5일 (금)</t>
   </si>
   <si>
     <t>아침
@@ -82,55 +143,58 @@
     <t>한식</t>
   </si>
   <si>
-    <t>북어채콩나물국</t>
-  </si>
-  <si>
-    <t>콩가루배추국</t>
-  </si>
-  <si>
-    <t>장터국(소:호주산)</t>
-  </si>
-  <si>
-    <t>들깨수제비국</t>
-  </si>
-  <si>
-    <t>콩비지찌개(돼지:국내산)</t>
+    <t>김치콩나물국</t>
+  </si>
+  <si>
+    <t>쇠고기미역국(소:호주산)</t>
+  </si>
+  <si>
+    <t>감자양파국</t>
+  </si>
+  <si>
+    <t>순두부김치찌개(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>얼큰오징어무찌개</t>
   </si>
   <si>
     <t>삼곡밥</t>
   </si>
   <si>
-    <t>미트볼야채조림(돼지:국내산,닭:국내산)</t>
-  </si>
-  <si>
-    <t>꽁치무조림</t>
-  </si>
-  <si>
-    <t>두부계란지짐*양념장</t>
-  </si>
-  <si>
-    <t>맛살야채볶음</t>
-  </si>
-  <si>
-    <t>알감자조림</t>
+    <t>비엔나야채볶음</t>
+  </si>
+  <si>
+    <t>두부계란구이*양념장</t>
+  </si>
+  <si>
+    <t>양배추진미채야채무침</t>
+  </si>
+  <si>
+    <t>해물떡편완자전</t>
+  </si>
+  <si>
+    <t>호박새우젓볶음</t>
+  </si>
+  <si>
+    <t>알타리김치</t>
   </si>
   <si>
     <t>포기김치</t>
   </si>
   <si>
-    <t>849kcal</t>
+    <t>861kcal</t>
+  </si>
+  <si>
+    <t>860kcal</t>
+  </si>
+  <si>
+    <t>872kcal</t>
   </si>
   <si>
     <t>878kcal</t>
   </si>
   <si>
-    <t>856kcal</t>
-  </si>
-  <si>
-    <t>864kcal</t>
-  </si>
-  <si>
-    <t>861kcal</t>
+    <t>866kcal</t>
   </si>
   <si>
     <t>즉석</t>
@@ -142,22 +206,22 @@
     <t>일품</t>
   </si>
   <si>
-    <t>곡물식빵*미니와플/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>곡물식빵*토스트식빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*모닝빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>곡물식빵*참깨롤빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>그린샐러드*사우전D</t>
+    <t>곡물식빵*미니크로와상/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*곡물식빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*참깨롤빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>곡물식빵*모닝빵/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>토스트식빵*미니와플/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>그린샐러드*유자레몬D</t>
   </si>
   <si>
     <t>우유</t>
@@ -169,19 +233,19 @@
     <t>계란후라이</t>
   </si>
   <si>
-    <t>후르트링</t>
-  </si>
-  <si>
-    <t>양념웻지감자튀김</t>
-  </si>
-  <si>
-    <t>슬라이스햄</t>
-  </si>
-  <si>
-    <t>코코볼</t>
+    <t>콘후레이크</t>
   </si>
   <si>
     <t>감자볼튀김</t>
+  </si>
+  <si>
+    <t>매쉬드포테이토</t>
+  </si>
+  <si>
+    <t>햄구이</t>
+  </si>
+  <si>
+    <t>줄무늬감자튀김</t>
   </si>
   <si>
     <t>플러스메뉴</t>
@@ -198,194 +262,193 @@
 ~13:00</t>
   </si>
   <si>
-    <t>육개장
-(소:호주산,국내산(육우))</t>
-  </si>
-  <si>
-    <t>뚝배기우사골순대국
-(돼지:국내산,소:호주산)</t>
-  </si>
-  <si>
-    <t>[철판]매콤오삼불고기*콩나물파채
-(돼지:독일산)</t>
-  </si>
-  <si>
-    <t>뚝배기버섯불고기*꼬맹이만두사리
+    <t>닭곰탕*소면사리
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>흑마늘삼겹보쌈*두부찜*부추무침
+(돼지:미국산)</t>
+  </si>
+  <si>
+    <t>숯불철판치즈닭갈비*고구마사리
+(닭:브라질산)</t>
+  </si>
+  <si>
+    <t>철판제육깻잎불고기
+(돼자:국내산)</t>
+  </si>
+  <si>
+    <t>조기구이</t>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+  </si>
+  <si>
+    <t>기장밥</t>
+  </si>
+  <si>
+    <t>수수밥</t>
+  </si>
+  <si>
+    <t>보리밥</t>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+  </si>
+  <si>
+    <t>옛날소세지전*케찹</t>
+  </si>
+  <si>
+    <t>수제비아욱국</t>
+  </si>
+  <si>
+    <t>맑은콩나물국</t>
+  </si>
+  <si>
+    <t>조랑떡미역국</t>
+  </si>
+  <si>
+    <t>쇠고기토란탕(소:호주산)</t>
+  </si>
+  <si>
+    <t>도토리묵야채무침</t>
+  </si>
+  <si>
+    <t>감자전,해물파전</t>
+  </si>
+  <si>
+    <t>삼색밀전병*겨자소스</t>
+  </si>
+  <si>
+    <t>감자채카레볶음</t>
+  </si>
+  <si>
+    <t>두부버섯양념조림</t>
+  </si>
+  <si>
+    <t>통깨건파래볶음</t>
+  </si>
+  <si>
+    <t>우엉땅콩조림</t>
+  </si>
+  <si>
+    <t>볼어묵피망조림(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>양배추쌈&amp;아삭이고추*견과류쌈장</t>
+  </si>
+  <si>
+    <t>오이양파무침</t>
+  </si>
+  <si>
+    <t>포기김치/석박지</t>
+  </si>
+  <si>
+    <t>980kcal</t>
+  </si>
+  <si>
+    <t>1002kcal</t>
+  </si>
+  <si>
+    <t>1005kcal</t>
+  </si>
+  <si>
+    <t>994kcal</t>
+  </si>
+  <si>
+    <t>979kcal</t>
+  </si>
+  <si>
+    <t>순살등심돈까스*일식돈까스s
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>사천식해물볶음을 올린 쟁반짜장</t>
+  </si>
+  <si>
+    <t>스팸마요덮밥</t>
+  </si>
+  <si>
+    <t>매콤까르보나라스파게티</t>
+  </si>
+  <si>
+    <t>불고기필라프*계란후라이*김치S
 (소:호주산)</t>
   </si>
   <si>
-    <t>오리주물럭*모듬쌈SET
-(오리:국내산)</t>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-  </si>
-  <si>
-    <t>기장밥</t>
-  </si>
-  <si>
-    <t>수수밥</t>
-  </si>
-  <si>
-    <t>차조밥</t>
-  </si>
-  <si>
-    <t>쌀밥</t>
-  </si>
-  <si>
-    <t>가자미카레구이</t>
-  </si>
-  <si>
-    <t>모듬숙회*초장</t>
-  </si>
-  <si>
-    <t>근대국</t>
-  </si>
-  <si>
-    <t>비엔나케찹볶음</t>
-  </si>
-  <si>
-    <t>얼갈이된장국</t>
-  </si>
-  <si>
-    <t>열무된장나물</t>
-  </si>
-  <si>
-    <t>풋고추장떡</t>
-  </si>
-  <si>
-    <t>감자곤약조림</t>
-  </si>
-  <si>
-    <t>탕평채</t>
-  </si>
-  <si>
-    <t>모듬버섯잡채</t>
-  </si>
-  <si>
-    <t>견과류콩조림</t>
-  </si>
-  <si>
-    <t>검은깨명엽채무침</t>
-  </si>
-  <si>
-    <t>참나물오이유자무침</t>
-  </si>
-  <si>
-    <t>아삭이고추된장무침</t>
-  </si>
-  <si>
-    <t>무말랭이깻잎무침</t>
-  </si>
-  <si>
-    <t>포기김치/석박지</t>
-  </si>
-  <si>
-    <t>983kcal</t>
-  </si>
-  <si>
-    <t>990kcal</t>
-  </si>
-  <si>
-    <t>1001kcal</t>
-  </si>
-  <si>
-    <t>988kcal</t>
-  </si>
-  <si>
-    <t>993kcal</t>
-  </si>
-  <si>
-    <t>일식커리덮밥*멘치까스토핑
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>포크볼토마토파스타
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>장조림버터비빔밥
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>허브통살치킨까스*양념치킨s
-(닭:국내산)</t>
-  </si>
-  <si>
-    <t>매콤육감쫄면
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>미소시루</t>
-  </si>
-  <si>
-    <t>웰치스포도</t>
+    <t>미니냉모밀</t>
+  </si>
+  <si>
+    <t>계란파국/쌀밥</t>
   </si>
   <si>
     <t>맑은우동국물</t>
   </si>
   <si>
-    <t>검정깨밥/옥수수스프</t>
-  </si>
-  <si>
-    <t>마약김밥*냉채소스/탕파국</t>
-  </si>
-  <si>
-    <t>단호박블루베리샐러드</t>
-  </si>
-  <si>
-    <t>까르보나라치킨(닭:미국산)</t>
-  </si>
-  <si>
-    <t>매콤불만두</t>
-  </si>
-  <si>
-    <t>바베큐소시지구이*칠리s,머스타드s</t>
-  </si>
-  <si>
-    <t>오복채무침</t>
-  </si>
-  <si>
-    <t>생오이피클*할라페뇨</t>
-  </si>
-  <si>
-    <t>코울슬로</t>
-  </si>
-  <si>
-    <t>인절미토스트/야채피클</t>
-  </si>
-  <si>
-    <t>단무지무침</t>
-  </si>
-  <si>
-    <t>1007kcal</t>
-  </si>
-  <si>
-    <t>1010kcal</t>
-  </si>
-  <si>
-    <t>1021kcal</t>
+    <t>스프라이트</t>
+  </si>
+  <si>
+    <t>유부된장국</t>
+  </si>
+  <si>
+    <t>옥수수버터구이/연두부참깨샐러드</t>
+  </si>
+  <si>
+    <t>치킨탕수육(닭:국내산)</t>
+  </si>
+  <si>
+    <t>매콤떡볶이(갈치:수입산)*튀김만두</t>
+  </si>
+  <si>
+    <t>비프바베큐피자(소:호주산)*토마토살사</t>
+  </si>
+  <si>
+    <t>옥수수고로케*케찹</t>
+  </si>
+  <si>
+    <t>치자단무지,락교,초생강</t>
+  </si>
+  <si>
+    <t>오이지매실청무침</t>
+  </si>
+  <si>
+    <t>야채피클</t>
+  </si>
+  <si>
+    <t>무오이피클</t>
+  </si>
+  <si>
+    <t>마카로니후르츠샐러드</t>
+  </si>
+  <si>
+    <t>1023kcal</t>
   </si>
   <si>
     <t>1020kcal</t>
   </si>
   <si>
-    <t>991kcal</t>
+    <t>1019kcal</t>
+  </si>
+  <si>
+    <t>1008kcal</t>
+  </si>
+  <si>
+    <t>992kcal</t>
   </si>
   <si>
     <t>네이쳐데이</t>
   </si>
   <si>
-    <t>곤드레밥*들기름양념장</t>
-  </si>
-  <si>
-    <t>새송이버섯탕수</t>
-  </si>
-  <si>
-    <t>삼색나물/파래김구이</t>
-  </si>
-  <si>
-    <t>732kcal</t>
+    <t>버섯취나물밥*가지넣은약고추장</t>
+  </si>
+  <si>
+    <t>호박전,연근전</t>
+  </si>
+  <si>
+    <t>양배추깻잎비트초절임/콩조림</t>
+  </si>
+  <si>
+    <t>754kcal</t>
   </si>
   <si>
     <t>건강도시락</t>
@@ -394,16 +457,19 @@
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
   </si>
   <si>
-    <t>그린샐러드*새우브로컬리꽃맛살</t>
+    <t>그린샐러드*올리브게란</t>
+  </si>
+  <si>
+    <t>그린샐러드*견과류올린구운야채</t>
   </si>
   <si>
     <t>그린샐러드*흑임자두부</t>
   </si>
   <si>
-    <t>그린샐러드*구운새송이버섯과마늘</t>
-  </si>
-  <si>
-    <t>고구마찜/삶은계란</t>
+    <t>고구마찜/메추리알</t>
+  </si>
+  <si>
+    <t>단호박구이/새싹연두부</t>
   </si>
   <si>
     <t>통감자구이/메추리알</t>
@@ -412,85 +478,76 @@
     <t>단호박구이/삶은계란</t>
   </si>
   <si>
-    <t>고구마찜/브로컬리꽃맛살</t>
-  </si>
-  <si>
-    <t>단호박구이/새싹연두부</t>
-  </si>
-  <si>
     <t>야채스틱/바나나/방울토마토</t>
   </si>
   <si>
+    <t>야채스틱/바나나/토마토</t>
+  </si>
+  <si>
     <t>야채스틱/바나나/오렌지</t>
   </si>
   <si>
-    <t>야채스틱/바나나/토마토</t>
-  </si>
-  <si>
     <t>두유/모닝빵</t>
   </si>
   <si>
-    <t>두유/쇠고기장조림주먹밥(소:호주산)</t>
+    <t>두유/현미멸치주먹밥</t>
   </si>
   <si>
     <t>두유/참깨롤빵</t>
   </si>
   <si>
-    <t>두유/참치마요주먹밥</t>
+    <t>두유/비엔나주먹밥</t>
   </si>
   <si>
     <t>두유/부시맥브레드</t>
   </si>
   <si>
-    <t>503kcal</t>
-  </si>
-  <si>
-    <t>514kcal</t>
+    <t>511kcal</t>
+  </si>
+  <si>
+    <t>504kcal</t>
   </si>
   <si>
     <t>510kcal</t>
   </si>
   <si>
-    <t>509kcal</t>
-  </si>
-  <si>
     <t>508kcal</t>
   </si>
   <si>
+    <t>512kcal</t>
+  </si>
+  <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
   </si>
   <si>
     <t>그린샐러드</t>
   </si>
   <si>
+    <t>견과류</t>
+  </si>
+  <si>
+    <t>씨리얼</t>
+  </si>
+  <si>
+    <t>크루통</t>
+  </si>
+  <si>
     <t>스위트콘,빈스</t>
   </si>
   <si>
-    <t>크루통</t>
-  </si>
-  <si>
-    <t>아몬드후레이크</t>
-  </si>
-  <si>
-    <t>견과류</t>
-  </si>
-  <si>
-    <t>초코첵스</t>
-  </si>
-  <si>
-    <t>후르츠요거트D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>콘마요네즈D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>포도D/오리엔탈D</t>
+    <t>애플D/오리엔탈D</t>
   </si>
   <si>
     <t>아몬드D/오리엔탈D</t>
   </si>
   <si>
-    <t>사과배D/오리엔탈D</t>
+    <t>오렌지D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>사우전D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>흑임자D/오리엔탈D</t>
   </si>
   <si>
     <t>저녁
@@ -503,129 +560,135 @@
 일품</t>
   </si>
   <si>
-    <t>얼큰한 동태알탕
-(동태:러시아산,명태곤이:러시아산,
-명태알:미국산)</t>
-  </si>
-  <si>
-    <t>짜장소스 곁들인 베이컨새우볶음밥</t>
-  </si>
-  <si>
-    <t>봉추찜닭*찹쌀누룽지토핑
-(닭:국내산)</t>
-  </si>
-  <si>
-    <t>차돌박이된장찌개
-(소:미국산)</t>
-  </si>
-  <si>
-    <t>숯불제육간장불고기*두부찜
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>계란파국</t>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-  </si>
-  <si>
-    <t>맛살야채계란말이</t>
-  </si>
-  <si>
-    <t>매콤깐풍기(닭:미국산)</t>
-  </si>
-  <si>
-    <t>무채어묵국(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>해물부추동그랑땡전</t>
-  </si>
-  <si>
-    <t>미역국</t>
-  </si>
-  <si>
-    <t>궁중떡볶이</t>
-  </si>
-  <si>
-    <t>오이맛살겨자냉채</t>
-  </si>
-  <si>
-    <t>햄계란전*케찹</t>
-  </si>
-  <si>
-    <t>콩나물들깨무침</t>
-  </si>
-  <si>
-    <t>부들어묵볶음</t>
-  </si>
-  <si>
-    <t>깐마늘마늘쫑무침</t>
-  </si>
-  <si>
-    <t>단무지부추무침</t>
-  </si>
-  <si>
-    <t>멸치풋고추볶음</t>
-  </si>
-  <si>
-    <t>쥐어채무침(갈치:국내산)</t>
-  </si>
-  <si>
-    <t>치커리사과무침</t>
-  </si>
-  <si>
-    <t>알타리김치</t>
-  </si>
-  <si>
-    <t>열무김치</t>
-  </si>
-  <si>
-    <t>985kcal</t>
-  </si>
-  <si>
-    <t>1002kcal</t>
-  </si>
-  <si>
-    <t>994kcal</t>
-  </si>
-  <si>
-    <t>989kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*해산물샐러드</t>
+    <t>뚝배기심슨탕
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>매콤낙지생야채비빔밥
+(낙지:베트남산)</t>
+  </si>
+  <si>
+    <t>양지차돌쌀국수
+(소:호주산,미국산)</t>
+  </si>
+  <si>
+    <t>쇠고기콩나물밥*계란후라이
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>사골왕만두국
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>쌀밥/버터밥</t>
+  </si>
+  <si>
+    <t>얼갈이된장국</t>
+  </si>
+  <si>
+    <t>파인애플새우볶음밥</t>
+  </si>
+  <si>
+    <t>뚝배기호박고추장찌개</t>
+  </si>
+  <si>
+    <t>쌀밥</t>
+  </si>
+  <si>
+    <t>새송이계란조림</t>
+  </si>
+  <si>
+    <t>고기만두찜</t>
+  </si>
+  <si>
+    <t>치킨퀘사디아(닭:국내산)</t>
+  </si>
+  <si>
+    <t>청양풍잡채</t>
+  </si>
+  <si>
+    <t>수제고추튀김,야채튀김</t>
+  </si>
+  <si>
+    <t>어묵채볶음(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>검은깨명엽채볶음</t>
+  </si>
+  <si>
+    <t>스틱단무지*할라페뇨</t>
+  </si>
+  <si>
+    <t>무말랭이부추무침</t>
+  </si>
+  <si>
+    <t>오징어곤약초무침</t>
+  </si>
+  <si>
+    <t>쑥갓두부무침</t>
+  </si>
+  <si>
+    <t>마늘쫑무침</t>
+  </si>
+  <si>
+    <t>파래김구이*들기름양념장</t>
+  </si>
+  <si>
+    <t>검은콩조림</t>
+  </si>
+  <si>
+    <t>배추겉절이김치</t>
+  </si>
+  <si>
+    <t>983kcal</t>
+  </si>
+  <si>
+    <t>997kcal</t>
+  </si>
+  <si>
+    <t>984kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*새우브로커리꽃맛살</t>
+  </si>
+  <si>
+    <t>그린샐러드*크랜베리큐브참치</t>
   </si>
   <si>
     <t>그린샐러드*올리브계란</t>
   </si>
   <si>
-    <t>그린샐러드*참치키드빈</t>
+    <t>고구마찜/삶은계란</t>
+  </si>
+  <si>
+    <t>단호박구이/메추리알</t>
   </si>
   <si>
     <t>통감자구이/브로컬리꽃맛살</t>
   </si>
   <si>
-    <t>고구마찜/메추리알</t>
-  </si>
-  <si>
-    <t>야채스틱/바나나/오렌지/두유</t>
-  </si>
-  <si>
-    <t>두유/현미후리가케주먹밥</t>
-  </si>
-  <si>
-    <t>떡갈비주먹밥(돼지:국내산,닭:국내산)</t>
-  </si>
-  <si>
-    <t>513kcal</t>
-  </si>
-  <si>
-    <t>518kcal</t>
-  </si>
-  <si>
-    <t>504kcal</t>
-  </si>
-  <si>
-    <t>511kcal</t>
+    <t>야채스티/바나나/오렌지</t>
+  </si>
+  <si>
+    <t>두유/쇠고기장조림주먹밥(소:호주산)</t>
+  </si>
+  <si>
+    <t>두유/떡갈비주먹밥</t>
+  </si>
+  <si>
+    <t>501kcal</t>
+  </si>
+  <si>
+    <t>509kcal</t>
+  </si>
+  <si>
+    <t>519kcal</t>
+  </si>
+  <si>
+    <t>514kcal</t>
+  </si>
+  <si>
+    <t>(돼지:국내산,닭:국내산) 519Kcal</t>
   </si>
   <si>
     <t>그린샐러드*견과류*키위D</t>
@@ -759,21 +822,169 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="10">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="#\ &quot;Kcal&quot;"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="#\ &quot;Kcal&quot;"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="183" formatCode="H:mm:ss"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="25"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -830,13 +1041,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
@@ -852,146 +1056,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="25"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="22"/>
       <name val="맑은 고딕"/>
@@ -1002,6 +1066,13 @@
       <b/>
       <sz val="15"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="方正书宋_GBK"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1087,7 +1158,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,13 +1182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,24 +1212,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1480,29 +1551,7 @@
         <color indexed="22"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <top style="thick">
         <color indexed="9"/>
       </top>
       <bottom/>
@@ -1522,21 +1571,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
         <color indexed="22"/>
-      </left>
-      <right/>
-      <top/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="22"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="22"/>
       </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1556,30 +1618,6 @@
       <left style="medium">
         <color indexed="22"/>
       </left>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -1602,61 +1640,15 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="51"/>
+        <color indexed="22"/>
       </left>
       <right style="medium">
-        <color indexed="51"/>
+        <color indexed="22"/>
       </right>
-      <top style="medium">
-        <color indexed="51"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="51"/>
-      </left>
-      <right style="medium">
-        <color indexed="51"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="22"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="51"/>
-      </left>
-      <right style="medium">
-        <color indexed="51"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="51"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1674,13 +1666,57 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top style="medium">
+        <color indexed="53"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="53"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="9"/>
       </left>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
+      <right/>
       <top style="medium">
-        <color indexed="22"/>
+        <color indexed="9"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1810,37 +1846,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="62"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
-        <color indexed="62"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
-        <color indexed="62"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="53"/>
-      </left>
-      <right style="medium">
-        <color indexed="53"/>
-      </right>
-      <top style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1869,10 +1881,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="62"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
-        <color indexed="62"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -1880,12 +1892,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="53"/>
+        <color indexed="22"/>
       </left>
-      <right style="medium">
-        <color indexed="53"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1915,14 +1927,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="62"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
-        <color indexed="62"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="62"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1934,19 +1946,6 @@
       <top/>
       <bottom style="medium">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="53"/>
-      </left>
-      <right style="medium">
-        <color indexed="53"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="53"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2045,22 +2044,33 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="49"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2068,8 +2078,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2092,43 +2102,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2147,632 +2137,617 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="81" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="70" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="80" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="83" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="82" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="139">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="58" fontId="22" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="78" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="48" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="26" fillId="3" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="26" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="26" fillId="3" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="15" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="23" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="24" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="147">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="32" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="33" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="34" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="40" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="41" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="43" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="24" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="47" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="48" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="47" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="49" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="51" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="53" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="54" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="56" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="58" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="59" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="60" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="34" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="61" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="42" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="62" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="63" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="35" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="15" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="33" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="30" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="34" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="36" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="44" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="49" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="50" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="53" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="54" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="59" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="63" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="64" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="65" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="39" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="66" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="67" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="45" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="68" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="74" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2822,28 +2797,24 @@
     <cellStyle name="쉼표 [0] 5" xfId="42"/>
     <cellStyle name="쉼표 [0] 6" xfId="43"/>
     <cellStyle name="쉼표 [0] 7" xfId="44"/>
-    <cellStyle name="쉼표 [0] 8" xfId="45"/>
-    <cellStyle name="표준 2" xfId="46"/>
+    <cellStyle name="표준 2" xfId="45"/>
+    <cellStyle name="쉼표 [0] 8" xfId="46"/>
     <cellStyle name="쉼표 [0] 9" xfId="47"/>
     <cellStyle name="표준" xfId="48"/>
     <cellStyle name="Comma[0]" xfId="49" builtinId="6"/>
-    <cellStyle name="설명 텍스트" xfId="50"/>
-    <cellStyle name="20% - 강조색1" xfId="51"/>
+    <cellStyle name="20% - 강조색1" xfId="50"/>
+    <cellStyle name="설명 텍스트" xfId="51"/>
     <cellStyle name="20% - 강조색2" xfId="52"/>
-    <cellStyle name="20% - 강조색3" xfId="53"/>
+    <cellStyle name="입력" xfId="53"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="54"/>
-    <cellStyle name="입력" xfId="55"/>
+    <cellStyle name="20% - 강조색3" xfId="55"/>
     <cellStyle name="20% - 강조색4" xfId="56"/>
     <cellStyle name="20% - 강조색5" xfId="57"/>
-    <cellStyle name="보통" xfId="58"/>
-    <cellStyle name="20% - 강조색6" xfId="59"/>
+    <cellStyle name="20% - 강조색6" xfId="58"/>
+    <cellStyle name="보통" xfId="59"/>
     <cellStyle name="표준_신메뉴(1)" xfId="60"/>
   </cellStyles>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3158,7 +3129,9 @@
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -3177,11 +3150,11 @@
   <sheetPr/>
   <dimension ref="A1:BH78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="34.375" customWidth="1"/>
@@ -3207,18 +3180,18 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-    </row>
-    <row r="2" ht="20.25" spans="1:22">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+    </row>
+    <row r="2" ht="22.5" spans="1:22">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3243,16 +3216,16 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:22">
       <c r="A3" s="22" t="s">
@@ -3367,16 +3340,16 @@
         <v>20</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -3398,19 +3371,19 @@
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -3428,25 +3401,25 @@
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
     </row>
-    <row r="8" ht="21" spans="1:22">
+    <row r="8" ht="22.5" spans="1:22">
       <c r="A8" s="22"/>
       <c r="B8" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -3467,22 +3440,22 @@
     <row r="9" ht="23.1" customHeight="1" spans="1:22">
       <c r="A9" s="22"/>
       <c r="B9" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -3504,19 +3477,19 @@
       <c r="A10" s="22"/>
       <c r="B10" s="30"/>
       <c r="C10" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -3538,24 +3511,24 @@
       <c r="A11" s="22"/>
       <c r="B11" s="30"/>
       <c r="C11" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="100"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -3572,16 +3545,16 @@
       <c r="A12" s="22"/>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>37</v>
@@ -3600,25 +3573,25 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="142"/>
+      <c r="V12" s="134"/>
     </row>
     <row r="13" ht="21.95" customHeight="1" spans="1:22">
       <c r="A13" s="36"/>
       <c r="B13" s="30"/>
       <c r="C13" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -3636,25 +3609,25 @@
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" ht="20.25" spans="1:22">
+    <row r="14" ht="22.5" spans="1:22">
       <c r="A14" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>44</v>
+      <c r="D14" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="F14" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>44</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3674,25 +3647,25 @@
     </row>
     <row r="15" ht="54" customHeight="1" spans="1:22">
       <c r="A15" s="46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="52" t="s">
         <v>51</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -3701,7 +3674,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="100"/>
+      <c r="O15" s="95"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
@@ -3713,20 +3686,20 @@
     <row r="16" ht="27" customHeight="1" spans="1:22">
       <c r="A16" s="22"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="D16" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="E16" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="F16" s="55" t="s">
         <v>56</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -3747,20 +3720,20 @@
     <row r="17" ht="53.25" customHeight="1" spans="1:60">
       <c r="A17" s="22"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="E17" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="F17" s="55" t="s">
         <v>61</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -3819,20 +3792,20 @@
     <row r="18" ht="27" customHeight="1" spans="1:60">
       <c r="A18" s="22"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="59" t="s">
+      <c r="C18" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="D18" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="E18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="F18" s="26" t="s">
         <v>66</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -3891,238 +3864,238 @@
     <row r="19" ht="27" customHeight="1" spans="1:60">
       <c r="A19" s="22"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="64" t="s">
+      <c r="C19" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="D19" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="E19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="F19" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="G19" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="61"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-      <c r="BA19" s="66"/>
-      <c r="BB19" s="66"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="66"/>
-      <c r="BG19" s="66"/>
-      <c r="BH19" s="66"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="61"/>
+      <c r="BH19" s="61"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:60">
       <c r="A20" s="22"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="66"/>
+      <c r="C20" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="61"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
-      <c r="BA20" s="66"/>
-      <c r="BB20" s="66"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="61"/>
+      <c r="AK20" s="61"/>
+      <c r="AL20" s="61"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
+      <c r="AO20" s="61"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="61"/>
+      <c r="AS20" s="61"/>
+      <c r="AT20" s="61"/>
+      <c r="AU20" s="61"/>
+      <c r="AV20" s="61"/>
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="61"/>
+      <c r="BB20" s="61"/>
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="61"/>
+      <c r="BG20" s="61"/>
+      <c r="BH20" s="61"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:60">
       <c r="A21" s="22"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="70" t="s">
+      <c r="C21" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="D21" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="73" t="s">
+      <c r="F21" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="G21" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="61"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="144"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="136"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-    </row>
-    <row r="22" ht="59.25" spans="1:60">
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+    </row>
+    <row r="22" ht="67.5" spans="1:60">
       <c r="A22" s="22"/>
-      <c r="B22" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="76" t="s">
+      <c r="B22" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="D22" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="E22" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="F22" s="73" t="s">
         <v>82</v>
+      </c>
+      <c r="G22" s="73" t="s">
+        <v>83</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -4180,21 +4153,21 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:60">
       <c r="A23" s="22"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="79" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="D23" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="E23" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="F23" s="58" t="s">
         <v>87</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -4252,21 +4225,21 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:60">
       <c r="A24" s="22"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="81" t="s">
+      <c r="B24" s="69"/>
+      <c r="C24" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="D24" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="80" t="s">
+      <c r="E24" s="74" t="s">
         <v>91</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>93</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -4324,21 +4297,21 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:60">
       <c r="A25" s="22"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="80" t="s">
+      <c r="B25" s="69"/>
+      <c r="C25" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="77" t="s">
+      <c r="D25" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="80" t="s">
+      <c r="E25" s="74" t="s">
         <v>96</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -4396,24 +4369,24 @@
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:60">
       <c r="A26" s="22"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>72</v>
+      <c r="B26" s="69"/>
+      <c r="C26" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>73</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="66"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -4468,24 +4441,24 @@
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:60">
       <c r="A27" s="22"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="79" t="s">
         <v>99</v>
       </c>
+      <c r="D27" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>101</v>
+      </c>
       <c r="F27" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
+        <v>102</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -4493,7 +4466,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="100"/>
+      <c r="Q27" s="95"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
@@ -4540,16 +4513,16 @@
     </row>
     <row r="28" ht="26.25" customHeight="1" spans="1:60">
       <c r="A28" s="22"/>
-      <c r="B28" s="86" t="s">
-        <v>102</v>
+      <c r="B28" s="82" t="s">
+        <v>104</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="78"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="35"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -4606,14 +4579,14 @@
     </row>
     <row r="29" ht="26.25" customHeight="1" spans="1:60">
       <c r="A29" s="22"/>
-      <c r="B29" s="89"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="25"/>
       <c r="D29" s="24"/>
       <c r="E29" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="85"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="35"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -4670,14 +4643,14 @@
     </row>
     <row r="30" ht="26.25" customHeight="1" spans="1:60">
       <c r="A30" s="22"/>
-      <c r="B30" s="89"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="25"/>
       <c r="D30" s="24"/>
       <c r="E30" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="91"/>
-      <c r="G30" s="77"/>
+        <v>106</v>
+      </c>
+      <c r="F30" s="86"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="35"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -4734,14 +4707,14 @@
     </row>
     <row r="31" ht="26.25" customHeight="1" spans="1:60">
       <c r="A31" s="22"/>
-      <c r="B31" s="89"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="25"/>
       <c r="D31" s="24"/>
       <c r="E31" s="25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="35"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -4798,14 +4771,14 @@
     </row>
     <row r="32" ht="26.25" customHeight="1" spans="1:60">
       <c r="A32" s="22"/>
-      <c r="B32" s="89"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="25"/>
       <c r="D32" s="24"/>
       <c r="E32" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="58"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="35"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -4862,14 +4835,14 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:60">
       <c r="A33" s="22"/>
-      <c r="B33" s="92"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="25"/>
       <c r="D33" s="24"/>
       <c r="E33" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="93"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="35"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
@@ -4926,27 +4899,27 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:60">
       <c r="A34" s="22"/>
-      <c r="B34" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="94" t="s">
+      <c r="B34" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="94" t="s">
+      <c r="C34" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="94" t="s">
+      <c r="D34" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
+      <c r="E34" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="90"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -5000,25 +4973,25 @@
     </row>
     <row r="35" ht="26.25" customHeight="1" spans="1:60">
       <c r="A35" s="22"/>
-      <c r="B35" s="89"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="95"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -5072,25 +5045,25 @@
     </row>
     <row r="36" ht="26.25" customHeight="1" spans="1:60">
       <c r="A36" s="22"/>
-      <c r="B36" s="89"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="G36" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="95"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -5144,27 +5117,27 @@
     </row>
     <row r="37" ht="26.25" customHeight="1" spans="1:60">
       <c r="A37" s="22"/>
-      <c r="B37" s="89"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
+        <v>125</v>
+      </c>
+      <c r="H37" s="90"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="145"/>
+      <c r="L37" s="137"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
@@ -5216,27 +5189,27 @@
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:60">
       <c r="A38" s="36"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="96" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="D38" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="96" t="s">
+      <c r="E38" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="F38" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="95"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
+      <c r="G38" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="90"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
       <c r="K38" s="15"/>
-      <c r="L38" s="145"/>
+      <c r="L38" s="137"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
@@ -5287,28 +5260,28 @@
       <c r="BH38" s="15"/>
     </row>
     <row r="39" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A39" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="98"/>
-      <c r="C39" s="99" t="s">
-        <v>130</v>
+      <c r="A39" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="93"/>
+      <c r="C39" s="94" t="s">
+        <v>131</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
+        <v>131</v>
+      </c>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -5361,26 +5334,26 @@
       <c r="BH39" s="15"/>
     </row>
     <row r="40" ht="21" customHeight="1" spans="1:60">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -5433,26 +5406,26 @@
       <c r="BH40" s="15"/>
     </row>
     <row r="41" ht="21" customHeight="1" spans="1:60">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="104" t="s">
+      <c r="A41" s="96"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="104" t="s">
+      <c r="D41" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="103" t="s">
+      <c r="E41" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="103" t="s">
+      <c r="F41" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
+      <c r="G41" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -5505,26 +5478,26 @@
       <c r="BH41" s="15"/>
     </row>
     <row r="42" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A42" s="105"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="104" t="s">
+      <c r="A42" s="100"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="106" t="s">
+      <c r="D42" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="103" t="s">
+      <c r="G42" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="100"/>
+      <c r="H42" s="95"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="100"/>
+      <c r="J42" s="95"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -5577,31 +5550,31 @@
       <c r="BH42" s="15"/>
     </row>
     <row r="43" ht="54" customHeight="1" spans="1:60">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="111" t="s">
+      <c r="F43" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="112" t="s">
+      <c r="G43" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="113"/>
+      <c r="H43" s="106"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
@@ -5653,26 +5626,26 @@
       <c r="BH43" s="15"/>
     </row>
     <row r="44" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="77" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="83" t="s">
+      <c r="D44" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="H44" s="118"/>
+      <c r="E44" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="110"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="100"/>
+      <c r="J44" s="95"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
@@ -5725,26 +5698,26 @@
       <c r="BH44" s="15"/>
     </row>
     <row r="45" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="120" t="s">
+      <c r="A45" s="107"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="121" t="s">
+      <c r="D45" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="122"/>
+      <c r="E45" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="113"/>
       <c r="I45" s="15"/>
-      <c r="J45" s="100"/>
+      <c r="J45" s="95"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -5797,26 +5770,26 @@
       <c r="BH45" s="15"/>
     </row>
     <row r="46" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A46" s="114"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="120" t="s">
+      <c r="A46" s="107"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="G46" s="83" t="s">
+      <c r="D46" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="118"/>
+      <c r="E46" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="H46" s="110"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="100"/>
+      <c r="J46" s="95"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
@@ -5869,26 +5842,26 @@
       <c r="BH46" s="15"/>
     </row>
     <row r="47" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A47" s="114"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="117" t="s">
+      <c r="A47" s="107"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="111" t="s">
         <v>164</v>
       </c>
-      <c r="G47" s="80" t="s">
+      <c r="D47" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="H47" s="118"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="100"/>
+      <c r="E47" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="110"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="95"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -5941,26 +5914,24 @@
       <c r="BH47" s="15"/>
     </row>
     <row r="48" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A48" s="123"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="G48" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="124"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="100"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="116"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="95"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
@@ -6013,26 +5984,24 @@
       <c r="BH48" s="15"/>
     </row>
     <row r="49" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A49" s="123"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="126" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="127" t="s">
+      <c r="A49" s="114"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="E49" s="128" t="s">
+      <c r="E49" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="127" t="s">
+      <c r="F49" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -6086,27 +6055,27 @@
     </row>
     <row r="50" ht="23.1" customHeight="1" spans="1:60">
       <c r="A50" s="46"/>
-      <c r="B50" s="130" t="s">
-        <v>107</v>
+      <c r="B50" s="121" t="s">
+        <v>109</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="87" t="s">
+      <c r="D50" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="87" t="s">
+      <c r="E50" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -6160,21 +6129,21 @@
     </row>
     <row r="51" ht="21.95" customHeight="1" spans="1:60">
       <c r="A51" s="46"/>
-      <c r="B51" s="131"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -6232,21 +6201,21 @@
     </row>
     <row r="52" ht="21.95" customHeight="1" spans="1:60">
       <c r="A52" s="46"/>
-      <c r="B52" s="131"/>
+      <c r="B52" s="123"/>
       <c r="C52" s="25" t="s">
         <v>119</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>119</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -6304,21 +6273,21 @@
     </row>
     <row r="53" ht="21.95" customHeight="1" spans="1:60">
       <c r="A53" s="46"/>
-      <c r="B53" s="131"/>
+      <c r="B53" s="123"/>
       <c r="C53" s="25" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E53" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>120</v>
-      </c>
       <c r="G53" s="24" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -6375,22 +6344,22 @@
       <c r="BH53" s="15"/>
     </row>
     <row r="54" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A54" s="132"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" s="96" t="s">
+      <c r="A54" s="124"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="E54" s="96" t="s">
+      <c r="D54" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="G54" s="96" t="s">
+      <c r="E54" s="91" t="s">
         <v>183</v>
+      </c>
+      <c r="F54" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="91" t="s">
+        <v>185</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -6446,26 +6415,24 @@
       <c r="BG54" s="15"/>
       <c r="BH54" s="15"/>
     </row>
-    <row r="55" ht="20.25" spans="1:60">
-      <c r="A55" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="102"/>
-      <c r="C55" s="134" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55" s="135" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="135" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="135" t="s">
-        <v>185</v>
-      </c>
-      <c r="G55" s="135" t="s">
-        <v>184</v>
-      </c>
+    <row r="55" ht="22.5" spans="1:60">
+      <c r="A55" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="97"/>
+      <c r="C55" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="127" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="127"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -6521,15 +6488,15 @@
       <c r="BH55" s="15"/>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:60">
-      <c r="A56" s="136" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="138"/>
+      <c r="A56" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="130"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -6584,14 +6551,14 @@
       <c r="BG56" s="15"/>
       <c r="BH56" s="15"/>
     </row>
-    <row r="57" ht="24" spans="1:60">
-      <c r="A57" s="139"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="141"/>
+    <row r="57" ht="24.75" spans="1:60">
+      <c r="A57" s="131"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="133"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="142"/>
+      <c r="G57" s="134"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6646,11 +6613,11 @@
       <c r="BG57" s="15"/>
       <c r="BH57" s="15"/>
     </row>
-    <row r="58" ht="24" spans="1:60">
-      <c r="A58" s="140"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
+    <row r="58" ht="24.75" spans="1:60">
+      <c r="A58" s="132"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -6708,11 +6675,11 @@
       <c r="BG58" s="15"/>
       <c r="BH58" s="15"/>
     </row>
-    <row r="59" ht="24" spans="1:60">
-      <c r="A59" s="140"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+    <row r="59" ht="24.75" spans="1:60">
+      <c r="A59" s="132"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -6722,59 +6689,59 @@
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="66"/>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="66"/>
-      <c r="AB59" s="66"/>
-      <c r="AC59" s="66"/>
-      <c r="AD59" s="66"/>
-      <c r="AE59" s="66"/>
-      <c r="AF59" s="66"/>
-      <c r="AG59" s="66"/>
-      <c r="AH59" s="66"/>
-      <c r="AI59" s="66"/>
-      <c r="AJ59" s="66"/>
-      <c r="AK59" s="66"/>
-      <c r="AL59" s="66"/>
-      <c r="AM59" s="66"/>
-      <c r="AN59" s="66"/>
-      <c r="AO59" s="66"/>
-      <c r="AP59" s="66"/>
-      <c r="AQ59" s="66"/>
-      <c r="AR59" s="66"/>
-      <c r="AS59" s="66"/>
-      <c r="AT59" s="66"/>
-      <c r="AU59" s="66"/>
-      <c r="AV59" s="66"/>
-      <c r="AW59" s="66"/>
-      <c r="AX59" s="66"/>
-      <c r="AY59" s="66"/>
-      <c r="AZ59" s="66"/>
-      <c r="BA59" s="66"/>
-      <c r="BB59" s="66"/>
-      <c r="BC59" s="66"/>
-      <c r="BD59" s="66"/>
-      <c r="BE59" s="66"/>
-      <c r="BF59" s="66"/>
-      <c r="BG59" s="66"/>
-      <c r="BH59" s="66"/>
-    </row>
-    <row r="60" ht="24" spans="1:60">
-      <c r="A60" s="140"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="61"/>
+      <c r="AC59" s="61"/>
+      <c r="AD59" s="61"/>
+      <c r="AE59" s="61"/>
+      <c r="AF59" s="61"/>
+      <c r="AG59" s="61"/>
+      <c r="AH59" s="61"/>
+      <c r="AI59" s="61"/>
+      <c r="AJ59" s="61"/>
+      <c r="AK59" s="61"/>
+      <c r="AL59" s="61"/>
+      <c r="AM59" s="61"/>
+      <c r="AN59" s="61"/>
+      <c r="AO59" s="61"/>
+      <c r="AP59" s="61"/>
+      <c r="AQ59" s="61"/>
+      <c r="AR59" s="61"/>
+      <c r="AS59" s="61"/>
+      <c r="AT59" s="61"/>
+      <c r="AU59" s="61"/>
+      <c r="AV59" s="61"/>
+      <c r="AW59" s="61"/>
+      <c r="AX59" s="61"/>
+      <c r="AY59" s="61"/>
+      <c r="AZ59" s="61"/>
+      <c r="BA59" s="61"/>
+      <c r="BB59" s="61"/>
+      <c r="BC59" s="61"/>
+      <c r="BD59" s="61"/>
+      <c r="BE59" s="61"/>
+      <c r="BF59" s="61"/>
+      <c r="BG59" s="61"/>
+      <c r="BH59" s="61"/>
+    </row>
+    <row r="60" ht="24.75" spans="1:60">
+      <c r="A60" s="132"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -6784,59 +6751,59 @@
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="66"/>
-      <c r="AB60" s="66"/>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="66"/>
-      <c r="AF60" s="66"/>
-      <c r="AG60" s="66"/>
-      <c r="AH60" s="66"/>
-      <c r="AI60" s="66"/>
-      <c r="AJ60" s="66"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="66"/>
-      <c r="AM60" s="66"/>
-      <c r="AN60" s="66"/>
-      <c r="AO60" s="66"/>
-      <c r="AP60" s="66"/>
-      <c r="AQ60" s="66"/>
-      <c r="AR60" s="66"/>
-      <c r="AS60" s="66"/>
-      <c r="AT60" s="66"/>
-      <c r="AU60" s="66"/>
-      <c r="AV60" s="66"/>
-      <c r="AW60" s="66"/>
-      <c r="AX60" s="66"/>
-      <c r="AY60" s="66"/>
-      <c r="AZ60" s="66"/>
-      <c r="BA60" s="66"/>
-      <c r="BB60" s="66"/>
-      <c r="BC60" s="66"/>
-      <c r="BD60" s="66"/>
-      <c r="BE60" s="66"/>
-      <c r="BF60" s="66"/>
-      <c r="BG60" s="66"/>
-      <c r="BH60" s="66"/>
-    </row>
-    <row r="61" ht="24" spans="1:60">
-      <c r="A61" s="140"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="61"/>
+      <c r="U60" s="61"/>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="61"/>
+      <c r="Y60" s="61"/>
+      <c r="Z60" s="61"/>
+      <c r="AA60" s="61"/>
+      <c r="AB60" s="61"/>
+      <c r="AC60" s="61"/>
+      <c r="AD60" s="61"/>
+      <c r="AE60" s="61"/>
+      <c r="AF60" s="61"/>
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="61"/>
+      <c r="AI60" s="61"/>
+      <c r="AJ60" s="61"/>
+      <c r="AK60" s="61"/>
+      <c r="AL60" s="61"/>
+      <c r="AM60" s="61"/>
+      <c r="AN60" s="61"/>
+      <c r="AO60" s="61"/>
+      <c r="AP60" s="61"/>
+      <c r="AQ60" s="61"/>
+      <c r="AR60" s="61"/>
+      <c r="AS60" s="61"/>
+      <c r="AT60" s="61"/>
+      <c r="AU60" s="61"/>
+      <c r="AV60" s="61"/>
+      <c r="AW60" s="61"/>
+      <c r="AX60" s="61"/>
+      <c r="AY60" s="61"/>
+      <c r="AZ60" s="61"/>
+      <c r="BA60" s="61"/>
+      <c r="BB60" s="61"/>
+      <c r="BC60" s="61"/>
+      <c r="BD60" s="61"/>
+      <c r="BE60" s="61"/>
+      <c r="BF60" s="61"/>
+      <c r="BG60" s="61"/>
+      <c r="BH60" s="61"/>
+    </row>
+    <row r="61" ht="24.75" spans="1:60">
+      <c r="A61" s="132"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -6846,59 +6813,59 @@
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="66"/>
-      <c r="Z61" s="66"/>
-      <c r="AA61" s="66"/>
-      <c r="AB61" s="66"/>
-      <c r="AC61" s="66"/>
-      <c r="AD61" s="66"/>
-      <c r="AE61" s="66"/>
-      <c r="AF61" s="66"/>
-      <c r="AG61" s="66"/>
-      <c r="AH61" s="66"/>
-      <c r="AI61" s="66"/>
-      <c r="AJ61" s="66"/>
-      <c r="AK61" s="66"/>
-      <c r="AL61" s="66"/>
-      <c r="AM61" s="66"/>
-      <c r="AN61" s="66"/>
-      <c r="AO61" s="66"/>
-      <c r="AP61" s="66"/>
-      <c r="AQ61" s="66"/>
-      <c r="AR61" s="66"/>
-      <c r="AS61" s="66"/>
-      <c r="AT61" s="66"/>
-      <c r="AU61" s="66"/>
-      <c r="AV61" s="66"/>
-      <c r="AW61" s="66"/>
-      <c r="AX61" s="66"/>
-      <c r="AY61" s="66"/>
-      <c r="AZ61" s="66"/>
-      <c r="BA61" s="66"/>
-      <c r="BB61" s="66"/>
-      <c r="BC61" s="66"/>
-      <c r="BD61" s="66"/>
-      <c r="BE61" s="66"/>
-      <c r="BF61" s="66"/>
-      <c r="BG61" s="66"/>
-      <c r="BH61" s="66"/>
-    </row>
-    <row r="62" ht="24" spans="1:60">
-      <c r="A62" s="140"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="61"/>
+      <c r="W61" s="61"/>
+      <c r="X61" s="61"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="61"/>
+      <c r="AA61" s="61"/>
+      <c r="AB61" s="61"/>
+      <c r="AC61" s="61"/>
+      <c r="AD61" s="61"/>
+      <c r="AE61" s="61"/>
+      <c r="AF61" s="61"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="61"/>
+      <c r="AI61" s="61"/>
+      <c r="AJ61" s="61"/>
+      <c r="AK61" s="61"/>
+      <c r="AL61" s="61"/>
+      <c r="AM61" s="61"/>
+      <c r="AN61" s="61"/>
+      <c r="AO61" s="61"/>
+      <c r="AP61" s="61"/>
+      <c r="AQ61" s="61"/>
+      <c r="AR61" s="61"/>
+      <c r="AS61" s="61"/>
+      <c r="AT61" s="61"/>
+      <c r="AU61" s="61"/>
+      <c r="AV61" s="61"/>
+      <c r="AW61" s="61"/>
+      <c r="AX61" s="61"/>
+      <c r="AY61" s="61"/>
+      <c r="AZ61" s="61"/>
+      <c r="BA61" s="61"/>
+      <c r="BB61" s="61"/>
+      <c r="BC61" s="61"/>
+      <c r="BD61" s="61"/>
+      <c r="BE61" s="61"/>
+      <c r="BF61" s="61"/>
+      <c r="BG61" s="61"/>
+      <c r="BH61" s="61"/>
+    </row>
+    <row r="62" ht="24.75" spans="1:60">
+      <c r="A62" s="132"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -6908,59 +6875,59 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="66"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
-      <c r="Y62" s="66"/>
-      <c r="Z62" s="66"/>
-      <c r="AA62" s="66"/>
-      <c r="AB62" s="66"/>
-      <c r="AC62" s="66"/>
-      <c r="AD62" s="66"/>
-      <c r="AE62" s="66"/>
-      <c r="AF62" s="66"/>
-      <c r="AG62" s="66"/>
-      <c r="AH62" s="66"/>
-      <c r="AI62" s="66"/>
-      <c r="AJ62" s="66"/>
-      <c r="AK62" s="66"/>
-      <c r="AL62" s="66"/>
-      <c r="AM62" s="66"/>
-      <c r="AN62" s="66"/>
-      <c r="AO62" s="66"/>
-      <c r="AP62" s="66"/>
-      <c r="AQ62" s="66"/>
-      <c r="AR62" s="66"/>
-      <c r="AS62" s="66"/>
-      <c r="AT62" s="66"/>
-      <c r="AU62" s="66"/>
-      <c r="AV62" s="66"/>
-      <c r="AW62" s="66"/>
-      <c r="AX62" s="66"/>
-      <c r="AY62" s="66"/>
-      <c r="AZ62" s="66"/>
-      <c r="BA62" s="66"/>
-      <c r="BB62" s="66"/>
-      <c r="BC62" s="66"/>
-      <c r="BD62" s="66"/>
-      <c r="BE62" s="66"/>
-      <c r="BF62" s="66"/>
-      <c r="BG62" s="66"/>
-      <c r="BH62" s="66"/>
-    </row>
-    <row r="63" ht="24" spans="1:60">
-      <c r="A63" s="140"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
+      <c r="AA62" s="61"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="61"/>
+      <c r="AD62" s="61"/>
+      <c r="AE62" s="61"/>
+      <c r="AF62" s="61"/>
+      <c r="AG62" s="61"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="61"/>
+      <c r="AJ62" s="61"/>
+      <c r="AK62" s="61"/>
+      <c r="AL62" s="61"/>
+      <c r="AM62" s="61"/>
+      <c r="AN62" s="61"/>
+      <c r="AO62" s="61"/>
+      <c r="AP62" s="61"/>
+      <c r="AQ62" s="61"/>
+      <c r="AR62" s="61"/>
+      <c r="AS62" s="61"/>
+      <c r="AT62" s="61"/>
+      <c r="AU62" s="61"/>
+      <c r="AV62" s="61"/>
+      <c r="AW62" s="61"/>
+      <c r="AX62" s="61"/>
+      <c r="AY62" s="61"/>
+      <c r="AZ62" s="61"/>
+      <c r="BA62" s="61"/>
+      <c r="BB62" s="61"/>
+      <c r="BC62" s="61"/>
+      <c r="BD62" s="61"/>
+      <c r="BE62" s="61"/>
+      <c r="BF62" s="61"/>
+      <c r="BG62" s="61"/>
+      <c r="BH62" s="61"/>
+    </row>
+    <row r="63" ht="24.75" spans="1:60">
+      <c r="A63" s="132"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -6970,59 +6937,59 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="66"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="66"/>
-      <c r="AI63" s="66"/>
-      <c r="AJ63" s="66"/>
-      <c r="AK63" s="66"/>
-      <c r="AL63" s="66"/>
-      <c r="AM63" s="66"/>
-      <c r="AN63" s="66"/>
-      <c r="AO63" s="66"/>
-      <c r="AP63" s="66"/>
-      <c r="AQ63" s="66"/>
-      <c r="AR63" s="66"/>
-      <c r="AS63" s="66"/>
-      <c r="AT63" s="66"/>
-      <c r="AU63" s="66"/>
-      <c r="AV63" s="66"/>
-      <c r="AW63" s="66"/>
-      <c r="AX63" s="66"/>
-      <c r="AY63" s="66"/>
-      <c r="AZ63" s="66"/>
-      <c r="BA63" s="66"/>
-      <c r="BB63" s="66"/>
-      <c r="BC63" s="66"/>
-      <c r="BD63" s="66"/>
-      <c r="BE63" s="66"/>
-      <c r="BF63" s="66"/>
-      <c r="BG63" s="66"/>
-      <c r="BH63" s="66"/>
-    </row>
-    <row r="64" ht="24" spans="1:60">
-      <c r="A64" s="140"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="61"/>
+      <c r="AA63" s="61"/>
+      <c r="AB63" s="61"/>
+      <c r="AC63" s="61"/>
+      <c r="AD63" s="61"/>
+      <c r="AE63" s="61"/>
+      <c r="AF63" s="61"/>
+      <c r="AG63" s="61"/>
+      <c r="AH63" s="61"/>
+      <c r="AI63" s="61"/>
+      <c r="AJ63" s="61"/>
+      <c r="AK63" s="61"/>
+      <c r="AL63" s="61"/>
+      <c r="AM63" s="61"/>
+      <c r="AN63" s="61"/>
+      <c r="AO63" s="61"/>
+      <c r="AP63" s="61"/>
+      <c r="AQ63" s="61"/>
+      <c r="AR63" s="61"/>
+      <c r="AS63" s="61"/>
+      <c r="AT63" s="61"/>
+      <c r="AU63" s="61"/>
+      <c r="AV63" s="61"/>
+      <c r="AW63" s="61"/>
+      <c r="AX63" s="61"/>
+      <c r="AY63" s="61"/>
+      <c r="AZ63" s="61"/>
+      <c r="BA63" s="61"/>
+      <c r="BB63" s="61"/>
+      <c r="BC63" s="61"/>
+      <c r="BD63" s="61"/>
+      <c r="BE63" s="61"/>
+      <c r="BF63" s="61"/>
+      <c r="BG63" s="61"/>
+      <c r="BH63" s="61"/>
+    </row>
+    <row r="64" ht="24.75" spans="1:60">
+      <c r="A64" s="132"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -7032,59 +6999,59 @@
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="66"/>
-      <c r="Z64" s="66"/>
-      <c r="AA64" s="66"/>
-      <c r="AB64" s="66"/>
-      <c r="AC64" s="66"/>
-      <c r="AD64" s="66"/>
-      <c r="AE64" s="66"/>
-      <c r="AF64" s="66"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="66"/>
-      <c r="AI64" s="66"/>
-      <c r="AJ64" s="66"/>
-      <c r="AK64" s="66"/>
-      <c r="AL64" s="66"/>
-      <c r="AM64" s="66"/>
-      <c r="AN64" s="66"/>
-      <c r="AO64" s="66"/>
-      <c r="AP64" s="66"/>
-      <c r="AQ64" s="66"/>
-      <c r="AR64" s="66"/>
-      <c r="AS64" s="66"/>
-      <c r="AT64" s="66"/>
-      <c r="AU64" s="66"/>
-      <c r="AV64" s="66"/>
-      <c r="AW64" s="66"/>
-      <c r="AX64" s="66"/>
-      <c r="AY64" s="66"/>
-      <c r="AZ64" s="66"/>
-      <c r="BA64" s="66"/>
-      <c r="BB64" s="66"/>
-      <c r="BC64" s="66"/>
-      <c r="BD64" s="66"/>
-      <c r="BE64" s="66"/>
-      <c r="BF64" s="66"/>
-      <c r="BG64" s="66"/>
-      <c r="BH64" s="66"/>
-    </row>
-    <row r="65" ht="24" spans="1:13">
-      <c r="A65" s="140"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="61"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+      <c r="AB64" s="61"/>
+      <c r="AC64" s="61"/>
+      <c r="AD64" s="61"/>
+      <c r="AE64" s="61"/>
+      <c r="AF64" s="61"/>
+      <c r="AG64" s="61"/>
+      <c r="AH64" s="61"/>
+      <c r="AI64" s="61"/>
+      <c r="AJ64" s="61"/>
+      <c r="AK64" s="61"/>
+      <c r="AL64" s="61"/>
+      <c r="AM64" s="61"/>
+      <c r="AN64" s="61"/>
+      <c r="AO64" s="61"/>
+      <c r="AP64" s="61"/>
+      <c r="AQ64" s="61"/>
+      <c r="AR64" s="61"/>
+      <c r="AS64" s="61"/>
+      <c r="AT64" s="61"/>
+      <c r="AU64" s="61"/>
+      <c r="AV64" s="61"/>
+      <c r="AW64" s="61"/>
+      <c r="AX64" s="61"/>
+      <c r="AY64" s="61"/>
+      <c r="AZ64" s="61"/>
+      <c r="BA64" s="61"/>
+      <c r="BB64" s="61"/>
+      <c r="BC64" s="61"/>
+      <c r="BD64" s="61"/>
+      <c r="BE64" s="61"/>
+      <c r="BF64" s="61"/>
+      <c r="BG64" s="61"/>
+      <c r="BH64" s="61"/>
+    </row>
+    <row r="65" ht="24.75" spans="1:13">
+      <c r="A65" s="132"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -7095,11 +7062,11 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" ht="24" spans="1:13">
-      <c r="A66" s="140"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="146"/>
+    <row r="66" ht="24.75" spans="1:13">
+      <c r="A66" s="132"/>
+      <c r="B66" s="132"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="138"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -7110,10 +7077,10 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" ht="24" spans="1:13">
-      <c r="A67" s="140"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="141"/>
+    <row r="67" ht="24.75" spans="1:13">
+      <c r="A67" s="132"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="133"/>
       <c r="D67" s="35"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -7125,11 +7092,11 @@
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
     </row>
-    <row r="68" ht="24" spans="1:13">
-      <c r="A68" s="140"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
+    <row r="68" ht="24.75" spans="1:13">
+      <c r="A68" s="132"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="133"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -7140,11 +7107,11 @@
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
     </row>
-    <row r="69" ht="24" spans="1:13">
-      <c r="A69" s="140"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
+    <row r="69" ht="24.75" spans="1:13">
+      <c r="A69" s="132"/>
+      <c r="B69" s="132"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="133"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -7155,11 +7122,11 @@
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
     </row>
-    <row r="70" ht="24" spans="1:13">
-      <c r="A70" s="140"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
+    <row r="70" ht="24.75" spans="1:13">
+      <c r="A70" s="132"/>
+      <c r="B70" s="132"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="133"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -7170,9 +7137,9 @@
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
     </row>
-    <row r="71" ht="24" spans="1:13">
-      <c r="A71" s="140"/>
-      <c r="B71" s="140"/>
+    <row r="71" ht="24.75" spans="1:13">
+      <c r="A71" s="132"/>
+      <c r="B71" s="132"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="15"/>
@@ -7185,9 +7152,9 @@
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
     </row>
-    <row r="72" ht="24" spans="1:13">
-      <c r="A72" s="140"/>
-      <c r="B72" s="140"/>
+    <row r="72" ht="24.75" spans="1:13">
+      <c r="A72" s="132"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -7200,9 +7167,9 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" ht="24" spans="1:13">
-      <c r="A73" s="140"/>
-      <c r="B73" s="140"/>
+    <row r="73" ht="24.75" spans="1:13">
+      <c r="A73" s="132"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -7215,9 +7182,9 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
     </row>
-    <row r="74" ht="24" spans="1:13">
-      <c r="A74" s="140"/>
-      <c r="B74" s="140"/>
+    <row r="74" ht="24.75" spans="1:13">
+      <c r="A74" s="132"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -7230,9 +7197,9 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
     </row>
-    <row r="75" ht="24" spans="1:13">
-      <c r="A75" s="140"/>
-      <c r="B75" s="140"/>
+    <row r="75" ht="24.75" spans="1:13">
+      <c r="A75" s="132"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -7245,9 +7212,9 @@
       <c r="L75" s="15"/>
       <c r="M75" s="15"/>
     </row>
-    <row r="76" ht="24" spans="1:13">
-      <c r="A76" s="140"/>
-      <c r="B76" s="140"/>
+    <row r="76" ht="24.75" spans="1:13">
+      <c r="A76" s="132"/>
+      <c r="B76" s="132"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -7260,9 +7227,9 @@
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
     </row>
-    <row r="77" ht="24" spans="1:13">
-      <c r="A77" s="140"/>
-      <c r="B77" s="140"/>
+    <row r="77" ht="24.75" spans="1:13">
+      <c r="A77" s="132"/>
+      <c r="B77" s="132"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -7275,9 +7242,9 @@
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
     </row>
-    <row r="78" ht="24" spans="1:13">
-      <c r="A78" s="140"/>
-      <c r="B78" s="140"/>
+    <row r="78" ht="24.75" spans="1:13">
+      <c r="A78" s="132"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -7311,11 +7278,9 @@
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="A39:B42"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7328,7 +7293,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -7338,73 +7303,73 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C2" s="8">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" ht="192.75" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-북어채콩나물국
+김치콩나물국
 삼곡밥
-미트볼야채조림(돼지:국내산,닭:국내산)
-포기김치
-849kcal</v>
+비엔나야채볶음
+알타리김치
+861kcal</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-콩가루배추국
+쇠고기미역국(소:호주산)
 삼곡밥
-꽁치무조림
+두부계란구이*양념장
 포기김치
-878kcal</v>
+860kcal</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-장터국(소:호주산)
+감자양파국
 삼곡밥
-두부계란지짐*양념장
+양배추진미채야채무침
 포기김치
-856kcal</v>
+872kcal</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-들깨수제비국
+순두부김치찌개(돼지:국내산)
 삼곡밥
-맛살야채볶음
+해물떡편완자전
 포기김치
-864kcal</v>
+878kcal</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-콩비지찌개(돼지:국내산)
+얼큰오징어무찌개
 삼곡밥
-알감자조림
+호박새우젓볶음
 포기김치
-861kcal</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:7">
+866kcal</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" spans="1:7">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!C8</f>
@@ -7432,65 +7397,65 @@
 즉석해장라면/삼곡밥/김치</v>
       </c>
     </row>
-    <row r="5" ht="90" spans="1:7">
+    <row r="5" ht="94.5" spans="1:7">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-곡물식빵*미니와플/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*미니크로와상/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-후르트링</v>
+콘후레이크</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*곡물식빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-양념웻지감자튀김</v>
+감자볼튀김</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*참깨롤빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-슬라이스햄</v>
+매쉬드포테이토</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*모닝빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-코코볼</v>
+햄구이</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*미니와플/딸기잼*버터
+그린샐러드*유자레몬D
 우유
-계란후라이
-감자볼튀김</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:7">
+스크램블에그
+줄무늬감자튀김</v>
+      </c>
+    </row>
+    <row r="6" ht="31.5" spans="1:7">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!C14</f>
@@ -7520,141 +7485,137 @@
     </row>
     <row r="7" ht="214.5" customHeight="1" spans="1:7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-육개장
-(소:호주산,국내산(육우))
+닭곰탕*소면사리
+(닭:국내산)
 흑향미밥
-가자미카레구이
-열무된장나물
-견과류콩조림
+옛날소세지전*케찹
+도토리묵야채무침
+통깨건파래볶음
 포기김치/석박지
-983kcal</v>
+980kcal</v>
       </c>
       <c r="D7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-뚝배기우사골순대국
-(돼지:국내산,소:호주산)
+흑마늘삼겹보쌈*두부찜*부추무침
+(돼지:미국산)
 기장밥
-모듬숙회*초장
-풋고추장떡
-검은깨명엽채무침
+수제비아욱국
+감자전,해물파전
+우엉땅콩조림
 포기김치/석박지
-990kcal</v>
+1002kcal</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-[철판]매콤오삼불고기*콩나물파채
-(돼지:독일산)
+숯불철판치즈닭갈비*고구마사리
+(닭:브라질산)
 수수밥
-근대국
-감자곤약조림
-참나물오이유자무침
+맑은콩나물국
+삼색밀전병*겨자소스
+볼어묵피망조림(갈치:수입산)
 포기김치/석박지
-1001kcal</v>
+1005kcal</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-뚝배기버섯불고기*꼬맹이만두사리
-(소:호주산)
-차조밥
-비엔나케찹볶음
-탕평채
-아삭이고추된장무침
+철판제육깻잎불고기
+(돼자:국내산)
+보리밥
+조랑떡미역국
+감자채카레볶음
+양배추쌈&amp;아삭이고추*견과류쌈장
 포기김치/석박지
-988kcal</v>
+994kcal</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-오리주물럭*모듬쌈SET
-(오리:국내산)
-쌀밥
-얼갈이된장국
-모듬버섯잡채
-무말랭이깻잎무침
+조기구이
+잡곡밥
+쇠고기토란탕(소:호주산)
+두부버섯양념조림
+오이양파무침
 포기김치/석박지
-993kcal</v>
-      </c>
-    </row>
-    <row r="8" ht="120" spans="1:7">
+979kcal</v>
+      </c>
+    </row>
+    <row r="8" ht="126" spans="1:7">
       <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
         <v>193</v>
-      </c>
-      <c r="B8" t="s">
-        <v>191</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-일식커리덮밥*멘치까스토핑
+순살등심돈까스*일식돈까스s
 (돼지:국내산)
-미소시루
-단호박블루베리샐러드
-오복채무침
+미니냉모밀
+옥수수버터구이/연두부참깨샐러드
+치자단무지,락교,초생강
 포기김치/석박지
-1007kcal</v>
+1023kcal</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-포크볼토마토파스타
-(돼지:국내산)
-웰치스포도
-까르보나라치킨(닭:미국산)
-생오이피클*할라페뇨
+사천식해물볶음을 올린 쟁반짜장
+계란파국/쌀밥
+치킨탕수육(닭:국내산)
+오이지매실청무침
 포기김치/석박지
-1010kcal</v>
+1020kcal</v>
       </c>
       <c r="E8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-장조림버터비빔밥
-(돼지:국내산)
+스팸마요덮밥
 맑은우동국물
-매콤불만두
-코울슬로
+매콤떡볶이(갈치:수입산)*튀김만두
+야채피클
 포기김치/석박지
-1021kcal</v>
+1019kcal</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-허브통살치킨까스*양념치킨s
-(닭:국내산)
-검정깨밥/옥수수스프
-양념웻지감자튀김
-인절미토스트/야채피클
+매콤까르보나라스파게티
+스프라이트
+비프바베큐피자(소:호주산)*토마토살사
+무오이피클
 포기김치/석박지
-1020kcal</v>
+1008kcal</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-매콤육감쫄면
-(돼지:국내산)
-마약김밥*냉채소스/탕파국
-바베큐소시지구이*칠리s,머스타드s
-단무지무침
+불고기필라프*계란후라이*김치S
+(소:호주산)
+유부된장국
+옥수수고로케*케찹
+마카로니후르츠샐러드
 포기김치/석박지
-991kcal</v>
-      </c>
-    </row>
-    <row r="9" ht="105" spans="1:7">
+992kcal</v>
+      </c>
+    </row>
+    <row r="9" ht="110.25" spans="1:7">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>IF(input!C28="","",$B9&amp;CHAR(10)&amp;input!C28&amp;CHAR(10)&amp;input!C29&amp;CHAR(10)&amp;input!C30&amp;CHAR(10)&amp;input!C31&amp;CHAR(10)&amp;input!C32&amp;CHAR(10)&amp;input!C33)</f>
@@ -7667,12 +7628,12 @@
       <c r="E9" s="8" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
         <v>[네이쳐데이]
-곤드레밥*들기름양념장
-근대국
-새송이버섯탕수
-삼색나물/파래김구이
+버섯취나물밥*가지넣은약고추장
+맑은콩나물국
+호박전,연근전
+양배추깻잎비트초절임/콩조림
 포기김치/석박지
-732kcal</v>
+754kcal</v>
       </c>
       <c r="F9" s="8" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -7683,234 +7644,233 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="90" spans="1:7">
+    <row r="10" ht="94.5" spans="1:7">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+고구마찜/메추리알
 야채스틱/바나나/방울토마토
 두유/모닝빵
-503kcal</v>
+511kcal</v>
       </c>
       <c r="D10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*새우브로컬리꽃맛살
-통감자구이/메추리알
-야채스틱/바나나/오렌지
-두유/쇠고기장조림주먹밥(소:호주산)
-514kcal</v>
+그린샐러드*올리브게란
+단호박구이/새싹연두부
+야채스틱/바나나/토마토
+두유/현미멸치주먹밥
+504kcal</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-단호박구이/삶은계란
-야채스틱/바나나/토마토
+통감자구이/메추리알
+야채스틱/바나나/오렌지
 두유/참깨롤빵
 510kcal</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*흑임자두부
-고구마찜/브로컬리꽃맛살
+그린샐러드*견과류올린구운야채
+단호박구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/참치마요주먹밥
-509kcal</v>
+두유/비엔나주먹밥
+508kcal</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/새싹연두부
-야채스틱/바나나/오렌지
+그린샐러드*흑임자두부
+고구마찜/메추리알
+야채스틱/바나나/토마토
 두유/부시맥브레드
-508kcal</v>
-      </c>
-    </row>
-    <row r="11" ht="75" spans="1:7">
+512kcal</v>
+      </c>
+    </row>
+    <row r="11" ht="78.75" spans="1:7">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!C39&amp;CHAR(10)&amp;input!C40&amp;CHAR(10)&amp;input!C41&amp;CHAR(10)&amp;input!C42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-후르츠요거트D/오리엔탈D</v>
+견과류
+애플D/오리엔탈D</v>
       </c>
       <c r="D11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-콘마요네즈D/오리엔탈D</v>
+씨리얼
+아몬드D/오리엔탈D</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-아몬드후레이크
-포도D/오리엔탈D</v>
+크루통
+오렌지D/오리엔탈D</v>
       </c>
       <c r="F11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-아몬드D/오리엔탈D</v>
+스위트콘,빈스
+사우전D/오리엔탈D</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-초코첵스
-사과배D/오리엔탈D</v>
-      </c>
-    </row>
-    <row r="12" ht="135" spans="1:7">
+씨리얼
+흑임자D/오리엔탈D</v>
+      </c>
+    </row>
+    <row r="12" ht="157.5" spans="1:7">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-얼큰한 동태알탕
-(동태:러시아산,명태곤이:러시아산,
-명태알:미국산)
-쌀밥
-맛살야채계란말이
-궁중떡볶이
-깐마늘마늘쫑무침
-알타리김치
-985kcal</v>
+뚝배기심슨탕
+(소:호주산)
+쌀밥/버터밥
+새송이계란조림
+어묵채볶음(갈치:수입산)
+쑥갓두부무침
+포기김치
+1005kcal</v>
       </c>
       <c r="D12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-짜장소스 곁들인 베이컨새우볶음밥
-계란파국
-매콤깐풍기(닭:미국산)
-오이맛살겨자냉채
-단무지부추무침
+매콤낙지생야채비빔밥
+(낙지:베트남산)
+얼갈이된장국
+고기만두찜
+검은깨명엽채볶음
+마늘쫑무침
 포기김치
-1002kcal</v>
+983kcal</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-봉추찜닭*찹쌀누룽지토핑
-(닭:국내산)
-기장밥
-무채어묵국(갈치:수입산)
-햄계란전*케찹
-멸치풋고추볶음
+양지차돌쌀국수
+(소:호주산,미국산)
+파인애플새우볶음밥
+치킨퀘사디아(닭:국내산)
+스틱단무지*할라페뇨
 포기김치
-994kcal</v>
+997kcal</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-차돌박이된장찌개
-(소:미국산)
-흑향미밥
-해물부추동그랑땡전
-콩나물들깨무침
-쥐어채무침(갈치:국내산)
-열무김치
-991kcal</v>
+쇠고기콩나물밥*계란후라이
+(소:호주산)
+뚝배기호박고추장찌개
+청양풍잡채
+무말랭이부추무침
+파래김구이*들기름양념장
+포기김치
+984kcal</v>
       </c>
       <c r="G12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-숯불제육간장불고기*두부찜
-(돼지:국내산)
-잡곡밥
-미역국
-부들어묵볶음
-치커리사과무침
-포기김치
-989kcal</v>
-      </c>
-    </row>
-    <row r="13" ht="90" spans="1:7">
+사골왕만두국
+(소:호주산)
+쌀밥
+수제고추튀김,야채튀김
+오징어곤약초무침
+검은콩조림
+배추겉절이김치
+</v>
+      </c>
+    </row>
+    <row r="13" ht="94.5" spans="1:7">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
-그린샐러드*해산물샐러드
-단호박구이/새싹연두부
+그린샐러드*새우브로커리꽃맛살
+단호박구이/삶은계란
 야채스틱/바나나/토마토
-두유/현미후리가케주먹밥
-513kcal</v>
+두유/참깨롤빵
+501kcal</v>
       </c>
       <c r="D13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
-그린샐러드*흑임자두부
+그린샐러드*닭가슴살(닭:국내산)
 고구마찜/삶은계란
 야채스틱/바나나/방울토마토
 두유/부시맥브레드
-518kcal</v>
+509kcal</v>
       </c>
       <c r="E13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*올리브계란
-통감자구이/브로컬리꽃맛살
-야채스틱/바나나/오렌지/두유
-떡갈비주먹밥(돼지:국내산,닭:국내산)
-504kcal</v>
+그린샐러드*크랜베리큐브참치
+단호박구이/메추리알
+야채스틱/바나나/토마토
+두유/모닝빵
+519kcal</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
         <v>[건강도시락]
-그린샐러드*참치키드빈
-단호박구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/브로컬리꽃맛살
 야채스틱/바나나/토마토
-두유/모닝빵
-510kcal</v>
+두유/쇠고기장조림주먹밥(소:호주산)
+514kcal</v>
       </c>
       <c r="G13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/방울토마토
-두유/쇠고기장조림주먹밥(소:호주산)
-511kcal</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="1:7">
+그린샐러드*올리브계란
+단호박구이/새싹연두부
+야채스티/바나나/오렌지
+두유/떡갈비주먹밥
+(돼지:국내산,닭:국내산) 519Kcal</v>
+      </c>
+    </row>
+    <row r="14" ht="31.5" spans="1:7">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!C55</f>
@@ -7935,11 +7895,11 @@
       <c r="G14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!G55</f>
         <v>[플러스메뉴]
-그린샐러드*견과류*키위D</v>
+</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -7950,8 +7910,8 @@
   <sheetPr/>
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
@@ -7976,79 +7936,79 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3">
         <f>converter_phase1!C2</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="C2" s="4">
         <f>IF(A2="점심메뉴",TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8056,7 +8016,7 @@
       </c>
       <c r="D2" s="3">
         <f>B2</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="E2" s="4">
         <f>C2+TIME(1,30,0)</f>
@@ -8070,14 +8030,14 @@
       </c>
       <c r="H2" s="3">
         <f>B2</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="I2" s="5">
         <f>C2-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -8088,19 +8048,19 @@
       <c r="Q2" s="7" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-북어채콩나물국
+김치콩나물국
 삼곡밥
-미트볼야채조림(돼지:국내산,닭:국내산)
-포기김치
-849kcal
+비엔나야채볶음
+알타리김치
+861kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*미니와플/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*미니크로와상/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-후르트링
+콘후레이크
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -8111,20 +8071,20 @@
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B3" s="3">
         <f>B2</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴",TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8132,7 +8092,7 @@
       </c>
       <c r="D3" s="3">
         <f>B3</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -8146,14 +8106,14 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -8164,33 +8124,33 @@
       <c r="Q3" s="7" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-육개장
-(소:호주산,국내산(육우))
+닭곰탕*소면사리
+(닭:국내산)
 흑향미밥
-가자미카레구이
-열무된장나물
-견과류콩조림
+옛날소세지전*케찹
+도토리묵야채무침
+통깨건파래볶음
 포기김치/석박지
-983kcal
+980kcal
 [일품]
-일식커리덮밥*멘치까스토핑
+순살등심돈까스*일식돈까스s
 (돼지:국내산)
-미소시루
-단호박블루베리샐러드
-오복채무침
+미니냉모밀
+옥수수버터구이/연두부참깨샐러드
+치자단무지,락교,초생강
 포기김치/석박지
-1007kcal
+1023kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
+고구마찜/메추리알
 야채스틱/바나나/방울토마토
 두유/모닝빵
-503kcal
+511kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-후르츠요거트D/오리엔탈D</v>
+견과류
+애플D/오리엔탈D</v>
       </c>
       <c r="R3" s="2" t="b">
         <v>0</v>
@@ -8199,20 +8159,20 @@
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3">
         <f>B2</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="C4" s="4">
         <f>IF(A4="점심메뉴",TIME(11,30,0),IF(A4="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8220,7 +8180,7 @@
       </c>
       <c r="D4" s="3">
         <f>B4</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="E4" s="4">
         <f>C4+TIME(1,30,0)</f>
@@ -8234,14 +8194,14 @@
       </c>
       <c r="H4" s="3">
         <f>B4</f>
-        <v>41876</v>
+        <v>41883</v>
       </c>
       <c r="I4" s="5">
         <f>C4-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -8252,21 +8212,20 @@
       <c r="Q4" s="7" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-얼큰한 동태알탕
-(동태:러시아산,명태곤이:러시아산,
-명태알:미국산)
-쌀밥
-맛살야채계란말이
-궁중떡볶이
-깐마늘마늘쫑무침
-알타리김치
-985kcal
+뚝배기심슨탕
+(소:호주산)
+쌀밥/버터밥
+새송이계란조림
+어묵채볶음(갈치:수입산)
+쑥갓두부무침
+포기김치
+1005kcal
 [건강도시락]
-그린샐러드*해산물샐러드
-단호박구이/새싹연두부
+그린샐러드*새우브로커리꽃맛살
+단호박구이/삶은계란
 야채스틱/바나나/토마토
-두유/현미후리가케주먹밥
-513kcal
+두유/참깨롤빵
+501kcal
 [플러스메뉴]
 그린샐러드*견과류*키위D</v>
       </c>
@@ -8277,20 +8236,20 @@
         <v>2</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B5" s="3">
         <f>B2+1</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴",TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8298,7 +8257,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -8312,14 +8271,14 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -8330,19 +8289,19 @@
       <c r="Q5" s="7" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-콩가루배추국
+쇠고기미역국(소:호주산)
 삼곡밥
-꽁치무조림
+두부계란구이*양념장
 포기김치
-878kcal
+860kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*토스트식빵/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*곡물식빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-양념웻지감자튀김
+감자볼튀김
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -8353,20 +8312,20 @@
         <v>2</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C6" s="4">
         <f>IF(A6="점심메뉴",TIME(11,30,0),IF(A6="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8374,7 +8333,7 @@
       </c>
       <c r="D6" s="3">
         <f>B6</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="E6" s="4">
         <f>C6+TIME(1,30,0)</f>
@@ -8388,14 +8347,14 @@
       </c>
       <c r="H6" s="3">
         <f>B6</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="I6" s="5">
         <f>C6-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -8406,33 +8365,32 @@
       <c r="Q6" s="7" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-뚝배기우사골순대국
-(돼지:국내산,소:호주산)
+흑마늘삼겹보쌈*두부찜*부추무침
+(돼지:미국산)
 기장밥
-모듬숙회*초장
-풋고추장떡
-검은깨명엽채무침
+수제비아욱국
+감자전,해물파전
+우엉땅콩조림
 포기김치/석박지
-990kcal
+1002kcal
 [일품]
-포크볼토마토파스타
-(돼지:국내산)
-웰치스포도
-까르보나라치킨(닭:미국산)
-생오이피클*할라페뇨
+사천식해물볶음을 올린 쟁반짜장
+계란파국/쌀밥
+치킨탕수육(닭:국내산)
+오이지매실청무침
 포기김치/석박지
-1010kcal
+1020kcal
 [건강도시락]
-그린샐러드*새우브로컬리꽃맛살
-통감자구이/메추리알
-야채스틱/바나나/오렌지
-두유/쇠고기장조림주먹밥(소:호주산)
-514kcal
+그린샐러드*올리브게란
+단호박구이/새싹연두부
+야채스틱/바나나/토마토
+두유/현미멸치주먹밥
+504kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-크루통
-콘마요네즈D/오리엔탈D</v>
+씨리얼
+아몬드D/오리엔탈D</v>
       </c>
       <c r="R6" s="2" t="b">
         <v>0</v>
@@ -8441,20 +8399,20 @@
         <v>2</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B7" s="3">
         <f>B4+1</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C7" s="4">
         <f>IF(A7="점심메뉴",TIME(11,30,0),IF(A7="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8462,7 +8420,7 @@
       </c>
       <c r="D7" s="3">
         <f>B7</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="E7" s="4">
         <f>C7+TIME(1,30,0)</f>
@@ -8476,14 +8434,14 @@
       </c>
       <c r="H7" s="3">
         <f>B7</f>
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="I7" s="5">
         <f>C7-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -8494,19 +8452,20 @@
       <c r="Q7" s="7" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-짜장소스 곁들인 베이컨새우볶음밥
-계란파국
-매콤깐풍기(닭:미국산)
-오이맛살겨자냉채
-단무지부추무침
+매콤낙지생야채비빔밥
+(낙지:베트남산)
+얼갈이된장국
+고기만두찜
+검은깨명엽채볶음
+마늘쫑무침
 포기김치
-1002kcal
+983kcal
 [건강도시락]
-그린샐러드*흑임자두부
+그린샐러드*닭가슴살(닭:국내산)
 고구마찜/삶은계란
 야채스틱/바나나/방울토마토
 두유/부시맥브레드
-518kcal
+509kcal
 [플러스메뉴]
 그린샐러드*씨리얼*키위D</v>
       </c>
@@ -8517,20 +8476,20 @@
         <v>2</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B8" s="3">
         <f>B5+1</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴",TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8538,7 +8497,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -8552,14 +8511,14 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -8570,19 +8529,19 @@
       <c r="Q8" s="7" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-장터국(소:호주산)
+감자양파국
 삼곡밥
-두부계란지짐*양념장
+양배추진미채야채무침
 포기김치
-856kcal
+872kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*모닝빵/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*참깨롤빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 스크램블에그
-슬라이스햄
+매쉬드포테이토
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -8593,20 +8552,20 @@
         <v>2</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V8" s="2"/>
     </row>
     <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B9" s="3">
         <f>B6+1</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="C9" s="4">
         <f>IF(A9="점심메뉴",TIME(11,30,0),IF(A9="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8614,7 +8573,7 @@
       </c>
       <c r="D9" s="3">
         <f>B9</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="E9" s="4">
         <f>C9+TIME(1,30,0)</f>
@@ -8628,14 +8587,14 @@
       </c>
       <c r="H9" s="3">
         <f>B9</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="I9" s="5">
         <f>C9-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -8646,40 +8605,39 @@
       <c r="Q9" s="7" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
         <v>[한식]
-[철판]매콤오삼불고기*콩나물파채
-(돼지:독일산)
+숯불철판치즈닭갈비*고구마사리
+(닭:브라질산)
 수수밥
-근대국
-감자곤약조림
-참나물오이유자무침
+맑은콩나물국
+삼색밀전병*겨자소스
+볼어묵피망조림(갈치:수입산)
 포기김치/석박지
-1001kcal
+1005kcal
 [일품]
-장조림버터비빔밥
-(돼지:국내산)
+스팸마요덮밥
 맑은우동국물
-매콤불만두
-코울슬로
+매콤떡볶이(갈치:수입산)*튀김만두
+야채피클
 포기김치/석박지
-1021kcal
+1019kcal
 [네이쳐데이]
-곤드레밥*들기름양념장
-근대국
-새송이버섯탕수
-삼색나물/파래김구이
+버섯취나물밥*가지넣은약고추장
+맑은콩나물국
+호박전,연근전
+양배추깻잎비트초절임/콩조림
 포기김치/석박지
-732kcal
+754kcal
 [건강도시락]
 그린샐러드*닭가슴살(닭:국내산)
-단호박구이/삶은계란
-야채스틱/바나나/토마토
+통감자구이/메추리알
+야채스틱/바나나/오렌지
 두유/참깨롤빵
 510kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-아몬드후레이크
-포도D/오리엔탈D</v>
+크루통
+오렌지D/오리엔탈D</v>
       </c>
       <c r="R9" s="2" t="b">
         <v>0</v>
@@ -8688,20 +8646,20 @@
         <v>2</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B10" s="3">
         <f>B7+1</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="C10" s="4">
         <f>IF(A10="점심메뉴",TIME(11,30,0),IF(A10="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8709,7 +8667,7 @@
       </c>
       <c r="D10" s="3">
         <f>B10</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="E10" s="4">
         <f>C10+TIME(1,30,0)</f>
@@ -8723,14 +8681,14 @@
       </c>
       <c r="H10" s="3">
         <f>B10</f>
-        <v>41878</v>
+        <v>41885</v>
       </c>
       <c r="I10" s="5">
         <f>C10-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -8741,20 +8699,19 @@
       <c r="Q10" s="7" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-봉추찜닭*찹쌀누룽지토핑
-(닭:국내산)
-기장밥
-무채어묵국(갈치:수입산)
-햄계란전*케찹
-멸치풋고추볶음
+양지차돌쌀국수
+(소:호주산,미국산)
+파인애플새우볶음밥
+치킨퀘사디아(닭:국내산)
+스틱단무지*할라페뇨
 포기김치
-994kcal
+997kcal
 [건강도시락]
-그린샐러드*올리브계란
-통감자구이/브로컬리꽃맛살
-야채스틱/바나나/오렌지/두유
-떡갈비주먹밥(돼지:국내산,닭:국내산)
-504kcal
+그린샐러드*크랜베리큐브참치
+단호박구이/메추리알
+야채스틱/바나나/토마토
+두유/모닝빵
+519kcal
 [플러스메뉴]
 그린샐러드*견과류*키위D</v>
       </c>
@@ -8765,20 +8722,20 @@
         <v>2</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V10" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B11" s="3">
         <f>B8+1</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="C11" s="4">
         <f>IF(A11="점심메뉴",TIME(11,30,0),IF(A11="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8786,7 +8743,7 @@
       </c>
       <c r="D11" s="3">
         <f>B11</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="E11" s="4">
         <f>C11+TIME(1,30,0)</f>
@@ -8800,14 +8757,14 @@
       </c>
       <c r="H11" s="3">
         <f>B11</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="I11" s="5">
         <f>C11-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -8818,19 +8775,19 @@
       <c r="Q11" s="7" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-들깨수제비국
+순두부김치찌개(돼지:국내산)
 삼곡밥
-맛살야채볶음
+해물떡편완자전
 포기김치
-864kcal
+878kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*참깨롤빵/딸기잼*버터
-그린샐러드*사우전D
+곡물식빵*모닝빵/딸기잼*버터
+그린샐러드*유자레몬D
 우유
 계란후라이
-코코볼
+햄구이
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -8841,20 +8798,20 @@
         <v>2</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" s="3">
         <f>B9+1</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="C12" s="4">
         <f>IF(A12="점심메뉴",TIME(11,30,0),IF(A12="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8862,7 +8819,7 @@
       </c>
       <c r="D12" s="3">
         <f>B12</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="E12" s="4">
         <f>C12+TIME(1,30,0)</f>
@@ -8876,14 +8833,14 @@
       </c>
       <c r="H12" s="3">
         <f>B12</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="I12" s="5">
         <f>C12-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -8894,33 +8851,32 @@
       <c r="Q12" s="7" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-뚝배기버섯불고기*꼬맹이만두사리
-(소:호주산)
-차조밥
-비엔나케찹볶음
-탕평채
-아삭이고추된장무침
+철판제육깻잎불고기
+(돼자:국내산)
+보리밥
+조랑떡미역국
+감자채카레볶음
+양배추쌈&amp;아삭이고추*견과류쌈장
 포기김치/석박지
-988kcal
+994kcal
 [일품]
-허브통살치킨까스*양념치킨s
-(닭:국내산)
-검정깨밥/옥수수스프
-양념웻지감자튀김
-인절미토스트/야채피클
+매콤까르보나라스파게티
+스프라이트
+비프바베큐피자(소:호주산)*토마토살사
+무오이피클
 포기김치/석박지
-1020kcal
+1008kcal
 [건강도시락]
-그린샐러드*흑임자두부
-고구마찜/브로컬리꽃맛살
+그린샐러드*견과류올린구운야채
+단호박구이/삶은계란
 야채스틱/바나나/방울토마토
-두유/참치마요주먹밥
-509kcal
+두유/비엔나주먹밥
+508kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-견과류
-아몬드D/오리엔탈D</v>
+스위트콘,빈스
+사우전D/오리엔탈D</v>
       </c>
       <c r="R12" s="2" t="b">
         <v>0</v>
@@ -8929,20 +8885,20 @@
         <v>2</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V12" s="2"/>
     </row>
     <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B13" s="3">
         <f>B10+1</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="C13" s="4">
         <f>IF(A13="점심메뉴",TIME(11,30,0),IF(A13="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8950,7 +8906,7 @@
       </c>
       <c r="D13" s="3">
         <f>B13</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="E13" s="4">
         <f>C13+TIME(1,30,0)</f>
@@ -8964,14 +8920,14 @@
       </c>
       <c r="H13" s="3">
         <f>B13</f>
-        <v>41879</v>
+        <v>41886</v>
       </c>
       <c r="I13" s="5">
         <f>C13-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -8982,20 +8938,20 @@
       <c r="Q13" s="7" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-차돌박이된장찌개
-(소:미국산)
-흑향미밥
-해물부추동그랑땡전
-콩나물들깨무침
-쥐어채무침(갈치:국내산)
-열무김치
-991kcal
+쇠고기콩나물밥*계란후라이
+(소:호주산)
+뚝배기호박고추장찌개
+청양풍잡채
+무말랭이부추무침
+파래김구이*들기름양념장
+포기김치
+984kcal
 [건강도시락]
-그린샐러드*참치키드빈
-단호박구이/삶은계란
+그린샐러드*닭가슴살(닭:국내산)
+통감자구이/브로컬리꽃맛살
 야채스틱/바나나/토마토
-두유/모닝빵
-510kcal
+두유/쇠고기장조림주먹밥(소:호주산)
+514kcal
 [플러스메뉴]
 그린샐러드*씨리얼*키위D</v>
       </c>
@@ -9006,20 +8962,20 @@
         <v>2</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V13" s="2"/>
     </row>
     <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B14" s="3">
         <f>B11+1</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="C14" s="4">
         <f>IF(A14="점심메뉴",TIME(11,30,0),IF(A14="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9027,7 +8983,7 @@
       </c>
       <c r="D14" s="3">
         <f>B14</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="E14" s="4">
         <f>C14+TIME(1,30,0)</f>
@@ -9041,14 +8997,14 @@
       </c>
       <c r="H14" s="3">
         <f>B14</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="I14" s="5">
         <f>C14-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -9059,19 +9015,19 @@
       <c r="Q14" s="7" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-콩비지찌개(돼지:국내산)
+얼큰오징어무찌개
 삼곡밥
-알감자조림
+호박새우젓볶음
 포기김치
-861kcal
+866kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*부시맥브레드/딸기잼*버터
-그린샐러드*사우전D
+토스트식빵*미니와플/딸기잼*버터
+그린샐러드*유자레몬D
 우유
-계란후라이
-감자볼튀김
+스크램블에그
+줄무늬감자튀김
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9082,20 +9038,20 @@
         <v>2</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V14" s="2"/>
     </row>
     <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B15" s="3">
         <f>B12+1</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="C15" s="4">
         <f>IF(A15="점심메뉴",TIME(11,30,0),IF(A15="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9103,7 +9059,7 @@
       </c>
       <c r="D15" s="3">
         <f>B15</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="E15" s="4">
         <f>C15+TIME(1,30,0)</f>
@@ -9117,14 +9073,14 @@
       </c>
       <c r="H15" s="3">
         <f>B15</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="I15" s="5">
         <f>C15-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -9135,33 +9091,32 @@
       <c r="Q15" s="7" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-오리주물럭*모듬쌈SET
-(오리:국내산)
-쌀밥
-얼갈이된장국
-모듬버섯잡채
-무말랭이깻잎무침
+조기구이
+잡곡밥
+쇠고기토란탕(소:호주산)
+두부버섯양념조림
+오이양파무침
 포기김치/석박지
-993kcal
+979kcal
 [일품]
-매콤육감쫄면
-(돼지:국내산)
-마약김밥*냉채소스/탕파국
-바베큐소시지구이*칠리s,머스타드s
-단무지무침
+불고기필라프*계란후라이*김치S
+(소:호주산)
+유부된장국
+옥수수고로케*케찹
+마카로니후르츠샐러드
 포기김치/석박지
-991kcal
+992kcal
 [건강도시락]
-그린샐러드*구운새송이버섯과마늘
-단호박구이/새싹연두부
-야채스틱/바나나/오렌지
+그린샐러드*흑임자두부
+고구마찜/메추리알
+야채스틱/바나나/토마토
 두유/부시맥브레드
-508kcal
+512kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-초코첵스
-사과배D/오리엔탈D</v>
+씨리얼
+흑임자D/오리엔탈D</v>
       </c>
       <c r="R15" s="2" t="b">
         <v>0</v>
@@ -9170,20 +9125,20 @@
         <v>2</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V15" s="2"/>
     </row>
     <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B16" s="3">
         <f>B13+1</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="C16" s="4">
         <f>IF(A16="점심메뉴",TIME(11,30,0),IF(A16="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9191,7 +9146,7 @@
       </c>
       <c r="D16" s="3">
         <f>B16</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="E16" s="4">
         <f>C16+TIME(1,30,0)</f>
@@ -9205,14 +9160,14 @@
       </c>
       <c r="H16" s="3">
         <f>B16</f>
-        <v>41880</v>
+        <v>41887</v>
       </c>
       <c r="I16" s="5">
         <f>C16-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -9223,22 +9178,21 @@
       <c r="Q16" s="7" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-숯불제육간장불고기*두부찜
-(돼지:국내산)
-잡곡밥
-미역국
-부들어묵볶음
-치커리사과무침
-포기김치
-989kcal
+사골왕만두국
+(소:호주산)
+쌀밥
+수제고추튀김,야채튀김
+오징어곤약초무침
+검은콩조림
+배추겉절이김치
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/방울토마토
-두유/쇠고기장조림주먹밥(소:호주산)
-511kcal
+그린샐러드*올리브계란
+단호박구이/새싹연두부
+야채스티/바나나/오렌지
+두유/떡갈비주먹밥
+(돼지:국내산,닭:국내산) 519Kcal
 [플러스메뉴]
-그린샐러드*견과류*키위D</v>
+</v>
       </c>
       <c r="R16" s="2" t="b">
         <v>0</v>
@@ -9247,15 +9201,15 @@
         <v>2</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="V16" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20920" windowHeight="12280" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="13245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <definedName name="제목">csv_export!$A$1:$V$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <r>
       <rPr>
@@ -58,81 +59,19 @@
     <t>구분</t>
   </si>
   <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="方正书宋_GBK"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="方正书宋_GBK"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">일 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="方正书宋_GBK"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>9월 2일 (화)</t>
-  </si>
-  <si>
-    <t>9월 3일 (수)</t>
-  </si>
-  <si>
-    <t>9월 4일 (목)</t>
-  </si>
-  <si>
-    <t>9월 5일 (금)</t>
+    <t>9월 8일 (월)</t>
+  </si>
+  <si>
+    <t>9월 9일 (화)</t>
+  </si>
+  <si>
+    <t>9월 10일 (수)</t>
+  </si>
+  <si>
+    <t>9월 11일 (목)</t>
+  </si>
+  <si>
+    <t>9월 12일 (금)</t>
   </si>
   <si>
     <t>아침
@@ -143,58 +82,28 @@
     <t>한식</t>
   </si>
   <si>
-    <t>김치콩나물국</t>
-  </si>
-  <si>
-    <t>쇠고기미역국(소:호주산)</t>
-  </si>
-  <si>
-    <t>감자양파국</t>
-  </si>
-  <si>
-    <t>순두부김치찌개(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>얼큰오징어무찌개</t>
+    <t>건새우시금치국</t>
+  </si>
+  <si>
+    <t>경상도식쇠고기무국(소:호주산)</t>
   </si>
   <si>
     <t>삼곡밥</t>
   </si>
   <si>
-    <t>비엔나야채볶음</t>
-  </si>
-  <si>
-    <t>두부계란구이*양념장</t>
-  </si>
-  <si>
-    <t>양배추진미채야채무침</t>
-  </si>
-  <si>
-    <t>해물떡편완자전</t>
-  </si>
-  <si>
-    <t>호박새우젓볶음</t>
-  </si>
-  <si>
-    <t>알타리김치</t>
+    <t>볼어묵맛살볶음(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>메추리알곤약조림</t>
   </si>
   <si>
     <t>포기김치</t>
   </si>
   <si>
-    <t>861kcal</t>
-  </si>
-  <si>
-    <t>860kcal</t>
-  </si>
-  <si>
-    <t>872kcal</t>
-  </si>
-  <si>
-    <t>878kcal</t>
-  </si>
-  <si>
-    <t>866kcal</t>
+    <t>841kcal</t>
+  </si>
+  <si>
+    <t>839kcal</t>
   </si>
   <si>
     <t>즉석</t>
@@ -206,55 +115,34 @@
     <t>일품</t>
   </si>
   <si>
-    <t>곡물식빵*미니크로와상/딸기잼*버터</t>
-  </si>
-  <si>
     <t>토스트식빵*곡물식빵/딸기잼*버터</t>
   </si>
   <si>
-    <t>토스트식빵*참깨롤빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>곡물식빵*모닝빵/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>토스트식빵*미니와플/딸기잼*버터</t>
-  </si>
-  <si>
-    <t>그린샐러드*유자레몬D</t>
+    <t>곡물식빵*미니와플/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>그린샐러드*오리엔탈D</t>
   </si>
   <si>
     <t>우유</t>
   </si>
   <si>
-    <t>스크램블에그</t>
-  </si>
-  <si>
     <t>계란후라이</t>
   </si>
   <si>
-    <t>콘후레이크</t>
-  </si>
-  <si>
-    <t>감자볼튀김</t>
-  </si>
-  <si>
-    <t>매쉬드포테이토</t>
-  </si>
-  <si>
-    <t>햄구이</t>
-  </si>
-  <si>
-    <t>줄무늬감자튀김</t>
+    <t>해쉬브라운</t>
+  </si>
+  <si>
+    <t>초코첵스</t>
   </si>
   <si>
     <t>플러스메뉴</t>
   </si>
   <si>
+    <t>누룽지/계란후라이</t>
+  </si>
+  <si>
     <t>누룽지/김구이</t>
-  </si>
-  <si>
-    <t>누룽지/계란후라이</t>
   </si>
   <si>
     <t>점심
@@ -262,259 +150,111 @@
 ~13:00</t>
   </si>
   <si>
-    <t>닭곰탕*소면사리
+    <t>안동찜닭*단호박치즈사리
 (닭:국내산)</t>
   </si>
   <si>
-    <t>흑마늘삼겹보쌈*두부찜*부추무침
-(돼지:미국산)</t>
-  </si>
-  <si>
-    <t>숯불철판치즈닭갈비*고구마사리
-(닭:브라질산)</t>
-  </si>
-  <si>
-    <t>철판제육깻잎불고기
-(돼자:국내산)</t>
-  </si>
-  <si>
-    <t>조기구이</t>
+    <t>묵은지돈목살김치찌개
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>수수밥</t>
   </si>
   <si>
     <t>흑향미밥</t>
   </si>
   <si>
-    <t>기장밥</t>
-  </si>
-  <si>
-    <t>수수밥</t>
-  </si>
-  <si>
-    <t>보리밥</t>
-  </si>
-  <si>
-    <t>잡곡밥</t>
-  </si>
-  <si>
-    <t>옛날소세지전*케찹</t>
-  </si>
-  <si>
-    <t>수제비아욱국</t>
-  </si>
-  <si>
-    <t>맑은콩나물국</t>
-  </si>
-  <si>
-    <t>조랑떡미역국</t>
-  </si>
-  <si>
-    <t>쇠고기토란탕(소:호주산)</t>
-  </si>
-  <si>
-    <t>도토리묵야채무침</t>
-  </si>
-  <si>
-    <t>감자전,해물파전</t>
-  </si>
-  <si>
-    <t>삼색밀전병*겨자소스</t>
-  </si>
-  <si>
-    <t>감자채카레볶음</t>
-  </si>
-  <si>
-    <t>두부버섯양념조림</t>
-  </si>
-  <si>
-    <t>통깨건파래볶음</t>
-  </si>
-  <si>
-    <t>우엉땅콩조림</t>
-  </si>
-  <si>
-    <t>볼어묵피망조림(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>양배추쌈&amp;아삭이고추*견과류쌈장</t>
-  </si>
-  <si>
-    <t>오이양파무침</t>
+    <t>두부김치국</t>
+  </si>
+  <si>
+    <t>오꼬노미풍계란말이</t>
+  </si>
+  <si>
+    <t>비엔나브로커리볶음</t>
+  </si>
+  <si>
+    <t>궁중떡볶음</t>
+  </si>
+  <si>
+    <t>콩나물들깨무침</t>
+  </si>
+  <si>
+    <t>참나물겉절이</t>
   </si>
   <si>
     <t>포기김치/석박지</t>
   </si>
   <si>
-    <t>980kcal</t>
-  </si>
-  <si>
-    <t>1002kcal</t>
-  </si>
-  <si>
-    <t>1005kcal</t>
-  </si>
-  <si>
-    <t>994kcal</t>
-  </si>
-  <si>
-    <t>979kcal</t>
-  </si>
-  <si>
-    <t>순살등심돈까스*일식돈까스s
-(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>사천식해물볶음을 올린 쟁반짜장</t>
-  </si>
-  <si>
-    <t>스팸마요덮밥</t>
-  </si>
-  <si>
-    <t>매콤까르보나라스파게티</t>
-  </si>
-  <si>
-    <t>불고기필라프*계란후라이*김치S
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>미니냉모밀</t>
-  </si>
-  <si>
-    <t>계란파국/쌀밥</t>
+    <t>998kcal</t>
+  </si>
+  <si>
+    <t>987kcal</t>
+  </si>
+  <si>
+    <t>팟타이[태국식해물볶음면]</t>
+  </si>
+  <si>
+    <t>왕새우튀김오므라이스</t>
+  </si>
+  <si>
+    <t>미니카오팟꿍[새우볶음밥]/쌀국수육수</t>
   </si>
   <si>
     <t>맑은우동국물</t>
   </si>
   <si>
-    <t>스프라이트</t>
-  </si>
-  <si>
-    <t>유부된장국</t>
-  </si>
-  <si>
-    <t>옥수수버터구이/연두부참깨샐러드</t>
-  </si>
-  <si>
-    <t>치킨탕수육(닭:국내산)</t>
-  </si>
-  <si>
-    <t>매콤떡볶이(갈치:수입산)*튀김만두</t>
-  </si>
-  <si>
-    <t>비프바베큐피자(소:호주산)*토마토살사</t>
-  </si>
-  <si>
-    <t>옥수수고로케*케찹</t>
-  </si>
-  <si>
-    <t>치자단무지,락교,초생강</t>
-  </si>
-  <si>
-    <t>오이지매실청무침</t>
-  </si>
-  <si>
-    <t>야채피클</t>
-  </si>
-  <si>
-    <t>무오이피클</t>
-  </si>
-  <si>
-    <t>마카로니후르츠샐러드</t>
-  </si>
-  <si>
-    <t>1023kcal</t>
-  </si>
-  <si>
-    <t>1020kcal</t>
-  </si>
-  <si>
-    <t>1019kcal</t>
-  </si>
-  <si>
-    <t>1008kcal</t>
-  </si>
-  <si>
-    <t>992kcal</t>
+    <t>모듬춘권</t>
+  </si>
+  <si>
+    <t>미니샐러드파스타</t>
+  </si>
+  <si>
+    <t>오복채무침</t>
+  </si>
+  <si>
+    <t>무비트피클</t>
+  </si>
+  <si>
+    <t>1001kcal</t>
+  </si>
+  <si>
+    <t>1016kcal</t>
   </si>
   <si>
     <t>네이쳐데이</t>
   </si>
   <si>
-    <t>버섯취나물밥*가지넣은약고추장</t>
-  </si>
-  <si>
-    <t>호박전,연근전</t>
-  </si>
-  <si>
-    <t>양배추깻잎비트초절임/콩조림</t>
-  </si>
-  <si>
-    <t>754kcal</t>
-  </si>
-  <si>
     <t>건강도시락</t>
   </si>
   <si>
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
   </si>
   <si>
-    <t>그린샐러드*올리브게란</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류올린구운야채</t>
-  </si>
-  <si>
     <t>그린샐러드*흑임자두부</t>
   </si>
   <si>
-    <t>고구마찜/메추리알</t>
-  </si>
-  <si>
-    <t>단호박구이/새싹연두부</t>
-  </si>
-  <si>
-    <t>통감자구이/메추리알</t>
-  </si>
-  <si>
-    <t>단호박구이/삶은계란</t>
+    <t>고구마찜/새싹연두부</t>
+  </si>
+  <si>
+    <t>통감자구이/삶은게란</t>
+  </si>
+  <si>
+    <t>야채스틱/오렌지/토마토</t>
   </si>
   <si>
     <t>야채스틱/바나나/방울토마토</t>
   </si>
   <si>
-    <t>야채스틱/바나나/토마토</t>
-  </si>
-  <si>
-    <t>야채스틱/바나나/오렌지</t>
-  </si>
-  <si>
-    <t>두유/모닝빵</t>
-  </si>
-  <si>
-    <t>두유/현미멸치주먹밥</t>
-  </si>
-  <si>
     <t>두유/참깨롤빵</t>
   </si>
   <si>
-    <t>두유/비엔나주먹밥</t>
-  </si>
-  <si>
-    <t>두유/부시맥브레드</t>
-  </si>
-  <si>
-    <t>511kcal</t>
-  </si>
-  <si>
-    <t>504kcal</t>
+    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
   </si>
   <si>
     <t>510kcal</t>
   </si>
   <si>
-    <t>508kcal</t>
-  </si>
-  <si>
-    <t>512kcal</t>
+    <t>509kcal</t>
   </si>
   <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
@@ -526,28 +266,13 @@
     <t>견과류</t>
   </si>
   <si>
-    <t>씨리얼</t>
-  </si>
-  <si>
-    <t>크루통</t>
-  </si>
-  <si>
     <t>스위트콘,빈스</t>
   </si>
   <si>
-    <t>애플D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>아몬드D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>오렌지D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>사우전D/오리엔탈D</t>
-  </si>
-  <si>
-    <t>흑임자D/오리엔탈D</t>
+    <t>유자레몬D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>파인애플D/오리엔탈D</t>
   </si>
   <si>
     <t>저녁
@@ -560,135 +285,73 @@
 일품</t>
   </si>
   <si>
-    <t>뚝배기심슨탕
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>매콤낙지생야채비빔밥
-(낙지:베트남산)</t>
-  </si>
-  <si>
-    <t>양지차돌쌀국수
-(소:호주산,미국산)</t>
-  </si>
-  <si>
-    <t>쇠고기콩나물밥*계란후라이
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>사골왕만두국
-(소:호주산)</t>
-  </si>
-  <si>
-    <t>쌀밥/버터밥</t>
-  </si>
-  <si>
-    <t>얼갈이된장국</t>
-  </si>
-  <si>
-    <t>파인애플새우볶음밥</t>
-  </si>
-  <si>
-    <t>뚝배기호박고추장찌개</t>
-  </si>
-  <si>
-    <t>쌀밥</t>
-  </si>
-  <si>
-    <t>새송이계란조림</t>
-  </si>
-  <si>
-    <t>고기만두찜</t>
-  </si>
-  <si>
-    <t>치킨퀘사디아(닭:국내산)</t>
-  </si>
-  <si>
-    <t>청양풍잡채</t>
-  </si>
-  <si>
-    <t>수제고추튀김,야채튀김</t>
-  </si>
-  <si>
-    <t>어묵채볶음(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>검은깨명엽채볶음</t>
-  </si>
-  <si>
-    <t>스틱단무지*할라페뇨</t>
-  </si>
-  <si>
-    <t>무말랭이부추무침</t>
-  </si>
-  <si>
-    <t>오징어곤약초무침</t>
-  </si>
-  <si>
-    <t>쑥갓두부무침</t>
-  </si>
-  <si>
-    <t>마늘쫑무침</t>
-  </si>
-  <si>
-    <t>파래김구이*들기름양념장</t>
-  </si>
-  <si>
-    <t>검은콩조림</t>
+    <t>얼큰한 동태알탕
+(동태:러시아산,명태곤이:러시아산,
+명태알:미국산)</t>
+  </si>
+  <si>
+    <t>[즉석]냄비닭칼국수
+(닭:국내산)</t>
+  </si>
+  <si>
+    <t>현미밥</t>
+  </si>
+  <si>
+    <t>유부초밥/쌀밥</t>
+  </si>
+  <si>
+    <t>고기완자전(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>섭산적구이(돼지:국내산)*부추무침</t>
+  </si>
+  <si>
+    <t>진미채야채무침</t>
+  </si>
+  <si>
+    <t>고구마단호박맛탕</t>
+  </si>
+  <si>
+    <t>통깨건파래볶음</t>
+  </si>
+  <si>
+    <t>마늘장아찌무침</t>
+  </si>
+  <si>
+    <t>알타리김치</t>
   </si>
   <si>
     <t>배추겉절이김치</t>
   </si>
   <si>
-    <t>983kcal</t>
-  </si>
-  <si>
-    <t>997kcal</t>
-  </si>
-  <si>
-    <t>984kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*새우브로커리꽃맛살</t>
-  </si>
-  <si>
-    <t>그린샐러드*크랜베리큐브참치</t>
+    <t>960kcal</t>
+  </si>
+  <si>
+    <t>973kcal</t>
   </si>
   <si>
     <t>그린샐러드*올리브계란</t>
   </si>
   <si>
-    <t>고구마찜/삶은계란</t>
-  </si>
-  <si>
-    <t>단호박구이/메추리알</t>
-  </si>
-  <si>
-    <t>통감자구이/브로컬리꽃맛살</t>
-  </si>
-  <si>
-    <t>야채스티/바나나/오렌지</t>
+    <t>그린샐러드*토마토카프레제</t>
+  </si>
+  <si>
+    <t>단호박구이/브로컬리꽃맛살</t>
+  </si>
+  <si>
+    <t>고구마찜/메추리알</t>
+  </si>
+  <si>
+    <t>야채스틱/바나나/오렌지</t>
   </si>
   <si>
     <t>두유/쇠고기장조림주먹밥(소:호주산)</t>
   </si>
   <si>
-    <t>두유/떡갈비주먹밥</t>
-  </si>
-  <si>
-    <t>501kcal</t>
-  </si>
-  <si>
-    <t>509kcal</t>
-  </si>
-  <si>
-    <t>519kcal</t>
+    <t>두유/현미멸치땡초주먹밥</t>
   </si>
   <si>
     <t>514kcal</t>
-  </si>
-  <si>
-    <t>(돼지:국내산,닭:국내산) 519Kcal</t>
   </si>
   <si>
     <t>그린샐러드*견과류*키위D</t>
@@ -822,169 +485,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="#\ &quot;Kcal&quot;"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="#\ &quot;Kcal&quot;"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
     <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="183" formatCode="H:mm:ss"/>
   </numFmts>
-  <fonts count="33">
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="25"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1041,6 +556,13 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
@@ -1056,6 +578,146 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="25"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <b/>
       <sz val="22"/>
       <name val="맑은 고딕"/>
@@ -1066,13 +728,6 @@
       <b/>
       <sz val="15"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="方正书宋_GBK"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1158,7 +813,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,13 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,36 +867,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="78">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -1550,28 +1205,6 @@
       <left style="medium">
         <color indexed="22"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="25"/>
-      </left>
-      <right style="medium">
-        <color indexed="25"/>
-      </right>
-      <top style="medium">
-        <color indexed="25"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="22"/>
       </right>
@@ -1585,11 +1218,22 @@
       <left style="medium">
         <color indexed="22"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="62"/>
+      </left>
       <right style="medium">
-        <color indexed="22"/>
+        <color indexed="62"/>
       </right>
       <top style="medium">
-        <color indexed="9"/>
+        <color indexed="62"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1605,37 +1249,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="25"/>
+        <color indexed="62"/>
       </left>
       <right style="medium">
-        <color indexed="25"/>
+        <color indexed="62"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="25"/>
-      </left>
-      <right style="medium">
-        <color indexed="25"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="25"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1648,6 +1268,19 @@
       <top/>
       <bottom style="medium">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="62"/>
+      </left>
+      <right style="medium">
+        <color indexed="62"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,23 +1299,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -1690,7 +1323,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="22"/>
@@ -1699,10 +1334,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
-        <color indexed="53"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1846,13 +1481,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="53"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="53"/>
       </right>
       <top style="medium">
-        <color indexed="10"/>
+        <color indexed="53"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1881,23 +1516,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="53"/>
       </left>
       <right style="medium">
-        <color indexed="10"/>
+        <color indexed="53"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1927,25 +1551,25 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="10"/>
+        <color indexed="22"/>
       </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="10"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
       <right style="medium">
-        <color indexed="22"/>
+        <color indexed="53"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="22"/>
+        <color indexed="53"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2049,32 +1673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2103,6 +1701,17 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -2146,608 +1755,620 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="74" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="75" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="74" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="70" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="76" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="73" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48">
+  <cellXfs count="138">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="22" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="35" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="48" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="26" fillId="3" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="26" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="26" fillId="3" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="15" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="15" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="13" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="23" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="24" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="31" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="31" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="32" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="32" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="38" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="45" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="46" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="45" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="47" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="49" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="51" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="52" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="55" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="56" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="33" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="57" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="58" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="40" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="59" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="60" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="34" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="22" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="40" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="41" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="43" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="24" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="46" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="47" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="48" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="47" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="49" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="51" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="53" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="54" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="56" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="58" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="59" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="60" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="34" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="61" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="42" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="62" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="41" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="63" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="66" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="67" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2797,21 +2418,21 @@
     <cellStyle name="쉼표 [0] 5" xfId="42"/>
     <cellStyle name="쉼표 [0] 6" xfId="43"/>
     <cellStyle name="쉼표 [0] 7" xfId="44"/>
-    <cellStyle name="표준 2" xfId="45"/>
-    <cellStyle name="쉼표 [0] 8" xfId="46"/>
+    <cellStyle name="쉼표 [0] 8" xfId="45"/>
+    <cellStyle name="표준 2" xfId="46"/>
     <cellStyle name="쉼표 [0] 9" xfId="47"/>
     <cellStyle name="표준" xfId="48"/>
     <cellStyle name="Comma[0]" xfId="49" builtinId="6"/>
-    <cellStyle name="20% - 강조색1" xfId="50"/>
-    <cellStyle name="설명 텍스트" xfId="51"/>
+    <cellStyle name="설명 텍스트" xfId="50"/>
+    <cellStyle name="20% - 강조색1" xfId="51"/>
     <cellStyle name="20% - 강조색2" xfId="52"/>
-    <cellStyle name="입력" xfId="53"/>
+    <cellStyle name="20% - 강조색3" xfId="53"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="54"/>
-    <cellStyle name="20% - 강조색3" xfId="55"/>
+    <cellStyle name="입력" xfId="55"/>
     <cellStyle name="20% - 강조색4" xfId="56"/>
     <cellStyle name="20% - 강조색5" xfId="57"/>
-    <cellStyle name="20% - 강조색6" xfId="58"/>
-    <cellStyle name="보통" xfId="59"/>
+    <cellStyle name="보통" xfId="58"/>
+    <cellStyle name="20% - 강조색6" xfId="59"/>
     <cellStyle name="표준_신메뉴(1)" xfId="60"/>
   </cellStyles>
 </styleSheet>
@@ -3129,9 +2750,7 @@
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3">
-              <a:alpha val="100000"/>
-            </a:srgbClr>
+            <a:srgbClr val="739CC3"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -3154,7 +2773,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="34.375" customWidth="1"/>
@@ -3180,18 +2799,18 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-    </row>
-    <row r="2" ht="22.5" spans="1:22">
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+    </row>
+    <row r="2" ht="20.25" spans="1:22">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -3216,16 +2835,16 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:22">
       <c r="A3" s="22" t="s">
@@ -3234,20 +2853,14 @@
       <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>13</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -3268,20 +2881,14 @@
     <row r="4" ht="21.95" customHeight="1" spans="1:22">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -3302,20 +2909,14 @@
     <row r="5" ht="21.95" customHeight="1" spans="1:22">
       <c r="A5" s="22"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>17</v>
-      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -3336,20 +2937,14 @@
     <row r="6" ht="21.95" customHeight="1" spans="1:22">
       <c r="A6" s="22"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -3370,20 +2965,14 @@
     <row r="7" ht="21.95" customHeight="1" spans="1:22">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -3401,25 +2990,19 @@
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
     </row>
-    <row r="8" ht="22.5" spans="1:22">
+    <row r="8" ht="21" spans="1:22">
       <c r="A8" s="22"/>
       <c r="B8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -3440,22 +3023,16 @@
     <row r="9" ht="23.1" customHeight="1" spans="1:22">
       <c r="A9" s="22"/>
       <c r="B9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="35" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -3476,20 +3053,14 @@
     <row r="10" ht="21.95" customHeight="1" spans="1:22">
       <c r="A10" s="22"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -3510,20 +3081,14 @@
     <row r="11" ht="21.95" customHeight="1" spans="1:22">
       <c r="A11" s="22"/>
       <c r="B11" s="30"/>
-      <c r="C11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -3544,20 +3109,14 @@
     <row r="12" ht="21.95" customHeight="1" spans="1:22">
       <c r="A12" s="22"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>37</v>
-      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="25" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -3573,25 +3132,19 @@
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="134"/>
+      <c r="V12" s="132"/>
     </row>
     <row r="13" ht="21.95" customHeight="1" spans="1:22">
       <c r="A13" s="36"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>41</v>
-      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="40" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -3609,25 +3162,19 @@
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" ht="22.5" spans="1:22">
+    <row r="14" ht="20.25" spans="1:22">
       <c r="A14" s="42" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B14" s="43"/>
-      <c r="C14" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>45</v>
-      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3647,25 +3194,19 @@
     </row>
     <row r="15" ht="54" customHeight="1" spans="1:22">
       <c r="A15" s="46" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>51</v>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50" t="s">
+        <v>31</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -3686,20 +3227,14 @@
     <row r="16" ht="27" customHeight="1" spans="1:22">
       <c r="A16" s="22"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>57</v>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>34</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -3720,20 +3255,14 @@
     <row r="17" ht="53.25" customHeight="1" spans="1:60">
       <c r="A17" s="22"/>
       <c r="B17" s="47"/>
-      <c r="C17" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>62</v>
+      <c r="C17" s="55"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -3792,20 +3321,14 @@
     <row r="18" ht="27" customHeight="1" spans="1:60">
       <c r="A18" s="22"/>
       <c r="B18" s="47"/>
-      <c r="C18" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>67</v>
+      <c r="C18" s="55"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>38</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
@@ -3864,238 +3387,214 @@
     <row r="19" ht="27" customHeight="1" spans="1:60">
       <c r="A19" s="22"/>
       <c r="B19" s="47"/>
-      <c r="C19" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="61"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="60"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="61"/>
-      <c r="AO19" s="61"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="61"/>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="61"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="61"/>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="61"/>
-      <c r="BC19" s="61"/>
-      <c r="BD19" s="61"/>
-      <c r="BE19" s="61"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="61"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="60"/>
+      <c r="AW19" s="60"/>
+      <c r="AX19" s="60"/>
+      <c r="AY19" s="60"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="60"/>
+      <c r="BB19" s="60"/>
+      <c r="BC19" s="60"/>
+      <c r="BD19" s="60"/>
+      <c r="BE19" s="60"/>
+      <c r="BF19" s="60"/>
+      <c r="BG19" s="60"/>
+      <c r="BH19" s="60"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:60">
       <c r="A20" s="22"/>
       <c r="B20" s="47"/>
-      <c r="C20" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="61"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="60"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="61"/>
-      <c r="AO20" s="61"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="61"/>
-      <c r="AT20" s="61"/>
-      <c r="AU20" s="61"/>
-      <c r="AV20" s="61"/>
-      <c r="AW20" s="61"/>
-      <c r="AX20" s="61"/>
-      <c r="AY20" s="61"/>
-      <c r="AZ20" s="61"/>
-      <c r="BA20" s="61"/>
-      <c r="BB20" s="61"/>
-      <c r="BC20" s="61"/>
-      <c r="BD20" s="61"/>
-      <c r="BE20" s="61"/>
-      <c r="BF20" s="61"/>
-      <c r="BG20" s="61"/>
-      <c r="BH20" s="61"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="60"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="60"/>
+      <c r="AT20" s="60"/>
+      <c r="AU20" s="60"/>
+      <c r="AV20" s="60"/>
+      <c r="AW20" s="60"/>
+      <c r="AX20" s="60"/>
+      <c r="AY20" s="60"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="60"/>
+      <c r="BB20" s="60"/>
+      <c r="BC20" s="60"/>
+      <c r="BD20" s="60"/>
+      <c r="BE20" s="60"/>
+      <c r="BF20" s="60"/>
+      <c r="BG20" s="60"/>
+      <c r="BH20" s="60"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:60">
       <c r="A21" s="22"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="60"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="136"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="135"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="61"/>
-      <c r="AO21" s="61"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="61"/>
-      <c r="BC21" s="61"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="61"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="61"/>
-    </row>
-    <row r="22" ht="67.5" spans="1:60">
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="60"/>
+      <c r="AV21" s="60"/>
+      <c r="AW21" s="60"/>
+      <c r="AX21" s="60"/>
+      <c r="AY21" s="60"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="60"/>
+      <c r="BB21" s="60"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="60"/>
+      <c r="BE21" s="60"/>
+      <c r="BF21" s="60"/>
+      <c r="BG21" s="60"/>
+      <c r="BH21" s="60"/>
+    </row>
+    <row r="22" ht="20.25" spans="1:60">
       <c r="A22" s="22"/>
-      <c r="B22" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="73" t="s">
-        <v>83</v>
+      <c r="B22" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>45</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -4153,21 +3652,15 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:60">
       <c r="A23" s="22"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>87</v>
+      <c r="B23" s="64"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71" t="s">
+        <v>46</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
@@ -4225,21 +3718,15 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:60">
       <c r="A24" s="22"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>93</v>
+      <c r="B24" s="64"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>49</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -4297,21 +3784,15 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:60">
       <c r="A25" s="22"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>98</v>
+      <c r="B25" s="64"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>51</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -4369,24 +3850,18 @@
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:60">
       <c r="A26" s="22"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>73</v>
+      <c r="B26" s="64"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="61"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -4441,24 +3916,18 @@
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:60">
       <c r="A27" s="22"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -4513,16 +3982,14 @@
     </row>
     <row r="28" ht="26.25" customHeight="1" spans="1:60">
       <c r="A28" s="22"/>
-      <c r="B28" s="82" t="s">
-        <v>104</v>
+      <c r="B28" s="81" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="35"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -4582,9 +4049,7 @@
       <c r="B29" s="84"/>
       <c r="C29" s="25"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="E29" s="25"/>
       <c r="F29" s="85"/>
       <c r="G29" s="25"/>
       <c r="H29" s="35"/>
@@ -4646,9 +4111,7 @@
       <c r="B30" s="84"/>
       <c r="C30" s="25"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="E30" s="25"/>
       <c r="F30" s="86"/>
       <c r="G30" s="26"/>
       <c r="H30" s="35"/>
@@ -4710,9 +4173,7 @@
       <c r="B31" s="84"/>
       <c r="C31" s="25"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="25" t="s">
-        <v>107</v>
-      </c>
+      <c r="E31" s="25"/>
       <c r="F31" s="24"/>
       <c r="G31" s="26"/>
       <c r="H31" s="35"/>
@@ -4774,11 +4235,9 @@
       <c r="B32" s="84"/>
       <c r="C32" s="25"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="25" t="s">
-        <v>73</v>
-      </c>
+      <c r="E32" s="25"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="60"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="35"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -4838,9 +4297,7 @@
       <c r="B33" s="87"/>
       <c r="C33" s="25"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="25" t="s">
-        <v>108</v>
-      </c>
+      <c r="E33" s="25"/>
       <c r="F33" s="24"/>
       <c r="G33" s="88"/>
       <c r="H33" s="35"/>
@@ -4899,23 +4356,17 @@
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:60">
       <c r="A34" s="22"/>
-      <c r="B34" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="89" t="s">
-        <v>110</v>
-      </c>
+      <c r="B34" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
       <c r="F34" s="89" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G34" s="89" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="H34" s="90"/>
       <c r="I34" s="95"/>
@@ -4974,20 +4425,14 @@
     <row r="35" ht="26.25" customHeight="1" spans="1:60">
       <c r="A35" s="22"/>
       <c r="B35" s="84"/>
-      <c r="C35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>116</v>
-      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="25" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="H35" s="90"/>
       <c r="I35" s="95"/>
@@ -5046,20 +4491,14 @@
     <row r="36" ht="26.25" customHeight="1" spans="1:60">
       <c r="A36" s="22"/>
       <c r="B36" s="84"/>
-      <c r="C36" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>120</v>
-      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="25" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="H36" s="90"/>
       <c r="I36" s="95"/>
@@ -5118,26 +4557,20 @@
     <row r="37" ht="26.25" customHeight="1" spans="1:60">
       <c r="A37" s="22"/>
       <c r="B37" s="84"/>
-      <c r="C37" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>123</v>
-      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="H37" s="90"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="137"/>
+      <c r="L37" s="136"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
@@ -5190,26 +4623,20 @@
     <row r="38" ht="27" customHeight="1" spans="1:60">
       <c r="A38" s="36"/>
       <c r="B38" s="84"/>
-      <c r="C38" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>128</v>
-      </c>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
       <c r="F38" s="91" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="G38" s="91" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="H38" s="90"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
       <c r="K38" s="15"/>
-      <c r="L38" s="137"/>
+      <c r="L38" s="136"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
@@ -5261,23 +4688,17 @@
     </row>
     <row r="39" ht="21.95" customHeight="1" spans="1:60">
       <c r="A39" s="92" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B39" s="93"/>
-      <c r="C39" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>131</v>
-      </c>
+      <c r="C39" s="94"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="H39" s="95"/>
       <c r="I39" s="95"/>
@@ -5336,20 +4757,14 @@
     <row r="40" ht="21" customHeight="1" spans="1:60">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
-      <c r="C40" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="99" t="s">
-        <v>132</v>
-      </c>
+      <c r="C40" s="98"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
       <c r="F40" s="99" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="G40" s="99" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="H40" s="95"/>
       <c r="I40" s="95"/>
@@ -5408,20 +4823,14 @@
     <row r="41" ht="21" customHeight="1" spans="1:60">
       <c r="A41" s="96"/>
       <c r="B41" s="97"/>
-      <c r="C41" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="99" t="s">
-        <v>135</v>
-      </c>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
       <c r="F41" s="98" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="G41" s="98" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="H41" s="95"/>
       <c r="I41" s="95"/>
@@ -5480,20 +4889,14 @@
     <row r="42" ht="21.95" customHeight="1" spans="1:60">
       <c r="A42" s="100"/>
       <c r="B42" s="97"/>
-      <c r="C42" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="98" t="s">
-        <v>139</v>
-      </c>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="98" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G42" s="98" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="H42" s="95"/>
       <c r="I42" s="15"/>
@@ -5551,25 +4954,19 @@
     </row>
     <row r="43" ht="54" customHeight="1" spans="1:60">
       <c r="A43" s="102" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B43" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="73" t="s">
-        <v>147</v>
+        <v>73</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="104" t="s">
+        <v>74</v>
       </c>
       <c r="G43" s="105" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="H43" s="106"/>
       <c r="I43" s="15"/>
@@ -5628,20 +5025,14 @@
     <row r="44" ht="21.95" customHeight="1" spans="1:60">
       <c r="A44" s="107"/>
       <c r="B44" s="108"/>
-      <c r="C44" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>153</v>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="109" t="s">
+        <v>77</v>
       </c>
       <c r="H44" s="110"/>
       <c r="I44" s="15"/>
@@ -5700,22 +5091,16 @@
     <row r="45" ht="21.95" customHeight="1" spans="1:60">
       <c r="A45" s="107"/>
       <c r="B45" s="108"/>
-      <c r="C45" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="113"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="112"/>
       <c r="I45" s="15"/>
       <c r="J45" s="95"/>
       <c r="K45" s="15"/>
@@ -5772,20 +5157,14 @@
     <row r="46" ht="21.95" customHeight="1" spans="1:60">
       <c r="A46" s="107"/>
       <c r="B46" s="108"/>
-      <c r="C46" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>163</v>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="109" t="s">
+        <v>81</v>
       </c>
       <c r="H46" s="110"/>
       <c r="I46" s="15"/>
@@ -5844,23 +5223,17 @@
     <row r="47" ht="21.95" customHeight="1" spans="1:60">
       <c r="A47" s="107"/>
       <c r="B47" s="108"/>
-      <c r="C47" s="111" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>167</v>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="113" t="s">
+        <v>83</v>
       </c>
       <c r="H47" s="110"/>
-      <c r="I47" s="61"/>
+      <c r="I47" s="60"/>
       <c r="J47" s="95"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
@@ -5916,21 +5289,17 @@
     <row r="48" ht="21.95" customHeight="1" spans="1:60">
       <c r="A48" s="114"/>
       <c r="B48" s="108"/>
-      <c r="C48" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>21</v>
-      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>168</v>
+        <v>84</v>
+      </c>
+      <c r="G48" s="113" t="s">
+        <v>85</v>
       </c>
       <c r="H48" s="116"/>
-      <c r="I48" s="61"/>
+      <c r="I48" s="60"/>
       <c r="J48" s="95"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
@@ -5986,19 +5355,15 @@
     <row r="49" ht="21.95" customHeight="1" spans="1:60">
       <c r="A49" s="114"/>
       <c r="B49" s="117"/>
-      <c r="C49" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="119" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="120" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49" s="120"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="119" t="s">
+        <v>87</v>
+      </c>
       <c r="H49" s="95"/>
       <c r="I49" s="95"/>
       <c r="J49" s="95"/>
@@ -6055,23 +5420,17 @@
     </row>
     <row r="50" ht="23.1" customHeight="1" spans="1:60">
       <c r="A50" s="46"/>
-      <c r="B50" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="G50" s="122" t="s">
-        <v>174</v>
+      <c r="B50" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="H50" s="95"/>
       <c r="I50" s="95"/>
@@ -6129,21 +5488,15 @@
     </row>
     <row r="51" ht="21.95" customHeight="1" spans="1:60">
       <c r="A51" s="46"/>
-      <c r="B51" s="123"/>
-      <c r="C51" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>176</v>
-      </c>
+      <c r="B51" s="121"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="24" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -6201,21 +5554,15 @@
     </row>
     <row r="52" ht="21.95" customHeight="1" spans="1:60">
       <c r="A52" s="46"/>
-      <c r="B52" s="123"/>
-      <c r="C52" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>119</v>
-      </c>
+      <c r="B52" s="121"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="24" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -6273,21 +5620,15 @@
     </row>
     <row r="53" ht="21.95" customHeight="1" spans="1:60">
       <c r="A53" s="46"/>
-      <c r="B53" s="123"/>
-      <c r="C53" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="B53" s="121"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="24" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -6344,22 +5685,16 @@
       <c r="BH53" s="15"/>
     </row>
     <row r="54" ht="21.95" customHeight="1" spans="1:60">
-      <c r="A54" s="124"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>183</v>
-      </c>
+      <c r="A54" s="122"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
       <c r="F54" s="91" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="G54" s="91" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -6415,24 +5750,24 @@
       <c r="BG54" s="15"/>
       <c r="BH54" s="15"/>
     </row>
-    <row r="55" ht="22.5" spans="1:60">
+    <row r="55" ht="20.25" spans="1:60">
       <c r="A55" s="92" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B55" s="97"/>
-      <c r="C55" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="127" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" s="127"/>
+      <c r="C55" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="125"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
@@ -6488,15 +5823,15 @@
       <c r="BH55" s="15"/>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:60">
-      <c r="A56" s="128" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="129"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="130"/>
+      <c r="A56" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
@@ -6551,14 +5886,14 @@
       <c r="BG56" s="15"/>
       <c r="BH56" s="15"/>
     </row>
-    <row r="57" ht="24.75" spans="1:60">
-      <c r="A57" s="131"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="133"/>
+    <row r="57" ht="24" spans="1:60">
+      <c r="A57" s="129"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="131"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="134"/>
+      <c r="G57" s="132"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
@@ -6613,11 +5948,11 @@
       <c r="BG57" s="15"/>
       <c r="BH57" s="15"/>
     </row>
-    <row r="58" ht="24.75" spans="1:60">
-      <c r="A58" s="132"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
+    <row r="58" ht="24" spans="1:60">
+      <c r="A58" s="130"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -6675,11 +6010,11 @@
       <c r="BG58" s="15"/>
       <c r="BH58" s="15"/>
     </row>
-    <row r="59" ht="24.75" spans="1:60">
-      <c r="A59" s="132"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
+    <row r="59" ht="24" spans="1:60">
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -6689,59 +6024,59 @@
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="61"/>
-      <c r="AB59" s="61"/>
-      <c r="AC59" s="61"/>
-      <c r="AD59" s="61"/>
-      <c r="AE59" s="61"/>
-      <c r="AF59" s="61"/>
-      <c r="AG59" s="61"/>
-      <c r="AH59" s="61"/>
-      <c r="AI59" s="61"/>
-      <c r="AJ59" s="61"/>
-      <c r="AK59" s="61"/>
-      <c r="AL59" s="61"/>
-      <c r="AM59" s="61"/>
-      <c r="AN59" s="61"/>
-      <c r="AO59" s="61"/>
-      <c r="AP59" s="61"/>
-      <c r="AQ59" s="61"/>
-      <c r="AR59" s="61"/>
-      <c r="AS59" s="61"/>
-      <c r="AT59" s="61"/>
-      <c r="AU59" s="61"/>
-      <c r="AV59" s="61"/>
-      <c r="AW59" s="61"/>
-      <c r="AX59" s="61"/>
-      <c r="AY59" s="61"/>
-      <c r="AZ59" s="61"/>
-      <c r="BA59" s="61"/>
-      <c r="BB59" s="61"/>
-      <c r="BC59" s="61"/>
-      <c r="BD59" s="61"/>
-      <c r="BE59" s="61"/>
-      <c r="BF59" s="61"/>
-      <c r="BG59" s="61"/>
-      <c r="BH59" s="61"/>
-    </row>
-    <row r="60" ht="24.75" spans="1:60">
-      <c r="A60" s="132"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="60"/>
+      <c r="Y59" s="60"/>
+      <c r="Z59" s="60"/>
+      <c r="AA59" s="60"/>
+      <c r="AB59" s="60"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="60"/>
+      <c r="AE59" s="60"/>
+      <c r="AF59" s="60"/>
+      <c r="AG59" s="60"/>
+      <c r="AH59" s="60"/>
+      <c r="AI59" s="60"/>
+      <c r="AJ59" s="60"/>
+      <c r="AK59" s="60"/>
+      <c r="AL59" s="60"/>
+      <c r="AM59" s="60"/>
+      <c r="AN59" s="60"/>
+      <c r="AO59" s="60"/>
+      <c r="AP59" s="60"/>
+      <c r="AQ59" s="60"/>
+      <c r="AR59" s="60"/>
+      <c r="AS59" s="60"/>
+      <c r="AT59" s="60"/>
+      <c r="AU59" s="60"/>
+      <c r="AV59" s="60"/>
+      <c r="AW59" s="60"/>
+      <c r="AX59" s="60"/>
+      <c r="AY59" s="60"/>
+      <c r="AZ59" s="60"/>
+      <c r="BA59" s="60"/>
+      <c r="BB59" s="60"/>
+      <c r="BC59" s="60"/>
+      <c r="BD59" s="60"/>
+      <c r="BE59" s="60"/>
+      <c r="BF59" s="60"/>
+      <c r="BG59" s="60"/>
+      <c r="BH59" s="60"/>
+    </row>
+    <row r="60" ht="24" spans="1:60">
+      <c r="A60" s="130"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="133"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -6751,59 +6086,59 @@
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="61"/>
-      <c r="U60" s="61"/>
-      <c r="V60" s="61"/>
-      <c r="W60" s="61"/>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="61"/>
-      <c r="AA60" s="61"/>
-      <c r="AB60" s="61"/>
-      <c r="AC60" s="61"/>
-      <c r="AD60" s="61"/>
-      <c r="AE60" s="61"/>
-      <c r="AF60" s="61"/>
-      <c r="AG60" s="61"/>
-      <c r="AH60" s="61"/>
-      <c r="AI60" s="61"/>
-      <c r="AJ60" s="61"/>
-      <c r="AK60" s="61"/>
-      <c r="AL60" s="61"/>
-      <c r="AM60" s="61"/>
-      <c r="AN60" s="61"/>
-      <c r="AO60" s="61"/>
-      <c r="AP60" s="61"/>
-      <c r="AQ60" s="61"/>
-      <c r="AR60" s="61"/>
-      <c r="AS60" s="61"/>
-      <c r="AT60" s="61"/>
-      <c r="AU60" s="61"/>
-      <c r="AV60" s="61"/>
-      <c r="AW60" s="61"/>
-      <c r="AX60" s="61"/>
-      <c r="AY60" s="61"/>
-      <c r="AZ60" s="61"/>
-      <c r="BA60" s="61"/>
-      <c r="BB60" s="61"/>
-      <c r="BC60" s="61"/>
-      <c r="BD60" s="61"/>
-      <c r="BE60" s="61"/>
-      <c r="BF60" s="61"/>
-      <c r="BG60" s="61"/>
-      <c r="BH60" s="61"/>
-    </row>
-    <row r="61" ht="24.75" spans="1:60">
-      <c r="A61" s="132"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="60"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="60"/>
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="60"/>
+      <c r="AG60" s="60"/>
+      <c r="AH60" s="60"/>
+      <c r="AI60" s="60"/>
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="60"/>
+      <c r="AM60" s="60"/>
+      <c r="AN60" s="60"/>
+      <c r="AO60" s="60"/>
+      <c r="AP60" s="60"/>
+      <c r="AQ60" s="60"/>
+      <c r="AR60" s="60"/>
+      <c r="AS60" s="60"/>
+      <c r="AT60" s="60"/>
+      <c r="AU60" s="60"/>
+      <c r="AV60" s="60"/>
+      <c r="AW60" s="60"/>
+      <c r="AX60" s="60"/>
+      <c r="AY60" s="60"/>
+      <c r="AZ60" s="60"/>
+      <c r="BA60" s="60"/>
+      <c r="BB60" s="60"/>
+      <c r="BC60" s="60"/>
+      <c r="BD60" s="60"/>
+      <c r="BE60" s="60"/>
+      <c r="BF60" s="60"/>
+      <c r="BG60" s="60"/>
+      <c r="BH60" s="60"/>
+    </row>
+    <row r="61" ht="24" spans="1:60">
+      <c r="A61" s="130"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="133"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -6813,59 +6148,59 @@
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="61"/>
-      <c r="T61" s="61"/>
-      <c r="U61" s="61"/>
-      <c r="V61" s="61"/>
-      <c r="W61" s="61"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="61"/>
-      <c r="Z61" s="61"/>
-      <c r="AA61" s="61"/>
-      <c r="AB61" s="61"/>
-      <c r="AC61" s="61"/>
-      <c r="AD61" s="61"/>
-      <c r="AE61" s="61"/>
-      <c r="AF61" s="61"/>
-      <c r="AG61" s="61"/>
-      <c r="AH61" s="61"/>
-      <c r="AI61" s="61"/>
-      <c r="AJ61" s="61"/>
-      <c r="AK61" s="61"/>
-      <c r="AL61" s="61"/>
-      <c r="AM61" s="61"/>
-      <c r="AN61" s="61"/>
-      <c r="AO61" s="61"/>
-      <c r="AP61" s="61"/>
-      <c r="AQ61" s="61"/>
-      <c r="AR61" s="61"/>
-      <c r="AS61" s="61"/>
-      <c r="AT61" s="61"/>
-      <c r="AU61" s="61"/>
-      <c r="AV61" s="61"/>
-      <c r="AW61" s="61"/>
-      <c r="AX61" s="61"/>
-      <c r="AY61" s="61"/>
-      <c r="AZ61" s="61"/>
-      <c r="BA61" s="61"/>
-      <c r="BB61" s="61"/>
-      <c r="BC61" s="61"/>
-      <c r="BD61" s="61"/>
-      <c r="BE61" s="61"/>
-      <c r="BF61" s="61"/>
-      <c r="BG61" s="61"/>
-      <c r="BH61" s="61"/>
-    </row>
-    <row r="62" ht="24.75" spans="1:60">
-      <c r="A62" s="132"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="60"/>
+      <c r="AA61" s="60"/>
+      <c r="AB61" s="60"/>
+      <c r="AC61" s="60"/>
+      <c r="AD61" s="60"/>
+      <c r="AE61" s="60"/>
+      <c r="AF61" s="60"/>
+      <c r="AG61" s="60"/>
+      <c r="AH61" s="60"/>
+      <c r="AI61" s="60"/>
+      <c r="AJ61" s="60"/>
+      <c r="AK61" s="60"/>
+      <c r="AL61" s="60"/>
+      <c r="AM61" s="60"/>
+      <c r="AN61" s="60"/>
+      <c r="AO61" s="60"/>
+      <c r="AP61" s="60"/>
+      <c r="AQ61" s="60"/>
+      <c r="AR61" s="60"/>
+      <c r="AS61" s="60"/>
+      <c r="AT61" s="60"/>
+      <c r="AU61" s="60"/>
+      <c r="AV61" s="60"/>
+      <c r="AW61" s="60"/>
+      <c r="AX61" s="60"/>
+      <c r="AY61" s="60"/>
+      <c r="AZ61" s="60"/>
+      <c r="BA61" s="60"/>
+      <c r="BB61" s="60"/>
+      <c r="BC61" s="60"/>
+      <c r="BD61" s="60"/>
+      <c r="BE61" s="60"/>
+      <c r="BF61" s="60"/>
+      <c r="BG61" s="60"/>
+      <c r="BH61" s="60"/>
+    </row>
+    <row r="62" ht="24" spans="1:60">
+      <c r="A62" s="130"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -6875,59 +6210,59 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="61"/>
-      <c r="T62" s="61"/>
-      <c r="U62" s="61"/>
-      <c r="V62" s="61"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="61"/>
-      <c r="AA62" s="61"/>
-      <c r="AB62" s="61"/>
-      <c r="AC62" s="61"/>
-      <c r="AD62" s="61"/>
-      <c r="AE62" s="61"/>
-      <c r="AF62" s="61"/>
-      <c r="AG62" s="61"/>
-      <c r="AH62" s="61"/>
-      <c r="AI62" s="61"/>
-      <c r="AJ62" s="61"/>
-      <c r="AK62" s="61"/>
-      <c r="AL62" s="61"/>
-      <c r="AM62" s="61"/>
-      <c r="AN62" s="61"/>
-      <c r="AO62" s="61"/>
-      <c r="AP62" s="61"/>
-      <c r="AQ62" s="61"/>
-      <c r="AR62" s="61"/>
-      <c r="AS62" s="61"/>
-      <c r="AT62" s="61"/>
-      <c r="AU62" s="61"/>
-      <c r="AV62" s="61"/>
-      <c r="AW62" s="61"/>
-      <c r="AX62" s="61"/>
-      <c r="AY62" s="61"/>
-      <c r="AZ62" s="61"/>
-      <c r="BA62" s="61"/>
-      <c r="BB62" s="61"/>
-      <c r="BC62" s="61"/>
-      <c r="BD62" s="61"/>
-      <c r="BE62" s="61"/>
-      <c r="BF62" s="61"/>
-      <c r="BG62" s="61"/>
-      <c r="BH62" s="61"/>
-    </row>
-    <row r="63" ht="24.75" spans="1:60">
-      <c r="A63" s="132"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="60"/>
+      <c r="Y62" s="60"/>
+      <c r="Z62" s="60"/>
+      <c r="AA62" s="60"/>
+      <c r="AB62" s="60"/>
+      <c r="AC62" s="60"/>
+      <c r="AD62" s="60"/>
+      <c r="AE62" s="60"/>
+      <c r="AF62" s="60"/>
+      <c r="AG62" s="60"/>
+      <c r="AH62" s="60"/>
+      <c r="AI62" s="60"/>
+      <c r="AJ62" s="60"/>
+      <c r="AK62" s="60"/>
+      <c r="AL62" s="60"/>
+      <c r="AM62" s="60"/>
+      <c r="AN62" s="60"/>
+      <c r="AO62" s="60"/>
+      <c r="AP62" s="60"/>
+      <c r="AQ62" s="60"/>
+      <c r="AR62" s="60"/>
+      <c r="AS62" s="60"/>
+      <c r="AT62" s="60"/>
+      <c r="AU62" s="60"/>
+      <c r="AV62" s="60"/>
+      <c r="AW62" s="60"/>
+      <c r="AX62" s="60"/>
+      <c r="AY62" s="60"/>
+      <c r="AZ62" s="60"/>
+      <c r="BA62" s="60"/>
+      <c r="BB62" s="60"/>
+      <c r="BC62" s="60"/>
+      <c r="BD62" s="60"/>
+      <c r="BE62" s="60"/>
+      <c r="BF62" s="60"/>
+      <c r="BG62" s="60"/>
+      <c r="BH62" s="60"/>
+    </row>
+    <row r="63" ht="24" spans="1:60">
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="133"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -6937,59 +6272,59 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="61"/>
-      <c r="AA63" s="61"/>
-      <c r="AB63" s="61"/>
-      <c r="AC63" s="61"/>
-      <c r="AD63" s="61"/>
-      <c r="AE63" s="61"/>
-      <c r="AF63" s="61"/>
-      <c r="AG63" s="61"/>
-      <c r="AH63" s="61"/>
-      <c r="AI63" s="61"/>
-      <c r="AJ63" s="61"/>
-      <c r="AK63" s="61"/>
-      <c r="AL63" s="61"/>
-      <c r="AM63" s="61"/>
-      <c r="AN63" s="61"/>
-      <c r="AO63" s="61"/>
-      <c r="AP63" s="61"/>
-      <c r="AQ63" s="61"/>
-      <c r="AR63" s="61"/>
-      <c r="AS63" s="61"/>
-      <c r="AT63" s="61"/>
-      <c r="AU63" s="61"/>
-      <c r="AV63" s="61"/>
-      <c r="AW63" s="61"/>
-      <c r="AX63" s="61"/>
-      <c r="AY63" s="61"/>
-      <c r="AZ63" s="61"/>
-      <c r="BA63" s="61"/>
-      <c r="BB63" s="61"/>
-      <c r="BC63" s="61"/>
-      <c r="BD63" s="61"/>
-      <c r="BE63" s="61"/>
-      <c r="BF63" s="61"/>
-      <c r="BG63" s="61"/>
-      <c r="BH63" s="61"/>
-    </row>
-    <row r="64" ht="24.75" spans="1:60">
-      <c r="A64" s="132"/>
-      <c r="B64" s="132"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="60"/>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="60"/>
+      <c r="Y63" s="60"/>
+      <c r="Z63" s="60"/>
+      <c r="AA63" s="60"/>
+      <c r="AB63" s="60"/>
+      <c r="AC63" s="60"/>
+      <c r="AD63" s="60"/>
+      <c r="AE63" s="60"/>
+      <c r="AF63" s="60"/>
+      <c r="AG63" s="60"/>
+      <c r="AH63" s="60"/>
+      <c r="AI63" s="60"/>
+      <c r="AJ63" s="60"/>
+      <c r="AK63" s="60"/>
+      <c r="AL63" s="60"/>
+      <c r="AM63" s="60"/>
+      <c r="AN63" s="60"/>
+      <c r="AO63" s="60"/>
+      <c r="AP63" s="60"/>
+      <c r="AQ63" s="60"/>
+      <c r="AR63" s="60"/>
+      <c r="AS63" s="60"/>
+      <c r="AT63" s="60"/>
+      <c r="AU63" s="60"/>
+      <c r="AV63" s="60"/>
+      <c r="AW63" s="60"/>
+      <c r="AX63" s="60"/>
+      <c r="AY63" s="60"/>
+      <c r="AZ63" s="60"/>
+      <c r="BA63" s="60"/>
+      <c r="BB63" s="60"/>
+      <c r="BC63" s="60"/>
+      <c r="BD63" s="60"/>
+      <c r="BE63" s="60"/>
+      <c r="BF63" s="60"/>
+      <c r="BG63" s="60"/>
+      <c r="BH63" s="60"/>
+    </row>
+    <row r="64" ht="24" spans="1:60">
+      <c r="A64" s="130"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="133"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -6999,59 +6334,59 @@
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="61"/>
-      <c r="U64" s="61"/>
-      <c r="V64" s="61"/>
-      <c r="W64" s="61"/>
-      <c r="X64" s="61"/>
-      <c r="Y64" s="61"/>
-      <c r="Z64" s="61"/>
-      <c r="AA64" s="61"/>
-      <c r="AB64" s="61"/>
-      <c r="AC64" s="61"/>
-      <c r="AD64" s="61"/>
-      <c r="AE64" s="61"/>
-      <c r="AF64" s="61"/>
-      <c r="AG64" s="61"/>
-      <c r="AH64" s="61"/>
-      <c r="AI64" s="61"/>
-      <c r="AJ64" s="61"/>
-      <c r="AK64" s="61"/>
-      <c r="AL64" s="61"/>
-      <c r="AM64" s="61"/>
-      <c r="AN64" s="61"/>
-      <c r="AO64" s="61"/>
-      <c r="AP64" s="61"/>
-      <c r="AQ64" s="61"/>
-      <c r="AR64" s="61"/>
-      <c r="AS64" s="61"/>
-      <c r="AT64" s="61"/>
-      <c r="AU64" s="61"/>
-      <c r="AV64" s="61"/>
-      <c r="AW64" s="61"/>
-      <c r="AX64" s="61"/>
-      <c r="AY64" s="61"/>
-      <c r="AZ64" s="61"/>
-      <c r="BA64" s="61"/>
-      <c r="BB64" s="61"/>
-      <c r="BC64" s="61"/>
-      <c r="BD64" s="61"/>
-      <c r="BE64" s="61"/>
-      <c r="BF64" s="61"/>
-      <c r="BG64" s="61"/>
-      <c r="BH64" s="61"/>
-    </row>
-    <row r="65" ht="24.75" spans="1:13">
-      <c r="A65" s="132"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="60"/>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="60"/>
+      <c r="Y64" s="60"/>
+      <c r="Z64" s="60"/>
+      <c r="AA64" s="60"/>
+      <c r="AB64" s="60"/>
+      <c r="AC64" s="60"/>
+      <c r="AD64" s="60"/>
+      <c r="AE64" s="60"/>
+      <c r="AF64" s="60"/>
+      <c r="AG64" s="60"/>
+      <c r="AH64" s="60"/>
+      <c r="AI64" s="60"/>
+      <c r="AJ64" s="60"/>
+      <c r="AK64" s="60"/>
+      <c r="AL64" s="60"/>
+      <c r="AM64" s="60"/>
+      <c r="AN64" s="60"/>
+      <c r="AO64" s="60"/>
+      <c r="AP64" s="60"/>
+      <c r="AQ64" s="60"/>
+      <c r="AR64" s="60"/>
+      <c r="AS64" s="60"/>
+      <c r="AT64" s="60"/>
+      <c r="AU64" s="60"/>
+      <c r="AV64" s="60"/>
+      <c r="AW64" s="60"/>
+      <c r="AX64" s="60"/>
+      <c r="AY64" s="60"/>
+      <c r="AZ64" s="60"/>
+      <c r="BA64" s="60"/>
+      <c r="BB64" s="60"/>
+      <c r="BC64" s="60"/>
+      <c r="BD64" s="60"/>
+      <c r="BE64" s="60"/>
+      <c r="BF64" s="60"/>
+      <c r="BG64" s="60"/>
+      <c r="BH64" s="60"/>
+    </row>
+    <row r="65" ht="24" spans="1:13">
+      <c r="A65" s="130"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="133"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -7062,11 +6397,11 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" ht="24.75" spans="1:13">
-      <c r="A66" s="132"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="138"/>
+    <row r="66" ht="24" spans="1:13">
+      <c r="A66" s="130"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="137"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -7077,10 +6412,10 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" ht="24.75" spans="1:13">
-      <c r="A67" s="132"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="133"/>
+    <row r="67" ht="24" spans="1:13">
+      <c r="A67" s="130"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="131"/>
       <c r="D67" s="35"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
@@ -7092,11 +6427,11 @@
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
     </row>
-    <row r="68" ht="24.75" spans="1:13">
-      <c r="A68" s="132"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="133"/>
+    <row r="68" ht="24" spans="1:13">
+      <c r="A68" s="130"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -7107,11 +6442,11 @@
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
     </row>
-    <row r="69" ht="24.75" spans="1:13">
-      <c r="A69" s="132"/>
-      <c r="B69" s="132"/>
-      <c r="C69" s="133"/>
-      <c r="D69" s="133"/>
+    <row r="69" ht="24" spans="1:13">
+      <c r="A69" s="130"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="131"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -7122,11 +6457,11 @@
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
     </row>
-    <row r="70" ht="24.75" spans="1:13">
-      <c r="A70" s="132"/>
-      <c r="B70" s="132"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="133"/>
+    <row r="70" ht="24" spans="1:13">
+      <c r="A70" s="130"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="131"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -7137,9 +6472,9 @@
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
     </row>
-    <row r="71" ht="24.75" spans="1:13">
-      <c r="A71" s="132"/>
-      <c r="B71" s="132"/>
+    <row r="71" ht="24" spans="1:13">
+      <c r="A71" s="130"/>
+      <c r="B71" s="130"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="15"/>
@@ -7152,9 +6487,9 @@
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
     </row>
-    <row r="72" ht="24.75" spans="1:13">
-      <c r="A72" s="132"/>
-      <c r="B72" s="132"/>
+    <row r="72" ht="24" spans="1:13">
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -7167,9 +6502,9 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" ht="24.75" spans="1:13">
-      <c r="A73" s="132"/>
-      <c r="B73" s="132"/>
+    <row r="73" ht="24" spans="1:13">
+      <c r="A73" s="130"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -7182,9 +6517,9 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
     </row>
-    <row r="74" ht="24.75" spans="1:13">
-      <c r="A74" s="132"/>
-      <c r="B74" s="132"/>
+    <row r="74" ht="24" spans="1:13">
+      <c r="A74" s="130"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -7197,9 +6532,9 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
     </row>
-    <row r="75" ht="24.75" spans="1:13">
-      <c r="A75" s="132"/>
-      <c r="B75" s="132"/>
+    <row r="75" ht="24" spans="1:13">
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -7212,9 +6547,9 @@
       <c r="L75" s="15"/>
       <c r="M75" s="15"/>
     </row>
-    <row r="76" ht="24.75" spans="1:13">
-      <c r="A76" s="132"/>
-      <c r="B76" s="132"/>
+    <row r="76" ht="24" spans="1:13">
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -7227,9 +6562,9 @@
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
     </row>
-    <row r="77" ht="24.75" spans="1:13">
-      <c r="A77" s="132"/>
-      <c r="B77" s="132"/>
+    <row r="77" ht="24" spans="1:13">
+      <c r="A77" s="130"/>
+      <c r="B77" s="130"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -7242,9 +6577,9 @@
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
     </row>
-    <row r="78" ht="24.75" spans="1:13">
-      <c r="A78" s="132"/>
-      <c r="B78" s="132"/>
+    <row r="78" ht="24" spans="1:13">
+      <c r="A78" s="130"/>
+      <c r="B78" s="130"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -7278,7 +6613,7 @@
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="A39:B42"/>
   </mergeCells>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -7290,10 +6625,10 @@
   <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -7303,88 +6638,76 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="C2" s="8">
         <f>DATEVALUE(SUBSTITUTE(SUBSTITUTE(LEFT(input!C2,6),"일",""),"월 ","-"))</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" ht="192.75" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="C3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!C3&amp;CHAR(10)&amp;input!C4&amp;CHAR(10)&amp;input!C5&amp;CHAR(10)&amp;input!C6&amp;CHAR(10)&amp;input!C7</f>
         <v>[한식]
-김치콩나물국
-삼곡밥
-비엔나야채볶음
-알타리김치
-861kcal</v>
+</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!D3&amp;CHAR(10)&amp;input!D4&amp;CHAR(10)&amp;input!D5&amp;CHAR(10)&amp;input!D6&amp;CHAR(10)&amp;input!D7</f>
         <v>[한식]
-쇠고기미역국(소:호주산)
-삼곡밥
-두부계란구이*양념장
-포기김치
-860kcal</v>
+</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!E3&amp;CHAR(10)&amp;input!E4&amp;CHAR(10)&amp;input!E5&amp;CHAR(10)&amp;input!E6&amp;CHAR(10)&amp;input!E7</f>
         <v>[한식]
-감자양파국
-삼곡밥
-양배추진미채야채무침
-포기김치
-872kcal</v>
+</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!F3&amp;CHAR(10)&amp;input!F4&amp;CHAR(10)&amp;input!F5&amp;CHAR(10)&amp;input!F6&amp;CHAR(10)&amp;input!F7</f>
         <v>[한식]
-순두부김치찌개(돼지:국내산)
+건새우시금치국
 삼곡밥
-해물떡편완자전
+볼어묵맛살볶음(갈치:수입산)
 포기김치
-878kcal</v>
+841kcal</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>$B3&amp;CHAR(10)&amp;input!G3&amp;CHAR(10)&amp;input!G4&amp;CHAR(10)&amp;input!G5&amp;CHAR(10)&amp;input!G6&amp;CHAR(10)&amp;input!G7</f>
         <v>[한식]
-얼큰오징어무찌개
+경상도식쇠고기무국(소:호주산)
 삼곡밥
-호박새우젓볶음
+메추리알곤약조림
 포기김치
-866kcal</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" spans="1:7">
+839kcal</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:7">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!C8</f>
         <v>[즉석]
-즉석해장라면/삼곡밥/김치</v>
+</v>
       </c>
       <c r="D4" s="8" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!D8</f>
         <v>[즉석]
-즉석해장라면/삼곡밥/김치</v>
+</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!E8</f>
         <v>[즉석]
-즉석해장라면/삼곡밥/김치</v>
+</v>
       </c>
       <c r="F4" s="8" t="str">
         <f>$B4&amp;CHAR(10)&amp;input!F8</f>
@@ -7397,80 +6720,68 @@
 즉석해장라면/삼곡밥/김치</v>
       </c>
     </row>
-    <row r="5" ht="94.5" spans="1:7">
+    <row r="5" ht="90" spans="1:7">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="C5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!C9&amp;CHAR(10)&amp;input!C10&amp;CHAR(10)&amp;input!C11&amp;CHAR(10)&amp;input!C12&amp;CHAR(10)&amp;input!C13</f>
         <v>[일품]
-곡물식빵*미니크로와상/딸기잼*버터
-그린샐러드*유자레몬D
-우유
-스크램블에그
-콘후레이크</v>
+</v>
       </c>
       <c r="D5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!D9&amp;CHAR(10)&amp;input!D10&amp;CHAR(10)&amp;input!D11&amp;CHAR(10)&amp;input!D12&amp;CHAR(10)&amp;input!D13</f>
         <v>[일품]
-토스트식빵*곡물식빵/딸기잼*버터
-그린샐러드*유자레몬D
-우유
-계란후라이
-감자볼튀김</v>
+</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!E9&amp;CHAR(10)&amp;input!E10&amp;CHAR(10)&amp;input!E11&amp;CHAR(10)&amp;input!E12&amp;CHAR(10)&amp;input!E13</f>
         <v>[일품]
-토스트식빵*참깨롤빵/딸기잼*버터
-그린샐러드*유자레몬D
-우유
-스크램블에그
-매쉬드포테이토</v>
+</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!F9&amp;CHAR(10)&amp;input!F10&amp;CHAR(10)&amp;input!F11&amp;CHAR(10)&amp;input!F12&amp;CHAR(10)&amp;input!F13</f>
         <v>[일품]
-곡물식빵*모닝빵/딸기잼*버터
-그린샐러드*유자레몬D
+토스트식빵*곡물식빵/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 계란후라이
-햄구이</v>
+해쉬브라운</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>$B5&amp;CHAR(10)&amp;input!G9&amp;CHAR(10)&amp;input!G10&amp;CHAR(10)&amp;input!G11&amp;CHAR(10)&amp;input!G12&amp;CHAR(10)&amp;input!G13</f>
         <v>[일품]
-토스트식빵*미니와플/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
-스크램블에그
-줄무늬감자튀김</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" spans="1:7">
+계란후라이
+초코첵스</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:7">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C6" s="8" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!C14</f>
         <v>[플러스메뉴]
-누룽지/김구이</v>
+</v>
       </c>
       <c r="D6" s="8" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!D14</f>
         <v>[플러스메뉴]
-누룽지/계란후라이</v>
+</v>
       </c>
       <c r="E6" s="8" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!E14</f>
         <v>[플러스메뉴]
-누룽지/김구이</v>
+</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>$B6&amp;CHAR(10)&amp;input!F14</f>
@@ -7485,137 +6796,100 @@
     </row>
     <row r="7" ht="214.5" customHeight="1" spans="1:7">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!C15&amp;CHAR(10)&amp;input!C16&amp;CHAR(10)&amp;input!C17&amp;CHAR(10)&amp;input!C18&amp;CHAR(10)&amp;input!C19&amp;CHAR(10)&amp;input!C20&amp;CHAR(10)&amp;input!C21</f>
         <v>[한식]
-닭곰탕*소면사리
-(닭:국내산)
-흑향미밥
-옛날소세지전*케찹
-도토리묵야채무침
-통깨건파래볶음
-포기김치/석박지
-980kcal</v>
+</v>
       </c>
       <c r="D7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!D15&amp;CHAR(10)&amp;input!D16&amp;CHAR(10)&amp;input!D17&amp;CHAR(10)&amp;input!D18&amp;CHAR(10)&amp;input!D19&amp;CHAR(10)&amp;input!D20&amp;CHAR(10)&amp;input!D21</f>
         <v>[한식]
-흑마늘삼겹보쌈*두부찜*부추무침
-(돼지:미국산)
-기장밥
-수제비아욱국
-감자전,해물파전
-우엉땅콩조림
-포기김치/석박지
-1002kcal</v>
+</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!E15&amp;CHAR(10)&amp;input!E16&amp;CHAR(10)&amp;input!E17&amp;CHAR(10)&amp;input!E18&amp;CHAR(10)&amp;input!E19&amp;CHAR(10)&amp;input!E20&amp;CHAR(10)&amp;input!E21</f>
         <v>[한식]
-숯불철판치즈닭갈비*고구마사리
-(닭:브라질산)
-수수밥
-맑은콩나물국
-삼색밀전병*겨자소스
-볼어묵피망조림(갈치:수입산)
-포기김치/석박지
-1005kcal</v>
+</v>
       </c>
       <c r="F7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!F15&amp;CHAR(10)&amp;input!F16&amp;CHAR(10)&amp;input!F17&amp;CHAR(10)&amp;input!F18&amp;CHAR(10)&amp;input!F19&amp;CHAR(10)&amp;input!F20&amp;CHAR(10)&amp;input!F21</f>
         <v>[한식]
-철판제육깻잎불고기
-(돼자:국내산)
-보리밥
-조랑떡미역국
-감자채카레볶음
-양배추쌈&amp;아삭이고추*견과류쌈장
+안동찜닭*단호박치즈사리
+(닭:국내산)
+수수밥
+두부김치국
+비엔나브로커리볶음
+콩나물들깨무침
 포기김치/석박지
-994kcal</v>
+998kcal</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>$B7&amp;CHAR(10)&amp;input!G15&amp;CHAR(10)&amp;input!G16&amp;CHAR(10)&amp;input!G17&amp;CHAR(10)&amp;input!G18&amp;CHAR(10)&amp;input!G19&amp;CHAR(10)&amp;input!G20&amp;CHAR(10)&amp;input!G21</f>
         <v>[한식]
-조기구이
-잡곡밥
-쇠고기토란탕(소:호주산)
-두부버섯양념조림
-오이양파무침
+묵은지돈목살김치찌개
+(돼지:국내산)
+흑향미밥
+오꼬노미풍계란말이
+궁중떡볶음
+참나물겉절이
 포기김치/석박지
-979kcal</v>
-      </c>
-    </row>
-    <row r="8" ht="126" spans="1:7">
+987kcal</v>
+      </c>
+    </row>
+    <row r="8" ht="120" spans="1:7">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!C22&amp;CHAR(10)&amp;input!C23&amp;CHAR(10)&amp;input!C24&amp;CHAR(10)&amp;input!C25&amp;CHAR(10)&amp;input!C26&amp;CHAR(10)&amp;input!C27</f>
         <v>[일품]
-순살등심돈까스*일식돈까스s
-(돼지:국내산)
-미니냉모밀
-옥수수버터구이/연두부참깨샐러드
-치자단무지,락교,초생강
-포기김치/석박지
-1023kcal</v>
+</v>
       </c>
       <c r="D8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!D22&amp;CHAR(10)&amp;input!D23&amp;CHAR(10)&amp;input!D24&amp;CHAR(10)&amp;input!D25&amp;CHAR(10)&amp;input!D26&amp;CHAR(10)&amp;input!D27</f>
         <v>[일품]
-사천식해물볶음을 올린 쟁반짜장
-계란파국/쌀밥
-치킨탕수육(닭:국내산)
-오이지매실청무침
-포기김치/석박지
-1020kcal</v>
+</v>
       </c>
       <c r="E8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!E22&amp;CHAR(10)&amp;input!E23&amp;CHAR(10)&amp;input!E24&amp;CHAR(10)&amp;input!E25&amp;CHAR(10)&amp;input!E26&amp;CHAR(10)&amp;input!E27</f>
         <v>[일품]
-스팸마요덮밥
-맑은우동국물
-매콤떡볶이(갈치:수입산)*튀김만두
-야채피클
-포기김치/석박지
-1019kcal</v>
+</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!F22&amp;CHAR(10)&amp;input!F23&amp;CHAR(10)&amp;input!F24&amp;CHAR(10)&amp;input!F25&amp;CHAR(10)&amp;input!F26&amp;CHAR(10)&amp;input!F27</f>
         <v>[일품]
-매콤까르보나라스파게티
-스프라이트
-비프바베큐피자(소:호주산)*토마토살사
-무오이피클
+팟타이[태국식해물볶음면]
+미니카오팟꿍[새우볶음밥]/쌀국수육수
+모듬춘권
+오복채무침
 포기김치/석박지
-1008kcal</v>
+1001kcal</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>$B8&amp;CHAR(10)&amp;input!G22&amp;CHAR(10)&amp;input!G23&amp;CHAR(10)&amp;input!G24&amp;CHAR(10)&amp;input!G25&amp;CHAR(10)&amp;input!G26&amp;CHAR(10)&amp;input!G27</f>
         <v>[일품]
-불고기필라프*계란후라이*김치S
-(소:호주산)
-유부된장국
-옥수수고로케*케찹
-마카로니후르츠샐러드
+왕새우튀김오므라이스
+맑은우동국물
+미니샐러드파스타
+무비트피클
 포기김치/석박지
-992kcal</v>
-      </c>
-    </row>
-    <row r="9" ht="110.25" spans="1:7">
+1016kcal</v>
+      </c>
+    </row>
+    <row r="9" ht="105" spans="1:7">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C9" s="8" t="str">
         <f>IF(input!C28="","",$B9&amp;CHAR(10)&amp;input!C28&amp;CHAR(10)&amp;input!C29&amp;CHAR(10)&amp;input!C30&amp;CHAR(10)&amp;input!C31&amp;CHAR(10)&amp;input!C32&amp;CHAR(10)&amp;input!C33)</f>
@@ -7627,13 +6901,7 @@
       </c>
       <c r="E9" s="8" t="str">
         <f>IF(input!E28="","",$B9&amp;CHAR(10)&amp;input!E28&amp;CHAR(10)&amp;input!E29&amp;CHAR(10)&amp;input!E30&amp;CHAR(10)&amp;input!E31&amp;CHAR(10)&amp;input!E32&amp;CHAR(10)&amp;input!E33)</f>
-        <v>[네이쳐데이]
-버섯취나물밥*가지넣은약고추장
-맑은콩나물국
-호박전,연근전
-양배추깻잎비트초절임/콩조림
-포기김치/석박지
-754kcal</v>
+        <v/>
       </c>
       <c r="F9" s="8" t="str">
         <f>IF(input!F28="","",$B9&amp;CHAR(10)&amp;input!F28&amp;CHAR(10)&amp;input!F29&amp;CHAR(10)&amp;input!F30&amp;CHAR(10)&amp;input!F31&amp;CHAR(10)&amp;input!F32&amp;CHAR(10)&amp;input!F33)</f>
@@ -7644,233 +6912,181 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="94.5" spans="1:7">
+    <row r="10" ht="90" spans="1:7">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="C10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!C34&amp;CHAR(10)&amp;input!C35&amp;CHAR(10)&amp;input!C36&amp;CHAR(10)&amp;input!C37&amp;CHAR(10)&amp;input!C38</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-511kcal</v>
+</v>
       </c>
       <c r="D10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!D34&amp;CHAR(10)&amp;input!D35&amp;CHAR(10)&amp;input!D36&amp;CHAR(10)&amp;input!D37&amp;CHAR(10)&amp;input!D38</f>
         <v>[건강도시락]
-그린샐러드*올리브게란
-단호박구이/새싹연두부
-야채스틱/바나나/토마토
-두유/현미멸치주먹밥
-504kcal</v>
+</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!E34&amp;CHAR(10)&amp;input!E35&amp;CHAR(10)&amp;input!E36&amp;CHAR(10)&amp;input!E37&amp;CHAR(10)&amp;input!E38</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/오렌지
-두유/참깨롤빵
-510kcal</v>
+</v>
       </c>
       <c r="F10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!F34&amp;CHAR(10)&amp;input!F35&amp;CHAR(10)&amp;input!F36&amp;CHAR(10)&amp;input!F37&amp;CHAR(10)&amp;input!F38</f>
         <v>[건강도시락]
-그린샐러드*견과류올린구운야채
-단호박구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/비엔나주먹밥
-508kcal</v>
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/새싹연두부
+야채스틱/오렌지/토마토
+두유/참깨롤빵
+510kcal</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>$B10&amp;CHAR(10)&amp;input!G34&amp;CHAR(10)&amp;input!G35&amp;CHAR(10)&amp;input!G36&amp;CHAR(10)&amp;input!G37&amp;CHAR(10)&amp;input!G38</f>
         <v>[건강도시락]
 그린샐러드*흑임자두부
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-512kcal</v>
-      </c>
-    </row>
-    <row r="11" ht="78.75" spans="1:7">
+통감자구이/삶은게란
+야채스틱/바나나/방울토마토
+두유/떡갈비주먹밥(돼지:국내산)
+509kcal</v>
+      </c>
+    </row>
+    <row r="11" ht="75" spans="1:7">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!C39&amp;CHAR(10)&amp;input!C40&amp;CHAR(10)&amp;input!C41&amp;CHAR(10)&amp;input!C42</f>
         <v>[플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-견과류
-애플D/오리엔탈D</v>
+</v>
       </c>
       <c r="D11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!D39&amp;CHAR(10)&amp;input!D40&amp;CHAR(10)&amp;input!D41&amp;CHAR(10)&amp;input!D42</f>
         <v>[플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-씨리얼
-아몬드D/오리엔탈D</v>
+</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!E39&amp;CHAR(10)&amp;input!E40&amp;CHAR(10)&amp;input!E41&amp;CHAR(10)&amp;input!E42</f>
         <v>[플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-크루통
-오렌지D/오리엔탈D</v>
+</v>
       </c>
       <c r="F11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!F39&amp;CHAR(10)&amp;input!F40&amp;CHAR(10)&amp;input!F41&amp;CHAR(10)&amp;input!F42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+견과류
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>$B11&amp;CHAR(10)&amp;input!G39&amp;CHAR(10)&amp;input!G40&amp;CHAR(10)&amp;input!G41&amp;CHAR(10)&amp;input!G42</f>
         <v>[플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-흑임자D/오리엔탈D</v>
-      </c>
-    </row>
-    <row r="12" ht="157.5" spans="1:7">
+스위트콘,빈스
+파인애플D/오리엔탈D</v>
+      </c>
+    </row>
+    <row r="12" ht="135" spans="1:7">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!C43&amp;CHAR(10)&amp;input!C44&amp;CHAR(10)&amp;input!C45&amp;CHAR(10)&amp;input!C46&amp;CHAR(10)&amp;input!C47&amp;CHAR(10)&amp;input!C48&amp;CHAR(10)&amp;input!C49</f>
         <v>[한식or일품]
-뚝배기심슨탕
-(소:호주산)
-쌀밥/버터밥
-새송이계란조림
-어묵채볶음(갈치:수입산)
-쑥갓두부무침
-포기김치
-1005kcal</v>
+</v>
       </c>
       <c r="D12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!D43&amp;CHAR(10)&amp;input!D44&amp;CHAR(10)&amp;input!D45&amp;CHAR(10)&amp;input!D46&amp;CHAR(10)&amp;input!D47&amp;CHAR(10)&amp;input!D48&amp;CHAR(10)&amp;input!D49</f>
         <v>[한식or일품]
-매콤낙지생야채비빔밥
-(낙지:베트남산)
-얼갈이된장국
-고기만두찜
-검은깨명엽채볶음
-마늘쫑무침
-포기김치
-983kcal</v>
+</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!E43&amp;CHAR(10)&amp;input!E44&amp;CHAR(10)&amp;input!E45&amp;CHAR(10)&amp;input!E46&amp;CHAR(10)&amp;input!E47&amp;CHAR(10)&amp;input!E48&amp;CHAR(10)&amp;input!E49</f>
         <v>[한식or일품]
-양지차돌쌀국수
-(소:호주산,미국산)
-파인애플새우볶음밥
-치킨퀘사디아(닭:국내산)
-스틱단무지*할라페뇨
-포기김치
-997kcal</v>
+</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!F43&amp;CHAR(10)&amp;input!F44&amp;CHAR(10)&amp;input!F45&amp;CHAR(10)&amp;input!F46&amp;CHAR(10)&amp;input!F47&amp;CHAR(10)&amp;input!F48&amp;CHAR(10)&amp;input!F49</f>
         <v>[한식or일품]
-쇠고기콩나물밥*계란후라이
-(소:호주산)
-뚝배기호박고추장찌개
-청양풍잡채
-무말랭이부추무침
-파래김구이*들기름양념장
-포기김치
-984kcal</v>
+얼큰한 동태알탕
+(동태:러시아산,명태곤이:러시아산,
+명태알:미국산)
+현미밥
+고기완자전(돼지:국내산)
+진미채야채무침
+통깨건파래볶음
+알타리김치
+960kcal</v>
       </c>
       <c r="G12" s="8" t="str">
         <f>$B12&amp;CHAR(10)&amp;input!G43&amp;CHAR(10)&amp;input!G44&amp;CHAR(10)&amp;input!G45&amp;CHAR(10)&amp;input!G46&amp;CHAR(10)&amp;input!G47&amp;CHAR(10)&amp;input!G48&amp;CHAR(10)&amp;input!G49</f>
         <v>[한식or일품]
-사골왕만두국
-(소:호주산)
-쌀밥
-수제고추튀김,야채튀김
-오징어곤약초무침
-검은콩조림
+[즉석]냄비닭칼국수
+(닭:국내산)
+유부초밥/쌀밥
+섭산적구이(돼지:국내산)*부추무침
+고구마단호박맛탕
+마늘장아찌무침
 배추겉절이김치
-</v>
-      </c>
-    </row>
-    <row r="13" ht="94.5" spans="1:7">
+973kcal</v>
+      </c>
+    </row>
+    <row r="13" ht="90" spans="1:7">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="C13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!C50&amp;CHAR(10)&amp;input!C51&amp;CHAR(10)&amp;input!C52&amp;CHAR(10)&amp;input!C53&amp;CHAR(10)&amp;input!C54</f>
         <v>[건강도시락]
-그린샐러드*새우브로커리꽃맛살
-단호박구이/삶은계란
-야채스틱/바나나/토마토
-두유/참깨롤빵
-501kcal</v>
+</v>
       </c>
       <c r="D13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!D50&amp;CHAR(10)&amp;input!D51&amp;CHAR(10)&amp;input!D52&amp;CHAR(10)&amp;input!D53&amp;CHAR(10)&amp;input!D54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
-야채스틱/바나나/방울토마토
-두유/부시맥브레드
-509kcal</v>
+</v>
       </c>
       <c r="E13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!E50&amp;CHAR(10)&amp;input!E51&amp;CHAR(10)&amp;input!E52&amp;CHAR(10)&amp;input!E53&amp;CHAR(10)&amp;input!E54</f>
         <v>[건강도시락]
-그린샐러드*크랜베리큐브참치
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/모닝빵
-519kcal</v>
+</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!F50&amp;CHAR(10)&amp;input!F51&amp;CHAR(10)&amp;input!F52&amp;CHAR(10)&amp;input!F53&amp;CHAR(10)&amp;input!F54</f>
         <v>[건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/브로컬리꽃맛살
-야채스틱/바나나/토마토
+그린샐러드*올리브계란
+단호박구이/브로컬리꽃맛살
+야채스틱/오렌지/토마토
 두유/쇠고기장조림주먹밥(소:호주산)
-514kcal</v>
+509kcal</v>
       </c>
       <c r="G13" s="8" t="str">
         <f>$B13&amp;CHAR(10)&amp;input!G50&amp;CHAR(10)&amp;input!G51&amp;CHAR(10)&amp;input!G52&amp;CHAR(10)&amp;input!G53&amp;CHAR(10)&amp;input!G54</f>
         <v>[건강도시락]
-그린샐러드*올리브계란
-단호박구이/새싹연두부
-야채스티/바나나/오렌지
-두유/떡갈비주먹밥
-(돼지:국내산,닭:국내산) 519Kcal</v>
-      </c>
-    </row>
-    <row r="14" ht="31.5" spans="1:7">
+그린샐러드*토마토카프레제
+고구마찜/메추리알
+야채스틱/바나나/오렌지
+두유/현미멸치땡초주먹밥
+514kcal</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:7">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C14" s="8" t="str">
         <f>$B14&amp;CHAR(10)&amp;input!C55</f>
@@ -7899,7 +7115,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -7911,7 +7127,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
@@ -7936,79 +7152,79 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3">
         <f>converter_phase1!C2</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="C2" s="4">
         <f>IF(A2="점심메뉴",TIME(11,30,0),IF(A2="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8016,7 +7232,7 @@
       </c>
       <c r="D2" s="3">
         <f>B2</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="E2" s="4">
         <f>C2+TIME(1,30,0)</f>
@@ -8030,14 +7246,14 @@
       </c>
       <c r="H2" s="3">
         <f>B2</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="I2" s="5">
         <f>C2-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -8048,21 +7264,10 @@
       <c r="Q2" s="7" t="str">
         <f>converter_phase1!C3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C6</f>
         <v>[한식]
-김치콩나물국
-삼곡밥
-비엔나야채볶음
-알타리김치
-861kcal
 [즉석]
-즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*미니크로와상/딸기잼*버터
-그린샐러드*유자레몬D
-우유
-스크램블에그
-콘후레이크
 [플러스메뉴]
-누룽지/김구이</v>
+</v>
       </c>
       <c r="R2" s="2" t="b">
         <v>0</v>
@@ -8071,20 +7276,20 @@
         <v>2</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3">
         <f>B2</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C4" si="0">IF(A3="점심메뉴",TIME(11,30,0),IF(A3="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8092,7 +7297,7 @@
       </c>
       <c r="D3" s="3">
         <f>B3</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E4" si="1">C3+TIME(1,30,0)</f>
@@ -8106,14 +7311,14 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H4" si="2">B3</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3:I4" si="3">C3-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -8124,33 +7329,10 @@
       <c r="Q3" s="7" t="str">
         <f>converter_phase1!C7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C11</f>
         <v>[한식]
-닭곰탕*소면사리
-(닭:국내산)
-흑향미밥
-옛날소세지전*케찹
-도토리묵야채무침
-통깨건파래볶음
-포기김치/석박지
-980kcal
 [일품]
-순살등심돈까스*일식돈까스s
-(돼지:국내산)
-미니냉모밀
-옥수수버터구이/연두부참깨샐러드
-치자단무지,락교,초생강
-포기김치/석박지
-1023kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/메추리알
-야채스틱/바나나/방울토마토
-두유/모닝빵
-511kcal
 [플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-견과류
-애플D/오리엔탈D</v>
+</v>
       </c>
       <c r="R3" s="2" t="b">
         <v>0</v>
@@ -8159,20 +7341,20 @@
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3">
         <f>B2</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="C4" s="4">
         <f>IF(A4="점심메뉴",TIME(11,30,0),IF(A4="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8180,7 +7362,7 @@
       </c>
       <c r="D4" s="3">
         <f>B4</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="E4" s="4">
         <f>C4+TIME(1,30,0)</f>
@@ -8194,14 +7376,14 @@
       </c>
       <c r="H4" s="3">
         <f>B4</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
       <c r="I4" s="5">
         <f>C4-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -8212,20 +7394,7 @@
       <c r="Q4" s="7" t="str">
         <f>converter_phase1!C12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!C14</f>
         <v>[한식or일품]
-뚝배기심슨탕
-(소:호주산)
-쌀밥/버터밥
-새송이계란조림
-어묵채볶음(갈치:수입산)
-쑥갓두부무침
-포기김치
-1005kcal
 [건강도시락]
-그린샐러드*새우브로커리꽃맛살
-단호박구이/삶은계란
-야채스틱/바나나/토마토
-두유/참깨롤빵
-501kcal
 [플러스메뉴]
 그린샐러드*견과류*키위D</v>
       </c>
@@ -8236,20 +7405,20 @@
         <v>2</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3">
         <f>B2+1</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C7" si="4">IF(A5="점심메뉴",TIME(11,30,0),IF(A5="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8257,7 +7426,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D7" si="5">B5</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:E7" si="6">C5+TIME(1,30,0)</f>
@@ -8271,14 +7440,14 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H7" si="7">B5</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" ref="I5:I7" si="8">C5-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -8289,21 +7458,10 @@
       <c r="Q5" s="7" t="str">
         <f>converter_phase1!D3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D6</f>
         <v>[한식]
-쇠고기미역국(소:호주산)
-삼곡밥
-두부계란구이*양념장
-포기김치
-860kcal
 [즉석]
-즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*곡물식빵/딸기잼*버터
-그린샐러드*유자레몬D
-우유
-계란후라이
-감자볼튀김
 [플러스메뉴]
-누룽지/계란후라이</v>
+</v>
       </c>
       <c r="R5" s="2" t="b">
         <v>0</v>
@@ -8312,20 +7470,20 @@
         <v>2</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ref="B6:B16" si="9">B3+1</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C6" s="4">
         <f>IF(A6="점심메뉴",TIME(11,30,0),IF(A6="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8333,7 +7491,7 @@
       </c>
       <c r="D6" s="3">
         <f>B6</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="E6" s="4">
         <f>C6+TIME(1,30,0)</f>
@@ -8347,14 +7505,14 @@
       </c>
       <c r="H6" s="3">
         <f>B6</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="I6" s="5">
         <f>C6-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -8365,32 +7523,10 @@
       <c r="Q6" s="7" t="str">
         <f>converter_phase1!D7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D11</f>
         <v>[한식]
-흑마늘삼겹보쌈*두부찜*부추무침
-(돼지:미국산)
-기장밥
-수제비아욱국
-감자전,해물파전
-우엉땅콩조림
-포기김치/석박지
-1002kcal
 [일품]
-사천식해물볶음을 올린 쟁반짜장
-계란파국/쌀밥
-치킨탕수육(닭:국내산)
-오이지매실청무침
-포기김치/석박지
-1020kcal
 [건강도시락]
-그린샐러드*올리브게란
-단호박구이/새싹연두부
-야채스틱/바나나/토마토
-두유/현미멸치주먹밥
-504kcal
 [플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-씨리얼
-아몬드D/오리엔탈D</v>
+</v>
       </c>
       <c r="R6" s="2" t="b">
         <v>0</v>
@@ -8399,20 +7535,20 @@
         <v>2</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="2" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3">
         <f>B4+1</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C7" s="4">
         <f>IF(A7="점심메뉴",TIME(11,30,0),IF(A7="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8420,7 +7556,7 @@
       </c>
       <c r="D7" s="3">
         <f>B7</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="E7" s="4">
         <f>C7+TIME(1,30,0)</f>
@@ -8434,14 +7570,14 @@
       </c>
       <c r="H7" s="3">
         <f>B7</f>
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="I7" s="5">
         <f>C7-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -8452,20 +7588,7 @@
       <c r="Q7" s="7" t="str">
         <f>converter_phase1!D12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!D14</f>
         <v>[한식or일품]
-매콤낙지생야채비빔밥
-(낙지:베트남산)
-얼갈이된장국
-고기만두찜
-검은깨명엽채볶음
-마늘쫑무침
-포기김치
-983kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-고구마찜/삶은계란
-야채스틱/바나나/방울토마토
-두유/부시맥브레드
-509kcal
 [플러스메뉴]
 그린샐러드*씨리얼*키위D</v>
       </c>
@@ -8476,20 +7599,20 @@
         <v>2</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3">
         <f>B5+1</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:C16" si="10">IF(A8="점심메뉴",TIME(11,30,0),IF(A8="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8497,7 +7620,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D16" si="11">B8</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ref="E8:E16" si="12">C8+TIME(1,30,0)</f>
@@ -8511,14 +7634,14 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H16" si="13">B8</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ref="I8:I16" si="14">C8-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -8529,21 +7652,10 @@
       <c r="Q8" s="7" t="str">
         <f>converter_phase1!E3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E6</f>
         <v>[한식]
-감자양파국
-삼곡밥
-양배추진미채야채무침
-포기김치
-872kcal
 [즉석]
-즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*참깨롤빵/딸기잼*버터
-그린샐러드*유자레몬D
-우유
-스크램블에그
-매쉬드포테이토
 [플러스메뉴]
-누룽지/김구이</v>
+</v>
       </c>
       <c r="R8" s="2" t="b">
         <v>0</v>
@@ -8552,20 +7664,20 @@
         <v>2</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V8" s="2"/>
     </row>
     <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3">
         <f>B6+1</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="C9" s="4">
         <f>IF(A9="점심메뉴",TIME(11,30,0),IF(A9="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8573,7 +7685,7 @@
       </c>
       <c r="D9" s="3">
         <f>B9</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="E9" s="4">
         <f>C9+TIME(1,30,0)</f>
@@ -8587,14 +7699,14 @@
       </c>
       <c r="H9" s="3">
         <f>B9</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="I9" s="5">
         <f>C9-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -8605,39 +7717,10 @@
       <c r="Q9" s="7" t="str">
         <f>converter_phase1!E7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E11</f>
         <v>[한식]
-숯불철판치즈닭갈비*고구마사리
-(닭:브라질산)
-수수밥
-맑은콩나물국
-삼색밀전병*겨자소스
-볼어묵피망조림(갈치:수입산)
-포기김치/석박지
-1005kcal
 [일품]
-스팸마요덮밥
-맑은우동국물
-매콤떡볶이(갈치:수입산)*튀김만두
-야채피클
-포기김치/석박지
-1019kcal
-[네이쳐데이]
-버섯취나물밥*가지넣은약고추장
-맑은콩나물국
-호박전,연근전
-양배추깻잎비트초절임/콩조림
-포기김치/석박지
-754kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/메추리알
-야채스틱/바나나/오렌지
-두유/참깨롤빵
-510kcal
 [플러스메뉴]
-현미밥/볶음고추장(소:호주산)
-그린샐러드
-크루통
-오렌지D/오리엔탈D</v>
+</v>
       </c>
       <c r="R9" s="2" t="b">
         <v>0</v>
@@ -8646,20 +7729,20 @@
         <v>2</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3">
         <f>B7+1</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="C10" s="4">
         <f>IF(A10="점심메뉴",TIME(11,30,0),IF(A10="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8667,7 +7750,7 @@
       </c>
       <c r="D10" s="3">
         <f>B10</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="E10" s="4">
         <f>C10+TIME(1,30,0)</f>
@@ -8681,14 +7764,14 @@
       </c>
       <c r="H10" s="3">
         <f>B10</f>
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="I10" s="5">
         <f>C10-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -8699,19 +7782,7 @@
       <c r="Q10" s="7" t="str">
         <f>converter_phase1!E12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!E14</f>
         <v>[한식or일품]
-양지차돌쌀국수
-(소:호주산,미국산)
-파인애플새우볶음밥
-치킨퀘사디아(닭:국내산)
-스틱단무지*할라페뇨
-포기김치
-997kcal
 [건강도시락]
-그린샐러드*크랜베리큐브참치
-단호박구이/메추리알
-야채스틱/바나나/토마토
-두유/모닝빵
-519kcal
 [플러스메뉴]
 그린샐러드*견과류*키위D</v>
       </c>
@@ -8722,20 +7793,20 @@
         <v>2</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V10" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3">
         <f>B8+1</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="C11" s="4">
         <f>IF(A11="점심메뉴",TIME(11,30,0),IF(A11="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8743,7 +7814,7 @@
       </c>
       <c r="D11" s="3">
         <f>B11</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="E11" s="4">
         <f>C11+TIME(1,30,0)</f>
@@ -8757,14 +7828,14 @@
       </c>
       <c r="H11" s="3">
         <f>B11</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="I11" s="5">
         <f>C11-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -8775,19 +7846,19 @@
       <c r="Q11" s="7" t="str">
         <f>converter_phase1!F3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F6</f>
         <v>[한식]
-순두부김치찌개(돼지:국내산)
+건새우시금치국
 삼곡밥
-해물떡편완자전
+볼어묵맛살볶음(갈치:수입산)
 포기김치
-878kcal
+841kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-곡물식빵*모닝빵/딸기잼*버터
-그린샐러드*유자레몬D
+토스트식빵*곡물식빵/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
 계란후라이
-햄구이
+해쉬브라운
 [플러스메뉴]
 누룽지/계란후라이</v>
       </c>
@@ -8798,20 +7869,20 @@
         <v>2</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="2" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3">
         <f>B9+1</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="C12" s="4">
         <f>IF(A12="점심메뉴",TIME(11,30,0),IF(A12="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8819,7 +7890,7 @@
       </c>
       <c r="D12" s="3">
         <f>B12</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="E12" s="4">
         <f>C12+TIME(1,30,0)</f>
@@ -8833,14 +7904,14 @@
       </c>
       <c r="H12" s="3">
         <f>B12</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="I12" s="5">
         <f>C12-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -8851,32 +7922,32 @@
       <c r="Q12" s="7" t="str">
         <f>converter_phase1!F7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F11</f>
         <v>[한식]
-철판제육깻잎불고기
-(돼자:국내산)
-보리밥
-조랑떡미역국
-감자채카레볶음
-양배추쌈&amp;아삭이고추*견과류쌈장
+안동찜닭*단호박치즈사리
+(닭:국내산)
+수수밥
+두부김치국
+비엔나브로커리볶음
+콩나물들깨무침
 포기김치/석박지
-994kcal
+998kcal
 [일품]
-매콤까르보나라스파게티
-스프라이트
-비프바베큐피자(소:호주산)*토마토살사
-무오이피클
+팟타이[태국식해물볶음면]
+미니카오팟꿍[새우볶음밥]/쌀국수육수
+모듬춘권
+오복채무침
 포기김치/석박지
-1008kcal
+1001kcal
 [건강도시락]
-그린샐러드*견과류올린구운야채
-단호박구이/삶은계란
-야채스틱/바나나/방울토마토
-두유/비엔나주먹밥
-508kcal
+그린샐러드*닭가슴살(닭:국내산)
+고구마찜/새싹연두부
+야채스틱/오렌지/토마토
+두유/참깨롤빵
+510kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-스위트콘,빈스
-사우전D/오리엔탈D</v>
+견과류
+유자레몬D/오리엔탈D</v>
       </c>
       <c r="R12" s="2" t="b">
         <v>0</v>
@@ -8885,20 +7956,20 @@
         <v>2</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V12" s="2"/>
     </row>
     <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3">
         <f>B10+1</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="C13" s="4">
         <f>IF(A13="점심메뉴",TIME(11,30,0),IF(A13="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8906,7 +7977,7 @@
       </c>
       <c r="D13" s="3">
         <f>B13</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="E13" s="4">
         <f>C13+TIME(1,30,0)</f>
@@ -8920,14 +7991,14 @@
       </c>
       <c r="H13" s="3">
         <f>B13</f>
-        <v>41886</v>
+        <v>41893</v>
       </c>
       <c r="I13" s="5">
         <f>C13-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -8938,20 +8009,21 @@
       <c r="Q13" s="7" t="str">
         <f>converter_phase1!F12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!F14</f>
         <v>[한식or일품]
-쇠고기콩나물밥*계란후라이
-(소:호주산)
-뚝배기호박고추장찌개
-청양풍잡채
-무말랭이부추무침
-파래김구이*들기름양념장
-포기김치
-984kcal
+얼큰한 동태알탕
+(동태:러시아산,명태곤이:러시아산,
+명태알:미국산)
+현미밥
+고기완자전(돼지:국내산)
+진미채야채무침
+통깨건파래볶음
+알타리김치
+960kcal
 [건강도시락]
-그린샐러드*닭가슴살(닭:국내산)
-통감자구이/브로컬리꽃맛살
-야채스틱/바나나/토마토
+그린샐러드*올리브계란
+단호박구이/브로컬리꽃맛살
+야채스틱/오렌지/토마토
 두유/쇠고기장조림주먹밥(소:호주산)
-514kcal
+509kcal
 [플러스메뉴]
 그린샐러드*씨리얼*키위D</v>
       </c>
@@ -8962,20 +8034,20 @@
         <v>2</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V13" s="2"/>
     </row>
     <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3">
         <f>B11+1</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="C14" s="4">
         <f>IF(A14="점심메뉴",TIME(11,30,0),IF(A14="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -8983,7 +8055,7 @@
       </c>
       <c r="D14" s="3">
         <f>B14</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="E14" s="4">
         <f>C14+TIME(1,30,0)</f>
@@ -8997,14 +8069,14 @@
       </c>
       <c r="H14" s="3">
         <f>B14</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="I14" s="5">
         <f>C14-TIME(0,15,0)</f>
         <v>0.302083333333333</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -9015,19 +8087,19 @@
       <c r="Q14" s="7" t="str">
         <f>converter_phase1!G3&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G4&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G5&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G6</f>
         <v>[한식]
-얼큰오징어무찌개
+경상도식쇠고기무국(소:호주산)
 삼곡밥
-호박새우젓볶음
+메추리알곤약조림
 포기김치
-866kcal
+839kcal
 [즉석]
 즉석해장라면/삼곡밥/김치
 [일품]
-토스트식빵*미니와플/딸기잼*버터
-그린샐러드*유자레몬D
+곡물식빵*미니와플/딸기잼*버터
+그린샐러드*오리엔탈D
 우유
-스크램블에그
-줄무늬감자튀김
+계란후라이
+초코첵스
 [플러스메뉴]
 누룽지/김구이</v>
       </c>
@@ -9038,20 +8110,20 @@
         <v>2</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V14" s="2"/>
     </row>
     <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="2" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
         <f>B12+1</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="C15" s="4">
         <f>IF(A15="점심메뉴",TIME(11,30,0),IF(A15="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9059,7 +8131,7 @@
       </c>
       <c r="D15" s="3">
         <f>B15</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="E15" s="4">
         <f>C15+TIME(1,30,0)</f>
@@ -9073,14 +8145,14 @@
       </c>
       <c r="H15" s="3">
         <f>B15</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="I15" s="5">
         <f>C15-TIME(0,15,0)</f>
         <v>0.46875</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -9091,32 +8163,32 @@
       <c r="Q15" s="7" t="str">
         <f>converter_phase1!G7&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G8&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G9&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G10&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G11</f>
         <v>[한식]
-조기구이
-잡곡밥
-쇠고기토란탕(소:호주산)
-두부버섯양념조림
-오이양파무침
+묵은지돈목살김치찌개
+(돼지:국내산)
+흑향미밥
+오꼬노미풍계란말이
+궁중떡볶음
+참나물겉절이
 포기김치/석박지
-979kcal
+987kcal
 [일품]
-불고기필라프*계란후라이*김치S
-(소:호주산)
-유부된장국
-옥수수고로케*케찹
-마카로니후르츠샐러드
+왕새우튀김오므라이스
+맑은우동국물
+미니샐러드파스타
+무비트피클
 포기김치/석박지
-992kcal
+1016kcal
 [건강도시락]
 그린샐러드*흑임자두부
-고구마찜/메추리알
-야채스틱/바나나/토마토
-두유/부시맥브레드
-512kcal
+통감자구이/삶은게란
+야채스틱/바나나/방울토마토
+두유/떡갈비주먹밥(돼지:국내산)
+509kcal
 [플러스메뉴]
 현미밥/볶음고추장(소:호주산)
 그린샐러드
-씨리얼
-흑임자D/오리엔탈D</v>
+스위트콘,빈스
+파인애플D/오리엔탈D</v>
       </c>
       <c r="R15" s="2" t="b">
         <v>0</v>
@@ -9125,20 +8197,20 @@
         <v>2</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V15" s="2"/>
     </row>
     <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="2" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3">
         <f>B13+1</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="C16" s="4">
         <f>IF(A16="점심메뉴",TIME(11,30,0),IF(A16="저녁메뉴",TIME(17,30,0),TIME(7,30,0)))</f>
@@ -9146,7 +8218,7 @@
       </c>
       <c r="D16" s="3">
         <f>B16</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="E16" s="4">
         <f>C16+TIME(1,30,0)</f>
@@ -9160,14 +8232,14 @@
       </c>
       <c r="H16" s="3">
         <f>B16</f>
-        <v>41887</v>
+        <v>41894</v>
       </c>
       <c r="I16" s="5">
         <f>C16-TIME(0,15,0)</f>
         <v>0.71875</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -9178,19 +8250,20 @@
       <c r="Q16" s="7" t="str">
         <f>converter_phase1!G12&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G13&amp;CHAR(10)&amp;CHAR(10)&amp;converter_phase1!G14</f>
         <v>[한식or일품]
-사골왕만두국
-(소:호주산)
-쌀밥
-수제고추튀김,야채튀김
-오징어곤약초무침
-검은콩조림
+[즉석]냄비닭칼국수
+(닭:국내산)
+유부초밥/쌀밥
+섭산적구이(돼지:국내산)*부추무침
+고구마단호박맛탕
+마늘장아찌무침
 배추겉절이김치
+973kcal
 [건강도시락]
-그린샐러드*올리브계란
-단호박구이/새싹연두부
-야채스티/바나나/오렌지
-두유/떡갈비주먹밥
-(돼지:국내산,닭:국내산) 519Kcal
+그린샐러드*토마토카프레제
+고구마찜/메추리알
+야채스틱/바나나/오렌지
+두유/현미멸치땡초주먹밥
+514kcal
 [플러스메뉴]
 </v>
       </c>
@@ -9201,15 +8274,15 @@
         <v>2</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="V16" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
+++ b/menu/주간메뉴표엑셀-fromCSV2xls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13245" activeTab="2"/>
+    <workbookView windowWidth="20920" windowHeight="12280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <definedName name="제목">csv_export!$A$1:$V$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <r>
       <rPr>
@@ -59,19 +58,81 @@
     <t>구분</t>
   </si>
   <si>
-    <t>9월 8일 (월)</t>
-  </si>
-  <si>
-    <t>9월 9일 (화)</t>
-  </si>
-  <si>
-    <t>9월 10일 (수)</t>
-  </si>
-  <si>
-    <t>9월 11일 (목)</t>
-  </si>
-  <si>
-    <t>9월 12일 (금)</t>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="方正书宋_GBK"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="方正书宋_GBK"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">일 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="方正书宋_GBK"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>9월 16일 (화)</t>
+  </si>
+  <si>
+    <t>9월 17일 (수)</t>
+  </si>
+  <si>
+    <t>9월 18일 (목)</t>
+  </si>
+  <si>
+    <t>9월 19일 (금)</t>
   </si>
   <si>
     <t>아침
@@ -82,28 +143,55 @@
     <t>한식</t>
   </si>
   <si>
-    <t>건새우시금치국</t>
-  </si>
-  <si>
-    <t>경상도식쇠고기무국(소:호주산)</t>
+    <t>호박감자고추장찌개</t>
+  </si>
+  <si>
+    <t>삼색수제비국</t>
+  </si>
+  <si>
+    <t>사골우거지국(소:호주산,뉴질랜드산)</t>
+  </si>
+  <si>
+    <t>꼬맹이만두국(소:호주산)</t>
+  </si>
+  <si>
+    <t>들깨감자국</t>
   </si>
   <si>
     <t>삼곡밥</t>
   </si>
   <si>
-    <t>볼어묵맛살볶음(갈치:수입산)</t>
-  </si>
-  <si>
-    <t>메추리알곤약조림</t>
+    <t>네모두부적조림</t>
+  </si>
+  <si>
+    <t>양념깻잎무침</t>
+  </si>
+  <si>
+    <t>새우동그랑떙전</t>
+  </si>
+  <si>
+    <t>쥐어채무침(갈치:국내산)</t>
+  </si>
+  <si>
+    <t>느타리버섯파프리카볶음</t>
   </si>
   <si>
     <t>포기김치</t>
   </si>
   <si>
-    <t>841kcal</t>
-  </si>
-  <si>
-    <t>839kcal</t>
+    <t>834kcal</t>
+  </si>
+  <si>
+    <t>829kcal</t>
+  </si>
+  <si>
+    <t>825kcal</t>
+  </si>
+  <si>
+    <t>830kcal</t>
+  </si>
+  <si>
+    <t>833kcal</t>
   </si>
   <si>
     <t>즉석</t>
@@ -121,16 +209,34 @@
     <t>곡물식빵*미니와플/딸기잼*버터</t>
   </si>
   <si>
-    <t>그린샐러드*오리엔탈D</t>
+    <t>토스트식빵*부시맥브레드/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>곡물식빵*미니크로와상/딸기잼*버터</t>
+  </si>
+  <si>
+    <t>그린샐러드*키위D</t>
   </si>
   <si>
     <t>우유</t>
   </si>
   <si>
+    <t>스크램블에그</t>
+  </si>
+  <si>
     <t>계란후라이</t>
   </si>
   <si>
-    <t>해쉬브라운</t>
+    <t>양념감자튀김</t>
+  </si>
+  <si>
+    <t>아몬드콘후레이크</t>
+  </si>
+  <si>
+    <t>단호박범벅</t>
+  </si>
+  <si>
+    <t>햄구이</t>
   </si>
   <si>
     <t>초코첵스</t>
@@ -139,10 +245,10 @@
     <t>플러스메뉴</t>
   </si>
   <si>
+    <t>누룽지/김구이</t>
+  </si>
+  <si>
     <t>누룽지/계란후라이</t>
-  </si>
-  <si>
-    <t>누룽지/김구이</t>
   </si>
   <si>
     <t>점심
@@ -150,111 +256,264 @@
 ~13:00</t>
   </si>
   <si>
-    <t>안동찜닭*단호박치즈사리
+    <t>뚝배기불고기버섯전골*만두사리
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>매콤오징어볶음*소면사리</t>
+  </si>
+  <si>
+    <t>제육고추장불고기
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>도가니설렁탕*소면사리
+(소:호주산)</t>
+  </si>
+  <si>
+    <t>뚝배기닭감자고추장조림
 (닭:국내산)</t>
   </si>
   <si>
-    <t>묵은지돈목살김치찌개
+    <t>보리밥</t>
+  </si>
+  <si>
+    <t>기장밥</t>
+  </si>
+  <si>
+    <t>수수밥</t>
+  </si>
+  <si>
+    <t>쌀밥</t>
+  </si>
+  <si>
+    <t>흑향미밥</t>
+  </si>
+  <si>
+    <t>두부구이*양념장</t>
+  </si>
+  <si>
+    <t>들깨미역국</t>
+  </si>
+  <si>
+    <t>뚝배기버섯된장찌개</t>
+  </si>
+  <si>
+    <t>오미산적*떡고기산적
+(돼지:국내산,닭:국내산)</t>
+  </si>
+  <si>
+    <t>콩가루배추국</t>
+  </si>
+  <si>
+    <t>어묵채볶음(갈치:국내산)</t>
+  </si>
+  <si>
+    <t>시금치계란말이</t>
+  </si>
+  <si>
+    <t>청양풍잡채</t>
+  </si>
+  <si>
+    <t>감자풋고추조림</t>
+  </si>
+  <si>
+    <t>쑥갓양파무침</t>
+  </si>
+  <si>
+    <t>참나물들깨무침</t>
+  </si>
+  <si>
+    <t>흑임자치커리연근샐러드</t>
+  </si>
+  <si>
+    <t>깐마늘마늘쫑무침</t>
+  </si>
+  <si>
+    <t>콩나물무침</t>
+  </si>
+  <si>
+    <t>검은깨명엽채볶음</t>
+  </si>
+  <si>
+    <t>포기김치/석박지</t>
+  </si>
+  <si>
+    <t>989kcal</t>
+  </si>
+  <si>
+    <t>991kcal</t>
+  </si>
+  <si>
+    <t>1001kcal</t>
+  </si>
+  <si>
+    <t>1002kcal</t>
+  </si>
+  <si>
+    <t>994kcal</t>
+  </si>
+  <si>
+    <t>파인애플함박스테이크*데미S
 (돼지:국내산)</t>
   </si>
   <si>
-    <t>수수밥</t>
-  </si>
-  <si>
-    <t>흑향미밥</t>
-  </si>
-  <si>
-    <t>두부김치국</t>
-  </si>
-  <si>
-    <t>오꼬노미풍계란말이</t>
-  </si>
-  <si>
-    <t>비엔나브로커리볶음</t>
-  </si>
-  <si>
-    <t>궁중떡볶음</t>
-  </si>
-  <si>
-    <t>콩나물들깨무침</t>
-  </si>
-  <si>
-    <t>참나물겉절이</t>
-  </si>
-  <si>
-    <t>포기김치/석박지</t>
-  </si>
-  <si>
-    <t>998kcal</t>
-  </si>
-  <si>
-    <t>987kcal</t>
-  </si>
-  <si>
-    <t>팟타이[태국식해물볶음면]</t>
-  </si>
-  <si>
-    <t>왕새우튀김오므라이스</t>
-  </si>
-  <si>
-    <t>미니카오팟꿍[새우볶음밥]/쌀국수육수</t>
-  </si>
-  <si>
-    <t>맑은우동국물</t>
-  </si>
-  <si>
-    <t>모듬춘권</t>
-  </si>
-  <si>
-    <t>미니샐러드파스타</t>
-  </si>
-  <si>
-    <t>오복채무침</t>
-  </si>
-  <si>
-    <t>무비트피클</t>
-  </si>
-  <si>
-    <t>1001kcal</t>
-  </si>
-  <si>
-    <t>1016kcal</t>
+    <t>진한사골미소라멘
+(돼지:미국산,소:호주산)</t>
+  </si>
+  <si>
+    <t>소세지카레라이스</t>
+  </si>
+  <si>
+    <t>불닭마요덮밥
+(닭:브라질산)</t>
+  </si>
+  <si>
+    <t>[글루텐프리데이]진한버섯크림파스타</t>
+  </si>
+  <si>
+    <t>후리가케밥/크루통크림스프</t>
+  </si>
+  <si>
+    <t>새싹와사비롤/쌀밥</t>
+  </si>
+  <si>
+    <t>유부된장국</t>
+  </si>
+  <si>
+    <t>꼬치물오뎅(갈치:수입산)</t>
+  </si>
+  <si>
+    <t>코카콜라/미니칠리볶음밥</t>
+  </si>
+  <si>
+    <t>막대감자튀김/펜네콩샐러드</t>
+  </si>
+  <si>
+    <t>모밀두부[아게다시유도후]</t>
+  </si>
+  <si>
+    <t>허브깔라마리</t>
+  </si>
+  <si>
+    <t>야채고로케*케찹</t>
+  </si>
+  <si>
+    <t>토마토두부카프레제</t>
+  </si>
+  <si>
+    <t>야채피클</t>
+  </si>
+  <si>
+    <t>단무지부추무침</t>
+  </si>
+  <si>
+    <t>적채무비트피클</t>
+  </si>
+  <si>
+    <t>건과일샐러드</t>
+  </si>
+  <si>
+    <t>생오이피클*할라페뇨</t>
+  </si>
+  <si>
+    <t>1010kcal</t>
+  </si>
+  <si>
+    <t>1008kcal</t>
+  </si>
+  <si>
+    <t>1013kcal</t>
+  </si>
+  <si>
+    <t>1011kcal</t>
   </si>
   <si>
     <t>네이쳐데이</t>
   </si>
   <si>
+    <t>오곡밥</t>
+  </si>
+  <si>
+    <t>콩비지김치찌개</t>
+  </si>
+  <si>
+    <t>곤드레밀전병*절임고추양념장</t>
+  </si>
+  <si>
+    <t>청포묵오미자샐러드/깐마늘마늘쫑무침</t>
+  </si>
+  <si>
+    <t>749kcal</t>
+  </si>
+  <si>
     <t>건강도시락</t>
   </si>
   <si>
+    <t>그린샐러드*새우브로컬리꽃맛살</t>
+  </si>
+  <si>
     <t>그린샐러드*닭가슴살(닭:국내산)</t>
   </si>
   <si>
     <t>그린샐러드*흑임자두부</t>
   </si>
   <si>
-    <t>고구마찜/새싹연두부</t>
-  </si>
-  <si>
-    <t>통감자구이/삶은게란</t>
-  </si>
-  <si>
-    <t>야채스틱/오렌지/토마토</t>
+    <t>그린샐러드*구운마늘과새송이버섯</t>
+  </si>
+  <si>
+    <t>고구마찜/삶은계란</t>
+  </si>
+  <si>
+    <t>통감자구이/메추리알</t>
+  </si>
+  <si>
+    <t>단호박구이/삶은계란</t>
+  </si>
+  <si>
+    <t>고구마찜/메추리알</t>
+  </si>
+  <si>
+    <t>통감자구이/삶은계란</t>
+  </si>
+  <si>
+    <t>야채스틱/바나나/토마토</t>
   </si>
   <si>
     <t>야채스틱/바나나/방울토마토</t>
   </si>
   <si>
+    <t>야채스틱/바나나/오렌지</t>
+  </si>
+  <si>
+    <t>두유/모닝빵</t>
+  </si>
+  <si>
     <t>두유/참깨롤빵</t>
   </si>
   <si>
-    <t>두유/떡갈비주먹밥(돼지:국내산)</t>
+    <t>두유/쇠고기장조림주먹밥(소:호주산)</t>
+  </si>
+  <si>
+    <t>두유/부시맥브레드</t>
+  </si>
+  <si>
+    <t>두유/참치김가루주먹밥</t>
+  </si>
+  <si>
+    <t>521kcal</t>
+  </si>
+  <si>
+    <t>515kcal</t>
   </si>
   <si>
     <t>510kcal</t>
   </si>
   <si>
-    <t>509kcal</t>
+    <t>513kcal</t>
+  </si>
+  <si>
+    <t>508kcal</t>
   </si>
   <si>
     <t>현미밥/볶음고추장(소:호주산)</t>
@@ -266,13 +525,28 @@
     <t>견과류</t>
   </si>
   <si>
+    <t>크루통</t>
+  </si>
+  <si>
+    <t>씨리얼</t>
+  </si>
+  <si>
     <t>스위트콘,빈스</t>
   </si>
   <si>
     <t>유자레몬D/오리엔탈D</t>
   </si>
   <si>
-    <t>파인애플D/오리엔탈D</t>
+    <t>아몬드D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>복숭아D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>요거트D/오리엔탈D</t>
+  </si>
+  <si>
+    <t>흑임자D/오리엔탈D</t>
   </si>
   <si>
     <t>저녁
@@ -285,79 +559,136 @@
 일품</t>
   </si>
   <si>
-    <t>얼큰한 동태알탕
-(동태:러시아산,명태곤이:러시아산,
-명태알:미국산)</t>
-  </si>
-  <si>
-    <t>[즉석]냄비닭칼국수
-(닭:국내산)</t>
-  </si>
-  <si>
-    <t>현미밥</t>
-  </si>
-  <si>
-    <t>유부초밥/쌀밥</t>
-  </si>
-  <si>
-    <t>고기완자전(돼지:국내산)</t>
-  </si>
-  <si>
-    <t>섭산적구이(돼지:국내산)*부추무침</t>
-  </si>
-  <si>
-    <t>진미채야채무침</t>
-  </si>
-  <si>
-    <t>고구마단호박맛탕</t>
-  </si>
-  <si>
-    <t>통깨건파래볶음</t>
-  </si>
-  <si>
-    <t>마늘장아찌무침</t>
+    <t>깻잎채올린철판고추장삼겹살구이
+(돼지:독일산)</t>
+  </si>
+  <si>
+    <t>스팸오므라이스*더블S</t>
+  </si>
+  <si>
+    <t>즉석 중화잡채덮밥
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>삼치불고기</t>
+  </si>
+  <si>
+    <t>뼈다귀해장국*수제비사리
+(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>맑은우동국물</t>
+  </si>
+  <si>
+    <t>부추계란국</t>
+  </si>
+  <si>
+    <t>잡곡밥</t>
+  </si>
+  <si>
+    <t>얼갈이된장국</t>
+  </si>
+  <si>
+    <t>매콤순대김말이강정</t>
+  </si>
+  <si>
+    <t>탕수육(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>얼큰순두부김치찌개(돼지:국내산)</t>
+  </si>
+  <si>
+    <t>야채계란찜</t>
+  </si>
+  <si>
+    <t>콩비지부추전*양파간장절임S</t>
+  </si>
+  <si>
+    <t>콘샐러드</t>
+  </si>
+  <si>
+    <t>오이맛살겨자채</t>
+  </si>
+  <si>
+    <t>열무된장나물</t>
+  </si>
+  <si>
+    <t>치커리파인소스무침</t>
+  </si>
+  <si>
+    <t>검은깨올방개묵샐러드</t>
+  </si>
+  <si>
+    <t>단무지*양파&amp;춘장</t>
+  </si>
+  <si>
+    <t>김구이</t>
+  </si>
+  <si>
+    <t>검은콩조림</t>
   </si>
   <si>
     <t>알타리김치</t>
   </si>
   <si>
-    <t>배추겉절이김치</t>
-  </si>
-  <si>
-    <t>960kcal</t>
-  </si>
-  <si>
-    <t>973kcal</t>
+    <t>993kcal</t>
+  </si>
+  <si>
+    <t>1012kcal</t>
+  </si>
+  <si>
+    <t>1006kcal</t>
+  </si>
+  <si>
+    <t>996kcal</t>
+  </si>
+  <si>
+    <t>998kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*참치키드빈</t>
   </si>
   <si>
     <t>그린샐러드*올리브계란</t>
   </si>
   <si>
-    <t>그린샐러드*토마토카프레제</t>
-  </si>
-  <si>
-    <t>단호박구이/브로컬리꽃맛살</t>
-  </si>
-  <si>
-    <t>고구마찜/메추리알</t>
-  </si>
-  <si>
-    <t>야채스틱/바나나/오렌지</t>
-  </si>
-  <si>
-    <t>두유/쇠고기장조림주먹밥(소:호주산)</t>
-  </si>
-  <si>
-    <t>두유/현미멸치땡초주먹밥</t>
-  </si>
-  <si>
-    <t>514kcal</t>
-  </si>
-  <si>
-    <t>그린샐러드*견과류*키위D</t>
-  </si>
-  <si>
-    <t>그린샐러드*씨리얼*키위D</t>
+    <t>그린샐러드*견과류올린구운야채</t>
+  </si>
+  <si>
+    <t>단호박구이/메추리알</t>
+  </si>
+  <si>
+    <t>통감자구이/새싹연두부</t>
+  </si>
+  <si>
+    <t>야채스틱/바나나/토마토/두유</t>
+  </si>
+  <si>
+    <t>두유/현미후리가케주먹밥</t>
+  </si>
+  <si>
+    <t>두유/흑미멸치주먹밥</t>
+  </si>
+  <si>
+    <t>떡갈비주먹밥(돼지:국내산,닭:국내산)</t>
+  </si>
+  <si>
+    <t>511kcal</t>
+  </si>
+  <si>
+    <t>520kcal</t>
+  </si>
+  <si>
+    <t>509kcal</t>
+  </si>
+  <si>
+    <t>518kcal</t>
+  </si>
+  <si>
+    <t>그린샐러드*견과류*오리엔탈D</t>
+  </si>
+  <si>
+    <t>그린샐러드*씨리얼*오리엔탈D</t>
   </si>
   <si>
     <t>* 식품수급 상황에 따라 메뉴 및 원산지가 변경될 수 있으니 양해바랍니다.
@@ -485,21 +816,169 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="h:mm\ AM/PM"/>
+  <numFmts count="10">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="#\ &quot;Kcal&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="H:mm:ss"/>
     <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="182" formatCode="#\ &quot;Kcal&quot;"/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="30"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="25"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -556,8 +1035,9 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="16"/>
+      <color indexed="9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -578,146 +1058,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="30"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="25"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="22"/>
       <name val="맑은 고딕"/>
@@ -728,6 +1068,13 @@
       <b/>
       <sz val="15"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="方正书宋_GBK"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -813,7 +1160,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,37 +1208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,14 +1218,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="75">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -1013,6 +1360,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="22"/>
@@ -1033,6 +1447,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="22"/>
@@ -1058,12 +1485,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="9"/>
+        <color indexed="22"/>
       </left>
       <right style="medium">
         <color indexed="22"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thick">
         <color indexed="9"/>
       </bottom>
@@ -1098,14 +1527,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
       <top style="thick">
         <color indexed="9"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1118,7 +1549,20 @@
       <top style="thick">
         <color indexed="9"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1170,21 +1614,6 @@
       <top style="medium">
         <color indexed="9"/>
       </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1195,6 +1624,247 @@
       <right style="medium">
         <color indexed="9"/>
       </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="25"/>
+      </left>
+      <right style="medium">
+        <color indexed="25"/>
+      </right>
+      <top style="medium">
+        <color indexed="25"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="25"/>
+      </left>
+      <right style="medium">
+        <color indexed="25"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="25"/>
+      </left>
+      <right style="medium">
+        <color indexed="25"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top style="medium">
+        <color indexed="53"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="53"/>
+      </left>
+      <right style="medium">
+        <color indexed="53"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="53"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="9"/>
       </top>
@@ -1209,6 +1879,172 @@
         <color indexed="22"/>
       </right>
       <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="thick">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thick">
         <color indexed="9"/>
       </top>
       <bottom/>
@@ -1222,7 +2058,9 @@
       <top style="medium">
         <color indexed="9"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1235,7 +2073,46 @@
       <top style="medium">
         <color indexed="62"/>
       </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="62"/>
+      </left>
+      <right style="medium">
+        <color indexed="62"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1256,6 +2133,41 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="62"/>
+      </left>
+      <right style="medium">
+        <color indexed="62"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="62"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1273,15 +2185,15 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="62"/>
+        <color indexed="9"/>
       </left>
       <right style="medium">
-        <color indexed="62"/>
+        <color indexed="22"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="62"/>
-      </bottom>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1294,107 +2206,8 @@
       <top style="medium">
         <color indexed="22"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="53"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,171 +2218,9 @@
       <right style="medium">
         <color indexed="22"/>
       </right>
-      <top style="thick">
-        <color indexed="22"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="53"/>
-      </left>
-      <right style="medium">
-        <color indexed="53"/>
-      </right>
-      <top style="medium">
-        <color indexed="53"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="53"/>
-      </left>
-      <right style="medium">
-        <color indexed="53"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
       <bottom style="thin">
         <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="22"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="53"/>
-      </left>
-      <right style="medium">
-        <color indexed="53"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="53"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,9 +2231,7 @@
       <right style="medium">
         <color indexed="22"/>
       </right>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1664,20 +2313,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1697,41 +2343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1756,6 +2367,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -1770,605 +2399,712 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="88" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="89" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="96" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="91" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="94" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="73" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="74" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="90" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="95" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
- 